--- a/Coursebook - ACC Ruppin - 2025 A.xlsx
+++ b/Coursebook - ACC Ruppin - 2025 A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/Ruppin - ACC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9444F4FE-E233-1040-9C03-7F5A7A12419C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEB8065-71AF-DC4C-85AA-7471DD4B23FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="540" windowWidth="50880" windowHeight="29620" activeTab="12" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
+    <workbookView xWindow="120" yWindow="540" windowWidth="50880" windowHeight="29620" activeTab="13" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
   </bookViews>
   <sheets>
     <sheet name="הרצאה 1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,10 @@
     <sheet name="8 - הון עצמי" sheetId="11" r:id="rId11"/>
     <sheet name="9 - מגוון תרגילים" sheetId="12" r:id="rId12"/>
     <sheet name="10 - חזרה למבחן חלק א" sheetId="13" r:id="rId13"/>
+    <sheet name="11 - חזרה למבחן חלק ב" sheetId="14" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -528,8 +529,486 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Shay Tsaban</author>
+  </authors>
+  <commentList>
+    <comment ref="Q91" authorId="0" shapeId="0" xr:uid="{F70797B1-5194-D948-9002-EE122E0A61A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dr. Tsaban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">-(53+22*50%+23+10*40%+30)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ה</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>תבססנו על: שכר טרחת רואה חשבון, הוצאות שכר, הוצאות תפעול, חלק יחסי מהוצאות חשמל וארנונה</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F96" authorId="0" shapeId="0" xr:uid="{39242F0B-C418-7540-9060-512E60F75EEF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dr. Tsaban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">עלינו לסכום את כל העלויות של פריטי הרכוש הקבוע (אם יש כמה): כגון מכונות, ציוד, כלי רכב, מבנים, ריהוט ועוד - ולנכות מכך את סכום הפחת הנצבר (פחנ״צ) של פריטים אלו.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>כאן זה מאד פשוט, יש פריט רכוש קבוע אחד - מכונות נקניק, ניקח אותו וננכה את הפחת הנצבר בגינו</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F97" authorId="0" shapeId="0" xr:uid="{48E6721B-2BAF-D84F-B382-CB4FD4EAE0A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Dr. Tsaban:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>סעיף</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>זה</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>כולל</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>את</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>הנכסים</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>כגון</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>פטנטים</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>קניין</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>רוחני</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>זכויות</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>יוצרים</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>מותגים</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>שמות</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>מסחריים</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>וכו׳</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>כאן - פטנטים בלבד</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K103" authorId="0" shapeId="0" xr:uid="{3FE973F3-7D84-5648-A741-B196F0B61AF7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Dr. Tsaban:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>סך ההון העצמי בניכוי הון המניות והפרמיה לתום השנה חייב להיות שווה לסך העודפים לתום השנה</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K104" authorId="0" shapeId="0" xr:uid="{28258489-1D5B-AE4E-96C3-A8DA40A72623}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Dr. Tsaban:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>אם מנכים מסך ההתחייבויות וההון את סך ההתחייבויות, מקבלים את סך ההון</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="1705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="1714">
   <si>
     <t xml:space="preserve">מבוא לחשבונאות פיננסית </t>
   </si>
@@ -7820,6 +8299,33 @@
   </si>
   <si>
     <t>שאלה 1 - 40% - דוחות כספיים (שימו לב להערה למטה מדובר בחלק מהדרישות בלבד)</t>
+  </si>
+  <si>
+    <t>שיעור 11 - חזרה לבחינה - 19/1/2025</t>
+  </si>
+  <si>
+    <t>המשך שאלה 1 - 40% - סעיפים תיאורטיים לניתוח</t>
+  </si>
+  <si>
+    <t>הצגנו במפגש קודם!</t>
+  </si>
+  <si>
+    <t>המשך הנדרשים - למפגש הנוכחי:</t>
+  </si>
+  <si>
+    <t>ג. אם מלאי הסגירה גבוה יותר מהערך שדווח לעיל, מה תהיה ההשפעה על הרווח המדווח בשנה הנוכחית? וכיצד הדבר עשוי להשפיע על הרווח בשנה הבאה?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ד. כיצד תשפיע עלייה בשיעור ההלח״מ על הדוחות הכספיים? פרטו. </t>
+  </si>
+  <si>
+    <t>ה. הניחו כעת כי החברה החליטה לחלק דיבידנד בתום השנה וטרם חילקה אותו. מה תהיה ההשפעה על הנכסים, ההתחייבויות וההון העצמי?</t>
+  </si>
+  <si>
+    <t>ו. הניחו כעת כי נכון לתום השנה החברה ביצעה מכירת מלאי נוספת בתמורה שהיא נמוכה מערכו הנקוב. מה יקרה לסך הנכסים השוטפים?</t>
+  </si>
+  <si>
+    <t>ז. הניחו כעת כי סמוך לתום השנה החברה הנפיקה מניות הטבה בשיעור 5% כנגד הפרמיה. מה תהיה ההשפעה על הדיווחים הכספיים?</t>
   </si>
 </sst>
 </file>
@@ -8690,7 +9196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="378">
+  <cellXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9363,6 +9869,7 @@
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10120,13 +10627,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161270</xdr:rowOff>
+      <xdr:rowOff>161269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>725714</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>74388</xdr:rowOff>
+      <xdr:rowOff>211666</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10141,8 +10648,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13534994762" y="362857"/>
-          <a:ext cx="6511270" cy="13217880"/>
+          <a:off x="13587817086" y="364469"/>
+          <a:ext cx="6533847" cy="13461597"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10200,17 +10707,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="he-IL" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="he-IL" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -10351,7 +10847,7 @@
               <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
               <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
             </a:rPr>
-            <a:t>מבנה הבחינה המשוער:</a:t>
+            <a:t>מבנה הבחינה:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -11029,7 +11525,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
             </a:rPr>
-            <a:t>• ניתוח שינויים ואומדנים:</a:t>
+            <a:t>• ניתוח שינויים ואומדנים: - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>ירד מהמיקוד</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -11044,7 +11552,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
             </a:rPr>
-            <a:t>• שינויים במספר שנות הפחתה או בדפוס ההפחתה.</a:t>
+            <a:t>• שינויים במספר שנות הפחתה או בדפוס ההפחתה. - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>ירד מהמיקוד</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -11413,7 +11933,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
             </a:rPr>
-            <a:t>• הלוואות (בכפוף להחלטה סופית).</a:t>
+            <a:t>• הלוואות (בכפוף להחלטה סופית).- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>ירד מהמיקוד</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -11565,18 +12097,6 @@
             </a:rPr>
             <a:t>בהצלחה,</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="1"/>
-          <a:endParaRPr lang="he-IL" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr rtl="1"/>
@@ -12720,6 +13240,4171 @@
             <a:t>4</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>725714</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0528B24-78A7-EF40-8C9F-F12B1AD85CD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13587817086" y="364471"/>
+          <a:ext cx="6533847" cy="1244196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>היום נמשיך לפתור תרגיל מסה!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="he-IL" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>במפגש הקודם הראינו כיצד ניתן להשען על ערכים של נכסים, התחייבויות והון - כדי</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t> לחלץ ערכים ולערוך את הבסיס לדיווח.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>היום נתמקד בשאלות הבנה המתבססות על שינוים אפשריים בדיווחים השונים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלות אלו תהיינה תיאורטיות, ותתבססנה על שינויים והשפעותיהם על רכיבי הדיווח והסקת מסקנות רלוונטיות. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>140195</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>16493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144318</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>156689</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB3BE8C8-450A-8D48-9890-DCFC11F592D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13519069182" y="19549093"/>
+          <a:ext cx="4123" cy="749796"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>140196</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>144318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8248</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>152565</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19EB7105-0A7A-1D43-8A57-64D004F5D35C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13516728752" y="20286518"/>
+          <a:ext cx="2344552" cy="8247"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4123</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>12370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8246</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>152566</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E057A7DE-7044-E74C-B878-76DDCFAF2739}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13516728754" y="19544970"/>
+          <a:ext cx="4123" cy="749796"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>521607</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>771071</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E56C57-D856-3040-9826-C007FCEEB1AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13518442429" y="19735800"/>
+          <a:ext cx="249464" cy="230415"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>539749</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>199573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>789213</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>22680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB5B55E-0429-CE44-8881-974EBCD047B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13516773287" y="18919373"/>
+          <a:ext cx="249464" cy="229507"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>721179</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>104321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>421821</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286520C7-8578-FD4E-AA33-723604324099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13515489679" y="16385721"/>
+          <a:ext cx="526142" cy="753836"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>734786</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>426357</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>86178</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5025ED-21B9-A241-BEA0-1FD7F6F0B075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13515485143" y="17175843"/>
+          <a:ext cx="517071" cy="410935"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>544284</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>154215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>793748</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>181430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7EA3100-73FD-4B41-B5CF-49B88D39980E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13516768752" y="18670815"/>
+          <a:ext cx="249464" cy="230415"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>536754</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>110227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>402565</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>124604</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51CE5DF6-F110-0248-97A8-6397EE8ECA14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13507253935" y="15782027"/>
+          <a:ext cx="2342311" cy="14377"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>827689</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>113862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>556172</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>113862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6CB3F5-5A9D-BB48-86E9-8FD937F06B84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13515355328" y="18833662"/>
+          <a:ext cx="553983" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>556173</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>578069</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E4AD634-550E-B747-A16E-841E6180DF5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13515333431" y="18838041"/>
+          <a:ext cx="21896" cy="747111"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>573689</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>30656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>319690</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E6DFB0-0D37-B240-BC56-F8A1998A4EA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13511464310" y="19563256"/>
+          <a:ext cx="3873501" cy="21896"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>324069</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>328448</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB9A035-16CC-144D-813F-5E12E366604C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13511455552" y="19373193"/>
+          <a:ext cx="4379" cy="198821"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>424793</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>175172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>424793</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>188311</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33439FA4-4CBC-DC4B-AAC7-F592B51A9DA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13511359207" y="18082172"/>
+          <a:ext cx="0" cy="216339"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>420414</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>179552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>302172</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>188311</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B8FD2C-B5D3-204D-9EC9-3A7DD2CA248D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13509830828" y="18289752"/>
+          <a:ext cx="1532758" cy="8759"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297792</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>302172</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2329CE-DACE-2741-94FD-B9444A4EB9CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13509830828" y="18294131"/>
+          <a:ext cx="4380" cy="517635"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>232103</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>87586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>302172</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>87586</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE70715-E724-CE46-B034-08BBF3AA84D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13509830828" y="18807386"/>
+          <a:ext cx="895569" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>570560</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>189249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>820024</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>15016</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rounded Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27795257-4FD9-544B-9A87-C7A807178408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13511789476" y="18502649"/>
+          <a:ext cx="249464" cy="232167"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>725713</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>50397</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6C8195-A335-9248-BA59-085D6A98A0CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13577030553" y="9787467"/>
+          <a:ext cx="6533847" cy="13461597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>מבנה משוער של הבחינה בקורס יסודות החשבונאות - הנחיות לסטודנטים ולסטודנטיות</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>להלן פירוט המבנה המשוער של הבחינה, הכולל את נושאי המבחן המרכזיים והדגשים שיידרשו מכם. שימו לב כי מבנה זה עשוי להשתנות בהתאם לקצב ההתקדמות במהלך הסמסטר והדגשים שיועלו בשיעורים הקרובים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>מנהלות:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>משך הבחינה - 3 שעות (180 דקות). </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>חומר עזר - מחשבון</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t> מדעי ו/או פיננסי בלבד. דף נוסחאות *מטעמנו* שיכלול הגדרות עיקריות ייכלל כנספח. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>המבחן מבוצע אולד סקול, על נייר, וכולל שאלות פתוחות בלבד. </a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>מבנה הבחינה:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה 1 (40% מהציון הכולל)</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>נושא: עריכת דוחות כספיים</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה זו תבחן את יכולתכם לבצע תהליך מלא של עריכת דוחות כספיים, על בסיס נתונים גולמיים:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• תינתן רשימת יתרות מעורבבת הכוללת יתרות תוצאתיות (כגון הכנסות והוצאות) ויתרות מאזניות (כגון נכסים, התחייבויות והון עצמי).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• תדרשו לערוך דוחות כספיים מלאים:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• דוח רווח והפסד.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• מאזן (הדוח על המצב הכספי).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• יתכן שהנתונים יכללו יתרות לחילוץ (כגון “יתרת עודפים לתחילת השנה בסימן שאלה”) שתידרשו להסיק מאיזון ערכי</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t> הרשימה</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>חלק א של השאלה הגדולה בקיצור</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t> &gt;&gt; רשימת יתרות נתונה &gt;&gt; חילוץ בסיסי (נכסים = התחייבויות + הון) &gt;&gt; עריכת דוחות במלואם. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• לאחר השלמת הדוחות, יינתנו מספר שאלות שידרשו מכם להעריך את ההשפעה של עסקאות נוספות על הדיווחים הכספיים. למשל, ניתוח ההשלכות המהותיות של אירועים חשבונאיים נוספים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>הואיל</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t> ואירועים נוספים אלו יכולים להיות בכל עולם התוכן והסוגיות של הקורס - בהיבט יעילות למידה - נשלים את כל הסוגיות והנושאים ורק אז נחזור לשאלה מסכמת תרגולית. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="he-IL" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>חלק ב של השאלה הגדולה בקיצור &gt;&gt; אחרי שהדוחות ערוכים חלק א &gt;&gt; ישאלו על ההשפעה של עסקאות ספציפיות (משפטים) בכל הנושאים שנלמדו / יילמדו. </a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה 2 (15% מהציון הכולל)</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>נושא: ניתוח יתרת לקוחות והלח״מ (לחובות מסופקים)</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוח יתרת הלקוחות תוך חישוב שיעור החובות המסופקים (הלח״מ) באחוזים מתוך הלקוחות בלבד.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• דוגמאות לפירוט:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• יתרת לקוחות כוללת 100,000 ש״ח, מתוכם:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• קבוצה א׳: שיעור הלח״מ של 4%.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• קבוצה ב׳: שיעור הלח״מ של 6%.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• עליכם לבצע חישובים מדויקים כדי להעריך את שיעור הלח״מ הכולל.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ההשפעה של חובות אבודים:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• חישוב השפעות של חובות אבודים על יתרת הלקוחות.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• אין צורך לטפל במקרים יוצאי דופן, כמו חוב אבוד שהפך לטוב.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה 3 (15% מהציון הכולל)</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>נושא: רכוש קבוע והפחתה</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• תידרשו לבצע חישובים הקשורים לרכוש קבוע ולהבין את השפעותיהם.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• דגשים לחישוב פחת:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• שימוש בשיטת הפחת בקו ישר בלבד.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• התייחסות לערך שייר, מועד תחילת ההפחתה (מועד הזמינות לשימוש), ועלויות הכלולות בפריט (כגון הובלה, התקנה והעמדה לשימוש).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוח שינויים ואומדנים: - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>ירד מהמיקוד</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• שינויים במספר שנות הפחתה או בדפוס ההפחתה. - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>ירד מהמיקוד</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוח מכירות של רכוש קבוע ורווח/הפסד הון הנובע מהמכירה.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• רק מודל העלות – אין צורך לדון בהערכה מחדש.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• תידרשו לחשב:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• הוצאות פחת שנתיות.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• פחת נצבר.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ערך ספרים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה 4 (15% מהציון הכולל)</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>נושא: הון עצמי</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוח ובניית הדוח על השינויים בהון העצמי.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• דגשים:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• הון מניות, פרמיה ועלויות הנפקה (בקיזוז הפרמיה).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• מניות הטבה (כנגד הפרמיה).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• פיצול מניות ושינויים מבניים פשוטים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוח רווחים מחולקים ודיבידנדים.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה 5 (15% מהציון הכולל)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>נושא: שונות ותיאוריה</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• תכנים מגוונים המבוססים על עקרונות תיאורטיים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• נושאים אפשריים נוספים כמותית:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• הלוואות (בכפוף להחלטה סופית).- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>ירד מהמיקוד</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוחים פיננסיים בסיסיים המשלבים ידע תיאורטי עם דוגמאות פרקטיות (בכפוף להחלטה סופית).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>הערות חשובות:</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>1. מבנה זה משקף את ההנחיות המשוערות למבחן. ייתכנו שינויים בהתאם לקצב ההתקדמות ולדגשים שיינתנו במהלך הקורס.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>2. במהלך הבחינה יש להקפיד על סדר, דיוק והצגה ברורה של החישובים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>3. מספר קטן של בחינות לדוגמא יפורסמו בהמשך רק לאחר שמבנה הבחינה הסופי יאומת ויאושר כדי למנוע אי בהירויות.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>4. במקרה של שינויים, יינתן עדכון מוקדם לסטודנטים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>בהצלחה,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>ד״ר צבאן האגדי</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שתמיד אומר: אם לא מפרגנים לי בסקר, אפרגן לעצמי</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>725713</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECD09A2-E3E2-AE4D-A3D1-FAE35C6AE9CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13579519753" y="203200"/>
+          <a:ext cx="6533847" cy="13826067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>מבנה משוער של הבחינה בקורס יסודות החשבונאות - עדכון קטן, כמה הפחתות חומר קלות</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>להלן פירוט המבנה המשוער של הבחינה, הכולל את נושאי המבחן המרכזיים והדגשים שיידרשו מכם. שימו לב כי מבנה זה עשוי להשתנות בהתאם לקצב ההתקדמות במהלך הסמסטר והדגשים שיועלו בשיעורים הקרובים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>מנהלות:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>משך הבחינה - 3 שעות (180 דקות). </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>חומר עזר - מחשבון</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t> מדעי ו/או פיננסי בלבד. דף נוסחאות *מטעמנו* שיכלול הגדרות עיקריות ייכלל כנספח. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>המבחן מבוצע אולד סקול, על נייר, וכולל שאלות פתוחות בלבד. </a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>מבנה הבחינה:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה 1 (40% מהציון הכולל)</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>נושא: עריכת דוחות כספיים</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה זו תבחן את יכולתכם לבצע תהליך מלא של עריכת דוחות כספיים, על בסיס נתונים גולמיים:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• תינתן רשימת יתרות מעורבבת הכוללת יתרות תוצאתיות (כגון הכנסות והוצאות) ויתרות מאזניות (כגון נכסים, התחייבויות והון עצמי).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• תדרשו לערוך דוחות כספיים מלאים:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• דוח רווח והפסד.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• מאזן (הדוח על המצב הכספי).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• יתכן שהנתונים יכללו יתרות לחילוץ (כגון “יתרת עודפים לתחילת השנה בסימן שאלה”) שתידרשו להסיק מאיזון ערכי</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t> הרשימה</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>חלק א של השאלה הגדולה בקיצור</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t> &gt;&gt; רשימת יתרות נתונה &gt;&gt; חילוץ בסיסי (נכסים = התחייבויות + הון) &gt;&gt; עריכת דוחות במלואם. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• לאחר השלמת הדוחות, יינתנו מספר שאלות שידרשו מכם להעריך את ההשפעה של עסקאות נוספות על הדיווחים הכספיים. למשל, ניתוח ההשלכות המהותיות של אירועים חשבונאיים נוספים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>הואיל</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t> ואירועים נוספים אלו יכולים להיות בכל עולם התוכן והסוגיות של הקורס - בהיבט יעילות למידה - נשלים את כל הסוגיות והנושאים ורק אז נחזור לשאלה מסכמת תרגולית. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="he-IL" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>חלק ב של השאלה הגדולה בקיצור &gt;&gt; אחרי שהדוחות ערוכים חלק א &gt;&gt; ישאלו על ההשפעה של עסקאות ספציפיות (משפטים) בכל הנושאים שנלמדו / יילמדו. </a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה 2 (15% מהציון הכולל)</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>נושא: ניתוח יתרת לקוחות והלח״מ (לחובות מסופקים)</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוח יתרת הלקוחות תוך חישוב שיעור החובות המסופקים (הלח״מ) באחוזים מתוך הלקוחות בלבד.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• דוגמאות לפירוט:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• יתרת לקוחות כוללת 100,000 ש״ח, מתוכם:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• קבוצה א׳: שיעור הלח״מ של 4%.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• קבוצה ב׳: שיעור הלח״מ של 6%.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• עליכם לבצע חישובים מדויקים כדי להעריך את שיעור הלח״מ הכולל.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ההשפעה של חובות אבודים:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• חישוב השפעות של חובות אבודים על יתרת הלקוחות.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• אין צורך לטפל במקרים יוצאי דופן, כמו חוב אבוד שהפך לטוב.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה 3 (15% מהציון הכולל)</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>נושא: רכוש קבוע והפחתה</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• תידרשו לבצע חישובים הקשורים לרכוש קבוע ולהבין את השפעותיהם.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• דגשים לחישוב פחת:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• שימוש בשיטת הפחת בקו ישר בלבד.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• התייחסות לערך שייר, מועד תחילת ההפחתה (מועד הזמינות לשימוש), ועלויות הכלולות בפריט (כגון הובלה, התקנה והעמדה לשימוש).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוח שינויים ואומדנים: - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>ירד מהמיקוד</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• שינויים במספר שנות הפחתה או בדפוס ההפחתה. - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>ירד מהמיקוד</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוח מכירות של רכוש קבוע ורווח/הפסד הון הנובע מהמכירה.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• רק מודל העלות – אין צורך לדון בהערכה מחדש.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• תידרשו לחשב:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• הוצאות פחת שנתיות.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• פחת נצבר.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ערך ספרים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה 4 (15% מהציון הכולל)</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>נושא: הון עצמי</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוח ובניית הדוח על השינויים בהון העצמי.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• דגשים:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• הון מניות, פרמיה ועלויות הנפקה (בקיזוז הפרמיה).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• מניות הטבה (כנגד הפרמיה).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• פיצול מניות ושינויים מבניים פשוטים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוח רווחים מחולקים ודיבידנדים.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה 5 (15% מהציון הכולל)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>נושא: שונות ותיאוריה</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• תכנים מגוונים המבוססים על עקרונות תיאורטיים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• נושאים אפשריים נוספים כמותית:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• הלוואות (בכפוף להחלטה סופית).- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>ירד מהמיקוד</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוחים פיננסיים בסיסיים המשלבים ידע תיאורטי עם דוגמאות פרקטיות (בכפוף להחלטה סופית).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>הערות חשובות:</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>1. מבנה זה משקף את ההנחיות המשוערות למבחן. ייתכנו שינויים בהתאם לקצב ההתקדמות ולדגשים שיינתנו במהלך הקורס.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>2. במהלך הבחינה יש להקפיד על סדר, דיוק והצגה ברורה של החישובים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>3. מספר קטן של בחינות לדוגמא יפורסמו בהמשך רק לאחר שמבנה הבחינה הסופי יאומת ויאושר כדי למנוע אי בהירויות.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>4. במקרה של שינויים, יינתן עדכון מוקדם לסטודנטים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>בהצלחה,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>ד״ר צבאן האגדי</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שתמיד אומר: אם לא מפרגנים לי בסקר, אפרגן לעצמי</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -33003,8 +37688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A00005-B9E2-3F47-9BF1-27822E0144AD}">
   <dimension ref="A1:AB114"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A51" zoomScale="150" zoomScaleNormal="290" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33755,6 +38440,816 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{45E99EAA-A40E-FA48-A5B7-C09AAA4665E4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432AEE3-0DF8-4B44-A8A4-B3DE0EE0E0AD}">
+  <dimension ref="A1:AB129"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="94" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="334" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="235" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B79" s="332"/>
+      <c r="C79" s="332"/>
+      <c r="D79" s="332"/>
+      <c r="E79" s="332"/>
+      <c r="F79" s="332"/>
+      <c r="G79" s="332"/>
+      <c r="H79" s="333"/>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F84" s="370" t="s">
+        <v>1666</v>
+      </c>
+      <c r="G84" s="370"/>
+      <c r="H84" s="370"/>
+      <c r="I84" s="370"/>
+      <c r="J84" s="370"/>
+      <c r="K84" s="370"/>
+      <c r="O84" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D85" s="349">
+        <v>5</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D86" s="1">
+        <v>5</v>
+      </c>
+      <c r="F86" s="236" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" s="236"/>
+      <c r="H86" s="236"/>
+      <c r="I86" s="335" t="s">
+        <v>275</v>
+      </c>
+      <c r="J86" s="335"/>
+      <c r="K86" s="345"/>
+      <c r="Q86" s="17" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D87" s="212">
+        <v>30</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="Q87" s="4">
+        <f>700-60</f>
+        <v>640</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D88" s="1">
+        <v>30</v>
+      </c>
+      <c r="F88" s="336" t="s">
+        <v>276</v>
+      </c>
+      <c r="G88" s="336"/>
+      <c r="H88" s="336"/>
+      <c r="I88" s="341" t="s">
+        <v>525</v>
+      </c>
+      <c r="J88" s="341"/>
+      <c r="K88" s="341"/>
+      <c r="O88" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q88" s="19">
+        <v>-55</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="W88" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AB88" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" s="212">
+        <v>40</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H89" s="1">
+        <v>40</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K89" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q89" s="329">
+        <f>640-55</f>
+        <v>585</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="W89" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="AB89" s="350">
+        <f>250+0-20-5</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D90" s="342">
+        <v>50</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H90" s="1">
+        <f>300-30</f>
+        <v>270</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K90" s="1">
+        <v>100</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q90" s="19">
+        <f>-(92+14+22*50%+10*60%)</f>
+        <v>-123</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="W90" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="AB90" s="30">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D91" s="1">
+        <v>53</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H91" s="1">
+        <v>500</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K91" s="339">
+        <f>50+100</f>
+        <v>150</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q91" s="19">
+        <f>-(53+22*50%+23+10*40%+30)</f>
+        <v>-121</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="W91" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB91" s="61">
+        <f>30+225-200</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D92" s="1">
+        <v>60</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H92" s="1">
+        <v>200</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q92" s="4">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D93" s="346">
+        <v>70</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H93" s="339">
+        <f>40+270+500+200</f>
+        <v>1010</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>0</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D94" s="1">
+        <v>80</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q94" s="329">
+        <f>585-123-121+5-0</f>
+        <v>346</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D95" s="94">
+        <v>92</v>
+      </c>
+      <c r="F95" s="337" t="s">
+        <v>277</v>
+      </c>
+      <c r="G95" s="337"/>
+      <c r="H95" s="337"/>
+      <c r="I95" s="344" t="s">
+        <v>526</v>
+      </c>
+      <c r="J95" s="343"/>
+      <c r="K95" s="343"/>
+      <c r="M95" s="1">
+        <f>150+180</f>
+        <v>330</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q95" s="19">
+        <f>-(14)</f>
+        <v>-14</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" s="342">
+        <v>100</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H96" s="1">
+        <f>800-100</f>
+        <v>700</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K96" s="1">
+        <v>180</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q96" s="4">
+        <f>15</f>
+        <v>15</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D97" s="338">
+        <v>100</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="H97" s="1">
+        <v>230</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K97" s="339">
+        <f>180</f>
+        <v>180</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="Q97" s="329">
+        <f>346-14+15</f>
+        <v>347</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D98" s="94">
+        <v>14</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H98" s="1">
+        <f>950</f>
+        <v>950</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q98" s="19">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99" s="1">
+        <v>14</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H99" s="339">
+        <f>700+230+950</f>
+        <v>1880</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q99" s="71">
+        <f>347-80</f>
+        <v>267</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D100" s="94">
+        <v>22</v>
+      </c>
+      <c r="I100" s="347" t="s">
+        <v>36</v>
+      </c>
+      <c r="J100" s="346"/>
+      <c r="K100" s="346"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D101" s="1">
+        <v>15</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="K101" s="1">
+        <v>215</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D102" s="349">
+        <v>20</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K102" s="1">
+        <v>70</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="P102" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q102" s="351">
+        <f>2275-267-0</f>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D103" s="1">
+        <v>23</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K103" s="348">
+        <f>2560-215-70</f>
+        <v>2275</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="P103" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q103" s="19">
+        <f>Q99</f>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D104" s="343">
+        <v>180</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="K104" s="339">
+        <f>2890-330</f>
+        <v>2560</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="P104" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>0</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D105" s="346">
+        <v>215</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="P105" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q105" s="71">
+        <f>K103</f>
+        <v>2275</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D106" s="212">
+        <v>200</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G106" s="3"/>
+      <c r="H106" s="340">
+        <f>1010+1880</f>
+        <v>2890</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="K106" s="340">
+        <f>2890</f>
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D107" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D108" s="338">
+        <v>230</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D109" s="349">
+        <v>250</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D110" s="212">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D111" s="212">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D112" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D113" s="338">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D114" s="94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D115" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D116" s="338">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D117" s="88" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K120" s="378">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K121" s="378">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="3"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="K125" s="378">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="K126" s="378">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K127" s="378">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="K128" s="378">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="K129" s="378">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F84:K84"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{C8CC6668-8224-2A4F-8291-175CDBB5DA25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -38632,6 +44127,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:H121"/>
+    <mergeCell ref="B86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="B101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:H101"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="B114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:H114"/>
     <mergeCell ref="B71:C72"/>
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="E71:H71"/>
@@ -38648,21 +44158,6 @@
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:H121"/>
-    <mergeCell ref="B86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="B101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:H101"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="B114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:H114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Coursebook - ACC Ruppin - 2025 A.xlsx
+++ b/Coursebook - ACC Ruppin - 2025 A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/Ruppin - ACC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEB8065-71AF-DC4C-85AA-7471DD4B23FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F39B33-2EDF-0A40-BC4E-C447C8D8A896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="540" windowWidth="50880" windowHeight="29620" activeTab="13" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
   </bookViews>
@@ -584,7 +584,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ה</t>
+          <t>התבססנו</t>
         </r>
         <r>
           <rPr>
@@ -593,7 +593,250 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>תבססנו על: שכר טרחת רואה חשבון, הוצאות שכר, הוצאות תפעול, חלק יחסי מהוצאות חשמל וארנונה</t>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>על</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>שכר</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>טרחת</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>רואה</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>חשבון</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>הוצאות</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>שכר</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>הוצאות</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>תפעול</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>חלק</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>יחסי</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>מהוצאות</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>חשמל</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>וארנונה</t>
         </r>
       </text>
     </comment>
@@ -1008,7 +1251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="1714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="1829">
   <si>
     <t xml:space="preserve">מבוא לחשבונאות פיננסית </t>
   </si>
@@ -8322,10 +8565,508 @@
     <t>ה. הניחו כעת כי החברה החליטה לחלק דיבידנד בתום השנה וטרם חילקה אותו. מה תהיה ההשפעה על הנכסים, ההתחייבויות וההון העצמי?</t>
   </si>
   <si>
-    <t>ו. הניחו כעת כי נכון לתום השנה החברה ביצעה מכירת מלאי נוספת בתמורה שהיא נמוכה מערכו הנקוב. מה יקרה לסך הנכסים השוטפים?</t>
-  </si>
-  <si>
-    <t>ז. הניחו כעת כי סמוך לתום השנה החברה הנפיקה מניות הטבה בשיעור 5% כנגד הפרמיה. מה תהיה ההשפעה על הדיווחים הכספיים?</t>
+    <t>פתרון הנדרשים הנוספים - רקע - מה אתם רוצים בכלל?</t>
+  </si>
+  <si>
+    <t>הנדרשים הנוספים, אחרי החלק הטכני של עריכת הדוחות הכספיים בשאלת המסה - דורשים מאיתנו להבין איזה / אילו רכיבים בדוחות הכספיים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יושפעו (עקרונית - ברמת ״עלה״ / ״ירד״ / ״לא השתנה״) ללא חישובים, כתוצאה מאירועים נוספים או שינויים בבסיס לדיווח. </t>
+  </si>
+  <si>
+    <t>הרציונל הוא שאם אני באמת מבין דוחות כספיים - הידע שלי לא יתמצה רק ב״אוקיי, קיבלתי נתונים והכנסתי לתבנית״ אלא אם החברה עוברת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אירוע מסוים, עסקה נוספת, מתגלה טעות כלשהי - איך זה ישפיע על המידע הכספי. </t>
+  </si>
+  <si>
+    <t>אנחנו לא נצפה לניתוח של ״רואי ורואות חשבון״ אבל לפעמים דווקא בתרגילים ובפתרונות שנציג, נרחיב מעבר כדי לספק לכם תשתית מושגית.</t>
+  </si>
+  <si>
+    <t>לכן, אנו נציג, לפחות בתור התחלה, שתי וריאציות פתרון לכל סעיף: וריאציה מורחבת, שכוללת חזרה על מושגים, עקרונות, משמעות, ולצידה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">וריאציה מתומצתת שמתאימה לכתיבת סטודנטית במבחן. </t>
+  </si>
+  <si>
+    <t>הסבר מרצה:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מלאי סגירה = המלאי לתום שנת הדיווח. </t>
+  </si>
+  <si>
+    <t>השפעה על הדוחות הכספיים:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>התחייבויות ללא שינוי</t>
+  </si>
+  <si>
+    <t>אם שינו את המלאי:</t>
+  </si>
+  <si>
+    <t>שינוי בנכסים השוטפים</t>
+  </si>
+  <si>
+    <t>שינוי בסך הנכסים</t>
+  </si>
+  <si>
+    <t>ההון עצמי משתנה באותו כיוון</t>
+  </si>
+  <si>
+    <t>העודפים משתנים באותו כיוון</t>
+  </si>
+  <si>
+    <t>הוצאה - עלות המכר:</t>
+  </si>
+  <si>
+    <t>עלייה במלאי סגירה:</t>
+  </si>
+  <si>
+    <t>עלות המכר קטנה</t>
+  </si>
+  <si>
+    <t>ירידה במלאי סגירה:</t>
+  </si>
+  <si>
+    <t>עלות המכר גדלה</t>
+  </si>
+  <si>
+    <t>גדל</t>
+  </si>
+  <si>
+    <t>קטן</t>
+  </si>
+  <si>
+    <t>רווח גולמי (ובכלל):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">במאזן (הדוח על המצב הכספי) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>של השנה הנוכחית</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">בדוח רווח והפסד - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>של השנה</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+  </si>
+  <si>
+    <t>בדוח רווח והפסד-שנה הבאה</t>
+  </si>
+  <si>
+    <t>בשנה הבאה - מלאי הסגירה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">של השנה הופך להיות </t>
+  </si>
+  <si>
+    <t>מלאי פתיחה.</t>
+  </si>
+  <si>
+    <t>עלייה במלאי פתיחה:</t>
+  </si>
+  <si>
+    <t>ירידה במלאי פתיחה:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הסבר מרצה: שיעור הלח״מ = % ההפרשה לחובות מסופקים = האחוז מתוך סך חובות הלקוחות שהחברה מעריכה שלא ייגבה. למשל אם הלקוחות ברוטו הם בסך 500, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ושיעור ההלח״מ הנתון 5%, המשמעות היא שהחברה צופה שלא תצליח לגבות 25 מהסכום הזה = 5% * 500. </t>
+  </si>
+  <si>
+    <t>הלקוחות = נכס שוטף. ובמאזן, הם מוצגים כך:</t>
+  </si>
+  <si>
+    <t>לקוחות (ברוטו)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* לקוחות = </t>
+  </si>
+  <si>
+    <t>לקוחות נטו</t>
+  </si>
+  <si>
+    <t>הסכום שמוצג כנכס ״לקוחות״ במאזן</t>
+  </si>
+  <si>
+    <t>סך החוב כלפי החברה</t>
+  </si>
+  <si>
+    <t>שינוי בנכסים השוטפים בכיוון הפוך</t>
+  </si>
+  <si>
+    <t>״בכיוון הפוך״ = אם שיעור ההלח״מ גדל, יתרת הלקוחות כנכס במאזן קטנה</t>
+  </si>
+  <si>
+    <t>אם שיעור ההלח״מ קטן, יתרת הלקוחות כנכס במאזן גדלה</t>
+  </si>
+  <si>
+    <t>שינוי בסך הנכסים בכיוון הפוך</t>
+  </si>
+  <si>
+    <t>ההון עצמי משתנה בהתאם</t>
+  </si>
+  <si>
+    <t>העודפים משתנים בהתאם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">״בהתאם״ = </t>
+  </si>
+  <si>
+    <t>אם הלקוחות (נטו) קטנו, גם ההון העצמי יקטן - וספציפית: העודפים</t>
+  </si>
+  <si>
+    <t>אם הלקוחות (נטו) גדלו, גם ההון העצמי יגדל - וספציפית: העודפים</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">בדוח רווח והפסד של </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>השנה הנוכחית</t>
+    </r>
+  </si>
+  <si>
+    <t>הוצאות ההלח״מ בדוח רווח והפסד (חוב בעייתי שנוצר השנה) = חלק מהוצ׳ הנהלה וכלליות</t>
+  </si>
+  <si>
+    <t>אופן החילוץ:</t>
+  </si>
+  <si>
+    <t>יתרת הלח״מ (מצטברת) לתחילת השנה</t>
+  </si>
+  <si>
+    <t>בניכוי חוב אבוד</t>
+  </si>
+  <si>
+    <t>יתרת הלח״מ (מצטברת) לסוף השנה</t>
+  </si>
+  <si>
+    <t>הוצאות הלח״מ PN (הערך המשלים)</t>
+  </si>
+  <si>
+    <t>השפעה ישירה</t>
+  </si>
+  <si>
+    <t>השפעה נוספת</t>
+  </si>
+  <si>
+    <t>הוצאות ההלח״מ משתנות בכיוון השינוי</t>
+  </si>
+  <si>
+    <t>הוצאות ההנהלה והכלליות ישתנו בכיוון השינוי</t>
+  </si>
+  <si>
+    <t>הרווח התפעולי (לא הגולמי), הרווח לפני מס והרווח הנקי - ישתנו בכיוון הפוך</t>
+  </si>
+  <si>
+    <t xml:space="preserve">החלטה על חלוקת דיבידנד = הכרזת דיבידנד. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">החברה מתחייבת לחלק דיבידנד (חלק מהרווח לבעלי המניות). </t>
+  </si>
+  <si>
+    <t>ירידה בהון העצמי (עודפים)</t>
+  </si>
+  <si>
+    <t>ירידה בנכסים (מזומן)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">אם היא מתחייבת לחלק אותו - והיא </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>חילקה</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t xml:space="preserve"> עד סוף השנה:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">אם היא מתחייבת </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>לחלק אותו וטרם חילקה</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t xml:space="preserve"> אותו עד סוף השנה:</t>
+    </r>
+  </si>
+  <si>
+    <t>עלייה בהתחייבויות - דיבידנד לשלם (התחייבויות שוטפות)</t>
+  </si>
+  <si>
+    <t>אין שינוי בנכסים</t>
+  </si>
+  <si>
+    <t>אין שינוי בהתחייבויות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חלוקת דיבידנד על ידי החברה למשקיעיה / הכרזת דיבידנד - לא מהווה הוצאה בדוח רווח והפסד. </t>
+  </si>
+  <si>
+    <t>ומה לגבי השפעה על דוח רווח והפסד? אין.</t>
+  </si>
+  <si>
+    <t>ו. הניחו כעת כי נכון לתום השנה החברה ביצעה מכירת מלאי נוספת בתמורה שהיא נמוכה מערכו בספרים. מה יקרה לסך הנכסים השוטפים?</t>
+  </si>
+  <si>
+    <t>מכירת מלאי &gt;&gt;&gt; בחברה יש פחות מלאי &gt;&gt;&gt; נכס המלאי (נכס שוטף) יורד &gt;&gt;&gt; עלות המכר גדלה.</t>
+  </si>
+  <si>
+    <t>עלייה</t>
+  </si>
+  <si>
+    <t>לא יודעים מה חזק יותר???</t>
+  </si>
+  <si>
+    <t>ברווח והפסד (באופן כללי):</t>
+  </si>
+  <si>
+    <t>ערך ספרים</t>
+  </si>
+  <si>
+    <t>אם התמורה גבוהה מערך הספרים של המלאי שנמכר</t>
+  </si>
+  <si>
+    <t>ההשפעה על ההכנסות חזקה יותר מההשפעה על ההוצאות</t>
+  </si>
+  <si>
+    <t>והרווח (הגולמי, התפעולי, לפני מס ונקי) יגדל</t>
+  </si>
+  <si>
+    <t>אם התמורה נמוכה מערך הספרים של המלאי שנמכר</t>
+  </si>
+  <si>
+    <t>ההשפעה על ההכנסות חלשה יותר מההשפעה על ההוצאות</t>
+  </si>
+  <si>
+    <t>והרווח (הגולמי, התפעולי, לפני מס ונקי) יקטן</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <t>במאזן (הדוח על המצב הכספי):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מצד שני &gt;&gt;&gt; נוצרת הכנסה (מכירות) &gt;&gt;&gt; וגם - יש להכיר בנכס התמורה שהתקבלה - מזומן (אם גביתי) או לקוחות (אם טרם גביתי). </t>
+  </si>
+  <si>
+    <t>בנכסים השוטפים:</t>
+  </si>
+  <si>
+    <t>ירידה בנכס מלאי</t>
+  </si>
+  <si>
+    <t>עלייה בנכס התמורה שהתקבלה (מזומן / לקוחות)</t>
+  </si>
+  <si>
+    <t>סך השינוי בנכסים השוטפים - לפי ״החזק מביניהם״</t>
+  </si>
+  <si>
+    <t>סך השינוי בנכסים - בהתאם</t>
+  </si>
+  <si>
+    <t>בהתחייבויות:</t>
+  </si>
+  <si>
+    <t>אין שינוי</t>
+  </si>
+  <si>
+    <t>בהון העצמי</t>
+  </si>
+  <si>
+    <t>אם התמורה &gt; ערך הספרים של המלאי = העודפים (וההון) יעלו: נוצר רווח</t>
+  </si>
+  <si>
+    <t>אם התמורה &lt; ערך הספרים של המלאי = העודפים (וההון) ירדו: נוצר הפסד</t>
+  </si>
+  <si>
+    <t>ז. הניחו כעת כי סמוך לתום השנה החברה הנפיקה מניות הטבה כנגד הפרמיה. מה תהיה ההשפעה על הדיווחים הכספיים?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הגדרה: הנפקת מניות הטבה היא הנפקת מניות נוספות לבעלי מניות קיימים ללא תמורה נוספת מצידם. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הואיל ומונפקות מניות = הון המניות חייב לגדול. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לצד זאת - אין השפעה על סך ההון העצמי (משום שלא מתקבלת תמורה). </t>
+  </si>
+  <si>
+    <t>לכן, מקטינים במקביל סעיף הוני אחר - פרמיה.</t>
+  </si>
+  <si>
+    <t>הון המניות</t>
+  </si>
+  <si>
+    <t>שאלת מסה נוספת - עריכת דוחות כספיים וחילוצים</t>
+  </si>
+  <si>
+    <t>בחברת נקניקי נתניה בע״מ מוכרים נקניקים מפלסטיק. להלן נתונים לגבי ערכים כספיים בחברה. כל הערכים</t>
+  </si>
+  <si>
+    <t>נכונים ל-31/12/2024 אלא אם נאמר מפורשות אחרת:</t>
+  </si>
+  <si>
+    <t>הובלת קניות למחסן</t>
+  </si>
+  <si>
+    <t>יתרת רווח (עודפים) ליום 1.1.2024</t>
+  </si>
+  <si>
+    <t>הוצאות משפטיות</t>
+  </si>
+  <si>
+    <t>ירידת ערך נדל״ן להשקעה</t>
+  </si>
+  <si>
+    <t>הדוח על המצב הכספי (מאזן) חברת ״נקניקי נתניה״ בע״מ ליום 31/12/2024</t>
+  </si>
+  <si>
+    <t>חברת ״נקניקי נתניה״ - דוח רווח והפסד לשנת 2024</t>
   </si>
 </sst>
 </file>
@@ -8336,7 +9077,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8596,8 +9337,20 @@
       <color theme="1"/>
       <name val="David"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="David"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="David"/>
+    </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8769,6 +9522,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7AFC1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9196,7 +9955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="379">
+  <cellXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9870,6 +10629,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14378,16 +15155,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19294</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>725713</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>50397</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>741567</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>60334</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14402,8 +15179,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13577030553" y="9787467"/>
-          <a:ext cx="6533847" cy="13461597"/>
+          <a:off x="13474326549" y="23928270"/>
+          <a:ext cx="6487889" cy="34952390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17405,6 +18182,1109 @@
             <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
             <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>25919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>738674</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Down Arrow 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4FE070B-EF80-17D5-9880-5B6BDD1AF989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13508100136" y="30151701"/>
+          <a:ext cx="103674" cy="177109"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533487</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>170630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>710596</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>71277</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Down Arrow 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC558A1-B9F6-0C0D-88D7-A44310407DF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="13508990000" y="31071803"/>
+          <a:ext cx="103674" cy="177109"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>568043</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>144711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>745152</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Down Arrow 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61AAA2F5-BF3C-2E7E-77C7-9205861D4670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="13508955444" y="30436803"/>
+          <a:ext cx="103674" cy="177109"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381921</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>16716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485595</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>193261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Down Arrow 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7A4C30-C42A-C0A7-5A37-C66AA6D349EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13485290093" y="33501462"/>
+          <a:ext cx="103674" cy="176545"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>614058</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>144711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>791167</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Down Arrow 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B430FC-E7B6-9749-2B29-DB0C61A4EADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="13485845180" y="33794922"/>
+          <a:ext cx="103111" cy="177109"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581848</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>195327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>758957</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>95974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Down Arrow 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15902E24-4F3B-2B9A-B4E3-8E273FD5C42E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="13485877390" y="34452929"/>
+          <a:ext cx="103111" cy="177109"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>186765</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>160085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>170757</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rounded Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD20A949-0290-94B3-1510-85BED4E89B1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13544758109" y="30442648"/>
+          <a:ext cx="6275294" cy="1835630"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" rtl="1" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>התייחסות לשאלה הספציפית ברמת סטודנט/ית:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" rtl="1" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>״</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>אם מלאי הסגירה גבוה יותר מהערך שדווח לעיל, מה תהיה ההשפעה על הרווח המדווח בשנה הנוכחית? וכיצד הדבר עשוי להשפיע על הרווח בשנה הבאה?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>״</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" rtl="1" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" rtl="1" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>מענה סטודנט/ית מלא: עלייה במלאי הסגירה השנה מקטינה את עלות המכר ומגדילה את הרווח (השנה). בשנה הבאה, העלייה במלאי הסגירה = עלייה במלאי הפתיחה שמגדילה את עלות המכר ומקטינה את הרווח (בשנה הבאה). </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485588</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>160986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rounded Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C151517-D45D-3244-AE22-317C816D6615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13548021983" y="38918345"/>
+          <a:ext cx="6276609" cy="1972078"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" rtl="1" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>התייחסות לשאלה הספציפית ברמת סטודנט/ית:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" rtl="1" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>״כיצד תשפיע עלייה בשיעור ההלח״מ על הדוחות הכספיים״</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" rtl="1" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" rtl="1" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>מענה סטודנט/ית מלא: במאזן - העלייה בהלח״מ תקטין את נכס הלקוחות (נטו) ובהתאם את סך הנכסים השוטפים וסך הנכסים. ההתחייבויות לא ישתנו, וההון העצמי יקטן (ספציפית, בעקבות הירידה בעודפים). הירידה בעודפים נובעת מירידה ברווח של השנה (תפעולי, לפני מס, נקי) כתוצאה מעלייה בהוצאות ההלח״מ שנזקפות לסעיף הוצאות הנהלה וכלליות.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>372635</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>3802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>150978</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>35507</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rounded Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{909F4F22-C466-A22B-115C-184B6C895E50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13512835340" y="43617275"/>
+          <a:ext cx="5554181" cy="636286"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" rtl="1" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>תשובת סטודנטית: הכרזה על דיבידנד שטרם חולק בפועל, משפיעה רק על ההתחייבויות (גדלות - דיב׳ לשלם) ועל ההון העצמי - קיטון בעודפים. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>8356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380165</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>45954</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Down Arrow 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8D97E5-A13F-D333-7556-EF97401E3B95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13546200164" y="46960757"/>
+          <a:ext cx="142040" cy="1265822"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>338389</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>187995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>125330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Down Arrow 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB7769E-97ED-5D79-8EE5-A0845C0BA733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13544449736" y="46935692"/>
+          <a:ext cx="137862" cy="346743"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>605514</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>31705</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rounded Rectangle 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97465BA4-30C7-B843-BA64-5783FAA38430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13545974815" y="49204145"/>
+          <a:ext cx="5568540" cy="645817"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" rtl="1" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>הירידה בנכס המלאי היא חזקה יותר מערך התמורה שהתקבלה כנתון, ולכן בסך הכל, סך הנכסים השוטפים יקטן. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>96086</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>150395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>701600</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>182100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rounded Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C6B13E-2140-174F-8BCE-3D75E35EA339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13545878729" y="52015691"/>
+          <a:ext cx="5568540" cy="645817"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" rtl="1" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>השינוי היחידי כתוצאה מהאירוע: עלייה בהון המניות וירידה בסכום זהה בפרמיה (אין שינוי בסך ההון העצמי וביתר מרכיבי הדיווח). </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -37688,8 +39568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A00005-B9E2-3F47-9BF1-27822E0144AD}">
   <dimension ref="A1:AB114"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="290" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A107" zoomScale="389" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38449,10 +40329,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432AEE3-0DF8-4B44-A8A4-B3DE0EE0E0AD}">
-  <dimension ref="A1:AB129"/>
+  <dimension ref="A1:AB301"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="290" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A262" zoomScale="188" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="I272" sqref="I272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39129,7 +41009,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>1648</v>
       </c>
@@ -39137,7 +41017,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>1652</v>
       </c>
@@ -39145,7 +41025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>1654</v>
       </c>
@@ -39153,7 +41033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>112</v>
       </c>
@@ -39161,7 +41041,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>1650</v>
       </c>
@@ -39169,82 +41049,1402 @@
         <v>513</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>1661</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="K120" s="378">
+      <c r="L120" s="378">
         <v>0.05</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>1662</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="K121" s="378">
+      <c r="L121" s="378">
         <v>0.2</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>1708</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>1709</v>
       </c>
-      <c r="K125" s="378">
+      <c r="L125" s="378">
         <v>0.03</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>1710</v>
       </c>
-      <c r="K126" s="378">
+      <c r="L126" s="378">
         <v>0.03</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="K127" s="378">
+      <c r="L127" s="378">
         <v>0.03</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="L128" s="378">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="L129" s="378">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="379" t="s">
         <v>1712</v>
       </c>
-      <c r="K128" s="378">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
+      <c r="B131" s="57"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="57"/>
+      <c r="G131" s="57"/>
+      <c r="H131" s="57"/>
+      <c r="I131" s="57"/>
+      <c r="J131" s="57"/>
+      <c r="K131" s="57"/>
+      <c r="L131" s="141"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
         <v>1713</v>
       </c>
-      <c r="K129" s="378">
-        <v>0.03</v>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" s="380" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D144" s="42" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="K144" s="42" t="s">
+        <v>1741</v>
+      </c>
+      <c r="L144" s="6" t="s">
+        <v>1739</v>
+      </c>
+      <c r="M144" s="6"/>
+    </row>
+    <row r="145" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E145" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="146" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E146" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="M146" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="H147" s="381" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I147" s="381"/>
+      <c r="J147" s="381"/>
+      <c r="L147" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="M147" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="L148" s="94" t="s">
+        <v>413</v>
+      </c>
+      <c r="M148" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="J150" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="151" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="J151" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="153" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="J153" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="154" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="J154" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="157" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="K157" s="42" t="s">
+        <v>1742</v>
+      </c>
+      <c r="L157" s="380" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="158" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="L158" s="1" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="159" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="L159" s="1" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="160" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="L160" s="1" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L162" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L163" s="94" t="s">
+        <v>408</v>
+      </c>
+      <c r="M163" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L164" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="M164" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L165" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="M165" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J167" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J168" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J170" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J171" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A173" s="380" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E178" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E179" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G179" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A181" s="42" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="H181" s="1" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B182" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B183" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E184" s="381" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F184" s="381"/>
+      <c r="H184" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I185" s="1" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A186" s="42" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B187" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B188" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B189" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="L189" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I190" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="L190" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H191" s="382" t="s">
+        <v>1774</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="L191" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H192" s="382" t="s">
+        <v>1773</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="L192" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="380" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A209" s="6" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="F209" s="6" t="s">
+        <v>1783</v>
+      </c>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+      <c r="I209" s="6"/>
+      <c r="J209" s="6"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A214" s="6" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="385" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B221" s="245"/>
+      <c r="C221" s="245"/>
+      <c r="D221" s="245"/>
+      <c r="E221" s="245"/>
+      <c r="F221" s="245"/>
+      <c r="G221" s="245"/>
+      <c r="H221" s="245"/>
+      <c r="I221" s="245"/>
+      <c r="J221" s="245"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A222" s="383"/>
+      <c r="B222" s="383"/>
+      <c r="C222" s="383"/>
+      <c r="D222" s="383"/>
+      <c r="E222" s="383"/>
+      <c r="F222" s="383"/>
+      <c r="G222" s="383"/>
+      <c r="H222" s="383"/>
+      <c r="I222" s="383"/>
+      <c r="J222" s="383"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A223" s="383" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B223" s="383"/>
+      <c r="C223" s="383"/>
+      <c r="D223" s="383"/>
+      <c r="E223" s="383"/>
+      <c r="F223" s="383"/>
+      <c r="G223" s="383"/>
+      <c r="H223" s="383"/>
+      <c r="I223" s="383"/>
+      <c r="J223" s="383"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A224" s="383"/>
+      <c r="B224" s="383" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C224" s="383"/>
+      <c r="D224" s="383"/>
+      <c r="E224" s="383"/>
+      <c r="F224" s="383"/>
+      <c r="G224" s="383"/>
+      <c r="H224" s="383"/>
+      <c r="I224" s="383"/>
+      <c r="J224" s="383"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A225" s="383"/>
+      <c r="B225" s="383"/>
+      <c r="C225" s="383"/>
+      <c r="D225" s="383"/>
+      <c r="E225" s="383"/>
+      <c r="F225" s="383"/>
+      <c r="G225" s="383"/>
+      <c r="H225" s="383"/>
+      <c r="I225" s="383"/>
+      <c r="J225" s="383"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A226" s="383"/>
+      <c r="B226" s="383"/>
+      <c r="C226" s="383"/>
+      <c r="D226" s="383"/>
+      <c r="E226" s="383"/>
+      <c r="F226" s="383"/>
+      <c r="G226" s="383"/>
+      <c r="H226" s="383"/>
+      <c r="I226" s="383"/>
+      <c r="J226" s="383"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A227" s="17" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="383"/>
+      <c r="F227" s="383"/>
+      <c r="G227" s="384" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H227" s="6" t="s">
+        <v>1793</v>
+      </c>
+      <c r="I227" s="6"/>
+      <c r="J227" s="6"/>
+      <c r="K227" s="6"/>
+      <c r="L227" s="6"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A228" s="383"/>
+      <c r="B228" s="387" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C228" s="383"/>
+      <c r="D228" s="383"/>
+      <c r="E228" s="383"/>
+      <c r="F228" s="383"/>
+      <c r="G228" s="383"/>
+      <c r="H228" s="383" t="s">
+        <v>212</v>
+      </c>
+      <c r="I228" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J228" s="384" t="s">
+        <v>25</v>
+      </c>
+      <c r="K228" s="383" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A229" s="383"/>
+      <c r="B229" s="383" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C229" s="383"/>
+      <c r="D229" s="383"/>
+      <c r="E229" s="383"/>
+      <c r="F229" s="383"/>
+      <c r="G229" s="383"/>
+      <c r="H229" s="383" t="s">
+        <v>432</v>
+      </c>
+      <c r="I229" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="J229" s="384" t="s">
+        <v>27</v>
+      </c>
+      <c r="K229" s="383" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A230" s="383"/>
+      <c r="B230" s="383" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C230" s="383"/>
+      <c r="D230" s="383"/>
+      <c r="E230" s="383"/>
+      <c r="F230" s="383"/>
+      <c r="G230" s="383"/>
+      <c r="H230" s="383" t="s">
+        <v>248</v>
+      </c>
+      <c r="J230" s="384" t="s">
+        <v>28</v>
+      </c>
+      <c r="K230" s="383" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A231" s="383"/>
+      <c r="B231" s="383" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C231" s="383"/>
+      <c r="D231" s="383"/>
+      <c r="E231" s="383"/>
+      <c r="F231" s="383"/>
+      <c r="G231" s="383"/>
+      <c r="H231" s="383"/>
+      <c r="J231" s="384"/>
+      <c r="K231" s="383"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A232" s="383"/>
+      <c r="B232" s="383" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C232" s="383"/>
+      <c r="D232" s="383"/>
+      <c r="E232" s="383"/>
+      <c r="F232" s="383"/>
+      <c r="G232" s="383"/>
+      <c r="H232" s="383"/>
+      <c r="J232" s="384"/>
+      <c r="K232" s="383"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A233" s="383"/>
+      <c r="B233" s="383"/>
+      <c r="C233" s="383"/>
+      <c r="D233" s="383"/>
+      <c r="E233" s="383"/>
+      <c r="F233" s="383"/>
+      <c r="G233" s="383"/>
+      <c r="H233" s="383"/>
+      <c r="J233" s="384" t="s">
+        <v>1795</v>
+      </c>
+      <c r="K233" s="383"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A234" s="383"/>
+      <c r="B234" s="387" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C234" s="383"/>
+      <c r="D234" s="383"/>
+      <c r="E234" s="383"/>
+      <c r="F234" s="383"/>
+      <c r="G234" s="383"/>
+      <c r="H234" s="383"/>
+      <c r="J234" s="384" t="s">
+        <v>1796</v>
+      </c>
+      <c r="K234" s="383"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A235" s="383"/>
+      <c r="B235" s="383" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C235" s="383"/>
+      <c r="D235" s="383"/>
+      <c r="E235" s="383"/>
+      <c r="F235" s="383"/>
+      <c r="G235" s="383"/>
+      <c r="H235" s="383"/>
+      <c r="J235" s="384" t="s">
+        <v>1797</v>
+      </c>
+      <c r="K235" s="383"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A236" s="383"/>
+      <c r="B236" s="383"/>
+      <c r="C236" s="383"/>
+      <c r="D236" s="383"/>
+      <c r="E236" s="383"/>
+      <c r="F236" s="383"/>
+      <c r="G236" s="383"/>
+      <c r="H236" s="383"/>
+      <c r="J236" s="384"/>
+      <c r="K236" s="383"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A237" s="383"/>
+      <c r="B237" s="387" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C237" s="383"/>
+      <c r="D237" s="383"/>
+      <c r="E237" s="383"/>
+      <c r="F237" s="383"/>
+      <c r="G237" s="383"/>
+      <c r="H237" s="383" t="s">
+        <v>1798</v>
+      </c>
+      <c r="J237" s="384"/>
+      <c r="K237" s="383"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A238" s="383"/>
+      <c r="B238" s="383" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C238" s="383"/>
+      <c r="D238" s="383"/>
+      <c r="E238" s="383"/>
+      <c r="F238" s="383"/>
+      <c r="G238" s="383"/>
+      <c r="H238" s="383" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J238" s="384"/>
+      <c r="K238" s="383"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A239" s="383"/>
+      <c r="B239" s="383" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C239" s="383"/>
+      <c r="D239" s="383"/>
+      <c r="E239" s="383"/>
+      <c r="F239" s="383"/>
+      <c r="G239" s="383"/>
+      <c r="H239" s="386" t="s">
+        <v>1800</v>
+      </c>
+      <c r="J239" s="384"/>
+      <c r="K239" s="383"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A240" s="383"/>
+      <c r="B240" s="383"/>
+      <c r="C240" s="383"/>
+      <c r="D240" s="383"/>
+      <c r="E240" s="383"/>
+      <c r="F240" s="383"/>
+      <c r="G240" s="383"/>
+      <c r="H240" s="383"/>
+      <c r="I240" s="383"/>
+      <c r="J240" s="383"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A241" s="383"/>
+      <c r="B241" s="383"/>
+      <c r="C241" s="383"/>
+      <c r="D241" s="383"/>
+      <c r="E241" s="383"/>
+      <c r="F241" s="383"/>
+      <c r="G241" s="383"/>
+      <c r="H241" s="383"/>
+      <c r="I241" s="383"/>
+      <c r="J241" s="383"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A242" s="383"/>
+      <c r="B242" s="383"/>
+      <c r="C242" s="383"/>
+      <c r="D242" s="383"/>
+      <c r="E242" s="383"/>
+      <c r="F242" s="383"/>
+      <c r="G242" s="383"/>
+      <c r="H242" s="383"/>
+      <c r="I242" s="383"/>
+      <c r="J242" s="383"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A243" s="383"/>
+      <c r="B243" s="383"/>
+      <c r="C243" s="383"/>
+      <c r="D243" s="383"/>
+      <c r="E243" s="383"/>
+      <c r="F243" s="383"/>
+      <c r="G243" s="383"/>
+      <c r="H243" s="383"/>
+      <c r="I243" s="383"/>
+      <c r="J243" s="383"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A244" s="383"/>
+      <c r="B244" s="383"/>
+      <c r="C244" s="383"/>
+      <c r="D244" s="383"/>
+      <c r="E244" s="383"/>
+      <c r="F244" s="383"/>
+      <c r="G244" s="383"/>
+      <c r="H244" s="383"/>
+      <c r="I244" s="383"/>
+      <c r="J244" s="383"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A245" s="380" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B252" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="C252" s="17"/>
+      <c r="D252" s="17" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E252" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F252" s="17" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B253" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F253" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="259" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="235" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B259" s="332"/>
+      <c r="C259" s="332"/>
+      <c r="D259" s="332"/>
+      <c r="E259" s="332"/>
+      <c r="F259" s="332"/>
+      <c r="G259" s="332"/>
+      <c r="H259" s="333"/>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A264" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B264" s="6"/>
+      <c r="C264" s="6"/>
+      <c r="D264" s="390" t="s">
+        <v>446</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>1827</v>
+      </c>
+      <c r="N264" s="3" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D265" s="389" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D266" s="388">
+        <v>800</v>
+      </c>
+      <c r="G266" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H266" s="6"/>
+      <c r="I266" s="6"/>
+      <c r="J266" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="K266" s="6"/>
+      <c r="N266" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D267" s="388">
+        <v>750</v>
+      </c>
+      <c r="N267" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D268" s="388">
+        <v>1000</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="N268" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P268" s="339"/>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D269" s="388">
+        <v>400</v>
+      </c>
+      <c r="N269" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D270" s="388">
+        <v>300</v>
+      </c>
+      <c r="N270" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D271" s="388">
+        <v>288</v>
+      </c>
+      <c r="N271" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D272" s="388">
+        <v>138</v>
+      </c>
+      <c r="N272" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D273" s="388">
+        <v>222</v>
+      </c>
+      <c r="N273" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="P273" s="339"/>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D274" s="388">
+        <v>131</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="N274" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D275" s="388">
+        <v>212</v>
+      </c>
+      <c r="N275" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D276" s="388">
+        <v>212</v>
+      </c>
+      <c r="N276" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P276" s="339"/>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D277" s="388">
+        <v>111</v>
+      </c>
+      <c r="N277" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D278" s="388">
+        <v>19</v>
+      </c>
+      <c r="N278" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P278" s="339"/>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D279" s="388">
+        <v>117</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D280" s="388">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D281" s="388">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D282" s="388">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D283" s="388">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D284" s="388">
+        <v>60</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D285" s="388">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D286" s="388">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D287" s="388">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D288" s="388">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D289" s="388">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D290" s="388">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D291" s="388">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D292" s="388">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D293" s="388">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D294" s="388">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D295" s="388">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D296" s="388">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D297" s="388">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D298" s="388">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D299" s="388">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D300" s="388">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D301" s="388">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A265:D301">
+    <sortCondition descending="1" ref="D265:D301"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="F84:K84"/>
   </mergeCells>

--- a/Coursebook - ACC Ruppin - 2025 A.xlsx
+++ b/Coursebook - ACC Ruppin - 2025 A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/Ruppin - ACC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F39B33-2EDF-0A40-BC4E-C447C8D8A896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780E0ACD-B7BB-5346-8668-0A7B1D08D88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="540" windowWidth="50880" windowHeight="29620" activeTab="13" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="50880" windowHeight="29580" activeTab="14" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
   </bookViews>
   <sheets>
     <sheet name="הרצאה 1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,10 @@
     <sheet name="9 - מגוון תרגילים" sheetId="12" r:id="rId12"/>
     <sheet name="10 - חזרה למבחן חלק א" sheetId="13" r:id="rId13"/>
     <sheet name="11 - חזרה למבחן חלק ב" sheetId="14" r:id="rId14"/>
+    <sheet name="12 - חזרה למבחן חלק ב" sheetId="15" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1251,7 +1252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="1829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="1967">
   <si>
     <t xml:space="preserve">מבוא לחשבונאות פיננסית </t>
   </si>
@@ -9068,16 +9069,475 @@
   <si>
     <t>חברת ״נקניקי נתניה״ - דוח רווח והפסד לשנת 2024</t>
   </si>
+  <si>
+    <t>שיעור 12 - חזרה למבחן חלק ב</t>
+  </si>
+  <si>
+    <t>שאלה ברמת מבחן בנושא הון עצמי (15 נק׳)</t>
+  </si>
+  <si>
+    <t>חברת ״קיבוצי״ הציגה בתאריך 31.12.2020 את יתרות ההון העצמי הבאות:</t>
+  </si>
+  <si>
+    <t>טיפ מהדוקטור: שאלות בבחינה יכולות</t>
+  </si>
+  <si>
+    <t>לכלול מקרה שבו יש יתרת פתיחה (התחלתית)</t>
+  </si>
+  <si>
+    <t>של הון עצמי, או שאלות שבהן אין יתרת פתיחה.</t>
+  </si>
+  <si>
+    <t>כאן, יש יתרת פתיחה.</t>
+  </si>
+  <si>
+    <t>הון מניות בנות 2 ש״ח ערך נקוב</t>
+  </si>
+  <si>
+    <t>הון מניות בנות 3 ש״ח ערך נקוב</t>
+  </si>
+  <si>
+    <t>הון מניות בנות 1 ש״ח ערך נקוב</t>
+  </si>
+  <si>
+    <t>להלן נתונים בדבר עסקאות ואירועים שהתרחשו בחברה בשנת 2021:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">א. החברה הנפיקה מניות בנות 5 ש״ח ערך נקוב כל אחת. בסך הכל הונפקו 120,000 מניות, כאשר תמורת ההנפקה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הסתכמה בסכום של 8 ש״ח למניה. עלויות בעסקת ההנפקה - היו 11,000 ש״ח. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ב. החברה הנפיקה 50,000 מניות בנות 1 ש״ח ערך נקוב כל אחת, בתמורה ל-44,000 ש״ח. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ג. החברה הנפיקה מניות הטבה לבעלי המניות בשיעור 10%. </t>
+  </si>
+  <si>
+    <t>ד. החברה ביצעה פיצול מניות, כך שכל המחזיק/ה במניה בת 2 ש״ח ערך נקוב, קיבלה במקומה 2 מניות בנות 1 ש״ח</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ערך נקוב. </t>
+  </si>
+  <si>
+    <t>ה. החברה הציגה בשנת 2021 רווח נקי בסך 500 אלפי ש״ח. הרווח התפעולי בחברה לשנה זו היה 920 אלפי ש״ח.</t>
+  </si>
+  <si>
+    <t>ו. החברה נטלה הלוואות בסכום כולל של 900,000 ש״ח, מתוכן סכום של 100,000 ש״ח מהווה חלויות שוטפות.</t>
+  </si>
+  <si>
+    <t>ז. החברה הכריזה על דיבידנד בסכום המהווה 30% מהרווח הנקי. עד לתום השנה, חילקה החברה 20% מהסכום</t>
+  </si>
+  <si>
+    <t>עליו הכריזה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נדרש: הציגו את הדוח על השינויים בהון העצמי בחברה בשנת 2021. </t>
+  </si>
+  <si>
+    <t>בנות 2 ש״ח</t>
+  </si>
+  <si>
+    <t>ערך נקוב</t>
+  </si>
+  <si>
+    <t>בנות 3 ש״ח</t>
+  </si>
+  <si>
+    <t>בנות 1 ש״ח</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יתרת </t>
+  </si>
+  <si>
+    <t>רווח</t>
+  </si>
+  <si>
+    <t>יתרת פתיחה</t>
+  </si>
+  <si>
+    <t>הנפקת מניות 5</t>
+  </si>
+  <si>
+    <t>בנות 5 ש״ח</t>
+  </si>
+  <si>
+    <t>חדש!!!</t>
+  </si>
+  <si>
+    <t>הנפקת מניות 1</t>
+  </si>
+  <si>
+    <t>רווח נקי השנה</t>
+  </si>
+  <si>
+    <t>הכרזת דיב׳</t>
+  </si>
+  <si>
+    <t>יתרה לדיווח</t>
+  </si>
+  <si>
+    <t>חברת ״קיבוצי״ - הדוח על השינויים בהון העצמי לשנה שנסתיימה ב-31.12.2021</t>
+  </si>
+  <si>
+    <t>שאלות תאוריה של סוסים ברמת מבחן (15 נק׳)</t>
+  </si>
+  <si>
+    <t>בחברת ״שיר הארגנטינאית״ בע״מ מבוצעות פעולות עסקיות מגוונות.</t>
+  </si>
+  <si>
+    <t>להלן טענות שנאמרו על ידי נושאי משרה בחברה, כהערות לגבי טיוטת הדיווח הכספי:</t>
+  </si>
+  <si>
+    <t>טענה 1: ״הרווח הגולמי השנה נמוך מדי. זה מעורר דאגה. אני חושב שאם היינו קצת יותר אחראים במדיניות השכר</t>
+  </si>
+  <si>
+    <t>שלנו, ולא מפנקים את המנהלת שיר בבונוס שמנמן, הרווח הגולמי שעליו היינו מדווחים היה גבוה הרבה יותר״.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">טענה 2: ״אני רוצה להוסיף שלדעתי צריך להתייחס לעובדה שלאור המלחמה בישראל, רבים מהעסקים שהם </t>
+  </si>
+  <si>
+    <t>לקוחות שלנו נפגעו מאד, ויש לתת לך ביטוי במדידה (קביעת הסכום הכספי) של אחד מהנכסים השוטפים העיקריים</t>
+  </si>
+  <si>
+    <t>שלנו״</t>
+  </si>
+  <si>
+    <t>טענה 3: ״גם הרווח הנקי נמוך - וגם חילקנו דיבידנד. זה לא מוגזם? הרי הדיבידנד יהפוך את הרווח הנקי לשלילי״.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נדרש: חוו דעתכם בקצרה בדבר נכונות כל אחת מהטענות, ונמקו. </t>
+  </si>
+  <si>
+    <t>עלות המכירות (עלות המוצרים שנמכרו)</t>
+  </si>
+  <si>
+    <t>ההפרש - רווח גולמי</t>
+  </si>
+  <si>
+    <t>הכנסות / הוצאות אחרות</t>
+  </si>
+  <si>
+    <t>הטענה שגויה.</t>
+  </si>
+  <si>
+    <t>הואיל והוצאות השכר של ההנהלה הן חלק</t>
+  </si>
+  <si>
+    <t>מהוצאות ההנהלה והכלליות, הן משפיעות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">על הרווח התפעולי, הרווח לפני מס והרווח הנקי - </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">אך </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>לא</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t xml:space="preserve"> על הרווח הגולמי. </t>
+    </r>
+  </si>
+  <si>
+    <t>הפתרון המלא והמספק:</t>
+  </si>
+  <si>
+    <t>הסבר מורחב לשם נוחות הפותר:</t>
+  </si>
+  <si>
+    <t>פגיעה בלקוחות ובכושר הפירעון שלהם &gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>חובות של לקוחות רבים יותר הופכים לחובות בעיתיים (הלח״מ) &gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>ההגדרה של נכס הלקוחות בחברה (אחד מהנכסים השוטפים המרכזיים):</t>
+  </si>
+  <si>
+    <t>לקוחות, ברוטו (סך החוב)</t>
+  </si>
+  <si>
+    <t>בניכוי הלח״מ</t>
+  </si>
+  <si>
+    <t>נכס הלקוחות נטו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הטענה נכונה: עלייה ברמת הסיכון של הלקוחות משמעה עלייה בהסתברות לקשיי גבייה (שיעור הלח״מ - </t>
+  </si>
+  <si>
+    <t>האחוז מתוך החובות שהם בעייתיים, ולכן גם ההלח״מ עצמו - סך החובות הבעייתיים), העלייה בהלח״מ מלווה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בירידה בנכס הלקוחות (שממנו מנכים את ההלח״מ). </t>
+  </si>
+  <si>
+    <t>תרגום: נניח שבחברה יש רווח נקי בסך 8 א׳ ש״ח, והיא מחלקת דיבידנד בסך 10 א׳ ש״ח.</t>
+  </si>
+  <si>
+    <t>האם זה אומר שלאחר הפעולה הרווח הנקי יהפוך להפסד בסך 2 א׳ ש״ח?</t>
+  </si>
+  <si>
+    <t>התשובה שלילית.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הרווח הנקי מחושב אך ורק לפי ההכנסות השנה בניכוי ההוצאות השנה. </t>
+  </si>
+  <si>
+    <t>ההשפעה של הדיבידנד איננה על הרווח הנקי השנה, אלא על הרווח המצטבר (עודפים):</t>
+  </si>
+  <si>
+    <t>עודפים לתחילת השנה 1.1</t>
+  </si>
+  <si>
+    <t>הוסף רווח נקי השנה</t>
+  </si>
+  <si>
+    <t>בניכוי דיבידנד שהוכרז</t>
+  </si>
+  <si>
+    <t>עודפים לתום השנה 31.12</t>
+  </si>
+  <si>
+    <t>בשפה פשוטה: דיבידנד משפיע על הדוח על השינויים בהון העצמי (השפעה על סעיף העודפים) אך לא על דוח רווח והפסד.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שאלת רכוש קבוע </t>
+  </si>
+  <si>
+    <t>חברת ליקו נקניקים עוסקת במגוון פעילויות עסקיות. להלן נתונים לגבי מצבת הרכוש הקבוע בחברה:</t>
+  </si>
+  <si>
+    <t>פריט</t>
+  </si>
+  <si>
+    <t>גרט</t>
+  </si>
+  <si>
+    <t>מכונת נקניק</t>
+  </si>
+  <si>
+    <t>מחשב Macbook</t>
+  </si>
+  <si>
+    <t>iPhone 16 Pro</t>
+  </si>
+  <si>
+    <t>כל הנתונים בש״ח ונכונים ל-31.12.2020:</t>
+  </si>
+  <si>
+    <t>תקופת הפחתה - שנים</t>
+  </si>
+  <si>
+    <t>נתונים נוספים:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נתון 1: מכונת הנקניק נרכשה ב-1.1.2018. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ב-30.6.2021 נרכשה מכונה נוספת זהה. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">נתון 2: מחשב ה-Macbook נרכש ב-1.1.2020. </t>
+  </si>
+  <si>
+    <t>ב-30.9.2021 המחשב נמכר תמורת 22,000 ש״ח.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נתון 3: ה-iPhone נרכש ב-30.9.2020. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">א. חשבו את סך הוצאות הפחת בגין כל פריט בנפרד וסה״כ לשנת 2021. </t>
+  </si>
+  <si>
+    <t>ב. מהו רווח ההון/הפסד ההון ממכירת מחשב ה-Macbook.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ג. הציגו את ביאור הרכוש הקבוע (עלות, פחת נצבר ועלות מופחתת, וסיכום) ליום 31.12.2021. </t>
+  </si>
+  <si>
+    <t>הוצאות פחת מחשב Macbook</t>
+  </si>
+  <si>
+    <t>הוצאות פחת iPhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(400,000 - 20,000)/10 = </t>
+  </si>
+  <si>
+    <t>הוצאות פחת מכונת נקניק (ישנה - מה-1.1.18)</t>
+  </si>
+  <si>
+    <t>הוצאות פחת מכונת נקניק חדשה (מה-30.6.21)</t>
+  </si>
+  <si>
+    <t>א. חישוב הוצאות פחת (2021):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(400,000 - 20,000)/10 * (6/12) = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(30,000 - 10,000)/5 * (9/12) = </t>
+  </si>
+  <si>
+    <t>(10,000 - 2,000)/3 =</t>
+  </si>
+  <si>
+    <t>סך הוצאות הפחת</t>
+  </si>
+  <si>
+    <t>ב. רווח / הפסד הון ממכירת מחשב Macbook:</t>
+  </si>
+  <si>
+    <t>מוגדר בתור ההפרש בין תמורת המכירה (נתונה) לבין העלות המופחתת (עלות בניכוי פחת נצבר) ערב המכירה.</t>
+  </si>
+  <si>
+    <t>תמורת המכירה</t>
+  </si>
+  <si>
+    <t>עלות מופחתת (עלות בניכוי פחת נצבר)</t>
+  </si>
+  <si>
+    <t>(-) / +</t>
+  </si>
+  <si>
+    <t>נתון (שורה 131)</t>
+  </si>
+  <si>
+    <t>העלות ההיסטורית / המקורית של הפריט הנמכר:</t>
+  </si>
+  <si>
+    <t>בניכוי פחת נצבר מתחילת ההפחתה עד 30.9.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(30,000 - 10,000) / 5 * (1 + 9/12) = </t>
+  </si>
+  <si>
+    <t>Macbook</t>
+  </si>
+  <si>
+    <t>ממועד הזמינות של הפריט</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שכנתון: 1.1.2020, </t>
+  </si>
+  <si>
+    <t>עד מועד הדיווח / המכירה</t>
+  </si>
+  <si>
+    <t>שכנתון: 30.9.2021</t>
+  </si>
+  <si>
+    <t>עלות מופחתת של הפריט הנמכר (ערב המכירה)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>רווח הון (הפרש חיובי)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>הפסד הון (הפרש שלילי)</t>
+    </r>
+  </si>
+  <si>
+    <t>ג. ביאור הרכוש הקבוע - 31/12/2021 (לסעיף הרכוש הקבוע במאזן):</t>
+  </si>
+  <si>
+    <t>מכונות נקניק</t>
+  </si>
+  <si>
+    <t>iPhone 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ומה לגבי ה-Macbook? הואיל ונמכר במהלך השנה, נכון לתום השנה הוא כבר לא נכס שלי. </t>
+  </si>
+  <si>
+    <t>פחת נצבר iPhone 16:</t>
+  </si>
+  <si>
+    <t>היה ברשותי מ-30.9.2020 עד מועד הדיווח 31.12.2021 (כלומר שנה ו-3 חודשים).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10,000 - 2,000) / 3 * (1 + 3/12) = </t>
+  </si>
+  <si>
+    <t>(***)</t>
+  </si>
+  <si>
+    <t>עלות מכונות נקניק:</t>
+  </si>
+  <si>
+    <t>כנתון, ב-31.12.2020 היתה לי מכונה בעלות של:</t>
+  </si>
+  <si>
+    <t>שנרכשה ב-2018</t>
+  </si>
+  <si>
+    <t>ב-30.6.2021 נרכשה מכונה נוספת בעלות של:</t>
+  </si>
+  <si>
+    <t>סך העלויות של הפריטים שאצלי</t>
+  </si>
+  <si>
+    <t>פחת נצבר נקניק:</t>
+  </si>
+  <si>
+    <t>פחת נצבר מכונה ישנה - 1.1.2018 - 31.12.2021</t>
+  </si>
+  <si>
+    <t>פחת נצבר מכונת נקניק חדשה (מה-30.6.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(400,000 - 20,000)/10 * 4 = </t>
+  </si>
+  <si>
+    <t>סך הכל פחת נצבר מכונות נקניק</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9349,8 +9809,14 @@
       <color theme="1"/>
       <name val="David"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="David"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9528,6 +9994,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD7AFC1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC4D8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9955,7 +10433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="391">
+  <cellXfs count="398">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -10554,6 +11032,12 @@
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10628,25 +11112,34 @@
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="1" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10656,12 +11149,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC4D8"/>
+      <color rgb="FFD5FC79"/>
+      <color rgb="FFFF7E79"/>
       <color rgb="FFD883FF"/>
       <color rgb="FFF08122"/>
       <color rgb="FFFF8AD8"/>
       <color rgb="FFFF9392"/>
       <color rgb="FFD6D6D6"/>
-      <color rgb="FFD5FC79"/>
       <color rgb="FF00FDFF"/>
     </mruColors>
   </colors>
@@ -18008,7 +18503,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
             </a:rPr>
-            <a:t>• ניתוחים פיננסיים בסיסיים המשלבים ידע תיאורטי עם דוגמאות פרקטיות (בכפוף להחלטה סופית).</a:t>
+            <a:t>• ניתוחים פיננסיים בסיסיים המשלבים ידע תיאורטי עם דוגמאות פרקטיות (בכפוף להחלטה סופית). - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>ירד מהמיקוד</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -19285,6 +19792,743 @@
             <a:t>השינוי היחידי כתוצאה מהאירוע: עלייה בהון המניות וירידה בסכום זהה בפרמיה (אין שינוי בסך ההון העצמי וביתר מרכיבי הדיווח). </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D7489F-4529-07E8-9327-88FBA06CC26F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13520959750" y="298451"/>
+          <a:ext cx="4006849" cy="1825342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>456178</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>3650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>58391</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>7299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Left Brace 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E5A8A3-4658-1696-03EE-831034CE6BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13507749195" y="15170661"/>
+          <a:ext cx="426983" cy="616753"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>109483</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>87587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>525518</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>149627</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36CE44BD-E7C9-DF93-B31B-E5F35B6D68DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13505136206" y="15254598"/>
+          <a:ext cx="2561897" cy="470776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="900" kern="1200"/>
+            <a:t>משפיעים על הרווח התפעולי וכתוצאה מכך על הרווח לפני מס והרווח הנקי - אך לא על הרווח הגולמי</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>682443</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>7299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>284656</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Left Brace 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C414CC-EB6F-AFE6-E2CD-F05112696326}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13508347700" y="15991782"/>
+          <a:ext cx="426984" cy="434281"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>335748</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>164225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>423335</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>21898</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{020F2B48-03AE-C219-4272-347EE2A37A28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13505734711" y="15944340"/>
+          <a:ext cx="2561897" cy="470776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="900" kern="1200"/>
+            <a:t>משפיעים על הרווח לפני מס ועל הרווח הנקי - לא משפיעים על הרווח התפעולי והגולמי</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>43793</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>3650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>463477</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Left Brace 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D6A2E6-E230-C611-2310-7BE6FD684EA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13508168879" y="16601236"/>
+          <a:ext cx="419684" cy="244511"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>496321</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>3650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>397787</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63304B1A-08C1-84E2-EF64-ECC1A0D73FA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13506585029" y="16601236"/>
+          <a:ext cx="1551006" cy="266408"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="900" kern="1200"/>
+            <a:t>משפיע על הרווח הנקי בלבד</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594856</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>178822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>598506</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>14597</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14417B49-E97C-A8D9-FFEB-5695B043920B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13507209080" y="19057299"/>
+          <a:ext cx="3650" cy="244511"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>281005</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>197069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>284655</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>25547</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71AE2A4F-6965-1883-D9D2-EF3707136B50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13507522931" y="19279914"/>
+          <a:ext cx="3650" cy="237213"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16990</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>114682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>386522</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>114682</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6039880-EE6A-0AD9-3E7D-969D0D1BFC6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13493380468" y="31015184"/>
+          <a:ext cx="369532" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395017</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>110435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395017</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>186890</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFAC0DA-997B-DB8A-423A-283F06F19414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13493371973" y="31010937"/>
+          <a:ext cx="0" cy="1299732"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>458729</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>131672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4248</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>114682</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Left Brace 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B14969-C408-B401-AB64-6EB56E6AC7C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="13489598077" y="32159882"/>
+          <a:ext cx="186890" cy="1193545"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>629429</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>140166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>386518</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>111403</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Left Brace 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2B9D0D-280E-C843-2156-A969D7293F2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="13496665355" y="31969389"/>
+          <a:ext cx="171763" cy="581475"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -35501,7 +36745,7 @@
       <c r="F28" s="98"/>
       <c r="G28" s="98"/>
       <c r="H28" s="14"/>
-      <c r="J28" s="375" t="s">
+      <c r="J28" s="381" t="s">
         <v>1186</v>
       </c>
     </row>
@@ -35520,7 +36764,7 @@
       <c r="F29" s="98"/>
       <c r="G29" s="98"/>
       <c r="H29" s="14"/>
-      <c r="J29" s="374"/>
+      <c r="J29" s="380"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="244" t="s">
@@ -36558,10 +37802,10 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="376" t="s">
+      <c r="A140" s="382" t="s">
         <v>1210</v>
       </c>
-      <c r="B140" s="374"/>
+      <c r="B140" s="380"/>
       <c r="C140" s="259">
         <v>43101</v>
       </c>
@@ -37231,13 +38475,13 @@
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F226" s="377">
+      <c r="F226" s="383">
         <f>(880000-250000)/10</f>
         <v>63000</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F227" s="377"/>
+      <c r="F227" s="383"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F229" s="1" t="s">
@@ -39285,17 +40529,17 @@
       <c r="E97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F97" s="374" t="s">
+      <c r="F97" s="380" t="s">
         <v>36</v>
       </c>
-      <c r="G97" s="374"/>
+      <c r="G97" s="380"/>
       <c r="I97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J97" s="374" t="s">
+      <c r="J97" s="380" t="s">
         <v>36</v>
       </c>
-      <c r="K97" s="374"/>
+      <c r="K97" s="380"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
@@ -39624,14 +40868,14 @@
       <c r="D74" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F74" s="370" t="s">
+      <c r="F74" s="376" t="s">
         <v>1666</v>
       </c>
-      <c r="G74" s="370"/>
-      <c r="H74" s="370"/>
-      <c r="I74" s="370"/>
-      <c r="J74" s="370"/>
-      <c r="K74" s="370"/>
+      <c r="G74" s="376"/>
+      <c r="H74" s="376"/>
+      <c r="I74" s="376"/>
+      <c r="J74" s="376"/>
+      <c r="K74" s="376"/>
       <c r="O74" s="3" t="s">
         <v>1665</v>
       </c>
@@ -40331,7 +41575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432AEE3-0DF8-4B44-A8A4-B3DE0EE0E0AD}">
   <dimension ref="A1:AB301"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A262" zoomScale="188" zoomScaleNormal="290" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="I1" zoomScale="400" zoomScaleNormal="290" workbookViewId="0">
       <selection activeCell="I272" sqref="I272"/>
     </sheetView>
   </sheetViews>
@@ -40387,14 +41631,14 @@
       <c r="D84" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F84" s="370" t="s">
+      <c r="F84" s="376" t="s">
         <v>1666</v>
       </c>
-      <c r="G84" s="370"/>
-      <c r="H84" s="370"/>
-      <c r="I84" s="370"/>
-      <c r="J84" s="370"/>
-      <c r="K84" s="370"/>
+      <c r="G84" s="376"/>
+      <c r="H84" s="376"/>
+      <c r="I84" s="376"/>
+      <c r="J84" s="376"/>
+      <c r="K84" s="376"/>
       <c r="O84" s="3" t="s">
         <v>1665</v>
       </c>
@@ -41061,7 +42305,7 @@
       <c r="I120" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="L120" s="378">
+      <c r="L120" s="352">
         <v>0.05</v>
       </c>
     </row>
@@ -41072,7 +42316,7 @@
       <c r="I121" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="L121" s="378">
+      <c r="L121" s="352">
         <v>0.2</v>
       </c>
     </row>
@@ -41088,7 +42332,7 @@
       <c r="A125" s="1" t="s">
         <v>1709</v>
       </c>
-      <c r="L125" s="378">
+      <c r="L125" s="352">
         <v>0.03</v>
       </c>
     </row>
@@ -41096,7 +42340,7 @@
       <c r="A126" s="1" t="s">
         <v>1710</v>
       </c>
-      <c r="L126" s="378">
+      <c r="L126" s="352">
         <v>0.03</v>
       </c>
     </row>
@@ -41104,7 +42348,7 @@
       <c r="A127" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="L127" s="378">
+      <c r="L127" s="352">
         <v>0.03</v>
       </c>
     </row>
@@ -41112,7 +42356,7 @@
       <c r="A128" s="1" t="s">
         <v>1789</v>
       </c>
-      <c r="L128" s="378">
+      <c r="L128" s="352">
         <v>0.03</v>
       </c>
     </row>
@@ -41120,13 +42364,13 @@
       <c r="A129" s="1" t="s">
         <v>1814</v>
       </c>
-      <c r="L129" s="378">
+      <c r="L129" s="352">
         <v>0.03</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="131" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="379" t="s">
+      <c r="A131" s="353" t="s">
         <v>1712</v>
       </c>
       <c r="B131" s="57"/>
@@ -41177,7 +42421,7 @@
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A140" s="380" t="s">
+      <c r="A140" s="354" t="s">
         <v>1709</v>
       </c>
     </row>
@@ -41242,11 +42486,11 @@
       </c>
     </row>
     <row r="147" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="H147" s="381" t="s">
+      <c r="H147" s="355" t="s">
         <v>1729</v>
       </c>
-      <c r="I147" s="381"/>
-      <c r="J147" s="381"/>
+      <c r="I147" s="355"/>
+      <c r="J147" s="355"/>
       <c r="L147" s="1" t="s">
         <v>410</v>
       </c>
@@ -41298,7 +42542,7 @@
       <c r="K157" s="42" t="s">
         <v>1742</v>
       </c>
-      <c r="L157" s="380" t="s">
+      <c r="L157" s="354" t="s">
         <v>1743</v>
       </c>
     </row>
@@ -41379,7 +42623,7 @@
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A173" s="380" t="s">
+      <c r="A173" s="354" t="s">
         <v>1710</v>
       </c>
     </row>
@@ -41467,10 +42711,10 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E184" s="381" t="s">
+      <c r="E184" s="355" t="s">
         <v>1762</v>
       </c>
-      <c r="F184" s="381"/>
+      <c r="F184" s="355"/>
       <c r="H184" s="1" t="s">
         <v>1763</v>
       </c>
@@ -41531,7 +42775,7 @@
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H191" s="382" t="s">
+      <c r="H191" s="356" t="s">
         <v>1774</v>
       </c>
       <c r="I191" s="1" t="s">
@@ -41542,7 +42786,7 @@
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H192" s="382" t="s">
+      <c r="H192" s="356" t="s">
         <v>1773</v>
       </c>
       <c r="I192" s="1" t="s">
@@ -41553,7 +42797,7 @@
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="380" t="s">
+      <c r="A205" s="354" t="s">
         <v>1711</v>
       </c>
     </row>
@@ -41620,7 +42864,7 @@
       </c>
     </row>
     <row r="221" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="385" t="s">
+      <c r="A221" s="357" t="s">
         <v>1789</v>
       </c>
       <c r="B221" s="245"/>
@@ -41633,69 +42877,15 @@
       <c r="I221" s="245"/>
       <c r="J221" s="245"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A222" s="383"/>
-      <c r="B222" s="383"/>
-      <c r="C222" s="383"/>
-      <c r="D222" s="383"/>
-      <c r="E222" s="383"/>
-      <c r="F222" s="383"/>
-      <c r="G222" s="383"/>
-      <c r="H222" s="383"/>
-      <c r="I222" s="383"/>
-      <c r="J222" s="383"/>
-    </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A223" s="383" t="s">
+      <c r="A223" s="1" t="s">
         <v>1790</v>
       </c>
-      <c r="B223" s="383"/>
-      <c r="C223" s="383"/>
-      <c r="D223" s="383"/>
-      <c r="E223" s="383"/>
-      <c r="F223" s="383"/>
-      <c r="G223" s="383"/>
-      <c r="H223" s="383"/>
-      <c r="I223" s="383"/>
-      <c r="J223" s="383"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A224" s="383"/>
-      <c r="B224" s="383" t="s">
+      <c r="B224" s="1" t="s">
         <v>1803</v>
       </c>
-      <c r="C224" s="383"/>
-      <c r="D224" s="383"/>
-      <c r="E224" s="383"/>
-      <c r="F224" s="383"/>
-      <c r="G224" s="383"/>
-      <c r="H224" s="383"/>
-      <c r="I224" s="383"/>
-      <c r="J224" s="383"/>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A225" s="383"/>
-      <c r="B225" s="383"/>
-      <c r="C225" s="383"/>
-      <c r="D225" s="383"/>
-      <c r="E225" s="383"/>
-      <c r="F225" s="383"/>
-      <c r="G225" s="383"/>
-      <c r="H225" s="383"/>
-      <c r="I225" s="383"/>
-      <c r="J225" s="383"/>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A226" s="383"/>
-      <c r="B226" s="383"/>
-      <c r="C226" s="383"/>
-      <c r="D226" s="383"/>
-      <c r="E226" s="383"/>
-      <c r="F226" s="383"/>
-      <c r="G226" s="383"/>
-      <c r="H226" s="383"/>
-      <c r="I226" s="383"/>
-      <c r="J226" s="383"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="17" t="s">
@@ -41706,9 +42896,7 @@
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
-      <c r="E227" s="383"/>
-      <c r="F227" s="383"/>
-      <c r="G227" s="384" t="s">
+      <c r="G227" s="4" t="s">
         <v>1801</v>
       </c>
       <c r="H227" s="6" t="s">
@@ -41720,291 +42908,142 @@
       <c r="L227" s="6"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A228" s="383"/>
-      <c r="B228" s="387" t="s">
+      <c r="B228" s="3" t="s">
         <v>1804</v>
       </c>
-      <c r="C228" s="383"/>
-      <c r="D228" s="383"/>
-      <c r="E228" s="383"/>
-      <c r="F228" s="383"/>
-      <c r="G228" s="383"/>
-      <c r="H228" s="383" t="s">
+      <c r="H228" s="1" t="s">
         <v>212</v>
       </c>
       <c r="I228" s="4" t="s">
         <v>1073</v>
       </c>
-      <c r="J228" s="384" t="s">
+      <c r="J228" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K228" s="383" t="s">
+      <c r="K228" s="1" t="s">
         <v>1791</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A229" s="383"/>
-      <c r="B229" s="383" t="s">
+      <c r="B229" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="C229" s="383"/>
-      <c r="D229" s="383"/>
-      <c r="E229" s="383"/>
-      <c r="F229" s="383"/>
-      <c r="G229" s="383"/>
-      <c r="H229" s="383" t="s">
+      <c r="H229" s="1" t="s">
         <v>432</v>
       </c>
       <c r="I229" s="4" t="s">
         <v>1794</v>
       </c>
-      <c r="J229" s="384" t="s">
+      <c r="J229" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K229" s="383" t="s">
+      <c r="K229" s="1" t="s">
         <v>1791</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A230" s="383"/>
-      <c r="B230" s="383" t="s">
+      <c r="B230" s="1" t="s">
         <v>1806</v>
       </c>
-      <c r="C230" s="383"/>
-      <c r="D230" s="383"/>
-      <c r="E230" s="383"/>
-      <c r="F230" s="383"/>
-      <c r="G230" s="383"/>
-      <c r="H230" s="383" t="s">
+      <c r="H230" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J230" s="384" t="s">
+      <c r="J230" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K230" s="383" t="s">
+      <c r="K230" s="1" t="s">
         <v>1792</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A231" s="383"/>
-      <c r="B231" s="383" t="s">
+      <c r="B231" s="1" t="s">
         <v>1807</v>
       </c>
-      <c r="C231" s="383"/>
-      <c r="D231" s="383"/>
-      <c r="E231" s="383"/>
-      <c r="F231" s="383"/>
-      <c r="G231" s="383"/>
-      <c r="H231" s="383"/>
-      <c r="J231" s="384"/>
-      <c r="K231" s="383"/>
+      <c r="J231" s="4"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A232" s="383"/>
-      <c r="B232" s="383" t="s">
+      <c r="B232" s="1" t="s">
         <v>1808</v>
       </c>
-      <c r="C232" s="383"/>
-      <c r="D232" s="383"/>
-      <c r="E232" s="383"/>
-      <c r="F232" s="383"/>
-      <c r="G232" s="383"/>
-      <c r="H232" s="383"/>
-      <c r="J232" s="384"/>
-      <c r="K232" s="383"/>
+      <c r="J232" s="4"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A233" s="383"/>
-      <c r="B233" s="383"/>
-      <c r="C233" s="383"/>
-      <c r="D233" s="383"/>
-      <c r="E233" s="383"/>
-      <c r="F233" s="383"/>
-      <c r="G233" s="383"/>
-      <c r="H233" s="383"/>
-      <c r="J233" s="384" t="s">
+      <c r="J233" s="4" t="s">
         <v>1795</v>
       </c>
-      <c r="K233" s="383"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A234" s="383"/>
-      <c r="B234" s="387" t="s">
+      <c r="B234" s="3" t="s">
         <v>1809</v>
       </c>
-      <c r="C234" s="383"/>
-      <c r="D234" s="383"/>
-      <c r="E234" s="383"/>
-      <c r="F234" s="383"/>
-      <c r="G234" s="383"/>
-      <c r="H234" s="383"/>
-      <c r="J234" s="384" t="s">
+      <c r="J234" s="4" t="s">
         <v>1796</v>
       </c>
-      <c r="K234" s="383"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A235" s="383"/>
-      <c r="B235" s="383" t="s">
+      <c r="B235" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="C235" s="383"/>
-      <c r="D235" s="383"/>
-      <c r="E235" s="383"/>
-      <c r="F235" s="383"/>
-      <c r="G235" s="383"/>
-      <c r="H235" s="383"/>
-      <c r="J235" s="384" t="s">
+      <c r="J235" s="4" t="s">
         <v>1797</v>
       </c>
-      <c r="K235" s="383"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A236" s="383"/>
-      <c r="B236" s="383"/>
-      <c r="C236" s="383"/>
-      <c r="D236" s="383"/>
-      <c r="E236" s="383"/>
-      <c r="F236" s="383"/>
-      <c r="G236" s="383"/>
-      <c r="H236" s="383"/>
-      <c r="J236" s="384"/>
-      <c r="K236" s="383"/>
+      <c r="J236" s="4"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A237" s="383"/>
-      <c r="B237" s="387" t="s">
+      <c r="B237" s="3" t="s">
         <v>1811</v>
       </c>
-      <c r="C237" s="383"/>
-      <c r="D237" s="383"/>
-      <c r="E237" s="383"/>
-      <c r="F237" s="383"/>
-      <c r="G237" s="383"/>
-      <c r="H237" s="383" t="s">
+      <c r="H237" s="1" t="s">
         <v>1798</v>
       </c>
-      <c r="J237" s="384"/>
-      <c r="K237" s="383"/>
+      <c r="J237" s="4"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A238" s="383"/>
-      <c r="B238" s="383" t="s">
+      <c r="B238" s="1" t="s">
         <v>1812</v>
       </c>
-      <c r="C238" s="383"/>
-      <c r="D238" s="383"/>
-      <c r="E238" s="383"/>
-      <c r="F238" s="383"/>
-      <c r="G238" s="383"/>
-      <c r="H238" s="383" t="s">
+      <c r="H238" s="1" t="s">
         <v>1799</v>
       </c>
-      <c r="J238" s="384"/>
-      <c r="K238" s="383"/>
+      <c r="J238" s="4"/>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A239" s="383"/>
-      <c r="B239" s="383" t="s">
+      <c r="B239" s="1" t="s">
         <v>1813</v>
       </c>
-      <c r="C239" s="383"/>
-      <c r="D239" s="383"/>
-      <c r="E239" s="383"/>
-      <c r="F239" s="383"/>
-      <c r="G239" s="383"/>
-      <c r="H239" s="386" t="s">
+      <c r="H239" s="88" t="s">
         <v>1800</v>
       </c>
-      <c r="J239" s="384"/>
-      <c r="K239" s="383"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A240" s="383"/>
-      <c r="B240" s="383"/>
-      <c r="C240" s="383"/>
-      <c r="D240" s="383"/>
-      <c r="E240" s="383"/>
-      <c r="F240" s="383"/>
-      <c r="G240" s="383"/>
-      <c r="H240" s="383"/>
-      <c r="I240" s="383"/>
-      <c r="J240" s="383"/>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A241" s="383"/>
-      <c r="B241" s="383"/>
-      <c r="C241" s="383"/>
-      <c r="D241" s="383"/>
-      <c r="E241" s="383"/>
-      <c r="F241" s="383"/>
-      <c r="G241" s="383"/>
-      <c r="H241" s="383"/>
-      <c r="I241" s="383"/>
-      <c r="J241" s="383"/>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A242" s="383"/>
-      <c r="B242" s="383"/>
-      <c r="C242" s="383"/>
-      <c r="D242" s="383"/>
-      <c r="E242" s="383"/>
-      <c r="F242" s="383"/>
-      <c r="G242" s="383"/>
-      <c r="H242" s="383"/>
-      <c r="I242" s="383"/>
-      <c r="J242" s="383"/>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A243" s="383"/>
-      <c r="B243" s="383"/>
-      <c r="C243" s="383"/>
-      <c r="D243" s="383"/>
-      <c r="E243" s="383"/>
-      <c r="F243" s="383"/>
-      <c r="G243" s="383"/>
-      <c r="H243" s="383"/>
-      <c r="I243" s="383"/>
-      <c r="J243" s="383"/>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A244" s="383"/>
-      <c r="B244" s="383"/>
-      <c r="C244" s="383"/>
-      <c r="D244" s="383"/>
-      <c r="E244" s="383"/>
-      <c r="F244" s="383"/>
-      <c r="G244" s="383"/>
-      <c r="H244" s="383"/>
-      <c r="I244" s="383"/>
-      <c r="J244" s="383"/>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A245" s="380" t="s">
+      <c r="J239" s="4"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="354" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B252" s="17" t="s">
         <v>834</v>
       </c>
@@ -42019,7 +43058,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B253" s="1" t="s">
         <v>1485</v>
       </c>
@@ -42062,7 +43101,7 @@
       </c>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
-      <c r="D264" s="390" t="s">
+      <c r="D264" s="245" t="s">
         <v>446</v>
       </c>
       <c r="G264" s="3" t="s">
@@ -42076,7 +43115,7 @@
       <c r="A265" s="1" t="s">
         <v>1824</v>
       </c>
-      <c r="D265" s="389" t="s">
+      <c r="D265" s="237" t="s">
         <v>513</v>
       </c>
     </row>
@@ -42084,7 +43123,7 @@
       <c r="A266" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D266" s="388">
+      <c r="D266" s="38">
         <v>800</v>
       </c>
       <c r="G266" s="6" t="s">
@@ -42104,7 +43143,7 @@
       <c r="A267" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="D267" s="388">
+      <c r="D267" s="38">
         <v>750</v>
       </c>
       <c r="N267" s="1" t="s">
@@ -42115,7 +43154,7 @@
       <c r="A268" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D268" s="388">
+      <c r="D268" s="38">
         <v>1000</v>
       </c>
       <c r="G268" s="1" t="s">
@@ -42133,7 +43172,7 @@
       <c r="A269" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="D269" s="388">
+      <c r="D269" s="38">
         <v>400</v>
       </c>
       <c r="N269" s="1" t="s">
@@ -42144,7 +43183,7 @@
       <c r="A270" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D270" s="388">
+      <c r="D270" s="38">
         <v>300</v>
       </c>
       <c r="N270" s="1" t="s">
@@ -42155,7 +43194,7 @@
       <c r="A271" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="D271" s="388">
+      <c r="D271" s="38">
         <v>288</v>
       </c>
       <c r="N271" s="1" t="s">
@@ -42166,7 +43205,7 @@
       <c r="A272" s="1" t="s">
         <v>1823</v>
       </c>
-      <c r="D272" s="388">
+      <c r="D272" s="38">
         <v>138</v>
       </c>
       <c r="N272" s="1" t="s">
@@ -42177,7 +43216,7 @@
       <c r="A273" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D273" s="388">
+      <c r="D273" s="38">
         <v>222</v>
       </c>
       <c r="N273" s="1" t="s">
@@ -42189,7 +43228,7 @@
       <c r="A274" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D274" s="388">
+      <c r="D274" s="38">
         <v>131</v>
       </c>
       <c r="G274" s="1" t="s">
@@ -42206,7 +43245,7 @@
       <c r="A275" s="1" t="s">
         <v>1646</v>
       </c>
-      <c r="D275" s="388">
+      <c r="D275" s="38">
         <v>212</v>
       </c>
       <c r="N275" s="1" t="s">
@@ -42217,7 +43256,7 @@
       <c r="A276" s="1" t="s">
         <v>1647</v>
       </c>
-      <c r="D276" s="388">
+      <c r="D276" s="38">
         <v>212</v>
       </c>
       <c r="N276" s="1" t="s">
@@ -42229,7 +43268,7 @@
       <c r="A277" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D277" s="388">
+      <c r="D277" s="38">
         <v>111</v>
       </c>
       <c r="N277" s="1" t="s">
@@ -42240,7 +43279,7 @@
       <c r="A278" s="1" t="s">
         <v>1825</v>
       </c>
-      <c r="D278" s="388">
+      <c r="D278" s="38">
         <v>19</v>
       </c>
       <c r="N278" s="1" t="s">
@@ -42252,7 +43291,7 @@
       <c r="A279" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D279" s="388">
+      <c r="D279" s="38">
         <v>117</v>
       </c>
       <c r="J279" s="1" t="s">
@@ -42263,7 +43302,7 @@
       <c r="A280" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="D280" s="388">
+      <c r="D280" s="38">
         <v>100</v>
       </c>
     </row>
@@ -42271,7 +43310,7 @@
       <c r="A281" s="1" t="s">
         <v>1655</v>
       </c>
-      <c r="D281" s="388">
+      <c r="D281" s="38">
         <v>92</v>
       </c>
     </row>
@@ -42279,7 +43318,7 @@
       <c r="A282" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="D282" s="388">
+      <c r="D282" s="38">
         <v>80</v>
       </c>
     </row>
@@ -42287,7 +43326,7 @@
       <c r="A283" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="D283" s="388">
+      <c r="D283" s="38">
         <v>70</v>
       </c>
     </row>
@@ -42295,7 +43334,7 @@
       <c r="A284" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D284" s="388">
+      <c r="D284" s="38">
         <v>60</v>
       </c>
       <c r="G284" s="1" t="s">
@@ -42309,7 +43348,7 @@
       <c r="A285" s="1" t="s">
         <v>1656</v>
       </c>
-      <c r="D285" s="388">
+      <c r="D285" s="38">
         <v>53</v>
       </c>
     </row>
@@ -42317,7 +43356,7 @@
       <c r="A286" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D286" s="388">
+      <c r="D286" s="38">
         <v>45</v>
       </c>
     </row>
@@ -42325,7 +43364,7 @@
       <c r="A287" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D287" s="388">
+      <c r="D287" s="38">
         <v>22</v>
       </c>
     </row>
@@ -42333,7 +43372,7 @@
       <c r="A288" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D288" s="388">
+      <c r="D288" s="38">
         <v>40</v>
       </c>
     </row>
@@ -42341,7 +43380,7 @@
       <c r="A289" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="D289" s="388">
+      <c r="D289" s="38">
         <v>12</v>
       </c>
     </row>
@@ -42349,7 +43388,7 @@
       <c r="A290" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D290" s="388">
+      <c r="D290" s="38">
         <v>19</v>
       </c>
     </row>
@@ -42357,7 +43396,7 @@
       <c r="A291" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D291" s="388">
+      <c r="D291" s="38">
         <v>44</v>
       </c>
     </row>
@@ -42365,7 +43404,7 @@
       <c r="A292" s="1" t="s">
         <v>1654</v>
       </c>
-      <c r="D292" s="388">
+      <c r="D292" s="38">
         <v>15</v>
       </c>
     </row>
@@ -42373,7 +43412,7 @@
       <c r="A293" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="D293" s="388">
+      <c r="D293" s="38">
         <v>23</v>
       </c>
     </row>
@@ -42381,7 +43420,7 @@
       <c r="A294" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="D294" s="388">
+      <c r="D294" s="38">
         <v>22</v>
       </c>
     </row>
@@ -42389,7 +43428,7 @@
       <c r="A295" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D295" s="388">
+      <c r="D295" s="38">
         <v>20</v>
       </c>
     </row>
@@ -42397,7 +43436,7 @@
       <c r="A296" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D296" s="388">
+      <c r="D296" s="38">
         <v>15</v>
       </c>
     </row>
@@ -42405,7 +43444,7 @@
       <c r="A297" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="D297" s="388">
+      <c r="D297" s="38">
         <v>19</v>
       </c>
     </row>
@@ -42413,7 +43452,7 @@
       <c r="A298" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D298" s="388">
+      <c r="D298" s="38">
         <v>27</v>
       </c>
     </row>
@@ -42421,7 +43460,7 @@
       <c r="A299" s="1" t="s">
         <v>1652</v>
       </c>
-      <c r="D299" s="388">
+      <c r="D299" s="38">
         <v>10</v>
       </c>
     </row>
@@ -42429,7 +43468,7 @@
       <c r="A300" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D300" s="388">
+      <c r="D300" s="38">
         <v>5</v>
       </c>
     </row>
@@ -42437,7 +43476,7 @@
       <c r="A301" s="1" t="s">
         <v>1826</v>
       </c>
-      <c r="D301" s="388">
+      <c r="D301" s="38">
         <v>5</v>
       </c>
     </row>
@@ -42457,6 +43496,1306 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F32CDC-0574-9841-BED3-29972B30C173}">
+  <dimension ref="A1:N181"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A155" zoomScale="228" workbookViewId="0">
+      <selection activeCell="G182" sqref="G182"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="6.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="94" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="196">
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="1" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E16" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E18" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E19" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E20" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E21" s="72">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E22" s="72">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E41" s="129" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E42" s="129" t="s">
+        <v>490</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E43" s="129" t="s">
+        <v>1859</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E44" s="385" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>1856</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B45" s="4">
+        <v>100</v>
+      </c>
+      <c r="C45" s="4">
+        <v>300</v>
+      </c>
+      <c r="D45" s="4">
+        <v>250</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4">
+        <v>400</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="4">
+        <f>SUM(B45:G45)</f>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4">
+        <f>120*5</f>
+        <v>600</v>
+      </c>
+      <c r="F46" s="4">
+        <f>949-600</f>
+        <v>349</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4">
+        <f>8*120-11</f>
+        <v>949</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4">
+        <f>50*1</f>
+        <v>50</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="19">
+        <f>44-50</f>
+        <v>-6</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B48" s="4">
+        <f>10%*100</f>
+        <v>10</v>
+      </c>
+      <c r="C48" s="4">
+        <f>10%*300</f>
+        <v>30</v>
+      </c>
+      <c r="D48" s="4">
+        <f>10%*(250+50)</f>
+        <v>30</v>
+      </c>
+      <c r="E48" s="4">
+        <f>10%*600</f>
+        <v>60</v>
+      </c>
+      <c r="F48" s="19">
+        <v>-130</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B49" s="19">
+        <v>-110</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4">
+        <v>110</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4">
+        <v>500</v>
+      </c>
+      <c r="H50" s="4">
+        <f>G50</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="386">
+        <f>-30%*500</f>
+        <v>-150</v>
+      </c>
+      <c r="H51" s="386">
+        <f>G51</f>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B52" s="387">
+        <f>SUM(B45:B51)</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="387">
+        <f>SUM(C45:C51)</f>
+        <v>330</v>
+      </c>
+      <c r="D52" s="387">
+        <f>SUM(D45:D51)</f>
+        <v>440</v>
+      </c>
+      <c r="E52" s="387">
+        <f>SUM(E45:E51)</f>
+        <v>660</v>
+      </c>
+      <c r="F52" s="387">
+        <f>SUM(F45:F51)</f>
+        <v>613</v>
+      </c>
+      <c r="G52" s="387">
+        <f>SUM(G45:G51)</f>
+        <v>1350</v>
+      </c>
+      <c r="H52" s="387">
+        <f>SUM(H45:H51)</f>
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="35" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="45" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="47"/>
+    </row>
+    <row r="70" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="50" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="79"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="45" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="1" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="48" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B72" s="389"/>
+      <c r="C72" s="389"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="48" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B73" s="389"/>
+      <c r="C73" s="389"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" s="19">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B74" s="389"/>
+      <c r="C74" s="389"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" s="388">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="48" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B75" s="389"/>
+      <c r="C75" s="389"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I75" s="30"/>
+    </row>
+    <row r="76" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I76" s="30"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E77" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="I77" s="30"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E78" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I78" s="30"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E79" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I79" s="30"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E80" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E81" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E82" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E83" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="45" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="47"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="48" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B86" s="389"/>
+      <c r="C86" s="389"/>
+      <c r="D86" s="389"/>
+      <c r="E86" s="389"/>
+      <c r="F86" s="389"/>
+      <c r="G86" s="389"/>
+      <c r="H86" s="49"/>
+    </row>
+    <row r="87" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="50" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="79"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C91" s="1" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E93" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E94" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E95" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="390" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B97" s="390"/>
+      <c r="C97" s="390"/>
+      <c r="D97" s="390"/>
+      <c r="E97" s="390"/>
+      <c r="F97" s="390"/>
+      <c r="G97" s="390"/>
+      <c r="H97" s="390"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="390" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B98" s="390"/>
+      <c r="C98" s="390"/>
+      <c r="D98" s="390"/>
+      <c r="E98" s="390"/>
+      <c r="F98" s="390"/>
+      <c r="G98" s="390"/>
+      <c r="H98" s="390"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="390" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B99" s="390"/>
+      <c r="C99" s="390"/>
+      <c r="D99" s="390"/>
+      <c r="E99" s="390"/>
+      <c r="F99" s="390"/>
+      <c r="G99" s="390"/>
+      <c r="H99" s="390"/>
+    </row>
+    <row r="100" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="56" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="141"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C111" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C112" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C113" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C114" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="35" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="33"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="6" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>1913</v>
+      </c>
+      <c r="G122" s="6"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D123" s="72">
+        <v>400000</v>
+      </c>
+      <c r="E123" s="72">
+        <v>20000</v>
+      </c>
+      <c r="F123" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D124" s="72">
+        <v>30000</v>
+      </c>
+      <c r="E124" s="72">
+        <v>10000</v>
+      </c>
+      <c r="F124" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D125" s="72">
+        <v>10000</v>
+      </c>
+      <c r="E125" s="72">
+        <v>2000</v>
+      </c>
+      <c r="F125" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C142" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="G142" s="1">
+        <f>380000/10</f>
+        <v>38000</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C143" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="G143" s="1">
+        <f>380000/10*(6/12)</f>
+        <v>19000</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C144" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="G144" s="1">
+        <f>20000/5*9/12</f>
+        <v>3000</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C145" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G145" s="391">
+        <f>8000/3</f>
+        <v>2666.6666666666665</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C146" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="G146" s="384">
+        <f>SUM(G142:G145)</f>
+        <v>62666.666666666664</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C149" s="1" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C151" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H151" s="18">
+        <v>22000</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C152" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H152" s="19">
+        <f>-K161</f>
+        <v>-23000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C153" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>1937</v>
+      </c>
+      <c r="H153" s="207">
+        <f>H151+H152</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G159" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="K159" s="18">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G160" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="K160" s="19">
+        <f>-20000/5*(1+9/12)</f>
+        <v>-7000</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G161" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="K161" s="206">
+        <f>K159+K160</f>
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L162" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L164" s="1" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D165" s="166" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E165" s="17" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F165" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C166" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D166" s="393">
+        <f>D123*2</f>
+        <v>800000</v>
+      </c>
+      <c r="E166" s="18">
+        <f>D125</f>
+        <v>10000</v>
+      </c>
+      <c r="F166" s="18">
+        <f>D166+E166</f>
+        <v>810000</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C167" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D167" s="396">
+        <f>-G181</f>
+        <v>-171000</v>
+      </c>
+      <c r="E167" s="394">
+        <f>-D173</f>
+        <v>-3333.333333333333</v>
+      </c>
+      <c r="F167" s="19">
+        <f>D167+E167</f>
+        <v>-174333.33333333334</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C168" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D168" s="58">
+        <f>D166+D167</f>
+        <v>629000</v>
+      </c>
+      <c r="E168" s="58">
+        <f>E166+E167</f>
+        <v>6666.666666666667</v>
+      </c>
+      <c r="F168" s="58">
+        <f>D168+E168</f>
+        <v>635666.66666666663</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B170" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B171" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C172" s="1" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D173" s="395">
+        <f>8000/3*1.25</f>
+        <v>3333.333333333333</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B174" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C175" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G175" s="72">
+        <v>400000</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C176" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G176" s="72">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C177" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G177" s="392">
+        <f>G175+G176</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B178" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C179" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="G179" s="72">
+        <f>(400000-20000)/10*4</f>
+        <v>152000</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C180" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="G180" s="72">
+        <f>380000/10*(6/12)</f>
+        <v>19000</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C181" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G181" s="397">
+        <f>G179+G180</f>
+        <v>171000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13471061-7321-EA41-8969-02836EA8A88D}">
   <dimension ref="A1:I187"/>
@@ -42468,16 +44807,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="352" t="s">
+      <c r="A1" s="358" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="352"/>
-      <c r="C1" s="352"/>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
+      <c r="B1" s="358"/>
+      <c r="C1" s="358"/>
+      <c r="D1" s="358"/>
+      <c r="E1" s="358"/>
+      <c r="F1" s="358"/>
+      <c r="G1" s="358"/>
+      <c r="H1" s="358"/>
     </row>
     <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
@@ -44461,7 +46800,7 @@
       <c r="A67" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J67" s="353" t="s">
+      <c r="J67" s="359" t="s">
         <v>335</v>
       </c>
       <c r="K67" s="63" t="s">
@@ -44475,7 +46814,7 @@
       <c r="A68" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J68" s="354"/>
+      <c r="J68" s="360"/>
       <c r="K68" s="67" t="s">
         <v>338</v>
       </c>
@@ -44484,7 +46823,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J69" s="355"/>
+      <c r="J69" s="361"/>
       <c r="K69" s="69" t="s">
         <v>340</v>
       </c>
@@ -44499,7 +46838,7 @@
       <c r="D70" s="61">
         <v>22000</v>
       </c>
-      <c r="J70" s="356" t="s">
+      <c r="J70" s="362" t="s">
         <v>342</v>
       </c>
       <c r="K70" s="63" t="s">
@@ -44510,7 +46849,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J71" s="357"/>
+      <c r="J71" s="363"/>
       <c r="K71" s="69" t="s">
         <v>343</v>
       </c>
@@ -45764,17 +48103,17 @@
     </row>
     <row r="97" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="358" t="s">
+      <c r="A98" s="364" t="s">
         <v>473</v>
       </c>
-      <c r="B98" s="359"/>
-      <c r="C98" s="359"/>
-      <c r="D98" s="359"/>
-      <c r="E98" s="359"/>
-      <c r="F98" s="359"/>
-      <c r="G98" s="359"/>
-      <c r="H98" s="359"/>
-      <c r="I98" s="360"/>
+      <c r="B98" s="365"/>
+      <c r="C98" s="365"/>
+      <c r="D98" s="365"/>
+      <c r="E98" s="365"/>
+      <c r="F98" s="365"/>
+      <c r="G98" s="365"/>
+      <c r="H98" s="365"/>
+      <c r="I98" s="366"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
@@ -46140,14 +48479,14 @@
       </c>
     </row>
     <row r="135" spans="1:15" ht="23" x14ac:dyDescent="0.25">
-      <c r="A135" s="361" t="s">
+      <c r="A135" s="367" t="s">
         <v>541</v>
       </c>
-      <c r="B135" s="361"/>
-      <c r="C135" s="361"/>
-      <c r="D135" s="361"/>
-      <c r="E135" s="361"/>
-      <c r="F135" s="361"/>
+      <c r="B135" s="367"/>
+      <c r="C135" s="367"/>
+      <c r="D135" s="367"/>
+      <c r="E135" s="367"/>
+      <c r="F135" s="367"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
@@ -46574,11 +48913,11 @@
       <c r="E19" s="125" t="s">
         <v>562</v>
       </c>
-      <c r="F19" s="367" t="s">
+      <c r="F19" s="373" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="367"/>
-      <c r="H19" s="367"/>
+      <c r="G19" s="373"/>
+      <c r="H19" s="373"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F20" s="4" t="s">
@@ -46597,24 +48936,24 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C24" s="368" t="s">
+      <c r="C24" s="374" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="364" t="s">
+      <c r="D24" s="370" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="125" t="s">
         <v>562</v>
       </c>
-      <c r="F24" s="367" t="s">
+      <c r="F24" s="373" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="367"/>
-      <c r="H24" s="367"/>
+      <c r="G24" s="373"/>
+      <c r="H24" s="373"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C25" s="369"/>
-      <c r="D25" s="365"/>
+      <c r="C25" s="375"/>
+      <c r="D25" s="371"/>
       <c r="E25" s="8"/>
       <c r="F25" s="127" t="s">
         <v>490</v>
@@ -46654,23 +48993,23 @@
     </row>
     <row r="32" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="126"/>
-      <c r="C32" s="362" t="s">
+      <c r="C32" s="368" t="s">
         <v>564</v>
       </c>
-      <c r="D32" s="364" t="s">
+      <c r="D32" s="370" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="366" t="s">
+      <c r="E32" s="372" t="s">
         <v>565</v>
       </c>
-      <c r="F32" s="366"/>
-      <c r="G32" s="366"/>
-      <c r="H32" s="366"/>
+      <c r="F32" s="372"/>
+      <c r="G32" s="372"/>
+      <c r="H32" s="372"/>
     </row>
     <row r="33" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="126"/>
-      <c r="C33" s="369"/>
-      <c r="D33" s="365"/>
+      <c r="C33" s="375"/>
+      <c r="D33" s="371"/>
       <c r="E33" s="128" t="s">
         <v>566</v>
       </c>
@@ -46706,23 +49045,23 @@
     </row>
     <row r="39" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="126"/>
-      <c r="C39" s="362" t="s">
+      <c r="C39" s="368" t="s">
         <v>564</v>
       </c>
-      <c r="D39" s="364" t="s">
+      <c r="D39" s="370" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="366" t="s">
+      <c r="E39" s="372" t="s">
         <v>565</v>
       </c>
-      <c r="F39" s="366"/>
-      <c r="G39" s="366"/>
-      <c r="H39" s="366"/>
+      <c r="F39" s="372"/>
+      <c r="G39" s="372"/>
+      <c r="H39" s="372"/>
     </row>
     <row r="40" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="126"/>
-      <c r="C40" s="369"/>
-      <c r="D40" s="365"/>
+      <c r="C40" s="375"/>
+      <c r="D40" s="371"/>
       <c r="E40" s="128" t="s">
         <v>566</v>
       </c>
@@ -46824,22 +49163,22 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="362" t="s">
+      <c r="C54" s="368" t="s">
         <v>564</v>
       </c>
-      <c r="D54" s="364" t="s">
+      <c r="D54" s="370" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="366" t="s">
+      <c r="E54" s="372" t="s">
         <v>565</v>
       </c>
-      <c r="F54" s="366"/>
-      <c r="G54" s="366"/>
-      <c r="H54" s="366"/>
+      <c r="F54" s="372"/>
+      <c r="G54" s="372"/>
+      <c r="H54" s="372"/>
     </row>
     <row r="55" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="369"/>
-      <c r="D55" s="365"/>
+      <c r="C55" s="375"/>
+      <c r="D55" s="371"/>
       <c r="E55" s="128" t="s">
         <v>572</v>
       </c>
@@ -46909,24 +49248,24 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="362" t="s">
+      <c r="B71" s="368" t="s">
         <v>564</v>
       </c>
-      <c r="C71" s="362"/>
-      <c r="D71" s="364" t="s">
+      <c r="C71" s="368"/>
+      <c r="D71" s="370" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="366" t="s">
+      <c r="E71" s="372" t="s">
         <v>565</v>
       </c>
-      <c r="F71" s="366"/>
-      <c r="G71" s="366"/>
-      <c r="H71" s="366"/>
+      <c r="F71" s="372"/>
+      <c r="G71" s="372"/>
+      <c r="H71" s="372"/>
     </row>
     <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B72" s="363"/>
-      <c r="C72" s="363"/>
-      <c r="D72" s="365"/>
+      <c r="B72" s="369"/>
+      <c r="C72" s="369"/>
+      <c r="D72" s="371"/>
       <c r="E72" s="128" t="s">
         <v>572</v>
       </c>
@@ -47007,24 +49346,24 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="362" t="s">
+      <c r="B86" s="368" t="s">
         <v>564</v>
       </c>
-      <c r="C86" s="362"/>
-      <c r="D86" s="364" t="s">
+      <c r="C86" s="368"/>
+      <c r="D86" s="370" t="s">
         <v>28</v>
       </c>
-      <c r="E86" s="366" t="s">
+      <c r="E86" s="372" t="s">
         <v>565</v>
       </c>
-      <c r="F86" s="366"/>
-      <c r="G86" s="366"/>
-      <c r="H86" s="366"/>
+      <c r="F86" s="372"/>
+      <c r="G86" s="372"/>
+      <c r="H86" s="372"/>
     </row>
     <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B87" s="363"/>
-      <c r="C87" s="363"/>
-      <c r="D87" s="365"/>
+      <c r="B87" s="369"/>
+      <c r="C87" s="369"/>
+      <c r="D87" s="371"/>
       <c r="E87" s="128" t="s">
         <v>572</v>
       </c>
@@ -47064,24 +49403,24 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="362" t="s">
+      <c r="B94" s="368" t="s">
         <v>564</v>
       </c>
-      <c r="C94" s="362"/>
-      <c r="D94" s="364" t="s">
+      <c r="C94" s="368"/>
+      <c r="D94" s="370" t="s">
         <v>28</v>
       </c>
-      <c r="E94" s="366" t="s">
+      <c r="E94" s="372" t="s">
         <v>565</v>
       </c>
-      <c r="F94" s="366"/>
-      <c r="G94" s="366"/>
-      <c r="H94" s="366"/>
+      <c r="F94" s="372"/>
+      <c r="G94" s="372"/>
+      <c r="H94" s="372"/>
     </row>
     <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B95" s="363"/>
-      <c r="C95" s="363"/>
-      <c r="D95" s="365"/>
+      <c r="B95" s="369"/>
+      <c r="C95" s="369"/>
+      <c r="D95" s="371"/>
       <c r="E95" s="128" t="s">
         <v>572</v>
       </c>
@@ -47124,24 +49463,24 @@
       <c r="D99" s="126"/>
     </row>
     <row r="101" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="362" t="s">
+      <c r="B101" s="368" t="s">
         <v>564</v>
       </c>
-      <c r="C101" s="362"/>
-      <c r="D101" s="364" t="s">
+      <c r="C101" s="368"/>
+      <c r="D101" s="370" t="s">
         <v>28</v>
       </c>
-      <c r="E101" s="366" t="s">
+      <c r="E101" s="372" t="s">
         <v>565</v>
       </c>
-      <c r="F101" s="366"/>
-      <c r="G101" s="366"/>
-      <c r="H101" s="366"/>
+      <c r="F101" s="372"/>
+      <c r="G101" s="372"/>
+      <c r="H101" s="372"/>
     </row>
     <row r="102" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="363"/>
-      <c r="C102" s="363"/>
-      <c r="D102" s="365"/>
+      <c r="B102" s="369"/>
+      <c r="C102" s="369"/>
+      <c r="D102" s="371"/>
       <c r="E102" s="134" t="s">
         <v>572</v>
       </c>
@@ -47215,24 +49554,24 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="362" t="s">
+      <c r="B114" s="368" t="s">
         <v>564</v>
       </c>
-      <c r="C114" s="362"/>
-      <c r="D114" s="364" t="s">
+      <c r="C114" s="368"/>
+      <c r="D114" s="370" t="s">
         <v>28</v>
       </c>
-      <c r="E114" s="366" t="s">
+      <c r="E114" s="372" t="s">
         <v>565</v>
       </c>
-      <c r="F114" s="366"/>
-      <c r="G114" s="366"/>
-      <c r="H114" s="366"/>
+      <c r="F114" s="372"/>
+      <c r="G114" s="372"/>
+      <c r="H114" s="372"/>
     </row>
     <row r="115" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="363"/>
-      <c r="C115" s="363"/>
-      <c r="D115" s="365"/>
+      <c r="B115" s="369"/>
+      <c r="C115" s="369"/>
+      <c r="D115" s="371"/>
       <c r="E115" s="134" t="s">
         <v>572</v>
       </c>
@@ -47274,24 +49613,24 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="362" t="s">
+      <c r="B121" s="368" t="s">
         <v>564</v>
       </c>
-      <c r="C121" s="362"/>
-      <c r="D121" s="364" t="s">
+      <c r="C121" s="368"/>
+      <c r="D121" s="370" t="s">
         <v>28</v>
       </c>
-      <c r="E121" s="366" t="s">
+      <c r="E121" s="372" t="s">
         <v>565</v>
       </c>
-      <c r="F121" s="366"/>
-      <c r="G121" s="366"/>
-      <c r="H121" s="366"/>
+      <c r="F121" s="372"/>
+      <c r="G121" s="372"/>
+      <c r="H121" s="372"/>
     </row>
     <row r="122" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="363"/>
-      <c r="C122" s="363"/>
-      <c r="D122" s="365"/>
+      <c r="B122" s="369"/>
+      <c r="C122" s="369"/>
+      <c r="D122" s="371"/>
       <c r="E122" s="134" t="s">
         <v>572</v>
       </c>
@@ -47327,21 +49666,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:H121"/>
-    <mergeCell ref="B86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="B101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:H101"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="B114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:H114"/>
     <mergeCell ref="B71:C72"/>
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="E71:H71"/>
@@ -47358,6 +49682,21 @@
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:H121"/>
+    <mergeCell ref="B86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="B101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:H101"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="B114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:H114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47367,7 +49706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E657D97F-4A86-B84B-B9F3-C6493D4634D3}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A114" zoomScale="339" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A15" zoomScale="339" workbookViewId="0">
       <selection activeCell="A239" sqref="A239:XFD379"/>
     </sheetView>
   </sheetViews>
@@ -47377,16 +49716,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="370" t="s">
+      <c r="A1" s="376" t="s">
         <v>623</v>
       </c>
-      <c r="B1" s="370"/>
-      <c r="C1" s="370"/>
-      <c r="D1" s="370"/>
-      <c r="E1" s="370"/>
-      <c r="F1" s="370"/>
-      <c r="G1" s="370"/>
-      <c r="H1" s="370"/>
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+      <c r="F1" s="376"/>
+      <c r="G1" s="376"/>
+      <c r="H1" s="376"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="149" t="s">
@@ -49032,8 +51371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C49287-B4CD-1C47-AF54-AAB8B95F5933}">
   <dimension ref="A1:AA243"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A122" zoomScale="250" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView rightToLeft="1" topLeftCell="A178" zoomScale="250" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51154,12 +53493,12 @@
       <c r="G130" s="300"/>
       <c r="H130" s="300"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="371" t="s">
+      <c r="J130" s="377" t="s">
         <v>1309</v>
       </c>
-      <c r="K130" s="372"/>
-      <c r="L130" s="372"/>
-      <c r="M130" s="372"/>
+      <c r="K130" s="378"/>
+      <c r="L130" s="378"/>
+      <c r="M130" s="378"/>
       <c r="N130" s="292"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
@@ -56128,10 +58467,10 @@
       <c r="F118" s="17" t="s">
         <v>951</v>
       </c>
-      <c r="G118" s="364" t="s">
+      <c r="G118" s="370" t="s">
         <v>28</v>
       </c>
-      <c r="H118" s="373" t="s">
+      <c r="H118" s="379" t="s">
         <v>952</v>
       </c>
     </row>
@@ -56140,8 +58479,8 @@
       <c r="F119" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="G119" s="364"/>
-      <c r="H119" s="373"/>
+      <c r="G119" s="370"/>
+      <c r="H119" s="379"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="48"/>
@@ -57474,11 +59813,11 @@
         <f>B312</f>
         <v>42750</v>
       </c>
-      <c r="D315" s="374" t="s">
+      <c r="D315" s="380" t="s">
         <v>1040</v>
       </c>
-      <c r="E315" s="374"/>
-      <c r="F315" s="374"/>
+      <c r="E315" s="380"/>
+      <c r="F315" s="380"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
@@ -57489,11 +59828,11 @@
       <c r="A319" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="D319" s="374" t="s">
+      <c r="D319" s="380" t="s">
         <v>1043</v>
       </c>
-      <c r="E319" s="374"/>
-      <c r="F319" s="374"/>
+      <c r="E319" s="380"/>
+      <c r="F319" s="380"/>
     </row>
     <row r="321" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E321" s="18">

--- a/Coursebook - ACC Ruppin - 2025 A.xlsx
+++ b/Coursebook - ACC Ruppin - 2025 A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/Ruppin - ACC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780E0ACD-B7BB-5346-8668-0A7B1D08D88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209479C2-5E05-DC40-BFFF-8CA799A0BEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="50880" windowHeight="29580" activeTab="14" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="29580" firstSheet="9" activeTab="15" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
   </bookViews>
   <sheets>
     <sheet name="הרצאה 1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,10 @@
     <sheet name="10 - חזרה למבחן חלק א" sheetId="13" r:id="rId13"/>
     <sheet name="11 - חזרה למבחן חלק ב" sheetId="14" r:id="rId14"/>
     <sheet name="12 - חזרה למבחן חלק ב" sheetId="15" r:id="rId15"/>
+    <sheet name="13 - חזרה למבחן חלק ג" sheetId="16" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -107,7 +108,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ה</t>
+          <t>התבססנו</t>
         </r>
         <r>
           <rPr>
@@ -116,7 +117,250 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>תבססנו על: שכר טרחת רואה חשבון, הוצאות שכר, הוצאות תפעול, חלק יחסי מהוצאות חשמל וארנונה</t>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>על</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>שכר</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>טרחת</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>רואה</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>חשבון</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>הוצאות</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>שכר</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>הוצאות</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>תפעול</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>חלק</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>יחסי</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>מהוצאות</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>חשמל</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>וארנונה</t>
         </r>
       </text>
     </comment>
@@ -512,7 +756,205 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>אם מנכים מסך ההתחייבויות וההון את סך ההתחייבויות, מקבלים את סך ההון</t>
+          <t>אם</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>מנכים</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>מסך</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ההתחייבויות</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>וההון</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>את</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>סך</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ההתחייבויות</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>מקבלים</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>את</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>סך</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ההון</t>
         </r>
         <r>
           <rPr>
@@ -1252,7 +1694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="1986">
   <si>
     <t xml:space="preserve">מבוא לחשבונאות פיננסית </t>
   </si>
@@ -9526,6 +9968,63 @@
   </si>
   <si>
     <t>סך הכל פחת נצבר מכונות נקניק</t>
+  </si>
+  <si>
+    <t>שיעור חזרה נוסף למבחן</t>
+  </si>
+  <si>
+    <t>סיווג</t>
+  </si>
+  <si>
+    <t>ערכו את הדוח על המצב הכספי (המאזן) ליום 31.12.2024 ואת דוח רווח והפסד לשנת 2024.</t>
+  </si>
+  <si>
+    <t>הכנסות (מכירות)</t>
+  </si>
+  <si>
+    <t>הוצאה (עלות המכירות)</t>
+  </si>
+  <si>
+    <t>הוצאה (קניות)</t>
+  </si>
+  <si>
+    <t>הקטנת הוצאה (עלות המכר)</t>
+  </si>
+  <si>
+    <t>הוצאה (הנהלה וכלליות)</t>
+  </si>
+  <si>
+    <t>התחייבות שוטפת</t>
+  </si>
+  <si>
+    <t>נכסים לא שוטפים (במינוס)</t>
+  </si>
+  <si>
+    <t>הוצאה (מכירה ושיווק)</t>
+  </si>
+  <si>
+    <t>הוצאה (מסים על ההכנסה)</t>
+  </si>
+  <si>
+    <t>הקטנת הכנסה (מכירות)</t>
+  </si>
+  <si>
+    <t>נכסים שוטפים (במינוס)</t>
+  </si>
+  <si>
+    <t>הוצאה (מימון)</t>
+  </si>
+  <si>
+    <t>הוצאה (הנהלה / שיווק)</t>
+  </si>
+  <si>
+    <t>ירידה בהוצאה (קניות)</t>
+  </si>
+  <si>
+    <t>הכנסות (מימון)</t>
+  </si>
+  <si>
+    <t>הוצאה (אחרות)</t>
   </si>
 </sst>
 </file>
@@ -10433,7 +10932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="398">
+  <cellXfs count="397">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -11038,6 +11537,33 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="1" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11112,34 +11638,6 @@
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="1" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="1" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -20529,6 +21027,1528 @@
         <a:p>
           <a:pPr algn="r" rtl="1"/>
           <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>184729</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>130849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>79116</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C28D939-A7DD-7E43-A136-115E7070DF1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13471041793" y="332894"/>
+          <a:ext cx="6475296" cy="13925742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>מבנה משוער של הבחינה בקורס יסודות החשבונאות - הנחיות לסטודנטים ולסטודנטיות</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>להלן פירוט המבנה המשוער של הבחינה, הכולל את נושאי המבחן המרכזיים והדגשים שיידרשו מכם. שימו לב כי מבנה זה עשוי להשתנות בהתאם לקצב ההתקדמות במהלך הסמסטר והדגשים שיועלו בשיעורים הקרובים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>מנהלות:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>משך הבחינה - 3 שעות (180 דקות). </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>חומר עזר - מחשבון</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t> מדעי ו/או פיננסי בלבד. דף נוסחאות *מטעמנו* שיכלול הגדרות עיקריות ייכלל כנספח. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>המבחן מבוצע אולד סקול, על נייר, וכולל שאלות פתוחות בלבד. </a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>מבנה הבחינה:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה 1 (40% מהציון הכולל)</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>נושא: עריכת דוחות כספיים</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה זו תבחן את יכולתכם לבצע תהליך מלא של עריכת דוחות כספיים, על בסיס נתונים גולמיים:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• תינתן רשימת יתרות מעורבבת הכוללת יתרות תוצאתיות (כגון הכנסות והוצאות) ויתרות מאזניות (כגון נכסים, התחייבויות והון עצמי).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• תדרשו לערוך דוחות כספיים מלאים:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• דוח רווח והפסד.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• מאזן (הדוח על המצב הכספי).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• יתכן שהנתונים יכללו יתרות לחילוץ (כגון “יתרת עודפים לתחילת השנה בסימן שאלה”) שתידרשו להסיק מאיזון ערכי</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t> הרשימה</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>חלק א של השאלה הגדולה בקיצור</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t> &gt;&gt; רשימת יתרות נתונה &gt;&gt; חילוץ בסיסי (נכסים = התחייבויות + הון) &gt;&gt; עריכת דוחות במלואם. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• לאחר השלמת הדוחות, יינתנו מספר שאלות שידרשו מכם להעריך את ההשפעה של עסקאות נוספות על הדיווחים הכספיים. למשל, ניתוח ההשלכות המהותיות של אירועים חשבונאיים נוספים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>הואיל</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t> ואירועים נוספים אלו יכולים להיות בכל עולם התוכן והסוגיות של הקורס - בהיבט יעילות למידה - נשלים את כל הסוגיות והנושאים ורק אז נחזור לשאלה מסכמת תרגולית. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="he-IL" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>חלק ב של השאלה הגדולה בקיצור &gt;&gt; אחרי שהדוחות ערוכים חלק א &gt;&gt; ישאלו על ההשפעה של עסקאות ספציפיות (משפטים) בכל הנושאים שנלמדו / יילמדו. </a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה 2 (15% מהציון הכולל)</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>נושא: ניתוח יתרת לקוחות והלח״מ (לחובות מסופקים)</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוח יתרת הלקוחות תוך חישוב שיעור החובות המסופקים (הלח״מ) באחוזים מתוך הלקוחות בלבד.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• דוגמאות לפירוט:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• יתרת לקוחות כוללת 100,000 ש״ח, מתוכם:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• קבוצה א׳: שיעור הלח״מ של 4%.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• קבוצה ב׳: שיעור הלח״מ של 6%.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• עליכם לבצע חישובים מדויקים כדי להעריך את שיעור הלח״מ הכולל.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ההשפעה של חובות אבודים:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• חישוב השפעות של חובות אבודים על יתרת הלקוחות.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• אין צורך לטפל במקרים יוצאי דופן, כמו חוב אבוד שהפך לטוב.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה 3 (15% מהציון הכולל)</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>נושא: רכוש קבוע והפחתה</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• תידרשו לבצע חישובים הקשורים לרכוש קבוע ולהבין את השפעותיהם.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• דגשים לחישוב פחת:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• שימוש בשיטת הפחת בקו ישר בלבד.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• התייחסות לערך שייר, מועד תחילת ההפחתה (מועד הזמינות לשימוש), ועלויות הכלולות בפריט (כגון הובלה, התקנה והעמדה לשימוש).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוח שינויים ואומדנים: - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>ירד מהמיקוד</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• שינויים במספר שנות הפחתה או בדפוס ההפחתה. - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>ירד מהמיקוד</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוח מכירות של רכוש קבוע ורווח/הפסד הון הנובע מהמכירה.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• רק מודל העלות – אין צורך לדון בהערכה מחדש.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• תידרשו לחשב:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• הוצאות פחת שנתיות.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• פחת נצבר.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ערך ספרים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה 4 (15% מהציון הכולל)</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>נושא: הון עצמי</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוח ובניית הדוח על השינויים בהון העצמי.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• דגשים:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• הון מניות, פרמיה ועלויות הנפקה (בקיזוז הפרמיה).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• מניות הטבה (כנגד הפרמיה).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• פיצול מניות ושינויים מבניים פשוטים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוח רווחים מחולקים ודיבידנדים.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שאלה 5 (15% מהציון הכולל)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>נושא: שונות ותיאוריה</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• תכנים מגוונים המבוססים על עקרונות תיאורטיים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• נושאים אפשריים נוספים כמותית:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• הלוואות (בכפוף להחלטה סופית).- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>ירד מהמיקוד</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>• ניתוחים פיננסיים בסיסיים המשלבים ידע תיאורטי עם דוגמאות פרקטיות (בכפוף להחלטה סופית).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL">
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL">
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>הערות חשובות:</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>1. מבנה זה משקף את ההנחיות המשוערות למבחן. ייתכנו שינויים בהתאם לקצב ההתקדמות ולדגשים שיינתנו במהלך הקורס.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>2. במהלך הבחינה יש להקפיד על סדר, דיוק והצגה ברורה של החישובים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>3. מספר קטן של בחינות לדוגמא יפורסמו בהמשך רק לאחר שמבנה הבחינה הסופי יאומת ויאושר כדי למנוע אי בהירויות.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>4. במקרה של שינויים, יינתן עדכון מוקדם לסטודנטים.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="he-IL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>בהצלחה,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>ד״ר צבאן האגדי</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            </a:rPr>
+            <a:t>שתמיד אומר: אם לא מפרגנים לי בסקר, אפרגן לעצמי</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+            <a:cs typeface="David" panose="020E0502060401010101" pitchFamily="34" charset="-79"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -34847,6 +36867,7 @@
       <sheetName val="מבנה הבחינה"/>
       <sheetName val="מסה נוספת לחזרה"/>
       <sheetName val="תרגילים נוספים קצרים לחזרה"/>
+      <sheetName val="תרגול קצר אחרון"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -34893,6 +36914,7 @@
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -35217,7 +37239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067D2D1D-95FC-4B41-8636-1F174D124CA9}">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="233" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A223" zoomScale="233" workbookViewId="0">
       <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
@@ -36554,8 +38576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5C12D5-F6AD-854D-881E-103A4EF411A2}">
   <dimension ref="A1:K244"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A168" zoomScale="250" zoomScaleNormal="380" workbookViewId="0">
-      <selection activeCell="H237" sqref="H237"/>
+    <sheetView rightToLeft="1" topLeftCell="A217" zoomScale="358" zoomScaleNormal="380" workbookViewId="0">
+      <selection activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36745,7 +38767,7 @@
       <c r="F28" s="98"/>
       <c r="G28" s="98"/>
       <c r="H28" s="14"/>
-      <c r="J28" s="381" t="s">
+      <c r="J28" s="394" t="s">
         <v>1186</v>
       </c>
     </row>
@@ -36764,7 +38786,7 @@
       <c r="F29" s="98"/>
       <c r="G29" s="98"/>
       <c r="H29" s="14"/>
-      <c r="J29" s="380"/>
+      <c r="J29" s="393"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="244" t="s">
@@ -37802,10 +39824,10 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="382" t="s">
+      <c r="A140" s="395" t="s">
         <v>1210</v>
       </c>
-      <c r="B140" s="380"/>
+      <c r="B140" s="393"/>
       <c r="C140" s="259">
         <v>43101</v>
       </c>
@@ -38475,13 +40497,13 @@
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F226" s="383">
+      <c r="F226" s="396">
         <f>(880000-250000)/10</f>
         <v>63000</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F227" s="383"/>
+      <c r="F227" s="396"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F229" s="1" t="s">
@@ -38641,8 +40663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288E17A9-ED42-3C4A-965C-BEB827FE4C1D}">
   <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A143" zoomScale="400" zoomScaleNormal="380" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147:G147"/>
+    <sheetView rightToLeft="1" topLeftCell="A218" zoomScale="200" zoomScaleNormal="380" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39768,7 +41790,7 @@
   <dimension ref="A1:K138"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="192" zoomScaleNormal="320" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40529,17 +42551,17 @@
       <c r="E97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F97" s="380" t="s">
+      <c r="F97" s="393" t="s">
         <v>36</v>
       </c>
-      <c r="G97" s="380"/>
+      <c r="G97" s="393"/>
       <c r="I97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J97" s="380" t="s">
+      <c r="J97" s="393" t="s">
         <v>36</v>
       </c>
-      <c r="K97" s="380"/>
+      <c r="K97" s="393"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
@@ -40812,8 +42834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A00005-B9E2-3F47-9BF1-27822E0144AD}">
   <dimension ref="A1:AB114"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A107" zoomScale="389" zoomScaleNormal="290" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:H116"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A83" zoomScale="160" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40868,14 +42890,14 @@
       <c r="D74" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F74" s="376" t="s">
+      <c r="F74" s="389" t="s">
         <v>1666</v>
       </c>
-      <c r="G74" s="376"/>
-      <c r="H74" s="376"/>
-      <c r="I74" s="376"/>
-      <c r="J74" s="376"/>
-      <c r="K74" s="376"/>
+      <c r="G74" s="389"/>
+      <c r="H74" s="389"/>
+      <c r="I74" s="389"/>
+      <c r="J74" s="389"/>
+      <c r="K74" s="389"/>
       <c r="O74" s="3" t="s">
         <v>1665</v>
       </c>
@@ -41573,10 +43595,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432AEE3-0DF8-4B44-A8A4-B3DE0EE0E0AD}">
-  <dimension ref="A1:AB301"/>
+  <dimension ref="A1:AB253"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="I1" zoomScale="400" zoomScaleNormal="290" workbookViewId="0">
-      <selection activeCell="I272" sqref="I272"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A110" zoomScale="143" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41631,14 +43653,14 @@
       <c r="D84" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F84" s="376" t="s">
+      <c r="F84" s="389" t="s">
         <v>1666</v>
       </c>
-      <c r="G84" s="376"/>
-      <c r="H84" s="376"/>
-      <c r="I84" s="376"/>
-      <c r="J84" s="376"/>
-      <c r="K84" s="376"/>
+      <c r="G84" s="389"/>
+      <c r="H84" s="389"/>
+      <c r="I84" s="389"/>
+      <c r="J84" s="389"/>
+      <c r="K84" s="389"/>
       <c r="O84" s="3" t="s">
         <v>1665</v>
       </c>
@@ -43070,414 +45092,6 @@
       </c>
       <c r="F253" s="4">
         <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="259" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="235" t="s">
-        <v>1820</v>
-      </c>
-      <c r="B259" s="332"/>
-      <c r="C259" s="332"/>
-      <c r="D259" s="332"/>
-      <c r="E259" s="332"/>
-      <c r="F259" s="332"/>
-      <c r="G259" s="332"/>
-      <c r="H259" s="333"/>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A261" s="1" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A262" s="1" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A264" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="6"/>
-      <c r="D264" s="245" t="s">
-        <v>446</v>
-      </c>
-      <c r="G264" s="3" t="s">
-        <v>1827</v>
-      </c>
-      <c r="N264" s="3" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A265" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D265" s="237" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A266" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D266" s="38">
-        <v>800</v>
-      </c>
-      <c r="G266" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H266" s="6"/>
-      <c r="I266" s="6"/>
-      <c r="J266" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="K266" s="6"/>
-      <c r="N266" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A267" s="1" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D267" s="38">
-        <v>750</v>
-      </c>
-      <c r="N267" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A268" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D268" s="38">
-        <v>1000</v>
-      </c>
-      <c r="G268" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="J268" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="N268" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="P268" s="339"/>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A269" s="1" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D269" s="38">
-        <v>400</v>
-      </c>
-      <c r="N269" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A270" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D270" s="38">
-        <v>300</v>
-      </c>
-      <c r="N270" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A271" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D271" s="38">
-        <v>288</v>
-      </c>
-      <c r="N271" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A272" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D272" s="38">
-        <v>138</v>
-      </c>
-      <c r="N272" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A273" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D273" s="38">
-        <v>222</v>
-      </c>
-      <c r="N273" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="P273" s="339"/>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A274" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D274" s="38">
-        <v>131</v>
-      </c>
-      <c r="G274" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="J274" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="N274" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A275" s="1" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D275" s="38">
-        <v>212</v>
-      </c>
-      <c r="N275" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A276" s="1" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D276" s="38">
-        <v>212</v>
-      </c>
-      <c r="N276" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="P276" s="339"/>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A277" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D277" s="38">
-        <v>111</v>
-      </c>
-      <c r="N277" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A278" s="1" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D278" s="38">
-        <v>19</v>
-      </c>
-      <c r="N278" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="P278" s="339"/>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A279" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D279" s="38">
-        <v>117</v>
-      </c>
-      <c r="J279" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A280" s="1" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D280" s="38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A281" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D281" s="38">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A282" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D282" s="38">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A283" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D283" s="38">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A284" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D284" s="38">
-        <v>60</v>
-      </c>
-      <c r="G284" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J284" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A285" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D285" s="38">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A286" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D286" s="38">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A287" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D287" s="38">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A288" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D288" s="38">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A289" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D289" s="38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D290" s="38">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D291" s="38">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D292" s="38">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D293" s="38">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D294" s="38">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D295" s="38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D296" s="38">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="D297" s="38">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D298" s="38">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D299" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D300" s="38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="1" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D301" s="38">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -43500,8 +45114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F32CDC-0574-9841-BED3-29972B30C173}">
   <dimension ref="A1:N181"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A155" zoomScale="228" workbookViewId="0">
-      <selection activeCell="G182" sqref="G182"/>
+    <sheetView rightToLeft="1" zoomScale="228" workbookViewId="0">
+      <selection activeCell="I170" sqref="I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43731,7 +45345,7 @@
       <c r="D44" s="17" t="s">
         <v>1852</v>
       </c>
-      <c r="E44" s="385" t="s">
+      <c r="E44" s="359" t="s">
         <v>1852</v>
       </c>
       <c r="F44" s="17" t="s">
@@ -43882,11 +45496,11 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="386">
+      <c r="G51" s="360">
         <f>-30%*500</f>
         <v>-150</v>
       </c>
-      <c r="H51" s="386">
+      <c r="H51" s="360">
         <f>G51</f>
         <v>-150</v>
       </c>
@@ -43895,32 +45509,32 @@
       <c r="A52" s="1" t="s">
         <v>1864</v>
       </c>
-      <c r="B52" s="387">
-        <f>SUM(B45:B51)</f>
+      <c r="B52" s="361">
+        <f t="shared" ref="B52:H52" si="0">SUM(B45:B51)</f>
         <v>0</v>
       </c>
-      <c r="C52" s="387">
-        <f>SUM(C45:C51)</f>
+      <c r="C52" s="361">
+        <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="D52" s="387">
-        <f>SUM(D45:D51)</f>
+      <c r="D52" s="361">
+        <f t="shared" si="0"/>
         <v>440</v>
       </c>
-      <c r="E52" s="387">
-        <f>SUM(E45:E51)</f>
+      <c r="E52" s="361">
+        <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="F52" s="387">
-        <f>SUM(F45:F51)</f>
+      <c r="F52" s="361">
+        <f t="shared" si="0"/>
         <v>613</v>
       </c>
-      <c r="G52" s="387">
-        <f>SUM(G45:G51)</f>
+      <c r="G52" s="361">
+        <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="H52" s="387">
-        <f>SUM(H45:H51)</f>
+      <c r="H52" s="361">
+        <f t="shared" si="0"/>
         <v>3393</v>
       </c>
     </row>
@@ -44021,8 +45635,6 @@
       <c r="A72" s="48" t="s">
         <v>1879</v>
       </c>
-      <c r="B72" s="389"/>
-      <c r="C72" s="389"/>
       <c r="D72" s="49"/>
       <c r="E72" s="1" t="s">
         <v>1676</v>
@@ -44038,8 +45650,6 @@
       <c r="A73" s="48" t="s">
         <v>1880</v>
       </c>
-      <c r="B73" s="389"/>
-      <c r="C73" s="389"/>
       <c r="D73" s="49"/>
       <c r="E73" s="1" t="s">
         <v>1876</v>
@@ -44055,8 +45665,6 @@
       <c r="A74" s="48" t="s">
         <v>1881</v>
       </c>
-      <c r="B74" s="389"/>
-      <c r="C74" s="389"/>
       <c r="D74" s="49"/>
       <c r="E74" s="1" t="s">
         <v>1877</v>
@@ -44064,7 +45672,7 @@
       <c r="H74" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I74" s="388">
+      <c r="I74" s="362">
         <v>10</v>
       </c>
     </row>
@@ -44072,8 +45680,6 @@
       <c r="A75" s="48" t="s">
         <v>1882</v>
       </c>
-      <c r="B75" s="389"/>
-      <c r="C75" s="389"/>
       <c r="D75" s="49"/>
       <c r="E75" s="1" t="s">
         <v>249</v>
@@ -44147,12 +45753,6 @@
       <c r="A86" s="48" t="s">
         <v>1872</v>
       </c>
-      <c r="B86" s="389"/>
-      <c r="C86" s="389"/>
-      <c r="D86" s="389"/>
-      <c r="E86" s="389"/>
-      <c r="F86" s="389"/>
-      <c r="G86" s="389"/>
       <c r="H86" s="49"/>
     </row>
     <row r="87" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -44207,40 +45807,40 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="390" t="s">
+      <c r="A97" s="363" t="s">
         <v>1892</v>
       </c>
-      <c r="B97" s="390"/>
-      <c r="C97" s="390"/>
-      <c r="D97" s="390"/>
-      <c r="E97" s="390"/>
-      <c r="F97" s="390"/>
-      <c r="G97" s="390"/>
-      <c r="H97" s="390"/>
+      <c r="B97" s="363"/>
+      <c r="C97" s="363"/>
+      <c r="D97" s="363"/>
+      <c r="E97" s="363"/>
+      <c r="F97" s="363"/>
+      <c r="G97" s="363"/>
+      <c r="H97" s="363"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="390" t="s">
+      <c r="A98" s="363" t="s">
         <v>1893</v>
       </c>
-      <c r="B98" s="390"/>
-      <c r="C98" s="390"/>
-      <c r="D98" s="390"/>
-      <c r="E98" s="390"/>
-      <c r="F98" s="390"/>
-      <c r="G98" s="390"/>
-      <c r="H98" s="390"/>
+      <c r="B98" s="363"/>
+      <c r="C98" s="363"/>
+      <c r="D98" s="363"/>
+      <c r="E98" s="363"/>
+      <c r="F98" s="363"/>
+      <c r="G98" s="363"/>
+      <c r="H98" s="363"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="390" t="s">
+      <c r="A99" s="363" t="s">
         <v>1894</v>
       </c>
-      <c r="B99" s="390"/>
-      <c r="C99" s="390"/>
-      <c r="D99" s="390"/>
-      <c r="E99" s="390"/>
-      <c r="F99" s="390"/>
-      <c r="G99" s="390"/>
-      <c r="H99" s="390"/>
+      <c r="B99" s="363"/>
+      <c r="C99" s="363"/>
+      <c r="D99" s="363"/>
+      <c r="E99" s="363"/>
+      <c r="F99" s="363"/>
+      <c r="G99" s="363"/>
+      <c r="H99" s="363"/>
     </row>
     <row r="100" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -44497,7 +46097,7 @@
       <c r="C145" s="1" t="s">
         <v>1924</v>
       </c>
-      <c r="G145" s="391">
+      <c r="G145" s="364">
         <f>8000/3</f>
         <v>2666.6666666666665</v>
       </c>
@@ -44509,7 +46109,7 @@
       <c r="C146" s="1" t="s">
         <v>1932</v>
       </c>
-      <c r="G146" s="384">
+      <c r="G146" s="358">
         <f>SUM(G142:G145)</f>
         <v>62666.666666666664</v>
       </c>
@@ -44633,7 +46233,7 @@
       <c r="C166" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D166" s="393">
+      <c r="D166" s="366">
         <f>D123*2</f>
         <v>800000</v>
       </c>
@@ -44653,11 +46253,11 @@
       <c r="C167" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D167" s="396">
+      <c r="D167" s="369">
         <f>-G181</f>
         <v>-171000</v>
       </c>
-      <c r="E167" s="394">
+      <c r="E167" s="367">
         <f>-D173</f>
         <v>-3333.333333333333</v>
       </c>
@@ -44705,7 +46305,7 @@
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D173" s="395">
+      <c r="D173" s="368">
         <f>8000/3*1.25</f>
         <v>3333.333333333333</v>
       </c>
@@ -44744,7 +46344,7 @@
       <c r="C177" s="1" t="s">
         <v>1961</v>
       </c>
-      <c r="G177" s="392">
+      <c r="G177" s="365">
         <f>G175+G176</f>
         <v>800000</v>
       </c>
@@ -44785,9 +46385,871 @@
       <c r="C181" s="1" t="s">
         <v>1966</v>
       </c>
-      <c r="G181" s="397">
+      <c r="G181" s="370">
         <f>G179+G180</f>
         <v>171000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405903D6-B902-644C-BFC5-BA460BEB946A}">
+  <dimension ref="A1:P169"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A130" zoomScale="180" workbookViewId="0">
+      <selection activeCell="H159" sqref="H159"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="80" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="235" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B81" s="332"/>
+      <c r="C81" s="332"/>
+      <c r="D81" s="332"/>
+      <c r="E81" s="332"/>
+      <c r="F81" s="332"/>
+      <c r="G81" s="332"/>
+      <c r="H81" s="333"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="245" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D87" s="237" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" s="38">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D89" s="38">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90" s="38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D91" s="38">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D92" s="38">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D93" s="38">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D94" s="38">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D95" s="38">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D96" s="38">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D97" s="38">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D98" s="38">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99" s="38">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D100" s="38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D101" s="38">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D102" s="38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D103" s="38">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D104" s="38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D105" s="38">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D106" s="38">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D107" s="38">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108" s="38">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D109" s="38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D110" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D111" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D112" s="38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D113" s="38">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D114" s="38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D115" s="38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D116" s="38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D117" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D118" s="38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D119" s="38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D120" s="38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D121" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D122" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D123" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="245" t="s">
+        <v>446</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>1968</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>1827</v>
+      </c>
+      <c r="N132" s="3" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D133" s="237" t="s">
+        <v>513</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D134" s="38">
+        <v>800</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="K134" s="6"/>
+      <c r="N134" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D135" s="38">
+        <v>750</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D136" s="38">
+        <v>1000</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P136" s="339"/>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D137" s="38">
+        <v>400</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D138" s="38">
+        <v>300</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D139" s="38">
+        <v>288</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D140" s="38">
+        <v>138</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D141" s="38">
+        <v>222</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="P141" s="339"/>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D142" s="38">
+        <v>131</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D143" s="38">
+        <v>212</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D144" s="38">
+        <v>212</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P144" s="339"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D145" s="38">
+        <v>111</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D146" s="38">
+        <v>19</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P146" s="339"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D147" s="38">
+        <v>117</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D148" s="38">
+        <v>100</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D149" s="38">
+        <v>92</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D150" s="38">
+        <v>80</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D151" s="38">
+        <v>70</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D152" s="38">
+        <v>60</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D153" s="38">
+        <v>53</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D154" s="38">
+        <v>45</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D155" s="38">
+        <v>22</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D156" s="38">
+        <v>40</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D157" s="38">
+        <v>12</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D158" s="38">
+        <v>19</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D159" s="38">
+        <v>44</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D160" s="38">
+        <v>15</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D161" s="38">
+        <v>23</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D162" s="38">
+        <v>22</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D163" s="38">
+        <v>20</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D164" s="38">
+        <v>15</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D165" s="38">
+        <v>19</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D166" s="38">
+        <v>27</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D167" s="38">
+        <v>10</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D168" s="38">
+        <v>5</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D169" s="38">
+        <v>5</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>1985</v>
       </c>
     </row>
   </sheetData>
@@ -44800,23 +47262,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13471061-7321-EA41-8969-02836EA8A88D}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A155" zoomScale="335" zoomScaleNormal="380" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="335" zoomScaleNormal="380" workbookViewId="0">
       <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="358" t="s">
+      <c r="A1" s="371" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="358"/>
-      <c r="C1" s="358"/>
-      <c r="D1" s="358"/>
-      <c r="E1" s="358"/>
-      <c r="F1" s="358"/>
-      <c r="G1" s="358"/>
-      <c r="H1" s="358"/>
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
+      <c r="G1" s="371"/>
+      <c r="H1" s="371"/>
     </row>
     <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
@@ -46800,7 +49262,7 @@
       <c r="A67" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J67" s="359" t="s">
+      <c r="J67" s="372" t="s">
         <v>335</v>
       </c>
       <c r="K67" s="63" t="s">
@@ -46814,7 +49276,7 @@
       <c r="A68" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J68" s="360"/>
+      <c r="J68" s="373"/>
       <c r="K68" s="67" t="s">
         <v>338</v>
       </c>
@@ -46823,7 +49285,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J69" s="361"/>
+      <c r="J69" s="374"/>
       <c r="K69" s="69" t="s">
         <v>340</v>
       </c>
@@ -46838,7 +49300,7 @@
       <c r="D70" s="61">
         <v>22000</v>
       </c>
-      <c r="J70" s="362" t="s">
+      <c r="J70" s="375" t="s">
         <v>342</v>
       </c>
       <c r="K70" s="63" t="s">
@@ -46849,7 +49311,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J71" s="363"/>
+      <c r="J71" s="376"/>
       <c r="K71" s="69" t="s">
         <v>343</v>
       </c>
@@ -47269,8 +49731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DFC35F-8277-C445-92FD-352A11581DF7}">
   <dimension ref="A1:O158"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="256" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="J157" sqref="J157"/>
+    <sheetView rightToLeft="1" topLeftCell="A110" zoomScale="256" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48103,17 +50565,17 @@
     </row>
     <row r="97" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="364" t="s">
+      <c r="A98" s="377" t="s">
         <v>473</v>
       </c>
-      <c r="B98" s="365"/>
-      <c r="C98" s="365"/>
-      <c r="D98" s="365"/>
-      <c r="E98" s="365"/>
-      <c r="F98" s="365"/>
-      <c r="G98" s="365"/>
-      <c r="H98" s="365"/>
-      <c r="I98" s="366"/>
+      <c r="B98" s="378"/>
+      <c r="C98" s="378"/>
+      <c r="D98" s="378"/>
+      <c r="E98" s="378"/>
+      <c r="F98" s="378"/>
+      <c r="G98" s="378"/>
+      <c r="H98" s="378"/>
+      <c r="I98" s="379"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
@@ -48240,7 +50702,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="107" t="s">
         <v>494</v>
       </c>
@@ -48261,7 +50723,7 @@
       <c r="K121" s="98"/>
       <c r="L121" s="38"/>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="107" t="s">
         <v>495</v>
       </c>
@@ -48282,7 +50744,7 @@
       <c r="K122" s="98"/>
       <c r="L122" s="38"/>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="38" t="s">
         <v>496</v>
       </c>
@@ -48303,7 +50765,7 @@
       <c r="K123" s="102"/>
       <c r="L123" s="38"/>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="38" t="s">
         <v>497</v>
       </c>
@@ -48325,7 +50787,7 @@
       </c>
       <c r="L124" s="38"/>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="38" t="s">
         <v>498</v>
       </c>
@@ -48345,7 +50807,7 @@
       <c r="K125" s="98"/>
       <c r="L125" s="38"/>
     </row>
-    <row r="126" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="38" t="s">
         <v>499</v>
       </c>
@@ -48357,7 +50819,7 @@
         <v>-20000</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="38" t="s">
         <v>500</v>
       </c>
@@ -48378,7 +50840,7 @@
       <c r="K127" s="98"/>
       <c r="L127" s="38"/>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="38" t="s">
         <v>501</v>
       </c>
@@ -48400,7 +50862,7 @@
       </c>
       <c r="L128" s="38"/>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="38" t="s">
         <v>502</v>
       </c>
@@ -48479,14 +50941,14 @@
       </c>
     </row>
     <row r="135" spans="1:15" ht="23" x14ac:dyDescent="0.25">
-      <c r="A135" s="367" t="s">
+      <c r="A135" s="380" t="s">
         <v>541</v>
       </c>
-      <c r="B135" s="367"/>
-      <c r="C135" s="367"/>
-      <c r="D135" s="367"/>
-      <c r="E135" s="367"/>
-      <c r="F135" s="367"/>
+      <c r="B135" s="380"/>
+      <c r="C135" s="380"/>
+      <c r="D135" s="380"/>
+      <c r="E135" s="380"/>
+      <c r="F135" s="380"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
@@ -48789,8 +51251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70ABB084-C487-1247-94FE-1A7A28B2F2A8}">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A81" zoomScale="200" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38"/>
+    <sheetView rightToLeft="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48913,11 +51375,11 @@
       <c r="E19" s="125" t="s">
         <v>562</v>
       </c>
-      <c r="F19" s="373" t="s">
+      <c r="F19" s="386" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="373"/>
-      <c r="H19" s="373"/>
+      <c r="G19" s="386"/>
+      <c r="H19" s="386"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F20" s="4" t="s">
@@ -48936,24 +51398,24 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C24" s="374" t="s">
+      <c r="C24" s="387" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="370" t="s">
+      <c r="D24" s="383" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="125" t="s">
         <v>562</v>
       </c>
-      <c r="F24" s="373" t="s">
+      <c r="F24" s="386" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="373"/>
-      <c r="H24" s="373"/>
+      <c r="G24" s="386"/>
+      <c r="H24" s="386"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C25" s="375"/>
-      <c r="D25" s="371"/>
+      <c r="C25" s="388"/>
+      <c r="D25" s="384"/>
       <c r="E25" s="8"/>
       <c r="F25" s="127" t="s">
         <v>490</v>
@@ -48993,23 +51455,23 @@
     </row>
     <row r="32" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="126"/>
-      <c r="C32" s="368" t="s">
+      <c r="C32" s="381" t="s">
         <v>564</v>
       </c>
-      <c r="D32" s="370" t="s">
+      <c r="D32" s="383" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="372" t="s">
+      <c r="E32" s="385" t="s">
         <v>565</v>
       </c>
-      <c r="F32" s="372"/>
-      <c r="G32" s="372"/>
-      <c r="H32" s="372"/>
+      <c r="F32" s="385"/>
+      <c r="G32" s="385"/>
+      <c r="H32" s="385"/>
     </row>
     <row r="33" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="126"/>
-      <c r="C33" s="375"/>
-      <c r="D33" s="371"/>
+      <c r="C33" s="388"/>
+      <c r="D33" s="384"/>
       <c r="E33" s="128" t="s">
         <v>566</v>
       </c>
@@ -49045,23 +51507,23 @@
     </row>
     <row r="39" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="126"/>
-      <c r="C39" s="368" t="s">
+      <c r="C39" s="381" t="s">
         <v>564</v>
       </c>
-      <c r="D39" s="370" t="s">
+      <c r="D39" s="383" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="372" t="s">
+      <c r="E39" s="385" t="s">
         <v>565</v>
       </c>
-      <c r="F39" s="372"/>
-      <c r="G39" s="372"/>
-      <c r="H39" s="372"/>
+      <c r="F39" s="385"/>
+      <c r="G39" s="385"/>
+      <c r="H39" s="385"/>
     </row>
     <row r="40" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="126"/>
-      <c r="C40" s="375"/>
-      <c r="D40" s="371"/>
+      <c r="C40" s="388"/>
+      <c r="D40" s="384"/>
       <c r="E40" s="128" t="s">
         <v>566</v>
       </c>
@@ -49163,22 +51625,22 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="368" t="s">
+      <c r="C54" s="381" t="s">
         <v>564</v>
       </c>
-      <c r="D54" s="370" t="s">
+      <c r="D54" s="383" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="372" t="s">
+      <c r="E54" s="385" t="s">
         <v>565</v>
       </c>
-      <c r="F54" s="372"/>
-      <c r="G54" s="372"/>
-      <c r="H54" s="372"/>
+      <c r="F54" s="385"/>
+      <c r="G54" s="385"/>
+      <c r="H54" s="385"/>
     </row>
     <row r="55" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="375"/>
-      <c r="D55" s="371"/>
+      <c r="C55" s="388"/>
+      <c r="D55" s="384"/>
       <c r="E55" s="128" t="s">
         <v>572</v>
       </c>
@@ -49248,24 +51710,24 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="368" t="s">
+      <c r="B71" s="381" t="s">
         <v>564</v>
       </c>
-      <c r="C71" s="368"/>
-      <c r="D71" s="370" t="s">
+      <c r="C71" s="381"/>
+      <c r="D71" s="383" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="372" t="s">
+      <c r="E71" s="385" t="s">
         <v>565</v>
       </c>
-      <c r="F71" s="372"/>
-      <c r="G71" s="372"/>
-      <c r="H71" s="372"/>
+      <c r="F71" s="385"/>
+      <c r="G71" s="385"/>
+      <c r="H71" s="385"/>
     </row>
     <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B72" s="369"/>
-      <c r="C72" s="369"/>
-      <c r="D72" s="371"/>
+      <c r="B72" s="382"/>
+      <c r="C72" s="382"/>
+      <c r="D72" s="384"/>
       <c r="E72" s="128" t="s">
         <v>572</v>
       </c>
@@ -49346,24 +51808,24 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="368" t="s">
+      <c r="B86" s="381" t="s">
         <v>564</v>
       </c>
-      <c r="C86" s="368"/>
-      <c r="D86" s="370" t="s">
+      <c r="C86" s="381"/>
+      <c r="D86" s="383" t="s">
         <v>28</v>
       </c>
-      <c r="E86" s="372" t="s">
+      <c r="E86" s="385" t="s">
         <v>565</v>
       </c>
-      <c r="F86" s="372"/>
-      <c r="G86" s="372"/>
-      <c r="H86" s="372"/>
+      <c r="F86" s="385"/>
+      <c r="G86" s="385"/>
+      <c r="H86" s="385"/>
     </row>
     <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B87" s="369"/>
-      <c r="C87" s="369"/>
-      <c r="D87" s="371"/>
+      <c r="B87" s="382"/>
+      <c r="C87" s="382"/>
+      <c r="D87" s="384"/>
       <c r="E87" s="128" t="s">
         <v>572</v>
       </c>
@@ -49403,24 +51865,24 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="368" t="s">
+      <c r="B94" s="381" t="s">
         <v>564</v>
       </c>
-      <c r="C94" s="368"/>
-      <c r="D94" s="370" t="s">
+      <c r="C94" s="381"/>
+      <c r="D94" s="383" t="s">
         <v>28</v>
       </c>
-      <c r="E94" s="372" t="s">
+      <c r="E94" s="385" t="s">
         <v>565</v>
       </c>
-      <c r="F94" s="372"/>
-      <c r="G94" s="372"/>
-      <c r="H94" s="372"/>
+      <c r="F94" s="385"/>
+      <c r="G94" s="385"/>
+      <c r="H94" s="385"/>
     </row>
     <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B95" s="369"/>
-      <c r="C95" s="369"/>
-      <c r="D95" s="371"/>
+      <c r="B95" s="382"/>
+      <c r="C95" s="382"/>
+      <c r="D95" s="384"/>
       <c r="E95" s="128" t="s">
         <v>572</v>
       </c>
@@ -49463,24 +51925,24 @@
       <c r="D99" s="126"/>
     </row>
     <row r="101" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="368" t="s">
+      <c r="B101" s="381" t="s">
         <v>564</v>
       </c>
-      <c r="C101" s="368"/>
-      <c r="D101" s="370" t="s">
+      <c r="C101" s="381"/>
+      <c r="D101" s="383" t="s">
         <v>28</v>
       </c>
-      <c r="E101" s="372" t="s">
+      <c r="E101" s="385" t="s">
         <v>565</v>
       </c>
-      <c r="F101" s="372"/>
-      <c r="G101" s="372"/>
-      <c r="H101" s="372"/>
+      <c r="F101" s="385"/>
+      <c r="G101" s="385"/>
+      <c r="H101" s="385"/>
     </row>
     <row r="102" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="369"/>
-      <c r="C102" s="369"/>
-      <c r="D102" s="371"/>
+      <c r="B102" s="382"/>
+      <c r="C102" s="382"/>
+      <c r="D102" s="384"/>
       <c r="E102" s="134" t="s">
         <v>572</v>
       </c>
@@ -49554,24 +52016,24 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="368" t="s">
+      <c r="B114" s="381" t="s">
         <v>564</v>
       </c>
-      <c r="C114" s="368"/>
-      <c r="D114" s="370" t="s">
+      <c r="C114" s="381"/>
+      <c r="D114" s="383" t="s">
         <v>28</v>
       </c>
-      <c r="E114" s="372" t="s">
+      <c r="E114" s="385" t="s">
         <v>565</v>
       </c>
-      <c r="F114" s="372"/>
-      <c r="G114" s="372"/>
-      <c r="H114" s="372"/>
+      <c r="F114" s="385"/>
+      <c r="G114" s="385"/>
+      <c r="H114" s="385"/>
     </row>
     <row r="115" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="369"/>
-      <c r="C115" s="369"/>
-      <c r="D115" s="371"/>
+      <c r="B115" s="382"/>
+      <c r="C115" s="382"/>
+      <c r="D115" s="384"/>
       <c r="E115" s="134" t="s">
         <v>572</v>
       </c>
@@ -49613,24 +52075,24 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="368" t="s">
+      <c r="B121" s="381" t="s">
         <v>564</v>
       </c>
-      <c r="C121" s="368"/>
-      <c r="D121" s="370" t="s">
+      <c r="C121" s="381"/>
+      <c r="D121" s="383" t="s">
         <v>28</v>
       </c>
-      <c r="E121" s="372" t="s">
+      <c r="E121" s="385" t="s">
         <v>565</v>
       </c>
-      <c r="F121" s="372"/>
-      <c r="G121" s="372"/>
-      <c r="H121" s="372"/>
+      <c r="F121" s="385"/>
+      <c r="G121" s="385"/>
+      <c r="H121" s="385"/>
     </row>
     <row r="122" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="369"/>
-      <c r="C122" s="369"/>
-      <c r="D122" s="371"/>
+      <c r="B122" s="382"/>
+      <c r="C122" s="382"/>
+      <c r="D122" s="384"/>
       <c r="E122" s="134" t="s">
         <v>572</v>
       </c>
@@ -49716,16 +52178,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="389" t="s">
         <v>623</v>
       </c>
-      <c r="B1" s="376"/>
-      <c r="C1" s="376"/>
-      <c r="D1" s="376"/>
-      <c r="E1" s="376"/>
-      <c r="F1" s="376"/>
-      <c r="G1" s="376"/>
-      <c r="H1" s="376"/>
+      <c r="B1" s="389"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="389"/>
+      <c r="H1" s="389"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="149" t="s">
@@ -53493,12 +55955,12 @@
       <c r="G130" s="300"/>
       <c r="H130" s="300"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="377" t="s">
+      <c r="J130" s="390" t="s">
         <v>1309</v>
       </c>
-      <c r="K130" s="378"/>
-      <c r="L130" s="378"/>
-      <c r="M130" s="378"/>
+      <c r="K130" s="391"/>
+      <c r="L130" s="391"/>
+      <c r="M130" s="391"/>
       <c r="N130" s="292"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
@@ -57126,8 +59588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46AB070-C7CA-FE41-9B78-01D49845651D}">
   <dimension ref="A1:I231"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView rightToLeft="1" topLeftCell="A52" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58467,10 +60929,10 @@
       <c r="F118" s="17" t="s">
         <v>951</v>
       </c>
-      <c r="G118" s="370" t="s">
+      <c r="G118" s="383" t="s">
         <v>28</v>
       </c>
-      <c r="H118" s="379" t="s">
+      <c r="H118" s="392" t="s">
         <v>952</v>
       </c>
     </row>
@@ -58479,8 +60941,8 @@
       <c r="F119" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="G119" s="370"/>
-      <c r="H119" s="379"/>
+      <c r="G119" s="383"/>
+      <c r="H119" s="392"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="48"/>
@@ -59813,11 +62275,11 @@
         <f>B312</f>
         <v>42750</v>
       </c>
-      <c r="D315" s="380" t="s">
+      <c r="D315" s="393" t="s">
         <v>1040</v>
       </c>
-      <c r="E315" s="380"/>
-      <c r="F315" s="380"/>
+      <c r="E315" s="393"/>
+      <c r="F315" s="393"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
@@ -59828,11 +62290,11 @@
       <c r="A319" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="D319" s="380" t="s">
+      <c r="D319" s="393" t="s">
         <v>1043</v>
       </c>
-      <c r="E319" s="380"/>
-      <c r="F319" s="380"/>
+      <c r="E319" s="393"/>
+      <c r="F319" s="393"/>
     </row>
     <row r="321" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E321" s="18">

--- a/Coursebook - ACC Ruppin - 2025 A.xlsx
+++ b/Coursebook - ACC Ruppin - 2025 A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/Ruppin - ACC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209479C2-5E05-DC40-BFFF-8CA799A0BEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB713E4F-DAE5-624F-AE2D-66978BB9953E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="29580" firstSheet="9" activeTab="15" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
   </bookViews>
@@ -1694,7 +1694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="1986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="2010">
   <si>
     <t xml:space="preserve">מבוא לחשבונאות פיננסית </t>
   </si>
@@ -9994,9 +9994,6 @@
     <t>הוצאה (הנהלה וכלליות)</t>
   </si>
   <si>
-    <t>התחייבות שוטפת</t>
-  </si>
-  <si>
     <t>נכסים לא שוטפים (במינוס)</t>
   </si>
   <si>
@@ -10025,6 +10022,81 @@
   </si>
   <si>
     <t>הוצאה (אחרות)</t>
+  </si>
+  <si>
+    <t>הש׳ לז״ק</t>
+  </si>
+  <si>
+    <t>השקעות לזמן קצר (הש׳ לז״ק)</t>
+  </si>
+  <si>
+    <t>הערות:</t>
+  </si>
+  <si>
+    <t>רכוש קבוע: סך כל פריטי הרכוש הקבוע - עלות, בניכוי סך כל הפחת הנצבר בגינם.</t>
+  </si>
+  <si>
+    <t>בשאלה זו, קיים פריט רכוש קבוע אחד ויחיד, מכונות לחימום נקניק, וההפרש בין עלותו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לבין הפחת הנצבר בגינו הוא סעיף הרכוש הקבוע בשאלה. </t>
+  </si>
+  <si>
+    <t>נדל״ן להשק׳</t>
+  </si>
+  <si>
+    <t>נדל״ן להשקעה (נדל״ן להשק׳)</t>
+  </si>
+  <si>
+    <t>התחייבות שוטפת*</t>
+  </si>
+  <si>
+    <t>התחייבויות לא שוטפות^</t>
+  </si>
+  <si>
+    <t>סך ההתח׳ וההון העצמי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,390 - 273 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,117 - 131 - 70 = </t>
+  </si>
+  <si>
+    <t>מכירות (מכירות, נטו)</t>
+  </si>
+  <si>
+    <t>מכירות לרווח והפסד</t>
+  </si>
+  <si>
+    <t>קניות נטו</t>
+  </si>
+  <si>
+    <t>סך הכל עלות המכירות</t>
+  </si>
+  <si>
+    <t>מלאי לתחילת השנה (פתיחה)</t>
+  </si>
+  <si>
+    <t>באופן כללי, יכולות להיות הכנסות אחרות בדוח רווח והפסד (מתחת להוצאות הנהלה וכלליות).</t>
+  </si>
+  <si>
+    <t>יחד עם זאת, כל הוצאה או הכנסה שלא קיימת - צריך להמנע מהכללת השורה שלה בדוח.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">להציג את השורה עם ערך 0 מפחית ניקוד. </t>
+  </si>
+  <si>
+    <t>חילוץ יתרת הרווח (עודפים) לתחילת השנה:</t>
+  </si>
+  <si>
+    <t>יתרת רווח (עודפים) 1.1 - לתחילת השנה</t>
+  </si>
+  <si>
+    <t>נכה: דיבידנד שהוכרז השנה</t>
+  </si>
+  <si>
+    <t>יתרת רווח (עודפים) 31.12 לתום השנה</t>
   </si>
 </sst>
 </file>
@@ -10509,7 +10581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -10927,12 +10999,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="407">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -11638,6 +11747,20 @@
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -46398,10 +46521,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405903D6-B902-644C-BFC5-BA460BEB946A}">
-  <dimension ref="A1:P169"/>
+  <dimension ref="A1:T171"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A130" zoomScale="180" workbookViewId="0">
-      <selection activeCell="H159" sqref="H159"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A133" zoomScale="180" workbookViewId="0">
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46753,7 +46876,8 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>197</v>
       </c>
@@ -46765,14 +46889,22 @@
       <c r="E132" s="6" t="s">
         <v>1968</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="G132" s="84" t="s">
         <v>1827</v>
       </c>
-      <c r="N132" s="3" t="s">
+      <c r="H132" s="46"/>
+      <c r="I132" s="46"/>
+      <c r="J132" s="46"/>
+      <c r="K132" s="46"/>
+      <c r="L132" s="47"/>
+      <c r="N132" s="84" t="s">
         <v>1828</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O132" s="46"/>
+      <c r="P132" s="46"/>
+      <c r="Q132" s="47"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>1824</v>
       </c>
@@ -46782,18 +46914,28 @@
       <c r="E133" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G133" s="48"/>
+      <c r="H133" s="398"/>
+      <c r="I133" s="398"/>
+      <c r="J133" s="398"/>
+      <c r="K133" s="398"/>
+      <c r="L133" s="49"/>
+      <c r="N133" s="48"/>
+      <c r="O133" s="398"/>
+      <c r="P133" s="398"/>
+      <c r="Q133" s="49"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>112</v>
+        <v>1992</v>
       </c>
       <c r="D134" s="38">
         <v>800</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E134" s="397" t="s">
         <v>524</v>
       </c>
-      <c r="G134" s="6" t="s">
+      <c r="G134" s="401" t="s">
         <v>33</v>
       </c>
       <c r="H134" s="6"/>
@@ -46802,25 +46944,54 @@
         <v>275</v>
       </c>
       <c r="K134" s="6"/>
-      <c r="N134" s="1" t="s">
+      <c r="L134" s="49"/>
+      <c r="N134" s="48" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O134" s="398"/>
+      <c r="P134" s="399">
+        <f>T138</f>
+        <v>918</v>
+      </c>
+      <c r="Q134" s="49"/>
+      <c r="R134" s="397" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>1648</v>
       </c>
       <c r="D135" s="38">
         <v>750</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E135" s="397" t="s">
         <v>524</v>
       </c>
-      <c r="N135" s="1" t="s">
+      <c r="G135" s="48"/>
+      <c r="H135" s="398"/>
+      <c r="I135" s="398"/>
+      <c r="J135" s="398"/>
+      <c r="K135" s="398"/>
+      <c r="L135" s="49"/>
+      <c r="N135" s="48" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O135" s="398"/>
+      <c r="P135" s="399">
+        <f>-T144</f>
+        <v>-238</v>
+      </c>
+      <c r="Q135" s="49"/>
+      <c r="R135" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="T135" s="30">
+        <f>D136</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>212</v>
       </c>
@@ -46830,46 +47001,121 @@
       <c r="E136" s="1" t="s">
         <v>1970</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G136" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="H136" s="398"/>
+      <c r="I136" s="398"/>
+      <c r="J136" s="398" t="s">
         <v>525</v>
       </c>
-      <c r="N136" s="1" t="s">
+      <c r="K136" s="398"/>
+      <c r="L136" s="49"/>
+      <c r="N136" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="P136" s="339"/>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O136" s="398"/>
+      <c r="P136" s="71">
+        <f>P134+P135</f>
+        <v>680</v>
+      </c>
+      <c r="Q136" s="49"/>
+      <c r="R136" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="T136" s="30">
+        <f>-D152</f>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>1416</v>
+        <v>1986</v>
       </c>
       <c r="D137" s="38">
         <v>400</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E137" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="N137" s="1" t="s">
+      <c r="F137" s="3"/>
+      <c r="G137" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H137" s="398">
+        <v>40</v>
+      </c>
+      <c r="I137" s="398"/>
+      <c r="J137" s="398" t="s">
+        <v>100</v>
+      </c>
+      <c r="K137" s="398"/>
+      <c r="L137" s="49">
+        <f>D147</f>
+        <v>117</v>
+      </c>
+      <c r="N137" s="48" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O137" s="398"/>
+      <c r="P137" s="399">
+        <f>-(92+22*50%+19+60%*10)</f>
+        <v>-128</v>
+      </c>
+      <c r="Q137" s="49"/>
+      <c r="R137" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="T137" s="30">
+        <f>-D155</f>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>674</v>
       </c>
       <c r="D138" s="38">
         <v>300</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E138" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="N138" s="1" t="s">
+      <c r="F138" s="3"/>
+      <c r="G138" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="H138" s="398">
+        <f>300-12</f>
+        <v>288</v>
+      </c>
+      <c r="I138" s="398"/>
+      <c r="J138" s="398" t="s">
+        <v>220</v>
+      </c>
+      <c r="K138" s="398"/>
+      <c r="L138" s="49">
+        <f>D154</f>
+        <v>45</v>
+      </c>
+      <c r="N138" s="48" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O138" s="398"/>
+      <c r="P138" s="399">
+        <f>-(19+53+15+23+22*50%+40%*10)</f>
+        <v>-125</v>
+      </c>
+      <c r="Q138" s="49"/>
+      <c r="R138" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="T138" s="61">
+        <f>SUM(T135:T137)</f>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>1651</v>
       </c>
@@ -46879,11 +47125,28 @@
       <c r="E139" s="1" t="s">
         <v>1971</v>
       </c>
-      <c r="N139" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G139" s="48" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H139" s="398">
+        <v>212</v>
+      </c>
+      <c r="I139" s="398"/>
+      <c r="J139" s="398"/>
+      <c r="K139" s="398"/>
+      <c r="L139" s="49"/>
+      <c r="N139" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="O139" s="398"/>
+      <c r="P139" s="399">
+        <f>-D169</f>
+        <v>-5</v>
+      </c>
+      <c r="Q139" s="49"/>
+      <c r="T139" s="30"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>1823</v>
       </c>
@@ -46893,26 +47156,74 @@
       <c r="E140" s="1" t="s">
         <v>1972</v>
       </c>
-      <c r="N140" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G140" s="48" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H140" s="398">
+        <v>400</v>
+      </c>
+      <c r="I140" s="398"/>
+      <c r="J140" s="398" t="s">
+        <v>315</v>
+      </c>
+      <c r="K140" s="398"/>
+      <c r="L140" s="402">
+        <f>SUM(L136:L139)</f>
+        <v>162</v>
+      </c>
+      <c r="N140" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="O140" s="398"/>
+      <c r="P140" s="71">
+        <f>SUM(P136:P139)</f>
+        <v>422</v>
+      </c>
+      <c r="Q140" s="49"/>
+      <c r="R140" s="397" t="s">
+        <v>216</v>
+      </c>
+      <c r="T140" s="30"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>218</v>
       </c>
       <c r="D141" s="38">
         <v>222</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" s="397" t="s">
         <v>524</v>
       </c>
-      <c r="N141" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="P141" s="339"/>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G141" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="H141" s="339">
+        <f>SUM(H137:H140)</f>
+        <v>940</v>
+      </c>
+      <c r="I141" s="398"/>
+      <c r="J141" s="398"/>
+      <c r="K141" s="398"/>
+      <c r="L141" s="49"/>
+      <c r="N141" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="O141" s="398"/>
+      <c r="P141" s="399">
+        <f>-(D158+D166)</f>
+        <v>-46</v>
+      </c>
+      <c r="Q141" s="49"/>
+      <c r="R141" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="T141" s="30">
+        <f>D159</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>490</v>
       </c>
@@ -46922,31 +47233,68 @@
       <c r="E142" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="N142" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G142" s="48"/>
+      <c r="H142" s="398"/>
+      <c r="I142" s="398"/>
+      <c r="J142" s="398"/>
+      <c r="K142" s="398"/>
+      <c r="L142" s="49"/>
+      <c r="N142" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="O142" s="398"/>
+      <c r="P142" s="399">
+        <f>D164</f>
+        <v>15</v>
+      </c>
+      <c r="Q142" s="49"/>
+      <c r="R142" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="T142" s="30">
+        <f>T152</f>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>1646</v>
       </c>
       <c r="D143" s="38">
         <v>212</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="N143" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F143" s="3"/>
+      <c r="G143" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="H143" s="398"/>
+      <c r="I143" s="398"/>
+      <c r="J143" s="398" t="s">
+        <v>526</v>
+      </c>
+      <c r="K143" s="398"/>
+      <c r="L143" s="49"/>
+      <c r="N143" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="O143" s="398"/>
+      <c r="P143" s="71">
+        <f>SUM(P140:P142)</f>
+        <v>391</v>
+      </c>
+      <c r="Q143" s="49"/>
+      <c r="R143" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="T143" s="30">
+        <f>-D144</f>
+        <v>-212</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>1647</v>
       </c>
@@ -46956,12 +47304,39 @@
       <c r="E144" s="1" t="s">
         <v>1973</v>
       </c>
-      <c r="N144" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="P144" s="339"/>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G144" s="48" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H144" s="398">
+        <f>750-100</f>
+        <v>650</v>
+      </c>
+      <c r="I144" s="398"/>
+      <c r="J144" s="398" t="s">
+        <v>101</v>
+      </c>
+      <c r="K144" s="398"/>
+      <c r="L144" s="49">
+        <f>D145</f>
+        <v>111</v>
+      </c>
+      <c r="N144" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="O144" s="398"/>
+      <c r="P144" s="399">
+        <v>-80</v>
+      </c>
+      <c r="Q144" s="49"/>
+      <c r="R144" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="T144" s="61">
+        <f>SUM(T141:T143)</f>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>101</v>
       </c>
@@ -46969,13 +47344,36 @@
         <v>111</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="N145" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1994</v>
+      </c>
+      <c r="G145" s="48" t="s">
+        <v>1991</v>
+      </c>
+      <c r="H145" s="398">
+        <f>D134</f>
+        <v>800</v>
+      </c>
+      <c r="I145" s="398"/>
+      <c r="J145" s="398" t="s">
+        <v>315</v>
+      </c>
+      <c r="K145" s="398"/>
+      <c r="L145" s="402">
+        <f>SUM(L144)</f>
+        <v>111</v>
+      </c>
+      <c r="N145" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="O145" s="51"/>
+      <c r="P145" s="400">
+        <f>P143+P144</f>
+        <v>311</v>
+      </c>
+      <c r="Q145" s="79"/>
+      <c r="T145" s="30"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>1825</v>
       </c>
@@ -46985,12 +47383,20 @@
       <c r="E146" s="1" t="s">
         <v>1974</v>
       </c>
-      <c r="N146" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="P146" s="339"/>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G146" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="H146" s="339">
+        <f>SUM(H144:H145)</f>
+        <v>1450</v>
+      </c>
+      <c r="I146" s="398"/>
+      <c r="J146" s="398"/>
+      <c r="K146" s="398"/>
+      <c r="L146" s="49"/>
+      <c r="T146" s="30"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>100</v>
       </c>
@@ -46998,24 +47404,46 @@
         <v>117</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1975</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1993</v>
+      </c>
+      <c r="G147" s="48"/>
+      <c r="H147" s="398"/>
+      <c r="I147" s="398"/>
+      <c r="J147" s="398"/>
+      <c r="K147" s="398"/>
+      <c r="L147" s="49"/>
+      <c r="R147" s="397" t="s">
+        <v>2000</v>
+      </c>
+      <c r="T147" s="30"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>1649</v>
       </c>
       <c r="D148" s="38">
         <v>100</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E148" s="397" t="s">
+        <v>1975</v>
+      </c>
+      <c r="G148" s="48"/>
+      <c r="H148" s="398"/>
+      <c r="I148" s="398"/>
+      <c r="J148" s="398" t="s">
+        <v>36</v>
+      </c>
+      <c r="K148" s="398"/>
+      <c r="L148" s="49"/>
+      <c r="R148" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="T148" s="30">
+        <f>D139</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>1655</v>
       </c>
@@ -47023,10 +47451,27 @@
         <v>92</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1976</v>
+      </c>
+      <c r="G149" s="48"/>
+      <c r="H149" s="398"/>
+      <c r="I149" s="398"/>
+      <c r="J149" s="398" t="s">
+        <v>490</v>
+      </c>
+      <c r="K149" s="398"/>
+      <c r="L149" s="49">
+        <v>131</v>
+      </c>
+      <c r="R149" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="T149" s="30">
+        <f>D140</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>1657</v>
       </c>
@@ -47034,10 +47479,27 @@
         <v>80</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1977</v>
+      </c>
+      <c r="G150" s="48"/>
+      <c r="H150" s="398"/>
+      <c r="I150" s="398"/>
+      <c r="J150" s="398" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K150" s="398"/>
+      <c r="L150" s="49">
+        <v>70</v>
+      </c>
+      <c r="R150" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="T150" s="30">
+        <f>-D163</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>1278</v>
       </c>
@@ -47047,8 +47509,28 @@
       <c r="E151" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G151" s="48"/>
+      <c r="H151" s="398"/>
+      <c r="I151" s="398"/>
+      <c r="J151" s="398" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K151" s="398"/>
+      <c r="L151" s="49">
+        <f>L152-201</f>
+        <v>1916</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="R151" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="T151" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>309</v>
       </c>
@@ -47056,16 +47538,31 @@
         <v>60</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1979</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1978</v>
+      </c>
+      <c r="G152" s="48"/>
+      <c r="H152" s="398"/>
+      <c r="I152" s="398"/>
+      <c r="J152" s="398" t="s">
+        <v>315</v>
+      </c>
+      <c r="K152" s="398"/>
+      <c r="L152" s="402">
+        <f>L154-273</f>
+        <v>2117</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="T152" s="61">
+        <f>SUM(T148:T151)</f>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>1656</v>
       </c>
@@ -47075,8 +47572,14 @@
       <c r="E153" s="1" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G153" s="48"/>
+      <c r="H153" s="398"/>
+      <c r="I153" s="398"/>
+      <c r="J153" s="398"/>
+      <c r="K153" s="398"/>
+      <c r="L153" s="49"/>
+    </row>
+    <row r="154" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>220</v>
       </c>
@@ -47084,10 +47587,26 @@
         <v>45</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1993</v>
+      </c>
+      <c r="G154" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="H154" s="403">
+        <f>H141+H146</f>
+        <v>2390</v>
+      </c>
+      <c r="I154" s="51"/>
+      <c r="J154" s="51" t="s">
+        <v>1995</v>
+      </c>
+      <c r="K154" s="51"/>
+      <c r="L154" s="404">
+        <f>H154</f>
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>310</v>
       </c>
@@ -47095,32 +47614,49 @@
         <v>22</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D156" s="38">
         <v>40</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E156" s="3" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F156" s="3"/>
+      <c r="N156" s="45" t="s">
+        <v>2006</v>
+      </c>
+      <c r="O156" s="46"/>
+      <c r="P156" s="46"/>
+      <c r="Q156" s="47"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>1658</v>
       </c>
       <c r="D157" s="38">
         <v>12</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E157" s="3" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F157" s="3"/>
+      <c r="N157" s="48" t="s">
+        <v>2007</v>
+      </c>
+      <c r="O157" s="398"/>
+      <c r="P157" s="398"/>
+      <c r="Q157" s="406">
+        <f>Q160-Q159-Q158</f>
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>206</v>
       </c>
@@ -47128,12 +47664,21 @@
         <v>19</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1980</v>
+      </c>
+      <c r="N158" s="48" t="s">
+        <v>1304</v>
+      </c>
+      <c r="O158" s="398"/>
+      <c r="P158" s="398"/>
+      <c r="Q158" s="52">
+        <f>P145</f>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>409</v>
+        <v>2002</v>
       </c>
       <c r="D159" s="38">
         <v>44</v>
@@ -47141,8 +47686,16 @@
       <c r="E159" s="1" t="s">
         <v>1971</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N159" s="48" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O159" s="398"/>
+      <c r="P159" s="398"/>
+      <c r="Q159" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>1654</v>
       </c>
@@ -47152,8 +47705,17 @@
       <c r="E160" s="1" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N160" s="50" t="s">
+        <v>2009</v>
+      </c>
+      <c r="O160" s="51"/>
+      <c r="P160" s="51"/>
+      <c r="Q160" s="405">
+        <f>L151</f>
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>1323</v>
       </c>
@@ -47164,7 +47726,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>1653</v>
       </c>
@@ -47172,10 +47734,10 @@
         <v>22</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>438</v>
       </c>
@@ -47183,10 +47745,10 @@
         <v>20</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>203</v>
       </c>
@@ -47194,10 +47756,13 @@
         <v>15</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1983</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>1322</v>
       </c>
@@ -47205,10 +47770,13 @@
         <v>19</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1976</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>109</v>
       </c>
@@ -47216,10 +47784,13 @@
         <v>27</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1980</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>1652</v>
       </c>
@@ -47227,10 +47798,13 @@
         <v>10</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1981</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>453</v>
       </c>
@@ -47238,10 +47812,10 @@
         <v>5</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>1826</v>
       </c>
@@ -47249,7 +47823,20 @@
         <v>5</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I170" s="1" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I171" s="1" t="s">
+        <v>2005</v>
       </c>
     </row>
   </sheetData>

--- a/Coursebook - ACC Ruppin - 2025 A.xlsx
+++ b/Coursebook - ACC Ruppin - 2025 A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/Ruppin - ACC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB713E4F-DAE5-624F-AE2D-66978BB9953E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B73AC1F-2E08-B542-9C59-A83B453A7367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="29580" firstSheet="9" activeTab="15" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
   </bookViews>
@@ -1694,7 +1694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="2010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="2100">
   <si>
     <t xml:space="preserve">מבוא לחשבונאות פיננסית </t>
   </si>
@@ -9976,9 +9976,6 @@
     <t>סיווג</t>
   </si>
   <si>
-    <t>ערכו את הדוח על המצב הכספי (המאזן) ליום 31.12.2024 ואת דוח רווח והפסד לשנת 2024.</t>
-  </si>
-  <si>
     <t>הכנסות (מכירות)</t>
   </si>
   <si>
@@ -10097,6 +10094,328 @@
   </si>
   <si>
     <t>יתרת רווח (עודפים) 31.12 לתום השנה</t>
+  </si>
+  <si>
+    <t>א. ערכו את הדוח על המצב הכספי (המאזן) ליום 31.12.2024 ואת דוח רווח והפסד לשנת 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ב. חלצו את יתרת העודפים ליום 1.1.2024. </t>
+  </si>
+  <si>
+    <t>פתרון לסעיפים א ו-ב</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ג. הניחו כעת כי בנוסף לאמור לעיל החברה היתה מבצעת ב-31.12.2024 הנפקת מניות שערכן הנקוב 40 אלפי ש״ח </t>
+  </si>
+  <si>
+    <t>בתמורה ל-50 אלפי ש״ח, כאשר עלויות שנוצרו בעסקת ההנפקה מסתכמות ב-3 אלפי ש״ח. במצב כזה, מה היה</t>
+  </si>
+  <si>
+    <t>הערך העדכני של ההון העצמי לתום השנה בהתחשב בפעילות זו, ועל אילו סעיפי הון, אם בכלל, היתה השפעה?</t>
+  </si>
+  <si>
+    <t>השיבו לכל אחד מהסעיפים הבאים בנפרד (לא בהמשך זה לזה אלא בהמשך לדוחות הבסיסיים שערכתם):</t>
+  </si>
+  <si>
+    <t>ד. הניחו כעת כי בנוסף לאמור לעיל התגלה לאחר עריכת הדוחות שבעקבות טעות לא נרשמו הוצאות פחת בסכום</t>
+  </si>
+  <si>
+    <t>של 30 אלפי ש״ח בשנת 2024. אילו סעיפים, באילו דוחות כספיים, היו מושפעים מכך?</t>
+  </si>
+  <si>
+    <t>ה. ב-31.12.2024 בוצעה עסקת מכירה גדולה ללקוח שטרם שילם. חשב החברה טוען שאין צורך לבצע תיקון בדוחות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">להכללת פעילות זו שהרי כל עוד הלקוח טרם שילם, אין להכיר בהכנסה. חוו דעתכם בדבר הטענה. במידה והיא </t>
+  </si>
+  <si>
+    <t xml:space="preserve">שגויה, הסבירו כיצד העסקה תשפיע על הדוחות הכספיים. </t>
+  </si>
+  <si>
+    <t>ו. הניחו כעת כי התברר שכל הוצאות החשמל קשורות למבנה הנהלת החברה בלבד. האם הדבר ידרוש שינוי / עדכון</t>
+  </si>
+  <si>
+    <t>בדוחות הכספיים? והאם החשב שטוען ש״בסך הכל, ההוצאות נשארות אותו דבר, זה לא באמת משנה לאן נסווג אותן״</t>
+  </si>
+  <si>
+    <t>היא נכונה? נמקו בקצרה.</t>
+  </si>
+  <si>
+    <t>פתרון לכל יתר הסעיפים (תאוריה)</t>
+  </si>
+  <si>
+    <t>יש כאן עסקה ספציפית:</t>
+  </si>
+  <si>
+    <t>הנפקת מניות.</t>
+  </si>
+  <si>
+    <t>העלייה ב״הון המניות״ = לפי הערך הנקוב של המניות שהונפקו</t>
+  </si>
+  <si>
+    <t>התמורה נטו בעד ההנפקה = תמורה ברוטו בניכוי עלויות הנפקה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 - 3 = </t>
+  </si>
+  <si>
+    <t>העלייה בפרמיה = ההפרש בין תמורת ההנפקה נטו לעלייה בהון המניות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 - 40 = </t>
+  </si>
+  <si>
+    <t>לאחר שניתחתי את השפעות העסקה על ההון העצמי לפי הרכיבים המתאימים, אני יכול להראות בצורה מדויקת</t>
+  </si>
+  <si>
+    <t>מהו אהשינוי שיחול בסעיפי ההון העצמי ומהו ערכם העדכני לאחר הפעולה:</t>
+  </si>
+  <si>
+    <t>לפני השינוי</t>
+  </si>
+  <si>
+    <t>השפעת</t>
+  </si>
+  <si>
+    <t>השינוי</t>
+  </si>
+  <si>
+    <t>הרכב ההון</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוצאות פחת מהוות הוצאות בגין שחיקה של פריטי רכוש קבוע. </t>
+  </si>
+  <si>
+    <t>הוצאות הפחת נרשמות בדוח רווח והפסד (בסעיף המשקף את סוג השימוש בפריט, ובהוצאות הנהלה וכלליות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כברירת מחדל), וכן מגדילות את הפחת הנצבר ובכך מקטינות את ערך הרכוש הקבוע בדוחות הכספיים. </t>
+  </si>
+  <si>
+    <t>רקע כללי:</t>
+  </si>
+  <si>
+    <t>למי שפחות מבין עניין - טכני:</t>
+  </si>
+  <si>
+    <t>כאשר חברה מתעדת הוצאות הפחת, היא למעשה צריכה לרשום:</t>
+  </si>
+  <si>
+    <t>א. עלייה בהוצאות הפחת:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כמו כל הוצאה, נרשמות ברווח והפסד. </t>
+  </si>
+  <si>
+    <t>הסעיף הספציפי שבו תרשמנה הוצאות פחת, תלוי בסוג השימוש בנכס.</t>
+  </si>
+  <si>
+    <t>למשל: אם מדובר במחשבים שמשרתים את מחלקת השיווק, הוצאות</t>
+  </si>
+  <si>
+    <t>הפחת בגינם יירשמו במסגרת הוצאות מכירה ושיווק.</t>
+  </si>
+  <si>
+    <t>אם מדובר בפחת בגין מבנה הנהלה, אזי הוצאות הפחת בגינו יירשמו</t>
+  </si>
+  <si>
+    <t>כאן, לא נאמר מפורשות מהו ייעוד פריט הרכוש הקבוע שבבעלות החברה,</t>
+  </si>
+  <si>
+    <t>ולכן, כברירת מחדל - אנו נשייך את הוצאות הפחת לסעיף הוצאות</t>
+  </si>
+  <si>
+    <t>הנהלה וכלליות.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הרווח לפני מס והרווח הנקי באותו סכום. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">במסגרת </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>סעיף הוצאות הנהלה וכלליות ברווח והפסד.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">עצם העלייה בהוצאות הנהלה וכלליות - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>בדו״ח רוו״ה יקטן הרווח התפעולי,</t>
+    </r>
+  </si>
+  <si>
+    <t>אם בוצע רישום נוסף שמקטין את הרווח, הרווח המצטבר לתום השנה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יקטן גם הוא. </t>
+  </si>
+  <si>
+    <t>ב. ירידה ברווח נקי&gt;&gt;עודפים:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>יתרת העודפים לתום השנה תרד</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>. יתרת עודפים היא רווח מצטבר.</t>
+    </r>
+  </si>
+  <si>
+    <t>ג. ירידה ברכוש הקבוע:</t>
+  </si>
+  <si>
+    <t>בדוח על המצב הכספי (מאזן) הרכוש הקבוע נטו יקטן:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הקבוע נטו. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">הוצאות הפחת נרשמות במסגרת הפחת הנצבר, מה </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>שמקטין את הרכוש</t>
+    </r>
+  </si>
+  <si>
+    <t>ברווח והפסד:</t>
+  </si>
+  <si>
+    <t>עלייה בהוצאות פחת &gt;&gt;&gt; בסעיף הוצאות הנהלה וכלליות</t>
+  </si>
+  <si>
+    <t>ירידה ברווח התפעולי, רווח לפני מס ורווח נקי</t>
+  </si>
+  <si>
+    <t>בדוח על המצב הכספי (מאזן):</t>
+  </si>
+  <si>
+    <t>ירידה בעודפים</t>
+  </si>
+  <si>
+    <t>ירידה ברכוש הקבוע</t>
+  </si>
+  <si>
+    <t>לסיכום (כל השינויים המתוארים להלן הם בסכום של 30 א׳ ש״ח):</t>
+  </si>
+  <si>
+    <t>חשוב חשוב חשוב:</t>
+  </si>
+  <si>
+    <t>הכנסה היא לא כניסת כסף / מזומן!</t>
+  </si>
+  <si>
+    <t>הכנסה היא פעילות עסקית יוצרת ערך, כגון מכר או מתן שירות (גם אם התמורה התקבלה במועד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אחר). </t>
+  </si>
+  <si>
+    <t>לכן, יש לשלול מכל וכל את טענת החשב - אם בוצעה עסקת מכירה, מלוא סכום ערכה חייב להירשם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כהכנסה ממכירות בדוח רווח והפסד של שנת המכירה (2024) גם אם הלקוח טרם שילם. </t>
+  </si>
+  <si>
+    <t>כיצד העסקה (תיעוד העסקה) ישפיע על הדוחות הכספיים:</t>
+  </si>
+  <si>
+    <t>עלייה בהכנסה ממכירות</t>
+  </si>
+  <si>
+    <t>עלייה ברווח הגולמי</t>
+  </si>
+  <si>
+    <t>עלייה ברווח התפעולי</t>
+  </si>
+  <si>
+    <t>עלייה ברווח לפני מס</t>
+  </si>
+  <si>
+    <t>עלייה ברווח הנקי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הואיל ובוצעה מכירה ללקוח, והלקוח טרם שילם - חלה עלייה בחוב הלקוח כלפינו (עלייה בנכס </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הלקוחות). </t>
+  </si>
+  <si>
+    <t>כמו כן, הואיל והרווח הנקי עלה, העודפים (רווח מצטבר) לתום השנה, גדלים גם הם.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הנכס השוטף ״לקוחות״ במאזן יגדל. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">יתרת העודפים בהון העצמי תגדל בהתאם. </t>
+  </si>
+  <si>
+    <t>בנתוני השאלה המקוריים נרשם:</t>
+  </si>
+  <si>
+    <t>בהתאם לנתונים מקוריים אלו, אנו שייכנו את ההוצאה בהתאם (לפני תיקון) לסעיפים הבאים:</t>
+  </si>
+  <si>
+    <t>להוצאות מכירה ושיווק</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 * 60% = </t>
+  </si>
+  <si>
+    <t>להוצאות הנהלה וכלליות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 * 40% = </t>
+  </si>
+  <si>
+    <t>בנתונים המתוקנים נרשם:</t>
+  </si>
+  <si>
+    <t>הוצאות חשמל (100% הנהלה)</t>
+  </si>
+  <si>
+    <t>הואיל ומטרת דוח רווח והפסד איננה ״סתם״ לרשום את כל ההוצאות אלא לשייך אותן לפעילות הרלוונטית, מצב</t>
+  </si>
+  <si>
+    <t>שבו נדרש לבצע תיקון כדי לשייך את הוצאות החשמל כולן רק לפעילות ההנהלה (ולא לפעילות השיווק) הוא מחייב.</t>
+  </si>
+  <si>
+    <t>לכן, חובה לבצע את התיקון בהתאם - להקטין את הוצאות המכירה והשיווק ב-6, ולהגדיל את הוצאות ההנהלה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">והכלליות ב-6. </t>
   </si>
 </sst>
 </file>
@@ -11041,7 +11360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="407">
+  <cellXfs count="415">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -11752,15 +12071,29 @@
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -46521,10 +46854,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405903D6-B902-644C-BFC5-BA460BEB946A}">
-  <dimension ref="A1:T171"/>
+  <dimension ref="A1:T297"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A133" zoomScale="180" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A277" zoomScale="265" workbookViewId="0">
+      <selection activeCell="A286" sqref="A286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46873,970 +47206,1711 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A132" s="6" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+    </row>
+    <row r="147" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="245" t="s">
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="245" t="s">
         <v>446</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E148" s="6" t="s">
         <v>1968</v>
       </c>
-      <c r="G132" s="84" t="s">
+      <c r="G148" s="84" t="s">
         <v>1827</v>
       </c>
-      <c r="H132" s="46"/>
-      <c r="I132" s="46"/>
-      <c r="J132" s="46"/>
-      <c r="K132" s="46"/>
-      <c r="L132" s="47"/>
-      <c r="N132" s="84" t="s">
+      <c r="H148" s="46"/>
+      <c r="I148" s="46"/>
+      <c r="J148" s="46"/>
+      <c r="K148" s="46"/>
+      <c r="L148" s="47"/>
+      <c r="N148" s="84" t="s">
         <v>1828</v>
       </c>
-      <c r="O132" s="46"/>
-      <c r="P132" s="46"/>
-      <c r="Q132" s="47"/>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D133" s="237" t="s">
-        <v>513</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G133" s="48"/>
-      <c r="H133" s="398"/>
-      <c r="I133" s="398"/>
-      <c r="J133" s="398"/>
-      <c r="K133" s="398"/>
-      <c r="L133" s="49"/>
-      <c r="N133" s="48"/>
-      <c r="O133" s="398"/>
-      <c r="P133" s="398"/>
-      <c r="Q133" s="49"/>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>1992</v>
-      </c>
-      <c r="D134" s="38">
-        <v>800</v>
-      </c>
-      <c r="E134" s="397" t="s">
-        <v>524</v>
-      </c>
-      <c r="G134" s="401" t="s">
-        <v>33</v>
-      </c>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="K134" s="6"/>
-      <c r="L134" s="49"/>
-      <c r="N134" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="O134" s="398"/>
-      <c r="P134" s="399">
-        <f>T138</f>
-        <v>918</v>
-      </c>
-      <c r="Q134" s="49"/>
-      <c r="R134" s="397" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D135" s="38">
-        <v>750</v>
-      </c>
-      <c r="E135" s="397" t="s">
-        <v>524</v>
-      </c>
-      <c r="G135" s="48"/>
-      <c r="H135" s="398"/>
-      <c r="I135" s="398"/>
-      <c r="J135" s="398"/>
-      <c r="K135" s="398"/>
-      <c r="L135" s="49"/>
-      <c r="N135" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="O135" s="398"/>
-      <c r="P135" s="399">
-        <f>-T144</f>
-        <v>-238</v>
-      </c>
-      <c r="Q135" s="49"/>
-      <c r="R135" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="T135" s="30">
-        <f>D136</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D136" s="38">
-        <v>1000</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>1970</v>
-      </c>
-      <c r="G136" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="H136" s="398"/>
-      <c r="I136" s="398"/>
-      <c r="J136" s="398" t="s">
-        <v>525</v>
-      </c>
-      <c r="K136" s="398"/>
-      <c r="L136" s="49"/>
-      <c r="N136" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="O136" s="398"/>
-      <c r="P136" s="71">
-        <f>P134+P135</f>
-        <v>680</v>
-      </c>
-      <c r="Q136" s="49"/>
-      <c r="R136" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="T136" s="30">
-        <f>-D152</f>
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>1986</v>
-      </c>
-      <c r="D137" s="38">
-        <v>400</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="F137" s="3"/>
-      <c r="G137" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="H137" s="398">
-        <v>40</v>
-      </c>
-      <c r="I137" s="398"/>
-      <c r="J137" s="398" t="s">
-        <v>100</v>
-      </c>
-      <c r="K137" s="398"/>
-      <c r="L137" s="49">
-        <f>D147</f>
-        <v>117</v>
-      </c>
-      <c r="N137" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="O137" s="398"/>
-      <c r="P137" s="399">
-        <f>-(92+22*50%+19+60%*10)</f>
-        <v>-128</v>
-      </c>
-      <c r="Q137" s="49"/>
-      <c r="R137" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="T137" s="30">
-        <f>-D155</f>
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D138" s="38">
-        <v>300</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="F138" s="3"/>
-      <c r="G138" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H138" s="398">
-        <f>300-12</f>
-        <v>288</v>
-      </c>
-      <c r="I138" s="398"/>
-      <c r="J138" s="398" t="s">
-        <v>220</v>
-      </c>
-      <c r="K138" s="398"/>
-      <c r="L138" s="49">
-        <f>D154</f>
-        <v>45</v>
-      </c>
-      <c r="N138" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="O138" s="398"/>
-      <c r="P138" s="399">
-        <f>-(19+53+15+23+22*50%+40%*10)</f>
-        <v>-125</v>
-      </c>
-      <c r="Q138" s="49"/>
-      <c r="R138" s="1" t="s">
-        <v>1999</v>
-      </c>
-      <c r="T138" s="61">
-        <f>SUM(T135:T137)</f>
-        <v>918</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D139" s="38">
-        <v>288</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>1971</v>
-      </c>
-      <c r="G139" s="48" t="s">
-        <v>1622</v>
-      </c>
-      <c r="H139" s="398">
-        <v>212</v>
-      </c>
-      <c r="I139" s="398"/>
-      <c r="J139" s="398"/>
-      <c r="K139" s="398"/>
-      <c r="L139" s="49"/>
-      <c r="N139" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="O139" s="398"/>
-      <c r="P139" s="399">
-        <f>-D169</f>
-        <v>-5</v>
-      </c>
-      <c r="Q139" s="49"/>
-      <c r="T139" s="30"/>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D140" s="38">
-        <v>138</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G140" s="48" t="s">
-        <v>1985</v>
-      </c>
-      <c r="H140" s="398">
-        <v>400</v>
-      </c>
-      <c r="I140" s="398"/>
-      <c r="J140" s="398" t="s">
-        <v>315</v>
-      </c>
-      <c r="K140" s="398"/>
-      <c r="L140" s="402">
-        <f>SUM(L136:L139)</f>
-        <v>162</v>
-      </c>
-      <c r="N140" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="O140" s="398"/>
-      <c r="P140" s="71">
-        <f>SUM(P136:P139)</f>
-        <v>422</v>
-      </c>
-      <c r="Q140" s="49"/>
-      <c r="R140" s="397" t="s">
-        <v>216</v>
-      </c>
-      <c r="T140" s="30"/>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D141" s="38">
-        <v>222</v>
-      </c>
-      <c r="E141" s="397" t="s">
-        <v>524</v>
-      </c>
-      <c r="G141" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="H141" s="339">
-        <f>SUM(H137:H140)</f>
-        <v>940</v>
-      </c>
-      <c r="I141" s="398"/>
-      <c r="J141" s="398"/>
-      <c r="K141" s="398"/>
-      <c r="L141" s="49"/>
-      <c r="N141" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="O141" s="398"/>
-      <c r="P141" s="399">
-        <f>-(D158+D166)</f>
-        <v>-46</v>
-      </c>
-      <c r="Q141" s="49"/>
-      <c r="R141" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="T141" s="30">
-        <f>D159</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D142" s="38">
-        <v>131</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G142" s="48"/>
-      <c r="H142" s="398"/>
-      <c r="I142" s="398"/>
-      <c r="J142" s="398"/>
-      <c r="K142" s="398"/>
-      <c r="L142" s="49"/>
-      <c r="N142" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="O142" s="398"/>
-      <c r="P142" s="399">
-        <f>D164</f>
-        <v>15</v>
-      </c>
-      <c r="Q142" s="49"/>
-      <c r="R142" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="T142" s="30">
-        <f>T152</f>
-        <v>406</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D143" s="38">
-        <v>212</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="F143" s="3"/>
-      <c r="G143" s="48" t="s">
-        <v>524</v>
-      </c>
-      <c r="H143" s="398"/>
-      <c r="I143" s="398"/>
-      <c r="J143" s="398" t="s">
-        <v>526</v>
-      </c>
-      <c r="K143" s="398"/>
-      <c r="L143" s="49"/>
-      <c r="N143" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="O143" s="398"/>
-      <c r="P143" s="71">
-        <f>SUM(P140:P142)</f>
-        <v>391</v>
-      </c>
-      <c r="Q143" s="49"/>
-      <c r="R143" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="T143" s="30">
-        <f>-D144</f>
-        <v>-212</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D144" s="38">
-        <v>212</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>1973</v>
-      </c>
-      <c r="G144" s="48" t="s">
-        <v>1314</v>
-      </c>
-      <c r="H144" s="398">
-        <f>750-100</f>
-        <v>650</v>
-      </c>
-      <c r="I144" s="398"/>
-      <c r="J144" s="398" t="s">
-        <v>101</v>
-      </c>
-      <c r="K144" s="398"/>
-      <c r="L144" s="49">
-        <f>D145</f>
-        <v>111</v>
-      </c>
-      <c r="N144" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="O144" s="398"/>
-      <c r="P144" s="399">
-        <v>-80</v>
-      </c>
-      <c r="Q144" s="49"/>
-      <c r="R144" s="1" t="s">
-        <v>2001</v>
-      </c>
-      <c r="T144" s="61">
-        <f>SUM(T141:T143)</f>
-        <v>238</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D145" s="38">
-        <v>111</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>1994</v>
-      </c>
-      <c r="G145" s="48" t="s">
-        <v>1991</v>
-      </c>
-      <c r="H145" s="398">
-        <f>D134</f>
-        <v>800</v>
-      </c>
-      <c r="I145" s="398"/>
-      <c r="J145" s="398" t="s">
-        <v>315</v>
-      </c>
-      <c r="K145" s="398"/>
-      <c r="L145" s="402">
-        <f>SUM(L144)</f>
-        <v>111</v>
-      </c>
-      <c r="N145" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="O145" s="51"/>
-      <c r="P145" s="400">
-        <f>P143+P144</f>
-        <v>311</v>
-      </c>
-      <c r="Q145" s="79"/>
-      <c r="T145" s="30"/>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D146" s="38">
-        <v>19</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>1974</v>
-      </c>
-      <c r="G146" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="H146" s="339">
-        <f>SUM(H144:H145)</f>
-        <v>1450</v>
-      </c>
-      <c r="I146" s="398"/>
-      <c r="J146" s="398"/>
-      <c r="K146" s="398"/>
-      <c r="L146" s="49"/>
-      <c r="T146" s="30"/>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D147" s="38">
-        <v>117</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="G147" s="48"/>
-      <c r="H147" s="398"/>
-      <c r="I147" s="398"/>
-      <c r="J147" s="398"/>
-      <c r="K147" s="398"/>
-      <c r="L147" s="49"/>
-      <c r="R147" s="397" t="s">
-        <v>2000</v>
-      </c>
-      <c r="T147" s="30"/>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D148" s="38">
-        <v>100</v>
-      </c>
-      <c r="E148" s="397" t="s">
-        <v>1975</v>
-      </c>
-      <c r="G148" s="48"/>
-      <c r="H148" s="398"/>
-      <c r="I148" s="398"/>
-      <c r="J148" s="398" t="s">
-        <v>36</v>
-      </c>
-      <c r="K148" s="398"/>
-      <c r="L148" s="49"/>
-      <c r="R148" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="T148" s="30">
-        <f>D139</f>
-        <v>288</v>
-      </c>
+      <c r="O148" s="46"/>
+      <c r="P148" s="46"/>
+      <c r="Q148" s="47"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D149" s="38">
-        <v>92</v>
+        <v>1824</v>
+      </c>
+      <c r="D149" s="237" t="s">
+        <v>513</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1976</v>
+        <v>36</v>
       </c>
       <c r="G149" s="48"/>
       <c r="H149" s="398"/>
       <c r="I149" s="398"/>
-      <c r="J149" s="398" t="s">
-        <v>490</v>
-      </c>
+      <c r="J149" s="398"/>
       <c r="K149" s="398"/>
-      <c r="L149" s="49">
-        <v>131</v>
-      </c>
-      <c r="R149" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="T149" s="30">
-        <f>D140</f>
-        <v>138</v>
-      </c>
+      <c r="L149" s="49"/>
+      <c r="N149" s="48"/>
+      <c r="O149" s="398"/>
+      <c r="P149" s="398"/>
+      <c r="Q149" s="49"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>1657</v>
+        <v>1991</v>
       </c>
       <c r="D150" s="38">
-        <v>80</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>1977</v>
-      </c>
-      <c r="G150" s="48"/>
-      <c r="H150" s="398"/>
-      <c r="I150" s="398"/>
-      <c r="J150" s="398" t="s">
-        <v>1278</v>
-      </c>
-      <c r="K150" s="398"/>
-      <c r="L150" s="49">
-        <v>70</v>
-      </c>
-      <c r="R150" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="T150" s="30">
-        <f>-D163</f>
-        <v>-20</v>
+        <v>800</v>
+      </c>
+      <c r="E150" s="397" t="s">
+        <v>524</v>
+      </c>
+      <c r="G150" s="400" t="s">
+        <v>33</v>
+      </c>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="K150" s="6"/>
+      <c r="L150" s="49"/>
+      <c r="N150" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="O150" s="398"/>
+      <c r="P150" s="399">
+        <f>T154</f>
+        <v>918</v>
+      </c>
+      <c r="Q150" s="49"/>
+      <c r="R150" s="397" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>1278</v>
+        <v>1648</v>
       </c>
       <c r="D151" s="38">
-        <v>70</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>36</v>
+        <v>750</v>
+      </c>
+      <c r="E151" s="397" t="s">
+        <v>524</v>
       </c>
       <c r="G151" s="48"/>
       <c r="H151" s="398"/>
       <c r="I151" s="398"/>
-      <c r="J151" s="398" t="s">
-        <v>1572</v>
-      </c>
+      <c r="J151" s="398"/>
       <c r="K151" s="398"/>
-      <c r="L151" s="49">
-        <f>L152-201</f>
-        <v>1916</v>
-      </c>
-      <c r="N151" s="1" t="s">
-        <v>1997</v>
-      </c>
+      <c r="L151" s="49"/>
+      <c r="N151" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="O151" s="398"/>
+      <c r="P151" s="399">
+        <f>-T160</f>
+        <v>-238</v>
+      </c>
+      <c r="Q151" s="49"/>
       <c r="R151" s="1" t="s">
-        <v>453</v>
+        <v>212</v>
       </c>
       <c r="T151" s="30">
-        <v>0</v>
+        <f>D152</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>309</v>
+        <v>212</v>
       </c>
       <c r="D152" s="38">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1978</v>
-      </c>
-      <c r="G152" s="48"/>
+        <v>1969</v>
+      </c>
+      <c r="G152" s="48" t="s">
+        <v>523</v>
+      </c>
       <c r="H152" s="398"/>
       <c r="I152" s="398"/>
       <c r="J152" s="398" t="s">
-        <v>315</v>
+        <v>525</v>
       </c>
       <c r="K152" s="398"/>
-      <c r="L152" s="402">
-        <f>L154-273</f>
-        <v>2117</v>
-      </c>
-      <c r="N152" s="1" t="s">
-        <v>1996</v>
-      </c>
+      <c r="L152" s="49"/>
+      <c r="N152" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="O152" s="398"/>
+      <c r="P152" s="71">
+        <f>P150+P151</f>
+        <v>680</v>
+      </c>
+      <c r="Q152" s="49"/>
       <c r="R152" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="T152" s="61">
-        <f>SUM(T148:T151)</f>
-        <v>406</v>
+        <v>309</v>
+      </c>
+      <c r="T152" s="30">
+        <f>-D168</f>
+        <v>-60</v>
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>1656</v>
+        <v>1985</v>
       </c>
       <c r="D153" s="38">
-        <v>53</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>1974</v>
-      </c>
-      <c r="G153" s="48"/>
-      <c r="H153" s="398"/>
+        <v>400</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F153" s="3"/>
+      <c r="G153" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H153" s="398">
+        <v>40</v>
+      </c>
       <c r="I153" s="398"/>
-      <c r="J153" s="398"/>
+      <c r="J153" s="398" t="s">
+        <v>100</v>
+      </c>
       <c r="K153" s="398"/>
-      <c r="L153" s="49"/>
-    </row>
-    <row r="154" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L153" s="49">
+        <f>D163</f>
+        <v>117</v>
+      </c>
+      <c r="N153" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="O153" s="398"/>
+      <c r="P153" s="399">
+        <f>-(92+22*50%+19+60%*10)</f>
+        <v>-128</v>
+      </c>
+      <c r="Q153" s="49"/>
+      <c r="R153" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="T153" s="30">
+        <f>-D171</f>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D154" s="38">
+        <v>300</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F154" s="3"/>
+      <c r="G154" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="H154" s="398">
+        <f>300-12</f>
+        <v>288</v>
+      </c>
+      <c r="I154" s="398"/>
+      <c r="J154" s="398" t="s">
         <v>220</v>
       </c>
-      <c r="D154" s="38">
+      <c r="K154" s="398"/>
+      <c r="L154" s="49">
+        <f>D170</f>
         <v>45</v>
       </c>
-      <c r="E154" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="G154" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="H154" s="403">
-        <f>H141+H146</f>
-        <v>2390</v>
-      </c>
-      <c r="I154" s="51"/>
-      <c r="J154" s="51" t="s">
-        <v>1995</v>
-      </c>
-      <c r="K154" s="51"/>
-      <c r="L154" s="404">
-        <f>H154</f>
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N154" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="O154" s="398"/>
+      <c r="P154" s="409">
+        <f>-(19+53+15+23+22*50%+40%*10)</f>
+        <v>-125</v>
+      </c>
+      <c r="Q154" s="49"/>
+      <c r="R154" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="T154" s="61">
+        <f>SUM(T151:T153)</f>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>310</v>
+        <v>1651</v>
       </c>
       <c r="D155" s="38">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1978</v>
-      </c>
+        <v>1970</v>
+      </c>
+      <c r="G155" s="48" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H155" s="398">
+        <v>212</v>
+      </c>
+      <c r="I155" s="398"/>
+      <c r="J155" s="398"/>
+      <c r="K155" s="398"/>
+      <c r="L155" s="49"/>
+      <c r="N155" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="O155" s="398"/>
+      <c r="P155" s="399">
+        <f>-D185</f>
+        <v>-5</v>
+      </c>
+      <c r="Q155" s="49"/>
+      <c r="T155" s="30"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>80</v>
+        <v>1823</v>
       </c>
       <c r="D156" s="38">
-        <v>40</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="F156" s="3"/>
-      <c r="N156" s="45" t="s">
-        <v>2006</v>
-      </c>
-      <c r="O156" s="46"/>
-      <c r="P156" s="46"/>
-      <c r="Q156" s="47"/>
+        <v>138</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="G156" s="48" t="s">
+        <v>1984</v>
+      </c>
+      <c r="H156" s="398">
+        <v>400</v>
+      </c>
+      <c r="I156" s="398"/>
+      <c r="J156" s="398" t="s">
+        <v>315</v>
+      </c>
+      <c r="K156" s="398"/>
+      <c r="L156" s="401">
+        <f>SUM(L152:L155)</f>
+        <v>162</v>
+      </c>
+      <c r="N156" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="O156" s="398"/>
+      <c r="P156" s="214">
+        <f>SUM(P152:P155)</f>
+        <v>422</v>
+      </c>
+      <c r="Q156" s="49"/>
+      <c r="R156" s="397" t="s">
+        <v>216</v>
+      </c>
+      <c r="T156" s="30"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>1658</v>
+        <v>218</v>
       </c>
       <c r="D157" s="38">
-        <v>12</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>1979</v>
-      </c>
-      <c r="F157" s="3"/>
+        <v>222</v>
+      </c>
+      <c r="E157" s="397" t="s">
+        <v>524</v>
+      </c>
+      <c r="G157" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="H157" s="339">
+        <f>SUM(H153:H156)</f>
+        <v>940</v>
+      </c>
+      <c r="I157" s="398"/>
+      <c r="J157" s="398"/>
+      <c r="K157" s="398"/>
+      <c r="L157" s="49"/>
       <c r="N157" s="48" t="s">
-        <v>2007</v>
+        <v>254</v>
       </c>
       <c r="O157" s="398"/>
-      <c r="P157" s="398"/>
-      <c r="Q157" s="406">
-        <f>Q160-Q159-Q158</f>
-        <v>1605</v>
+      <c r="P157" s="399">
+        <f>-(D174+D182)</f>
+        <v>-46</v>
+      </c>
+      <c r="Q157" s="49"/>
+      <c r="R157" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="T157" s="30">
+        <f>D175</f>
+        <v>44</v>
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>206</v>
+        <v>490</v>
       </c>
       <c r="D158" s="38">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1980</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G158" s="48"/>
+      <c r="H158" s="398"/>
+      <c r="I158" s="398"/>
+      <c r="J158" s="398"/>
+      <c r="K158" s="398"/>
+      <c r="L158" s="49"/>
       <c r="N158" s="48" t="s">
-        <v>1304</v>
+        <v>255</v>
       </c>
       <c r="O158" s="398"/>
-      <c r="P158" s="398"/>
-      <c r="Q158" s="52">
-        <f>P145</f>
-        <v>311</v>
+      <c r="P158" s="399">
+        <f>D180</f>
+        <v>15</v>
+      </c>
+      <c r="Q158" s="49"/>
+      <c r="R158" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="T158" s="30">
+        <f>T168</f>
+        <v>406</v>
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D159" s="38">
+        <v>212</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F159" s="3"/>
+      <c r="G159" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="H159" s="398"/>
+      <c r="I159" s="398"/>
+      <c r="J159" s="398" t="s">
+        <v>526</v>
+      </c>
+      <c r="K159" s="398"/>
+      <c r="L159" s="49"/>
+      <c r="N159" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="O159" s="398"/>
+      <c r="P159" s="214">
+        <f>SUM(P156:P158)</f>
+        <v>391</v>
+      </c>
+      <c r="Q159" s="49"/>
+      <c r="R159" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="T159" s="30">
+        <f>-D160</f>
+        <v>-212</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D160" s="38">
+        <v>212</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G160" s="48" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H160" s="398">
+        <f>750-100</f>
+        <v>650</v>
+      </c>
+      <c r="I160" s="398"/>
+      <c r="J160" s="398" t="s">
+        <v>101</v>
+      </c>
+      <c r="K160" s="398"/>
+      <c r="L160" s="49">
+        <f>D161</f>
+        <v>111</v>
+      </c>
+      <c r="N160" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="O160" s="398"/>
+      <c r="P160" s="399">
+        <v>-80</v>
+      </c>
+      <c r="Q160" s="49"/>
+      <c r="R160" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="T160" s="61">
+        <f>SUM(T157:T159)</f>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D161" s="38">
+        <v>111</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G161" s="48" t="s">
+        <v>1990</v>
+      </c>
+      <c r="H161" s="398">
+        <f>D150</f>
+        <v>800</v>
+      </c>
+      <c r="I161" s="398"/>
+      <c r="J161" s="398" t="s">
+        <v>315</v>
+      </c>
+      <c r="K161" s="398"/>
+      <c r="L161" s="401">
+        <f>SUM(L160)</f>
+        <v>111</v>
+      </c>
+      <c r="N161" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="O161" s="51"/>
+      <c r="P161" s="186">
+        <f>P159+P160</f>
+        <v>311</v>
+      </c>
+      <c r="Q161" s="79"/>
+      <c r="T161" s="30"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D162" s="38">
+        <v>19</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G162" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="H162" s="339">
+        <f>SUM(H160:H161)</f>
+        <v>1450</v>
+      </c>
+      <c r="I162" s="398"/>
+      <c r="J162" s="398"/>
+      <c r="K162" s="398"/>
+      <c r="L162" s="49"/>
+      <c r="T162" s="30"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D163" s="38">
+        <v>117</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G163" s="48"/>
+      <c r="H163" s="398"/>
+      <c r="I163" s="398"/>
+      <c r="J163" s="398"/>
+      <c r="K163" s="398"/>
+      <c r="L163" s="49"/>
+      <c r="R163" s="397" t="s">
+        <v>1999</v>
+      </c>
+      <c r="T163" s="30"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D164" s="38">
+        <v>100</v>
+      </c>
+      <c r="E164" s="397" t="s">
+        <v>1974</v>
+      </c>
+      <c r="G164" s="48"/>
+      <c r="H164" s="398"/>
+      <c r="I164" s="398"/>
+      <c r="J164" s="398" t="s">
+        <v>36</v>
+      </c>
+      <c r="K164" s="398"/>
+      <c r="L164" s="49"/>
+      <c r="R164" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="T164" s="30">
+        <f>D155</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D165" s="38">
+        <v>92</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="G165" s="48"/>
+      <c r="H165" s="398"/>
+      <c r="I165" s="398"/>
+      <c r="J165" s="398" t="s">
+        <v>490</v>
+      </c>
+      <c r="K165" s="398"/>
+      <c r="L165" s="49">
+        <v>131</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="T165" s="30">
+        <f>D156</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D166" s="38">
+        <v>80</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G166" s="48"/>
+      <c r="H166" s="398"/>
+      <c r="I166" s="398"/>
+      <c r="J166" s="398" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K166" s="398"/>
+      <c r="L166" s="49">
+        <v>70</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="T166" s="30">
+        <f>-D179</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D167" s="38">
+        <v>70</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G167" s="48"/>
+      <c r="H167" s="398"/>
+      <c r="I167" s="398"/>
+      <c r="J167" s="398" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K167" s="398"/>
+      <c r="L167" s="49">
+        <f>L168-201</f>
+        <v>1916</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="T167" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D168" s="38">
+        <v>60</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G168" s="48"/>
+      <c r="H168" s="398"/>
+      <c r="I168" s="398"/>
+      <c r="J168" s="398" t="s">
+        <v>315</v>
+      </c>
+      <c r="K168" s="398"/>
+      <c r="L168" s="401">
+        <f>L170-273</f>
+        <v>2117</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="T168" s="61">
+        <f>SUM(T164:T167)</f>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D169" s="38">
+        <v>53</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G169" s="48"/>
+      <c r="H169" s="398"/>
+      <c r="I169" s="398"/>
+      <c r="J169" s="398"/>
+      <c r="K169" s="398"/>
+      <c r="L169" s="49"/>
+    </row>
+    <row r="170" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D170" s="38">
+        <v>45</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G170" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="H170" s="402">
+        <f>H157+H162</f>
+        <v>2390</v>
+      </c>
+      <c r="I170" s="51"/>
+      <c r="J170" s="51" t="s">
+        <v>1994</v>
+      </c>
+      <c r="K170" s="51"/>
+      <c r="L170" s="403">
+        <f>H170</f>
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D171" s="38">
+        <v>22</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D172" s="38">
+        <v>40</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F172" s="3"/>
+      <c r="N172" s="45" t="s">
+        <v>2005</v>
+      </c>
+      <c r="O172" s="46"/>
+      <c r="P172" s="46"/>
+      <c r="Q172" s="47"/>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D173" s="38">
+        <v>12</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F173" s="3"/>
+      <c r="N173" s="48" t="s">
+        <v>2006</v>
+      </c>
+      <c r="O173" s="398"/>
+      <c r="P173" s="398"/>
+      <c r="Q173" s="405">
+        <f>Q176-Q175-Q174</f>
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D174" s="38">
+        <v>19</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="N174" s="48" t="s">
+        <v>1304</v>
+      </c>
+      <c r="O174" s="398"/>
+      <c r="P174" s="398"/>
+      <c r="Q174" s="52">
+        <f>P161</f>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D175" s="38">
+        <v>44</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="N175" s="48" t="s">
+        <v>2007</v>
+      </c>
+      <c r="O175" s="398"/>
+      <c r="P175" s="398"/>
+      <c r="Q175" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D176" s="38">
+        <v>15</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="N176" s="50" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O176" s="51"/>
+      <c r="P176" s="51"/>
+      <c r="Q176" s="404">
+        <f>L167</f>
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D177" s="38">
+        <v>23</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D178" s="38">
+        <v>22</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D179" s="38">
+        <v>20</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D180" s="38">
+        <v>15</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D181" s="38">
+        <v>19</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D182" s="38">
+        <v>27</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D183" s="38">
+        <v>10</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D184" s="38">
+        <v>5</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D185" s="38">
+        <v>5</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="I185" s="1" t="s">
         <v>2002</v>
       </c>
-      <c r="D159" s="38">
-        <v>44</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>1971</v>
-      </c>
-      <c r="N159" s="48" t="s">
-        <v>2008</v>
-      </c>
-      <c r="O159" s="398"/>
-      <c r="P159" s="398"/>
-      <c r="Q159" s="52">
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I186" s="1" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I187" s="1" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="10" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="12"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="13" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B194" s="398"/>
+      <c r="C194" s="398"/>
+      <c r="D194" s="398"/>
+      <c r="E194" s="398"/>
+      <c r="F194" s="398"/>
+      <c r="G194" s="398"/>
+      <c r="H194" s="14"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="15" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="16"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B199" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G199" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B200" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G200" s="1">
+        <v>7</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B201" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G201" s="339">
+        <v>47</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E206" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F206" s="406" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D207" s="6" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F207" s="407" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B208" s="398" t="s">
+        <v>490</v>
+      </c>
+      <c r="C208" s="398"/>
+      <c r="D208" s="398">
+        <v>131</v>
+      </c>
+      <c r="E208" s="1">
+        <f>G199</f>
+        <v>40</v>
+      </c>
+      <c r="F208" s="406">
+        <f>D208+E208</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B209" s="398" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C209" s="398"/>
+      <c r="D209" s="398">
+        <v>70</v>
+      </c>
+      <c r="E209" s="1">
+        <f>G200</f>
+        <v>7</v>
+      </c>
+      <c r="F209" s="406">
+        <f>D209+E209</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B210" s="398" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C210" s="398"/>
+      <c r="D210" s="398">
+        <v>1916</v>
+      </c>
+      <c r="E210" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D160" s="38">
-        <v>15</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>1974</v>
-      </c>
-      <c r="N160" s="50" t="s">
-        <v>2009</v>
-      </c>
-      <c r="O160" s="51"/>
-      <c r="P160" s="51"/>
-      <c r="Q160" s="405">
-        <f>L151</f>
+      <c r="F210" s="406">
+        <f>D210+E210</f>
         <v>1916</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D161" s="38">
-        <v>23</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D162" s="38">
-        <v>22</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D163" s="38">
-        <v>20</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D164" s="38">
-        <v>15</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>1983</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="D165" s="38">
-        <v>19</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>1976</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D166" s="38">
-        <v>27</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>1980</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B211" s="398" t="s">
+        <v>315</v>
+      </c>
+      <c r="C211" s="398"/>
+      <c r="D211" s="339">
+        <v>2117</v>
+      </c>
+      <c r="E211" s="339">
+        <f>E208+E209+E210</f>
+        <v>47</v>
+      </c>
+      <c r="F211" s="408">
+        <f>F208+F209+F210</f>
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="10" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
+      <c r="H213" s="12"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="15" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="16"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B223" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D224" s="1" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D225" s="1" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D226" s="1" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D227" s="1" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D228" s="1" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D229" s="1" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D230" s="1" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D231" s="1" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D232" s="1" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D233" s="3" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B234" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D235" s="1" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D236" s="1" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B237" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D238" s="1" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D239" s="3" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B241" s="24" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C241" s="25"/>
+      <c r="D241" s="25"/>
+      <c r="E241" s="25"/>
+      <c r="F241" s="26"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B242" s="410" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C242" s="411"/>
+      <c r="D242" s="411"/>
+      <c r="E242" s="411"/>
+      <c r="F242" s="412"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B243" s="410" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C243" s="411"/>
+      <c r="D243" s="411"/>
+      <c r="E243" s="411"/>
+      <c r="F243" s="413">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B244" s="410" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C244" s="411"/>
+      <c r="D244" s="411"/>
+      <c r="E244" s="411"/>
+      <c r="F244" s="413">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B245" s="410"/>
+      <c r="C245" s="411"/>
+      <c r="D245" s="411"/>
+      <c r="E245" s="411"/>
+      <c r="F245" s="413"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B246" s="410" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C246" s="411"/>
+      <c r="D246" s="411"/>
+      <c r="E246" s="411"/>
+      <c r="F246" s="413"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B247" s="410" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C247" s="411"/>
+      <c r="D247" s="411"/>
+      <c r="E247" s="411"/>
+      <c r="F247" s="413">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B248" s="27" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C248" s="28"/>
+      <c r="D248" s="28"/>
+      <c r="E248" s="28"/>
+      <c r="F248" s="414">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" s="10" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B251" s="11"/>
+      <c r="C251" s="11"/>
+      <c r="D251" s="11"/>
+      <c r="E251" s="11"/>
+      <c r="F251" s="11"/>
+      <c r="G251" s="11"/>
+      <c r="H251" s="12"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B252" s="398"/>
+      <c r="C252" s="398"/>
+      <c r="D252" s="398"/>
+      <c r="E252" s="398"/>
+      <c r="F252" s="398"/>
+      <c r="G252" s="398"/>
+      <c r="H252" s="14"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" s="15" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="16"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B256" s="1" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B257" s="1" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B258" s="1" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B259" s="3" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B260" s="3" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B263" s="1" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B264" s="1" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B265" s="1" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B266" s="1" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B267" s="1" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B268" s="1" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B270" s="1" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B271" s="1" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B272" s="1" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B273" s="1" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B274" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B275" s="1" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B276" s="1" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" s="10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B278" s="11"/>
+      <c r="C278" s="11"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
+      <c r="F278" s="11"/>
+      <c r="G278" s="11"/>
+      <c r="H278" s="12"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" s="13" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B279" s="398"/>
+      <c r="C279" s="398"/>
+      <c r="D279" s="398"/>
+      <c r="E279" s="398"/>
+      <c r="F279" s="398"/>
+      <c r="G279" s="398"/>
+      <c r="H279" s="14"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="15" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B280" s="6"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="16"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
         <v>1652</v>
       </c>
-      <c r="D167" s="38">
+      <c r="D283" s="38">
         <v>10</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D168" s="38">
-        <v>5</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D169" s="38">
-        <v>5</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>1984</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I170" s="1" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I171" s="1" t="s">
-        <v>2005</v>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D286" s="6" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B287" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D287" s="1">
+        <f>10*60%</f>
+        <v>6</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B288" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D288" s="1">
+        <v>4</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D291" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>2099</v>
       </c>
     </row>
   </sheetData>

--- a/Coursebook - ACC Ruppin - 2025 A.xlsx
+++ b/Coursebook - ACC Ruppin - 2025 A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/Ruppin - ACC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B73AC1F-2E08-B542-9C59-A83B453A7367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B878343-533A-1C45-B4C5-CD2932E90BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="29580" firstSheet="9" activeTab="15" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="29580" activeTab="16" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
   </bookViews>
   <sheets>
     <sheet name="הרצאה 1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,10 @@
     <sheet name="11 - חזרה למבחן חלק ב" sheetId="14" r:id="rId14"/>
     <sheet name="12 - חזרה למבחן חלק ב" sheetId="15" r:id="rId15"/>
     <sheet name="13 - חזרה למבחן חלק ג" sheetId="16" r:id="rId16"/>
+    <sheet name="13 - חזרה למבחן חלק ד" sheetId="17" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1694,7 +1695,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="2100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="2183">
   <si>
     <t xml:space="preserve">מבוא לחשבונאות פיננסית </t>
   </si>
@@ -9970,9 +9971,6 @@
     <t>סך הכל פחת נצבר מכונות נקניק</t>
   </si>
   <si>
-    <t>שיעור חזרה נוסף למבחן</t>
-  </si>
-  <si>
     <t>סיווג</t>
   </si>
   <si>
@@ -10416,6 +10414,288 @@
   </si>
   <si>
     <t xml:space="preserve">והכלליות ב-6. </t>
+  </si>
+  <si>
+    <t>שיעור חזרה נוסף למבחן (מוגדר כשיעור 13 א-סינכרוני ללא השתתפות קהל) - שאלת מסה מלאה מפורטת</t>
+  </si>
+  <si>
+    <t>המשך שיעור חזרה נוסף למבחן (מוגדר כשיעור 13 א-סינכרוני ללא השתתפות קהל) - שאלות תאוריה נוספות</t>
+  </si>
+  <si>
+    <t>הבהרה:</t>
+  </si>
+  <si>
+    <t>שאלות תאוריה כשמן כן הן. נועדו לבחון את הבנתכם את התאוריה החשבונאית, ולא את היכולת לשנן סעיפים ספציפיים.</t>
+  </si>
+  <si>
+    <t>בהתאם, המבחן פתוח, וצריך לבטא הבנה ולא לסמן תשובה ספציפית.</t>
+  </si>
+  <si>
+    <t>לכן, בשום פנים ואופן אין להתייחס להכוונה להלן כממצה / מייצגת לגמרי למבחן.</t>
+  </si>
+  <si>
+    <t>אז איך בכל זאת נערכים לתיאוריה למבחן?</t>
+  </si>
+  <si>
+    <t>לומדים את כל המחברת! את כל ההגדרות, את כל ההסברים. מנסים להבין מה גורם למה ומדוע, וכמובן מקנחים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">במפגשים 11, 12, 13, המפגש הנוכחי והכלים הנוספים - שכוללים הדגמה (אבל לא מיצוי!) לדיון בסעיפי תאוריה. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">שאלה 1 - סעיפי תאוריה כשאלה נפרדת </t>
+  </si>
+  <si>
+    <t>לפניכם מספר טענות. יש לדון בנכונות כל טענה בנפרד באופן המנמק את רכיביה ובהתאם את המסקנה הסופית (קרי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נכון / לא נכון). </t>
+  </si>
+  <si>
+    <t>מס׳ טענה</t>
+  </si>
+  <si>
+    <t>הטענה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סעיף ״הוצאות חשמל לשלם״ בחברה מייצג הוצאה שעליה להירשם בדוח רווח והפסד. </t>
+  </si>
+  <si>
+    <t>סעיף ״הכנסות לקבל״ בחברה מייצג הכנסה שעליה להירשם בדוח על המצב הכספי.</t>
+  </si>
+  <si>
+    <t>כאשר מוצגת הלוואה לזמן ארוך בדוח על המצב הכספי, היא מוצגת לאחר ניכוי רכיב החלויות השוטפות.</t>
+  </si>
+  <si>
+    <t>כאשר שיעור ההפרשה לחובות מסופקים בחברה עולה, בהכרח החברה תרשום הוצאות הלח״מ.</t>
+  </si>
+  <si>
+    <t>סעיף ״מכירות״ בדוח רווח והפסד משקף אך ורק את אותן המכירות שבוצעו ואשר התמורה בעדן התקבלה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">במהלך תקופת הדיווח. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">סעיף הוצאות לשלם איננו הוצאה; הוא לא משקף את כל השירות שנצרך במהלך התקופה, אלא את </t>
+  </si>
+  <si>
+    <t>החלק הספציפי מתוכו שטרם שולם. לכן סעיף הוצאות לשלם מהווה התחייבות (בדרך כלל - התחייבות</t>
+  </si>
+  <si>
+    <t>הדגמה (לא נדרש מכם להדגים במענה למבחן, אבל כדי להקל על ההבנה שלכם):</t>
+  </si>
+  <si>
+    <t>נניח שחברה צרכה חשמל בחודשים נובמבר ודצמבר 2024, בשווי מוערך של 1,000 ש״ח.</t>
+  </si>
+  <si>
+    <t>עד לתום 2024, שילמה החברה לחברת החשמל סכום של 600 ש״ח.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,000 - 600 = </t>
+  </si>
+  <si>
+    <t>יתרת ההוצאות לשלם (הוצאות חשמל לשלם) - התחייבות:</t>
+  </si>
+  <si>
+    <t>ההוצאה עצמה נרשמת על כל הסכום שנצרך:</t>
+  </si>
+  <si>
+    <t>הדגמה קטנה זו ממחישה את העיקרון לפיו הוצאות משקפות את שווי השירות שנצרך התקופה;</t>
+  </si>
+  <si>
+    <t>ולכן מקומן ברווח והפסד;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ובשונה מכך, הוצאות לשלם משקפות את החלק מתוך ההוצאה שטרם שולם נכון לתום התקופה, </t>
+  </si>
+  <si>
+    <t>וזוהי התחייבות.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">שוטפת) בדוח על המצב הכספי (המאזן). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>לכן הטענה שגויה.</t>
+    </r>
+  </si>
+  <si>
+    <t>למשל, נניח שחברה סיפקה שירות ללקוח בשווי 800 ש״ח, ועד לתום השנה גבתה ממנו 600 ש״ח בלבד.</t>
+  </si>
+  <si>
+    <t>במצב כזה, ייווצר חוב של הלקוח כלפי החברה בגין השירות שהיא סיפקה בסכום של 200 ש״ח.</t>
+  </si>
+  <si>
+    <t>הכנסות לקבל זהו סעיף שמשקף את החלק מתוך ההכנסות שטרם גביתי בגין שירותים.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">החוב כלפי החברה הנובע משירות שסיפקה ותמורתו טרם נתקבלה, נקרא ״הכנסות לקבל״ והוא </t>
+  </si>
+  <si>
+    <t xml:space="preserve">נכס, שדומה מאד במהותו לנכס לקוחות (הכנסות לקבל - נכס שוטף בדוח על המצב הכספי). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">בקצרה: הכנסות לקבל הן נכס המשקף את החוב שטרם שולם לחברה בגין מתן שירות שהיא סיפקה. </t>
+  </si>
+  <si>
+    <t>בשונה מכך, ההכנסה היא סך שווי השירות שהחברה סיפקה במהלך התקופה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נניח שנטלתי הלוואה בסך 100 ש״ח, ללא ריבית, שצפויה להפרע ב-5 תשלומים שנתיים שווים בסך </t>
+  </si>
+  <si>
+    <t>של 20 ש״ח כל אחד.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ההלוואה עצמה היא לזמן ארוך (התחייבות לא שוטפת) משום שפרעונה הוא רק בחלוף 5 שנים (וכל </t>
+  </si>
+  <si>
+    <t xml:space="preserve">התחייבות שפרק הזמן עד לסילוקה ארוך משנה - היא בגדר התחייבות לא שוטפת). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">יחד עם זאת - מתוך אותם 100 ש״ח, חלק של 20 ש״ח כן ייפרע כבר בשנה הקרובה: במקרה זה, </t>
+  </si>
+  <si>
+    <t>סכום של 20 ישולם כבר בשנה הבאה, ורק 80 נותרים ישולמו בזמן ארוך, לאחר מכן.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">החשבונאות מגדירה את הסכום שישולם בשנה הבאה כ״חלות שוטפת״ (החלק מתוך ההלוואה </t>
+  </si>
+  <si>
+    <t>שפרעונו יחול בשוטף״.</t>
+  </si>
+  <si>
+    <t>האופן שבו ההתחייבות הזו תירשם בדוחות הכספיים תהיה:</t>
+  </si>
+  <si>
+    <t>חלויות שוטפות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 - 20 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">שימו לב: </t>
+  </si>
+  <si>
+    <t>הרכיב שייפרע בשנה הבאה</t>
+  </si>
+  <si>
+    <t>מהווה התחייבות שוטפת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ונקרא חלות שוטפת, </t>
+  </si>
+  <si>
+    <t>הרכיב שייפרע לאחר מכן נקרא</t>
+  </si>
+  <si>
+    <t>הלוואות לזמן ארוך, והוא יירשם</t>
+  </si>
+  <si>
+    <t>לאחר שמנכים ממנו את החלות השוטפת.</t>
+  </si>
+  <si>
+    <t>המענה בקצרה: הטענה נכונה. בדוח על המצב הכספי, כשמציגים הלוואות לזמן ארוך, מציגים אותן</t>
+  </si>
+  <si>
+    <t>לאחר ניכוי החלויות השוטפות. רכיב החלות השוטפת מוצג בנפרד בהתחייבויות השוטפות.</t>
+  </si>
+  <si>
+    <t>כדי לחשב את הוצאות ההלח״מ אנחנו צריכים לדעת את:</t>
+  </si>
+  <si>
+    <t>ההלח״מ (יתרת החובות הבעייתיים) לתחילת השנה</t>
+  </si>
+  <si>
+    <t>חוב אבוד השנה</t>
+  </si>
+  <si>
+    <t>ההלח״מ (יתרת החובות הבעייתיים) לתום השנה</t>
+  </si>
+  <si>
+    <t>בסוף התהליך - מחלצים את הוצאות ההלח״מ</t>
+  </si>
+  <si>
+    <t>הטענה אומרת שאם שיעור ההפרשה (אחוז ההפרשה) לחובות מסופקים עולה, אזי ישנן הוצאות הלח״מ.</t>
+  </si>
+  <si>
+    <t>כדי לדון בטענה, עלינו לזכור שההלח״מ (לתחילת השנה ולסופה) מחושב בתור אחוז מסויים מיתרת</t>
+  </si>
+  <si>
+    <t>הלקוחות העדכנית למועד החישוב.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בנוסף נניח שיתרת הלקוחות ל-31.12.2024 היא 40,000 ש״ח ושיעור ההלח״מ 10%. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">נניח למשל שיתרת הלקוחות ל-1.1.2024 היא 100,000 ש״ח ושיעור ההלח״מ 9%. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">בנוסף, נניח שאין חובות אבודים. </t>
+  </si>
+  <si>
+    <t>האם החברה תרשום הוצאות הלח״מ?</t>
+  </si>
+  <si>
+    <t>בסוף התהליך - מחלצים את הוצאות ההלח״מ/הכנסות!</t>
+  </si>
+  <si>
+    <t>בשונה מהמקרה הנפוץ, שבו יש יתרת הלח״מ בסוף השנה שגבוהה מיתרת הלח״מ לתחילת השנה, מה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שמרמז על היווצרות חובות בעיתיים נוספים (הוצאות הלח״מ), כאן יש מקרה מיוחד שבמסגרתו </t>
+  </si>
+  <si>
+    <t>ההלח״מ לתום השנה נמוך יותר. כלומר, היו חובות בעייתיים של 9,000 ש״ח, לא נוצר שום חוב אבוד,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">וההלח״מ ירד כתוצאה משיפור במצב (פחות חובות בעייתיים) מ-9,000 ל-4,000. </t>
+  </si>
+  <si>
+    <t>מצב כזה של שיפור בהלח״מ (קיטון בהלח״מ בשלב החילוץ) מהווה הכנסות הלח״מ (שיפור במצב)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ההלח״מ לא נרשמו - אלא להפך, נרשמו הכנסות הלח״מ). </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ולא הוצאות הלח״מ. ולכן </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>הטענה שגויה</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t xml:space="preserve"> (למרות ששיעור ההלח״מ עלה מ-9% ל-10%, עדיין הוצאות</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">הטענה שגויה בתכלית. </t>
+  </si>
+  <si>
+    <t>סעיף המכירות משקף את סך המכירות שבוצעו בחברה (לאחר ביטולים הנובעים מהחזרות מלקוחות</t>
+  </si>
+  <si>
+    <t>והנחות מסחריות ללקוחות) וזאת ללא תלות בתשובה לשאלה, האם כבר בוצעה גבייה מלקוח / לא.</t>
+  </si>
+  <si>
+    <t>זכרו - רווח והפסד משקף פעילות עסקית ולא תשלומים / תקבולים.</t>
   </si>
 </sst>
 </file>
@@ -39032,8 +39312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5C12D5-F6AD-854D-881E-103A4EF411A2}">
   <dimension ref="A1:K244"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A217" zoomScale="358" zoomScaleNormal="380" workbookViewId="0">
-      <selection activeCell="D228" sqref="D228"/>
+    <sheetView rightToLeft="1" topLeftCell="A53" zoomScale="209" zoomScaleNormal="380" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41119,7 +41399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288E17A9-ED42-3C4A-965C-BEB827FE4C1D}">
   <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A218" zoomScale="200" zoomScaleNormal="380" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A24" zoomScale="200" zoomScaleNormal="380" workbookViewId="0">
       <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
@@ -43290,7 +43570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A00005-B9E2-3F47-9BF1-27822E0144AD}">
   <dimension ref="A1:AB114"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A83" zoomScale="160" zoomScaleNormal="290" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" zoomScale="160" zoomScaleNormal="290" workbookViewId="0">
       <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
@@ -46856,8 +47136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405903D6-B902-644C-BFC5-BA460BEB946A}">
   <dimension ref="A1:T297"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A277" zoomScale="265" workbookViewId="0">
-      <selection activeCell="A286" sqref="A286"/>
+    <sheetView rightToLeft="1" zoomScale="265" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46865,10 +47145,17 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1967</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="80" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -47206,77 +47493,77 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -47297,7 +47584,7 @@
         <v>446</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="G148" s="84" t="s">
         <v>1827</v>
@@ -47337,7 +47624,7 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D150" s="38">
         <v>800</v>
@@ -47365,7 +47652,7 @@
       </c>
       <c r="Q150" s="49"/>
       <c r="R150" s="397" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.2">
@@ -47409,7 +47696,7 @@
         <v>1000</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="G152" s="48" t="s">
         <v>523</v>
@@ -47440,7 +47727,7 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D153" s="38">
         <v>400</v>
@@ -47518,7 +47805,7 @@
       </c>
       <c r="Q154" s="49"/>
       <c r="R154" s="1" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="T154" s="61">
         <f>SUM(T151:T153)</f>
@@ -47533,7 +47820,7 @@
         <v>288</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="G155" s="48" t="s">
         <v>1622</v>
@@ -47564,10 +47851,10 @@
         <v>138</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G156" s="48" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="H156" s="398">
         <v>400</v>
@@ -47712,7 +47999,7 @@
         <v>212</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G160" s="48" t="s">
         <v>1314</v>
@@ -47739,7 +48026,7 @@
       </c>
       <c r="Q160" s="49"/>
       <c r="R160" s="1" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="T160" s="61">
         <f>SUM(T157:T159)</f>
@@ -47754,10 +48041,10 @@
         <v>111</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G161" s="48" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="H161" s="398">
         <f>D150</f>
@@ -47791,7 +48078,7 @@
         <v>19</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="G162" s="48" t="s">
         <v>315</v>
@@ -47814,7 +48101,7 @@
         <v>117</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G163" s="48"/>
       <c r="H163" s="398"/>
@@ -47823,7 +48110,7 @@
       <c r="K163" s="398"/>
       <c r="L163" s="49"/>
       <c r="R163" s="397" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="T163" s="30"/>
     </row>
@@ -47835,7 +48122,7 @@
         <v>100</v>
       </c>
       <c r="E164" s="397" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="G164" s="48"/>
       <c r="H164" s="398"/>
@@ -47861,7 +48148,7 @@
         <v>92</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="G165" s="48"/>
       <c r="H165" s="398"/>
@@ -47889,7 +48176,7 @@
         <v>80</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G166" s="48"/>
       <c r="H166" s="398"/>
@@ -47931,7 +48218,7 @@
         <v>1916</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="R167" s="1" t="s">
         <v>453</v>
@@ -47948,7 +48235,7 @@
         <v>60</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G168" s="48"/>
       <c r="H168" s="398"/>
@@ -47962,7 +48249,7 @@
         <v>2117</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="R168" s="1" t="s">
         <v>410</v>
@@ -47980,7 +48267,7 @@
         <v>53</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="G169" s="48"/>
       <c r="H169" s="398"/>
@@ -47997,7 +48284,7 @@
         <v>45</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G170" s="50" t="s">
         <v>278</v>
@@ -48008,7 +48295,7 @@
       </c>
       <c r="I170" s="51"/>
       <c r="J170" s="51" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="K170" s="51"/>
       <c r="L170" s="403">
@@ -48024,7 +48311,7 @@
         <v>22</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.2">
@@ -48039,7 +48326,7 @@
       </c>
       <c r="F172" s="3"/>
       <c r="N172" s="45" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O172" s="46"/>
       <c r="P172" s="46"/>
@@ -48053,11 +48340,11 @@
         <v>12</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="F173" s="3"/>
       <c r="N173" s="48" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O173" s="398"/>
       <c r="P173" s="398"/>
@@ -48074,7 +48361,7 @@
         <v>19</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="N174" s="48" t="s">
         <v>1304</v>
@@ -48088,16 +48375,16 @@
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D175" s="38">
         <v>44</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="N175" s="48" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O175" s="398"/>
       <c r="P175" s="398"/>
@@ -48113,10 +48400,10 @@
         <v>15</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="N176" s="50" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O176" s="51"/>
       <c r="P176" s="51"/>
@@ -48133,7 +48420,7 @@
         <v>23</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -48144,7 +48431,7 @@
         <v>22</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -48155,7 +48442,7 @@
         <v>20</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -48166,10 +48453,10 @@
         <v>15</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -48180,10 +48467,10 @@
         <v>19</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -48194,10 +48481,10 @@
         <v>27</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -48208,10 +48495,10 @@
         <v>10</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -48222,7 +48509,7 @@
         <v>5</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -48233,25 +48520,25 @@
         <v>5</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I186" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I187" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -48263,7 +48550,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -48275,7 +48562,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B194" s="398"/>
       <c r="C194" s="398"/>
@@ -48287,7 +48574,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="15" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -48299,12 +48586,12 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G198" s="6" t="s">
         <v>1679</v>
@@ -48312,7 +48599,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B199" s="1" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="G199" s="1">
         <v>40</v>
@@ -48320,50 +48607,50 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B200" s="1" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="G200" s="1">
         <v>7</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B201" s="1" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="G201" s="339">
         <v>47</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E206" s="1" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="F206" s="406" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D207" s="6" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="F207" s="407" t="s">
         <v>1256</v>
@@ -48438,7 +48725,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="10" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -48450,7 +48737,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="15" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -48462,131 +48749,131 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B223" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>2044</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>2045</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D224" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D225" s="1" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D226" s="1" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D227" s="1" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D228" s="1" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D229" s="1" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D230" s="1" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D231" s="1" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D232" s="1" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D233" s="3" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B234" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>2058</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D235" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D236" s="1" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B237" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>2060</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>2061</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D238" s="1" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D239" s="3" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B241" s="24" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
@@ -48595,7 +48882,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B242" s="410" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C242" s="411"/>
       <c r="D242" s="411"/>
@@ -48604,7 +48891,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B243" s="410" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C243" s="411"/>
       <c r="D243" s="411"/>
@@ -48615,7 +48902,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B244" s="410" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C244" s="411"/>
       <c r="D244" s="411"/>
@@ -48633,7 +48920,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B246" s="410" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C246" s="411"/>
       <c r="D246" s="411"/>
@@ -48642,7 +48929,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B247" s="410" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C247" s="411"/>
       <c r="D247" s="411"/>
@@ -48653,7 +48940,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B248" s="27" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C248" s="28"/>
       <c r="D248" s="28"/>
@@ -48664,7 +48951,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="10" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B251" s="11"/>
       <c r="C251" s="11"/>
@@ -48676,7 +48963,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B252" s="398"/>
       <c r="C252" s="398"/>
@@ -48688,7 +48975,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="15" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -48700,87 +48987,87 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B256" s="1" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B257" s="1" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B258" s="1" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B259" s="3" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B260" s="3" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B263" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B264" s="1" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B265" s="1" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B266" s="1" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B267" s="1" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B268" s="1" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B270" s="1" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B271" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B272" s="1" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B273" s="1" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -48790,17 +49077,17 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B275" s="1" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B276" s="1" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="10" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
@@ -48812,7 +49099,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B279" s="398"/>
       <c r="C279" s="398"/>
@@ -48824,7 +49111,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="15" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -48836,7 +49123,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
@@ -48849,7 +49136,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
@@ -48859,35 +49146,35 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B287" s="1" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D287" s="1">
         <f>10*60%</f>
         <v>6</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B288" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D288" s="1">
         <v>4</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D291" s="1">
         <v>10</v>
@@ -48895,27 +49182,689 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADC1097-216B-CD44-B122-9706A1489499}">
+  <dimension ref="A1:H109"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="314" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B4" s="398"/>
+      <c r="C4" s="398"/>
+      <c r="D4" s="398"/>
+      <c r="E4" s="398"/>
+      <c r="F4" s="398"/>
+      <c r="G4" s="398"/>
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B5" s="398"/>
+      <c r="C5" s="398"/>
+      <c r="D5" s="398"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="398"/>
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="48" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B6" s="398"/>
+      <c r="C6" s="398"/>
+      <c r="D6" s="398"/>
+      <c r="E6" s="398"/>
+      <c r="F6" s="398"/>
+      <c r="G6" s="398"/>
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B7" s="398"/>
+      <c r="C7" s="398"/>
+      <c r="D7" s="398"/>
+      <c r="E7" s="398"/>
+      <c r="F7" s="398"/>
+      <c r="G7" s="398"/>
+      <c r="H7" s="49"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="48" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B8" s="398"/>
+      <c r="C8" s="398"/>
+      <c r="D8" s="398"/>
+      <c r="E8" s="398"/>
+      <c r="F8" s="398"/>
+      <c r="G8" s="398"/>
+      <c r="H8" s="49"/>
+    </row>
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="79"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="397" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C23" s="397"/>
+      <c r="D23" s="397"/>
+      <c r="E23" s="397"/>
+      <c r="F23" s="397"/>
+      <c r="G23" s="397"/>
+      <c r="H23" s="397"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F31" s="1">
+        <v>400</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="397" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C39" s="397"/>
+      <c r="D39" s="397"/>
+      <c r="E39" s="397"/>
+      <c r="F39" s="397"/>
+      <c r="G39" s="397"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>3</v>
+      </c>
+      <c r="B50" s="397" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C50" s="397"/>
+      <c r="D50" s="397"/>
+      <c r="E50" s="397"/>
+      <c r="F50" s="397"/>
+      <c r="G50" s="397"/>
+      <c r="H50" s="397"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="G63" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G66" s="1">
+        <f>100-20</f>
+        <v>80</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>4</v>
+      </c>
+      <c r="B73" s="397" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D77" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D78" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D79" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="H79" s="32" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D80" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D90" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="H90" s="19">
+        <f>100000*9%</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D91" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="H91" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D92" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="H92" s="75" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D93" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="H93" s="19">
+        <f>40000*10%</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B104" s="397" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C104" s="397"/>
+      <c r="D104" s="397"/>
+      <c r="E104" s="397"/>
+      <c r="F104" s="397"/>
+      <c r="G104" s="397"/>
+      <c r="H104" s="397"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Coursebook - ACC Ruppin - 2025 A.xlsx
+++ b/Coursebook - ACC Ruppin - 2025 A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/Ruppin - ACC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B878343-533A-1C45-B4C5-CD2932E90BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88D4BEF-C487-8845-9E51-575A5F26FAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="29580" activeTab="16" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="29580" firstSheet="1" activeTab="17" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
   </bookViews>
   <sheets>
     <sheet name="הרצאה 1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,10 @@
     <sheet name="12 - חזרה למבחן חלק ב" sheetId="15" r:id="rId15"/>
     <sheet name="13 - חזרה למבחן חלק ג" sheetId="16" r:id="rId16"/>
     <sheet name="13 - חזרה למבחן חלק ד" sheetId="17" r:id="rId17"/>
+    <sheet name="13 - חזרה למבחן חלק ה" sheetId="18" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1695,7 +1696,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="2183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="2212">
   <si>
     <t xml:space="preserve">מבוא לחשבונאות פיננסית </t>
   </si>
@@ -10696,6 +10697,93 @@
   </si>
   <si>
     <t>זכרו - רווח והפסד משקף פעילות עסקית ולא תשלומים / תקבולים.</t>
+  </si>
+  <si>
+    <t>שאלת דוגמא בנושא לקוחות והלח״מ</t>
+  </si>
+  <si>
+    <t>בחברת ״בר איפה את״ בע״מ (להלן: ״החברה״) ידועות היתרות הבאות של שתי קבוצות עיקריות של לקוחות בחברה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בקבוצות אלו קיים הבדל מהותי ברמת הסיכון של הלקוחות, ולכן שיעור ההלח״מ המחושב בגינן שונה. </t>
+  </si>
+  <si>
+    <t>הערכים הם ל-31.12.2020:</t>
+  </si>
+  <si>
+    <t>לקוחות בקבוצה א: סכום החוב - 300,000 ש״ח, שיעור ההלח״מ: 5%</t>
+  </si>
+  <si>
+    <t>לקוחות בקבוצה ב: סכום החוב - 200,000 ש״ח, שיעור ההלח״מ: 7%</t>
+  </si>
+  <si>
+    <t>כמו כן, במהלך 2021 ביצעה החברה מגוון פעילויות הקשורות למכירות וגבייה מלקוחות, כמו גם שינויים באומדנים</t>
+  </si>
+  <si>
+    <t>ובהערכות לגבי הסיכון של הלקוחות השונים בחברה. בהתאם לאומדנים אלו, העריכה החברה את ההלח״מ בהתאם</t>
+  </si>
+  <si>
+    <t>לפיצול ל-3 קבוצות של לקוחות כדלקמן:</t>
+  </si>
+  <si>
+    <t>לקוחות בקבוצה א: סכום החוב - 400,000 ש״ח, שיעור ההלח״מ: 6%</t>
+  </si>
+  <si>
+    <t>לקוחות בקבוצה ג: סכום החוב - 100,000 ש״ח, שיעור ההלח״מ: 10%</t>
+  </si>
+  <si>
+    <t>לקוחות בקבוצה ב: סכום החוב - 250,000 ש״ח, שיעור ההלח״מ: 8%</t>
+  </si>
+  <si>
+    <t>א. מהי יתרת ההלח״מ ליום 31.12.2020?</t>
+  </si>
+  <si>
+    <t>ב. מהי יתרת ההלח״מ ליום 31.12.2021?</t>
+  </si>
+  <si>
+    <t>ג. מהן הוצאות ההלח״מ לשנת 2021?</t>
+  </si>
+  <si>
+    <t>ד. מהי יתרת הלקוחות נטו לימים 31.12.2020 ו-31.12.2021?</t>
+  </si>
+  <si>
+    <t>הכולל</t>
+  </si>
+  <si>
+    <t>הפרשה</t>
+  </si>
+  <si>
+    <t>לחובות מסופקים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300,000 * 5% + 200,000 * 7% = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">400,000 * 6% + 250,000 * 8% + 100,000 * 10% = </t>
+  </si>
+  <si>
+    <t>אין שום נתון על חוב אבוד כאן, אם היה היה נרשם במינוס</t>
+  </si>
+  <si>
+    <t>הוצ׳ הלח״מ</t>
+  </si>
+  <si>
+    <t>למרות שבשאלה יש נדרשים שונים, קל וחשוב להבין את אופן הטיפול העקרוני בשאלות שבהן ידוע באופן ברור</t>
+  </si>
+  <si>
+    <t>מהי יתרת הלקוחות לתחילת השנה ולתום השנה:</t>
+  </si>
+  <si>
+    <t>נדרש א: יתרת הלח״מ ל-31/12/2020:</t>
+  </si>
+  <si>
+    <t>נדרש ג: הוצאות הלח״מ ב-2021:</t>
+  </si>
+  <si>
+    <t>נדרש ב: יתרת הלח״מ ל-31/12/2021:</t>
+  </si>
+  <si>
+    <t>נדרש ד: יתרת הלקוחות נטו לכל אחד מהמועדים:</t>
   </si>
 </sst>
 </file>
@@ -47136,7 +47224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405903D6-B902-644C-BFC5-BA460BEB946A}">
   <dimension ref="A1:T297"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="265" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A19" zoomScale="265" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -49210,8 +49298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADC1097-216B-CD44-B122-9706A1489499}">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="314" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView rightToLeft="1" zoomScale="314" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49865,6 +49953,305 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E77F080-2BC1-904F-94B3-C204FE8A6FF6}">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A17" zoomScale="285" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="6" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="151">
+        <v>44196</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C30" s="72">
+        <f>300000+200000</f>
+        <v>500000</v>
+      </c>
+      <c r="E30" s="72">
+        <f>200000*7%</f>
+        <v>14000.000000000002</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D31" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E32" s="158">
+        <f>E33-E31-E30</f>
+        <v>40000</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="151">
+        <v>44561</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C33" s="156">
+        <f>400000+250000+100000</f>
+        <v>750000</v>
+      </c>
+      <c r="E33" s="156">
+        <f>400000*6%+250000*8%+100000*10%</f>
+        <v>54000</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D35" s="72">
+        <f>E30</f>
+        <v>14000.000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D36" s="72">
+        <f>E33</f>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D37" s="72">
+        <f>E32</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="152">
+        <v>44196</v>
+      </c>
+      <c r="D40" s="152">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C41" s="30">
+        <f>C30</f>
+        <v>500000</v>
+      </c>
+      <c r="D41" s="30">
+        <f>C33</f>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C42" s="30">
+        <f>-E30</f>
+        <v>-14000.000000000002</v>
+      </c>
+      <c r="D42" s="30">
+        <f>-E33</f>
+        <v>-54000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C43" s="61">
+        <f>C41+C42</f>
+        <v>486000</v>
+      </c>
+      <c r="D43" s="61">
+        <f>D41+D42</f>
+        <v>696000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D36" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/Coursebook - ACC Ruppin - 2025 A.xlsx
+++ b/Coursebook - ACC Ruppin - 2025 A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/Ruppin - ACC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88D4BEF-C487-8845-9E51-575A5F26FAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCADA5F-3E05-A941-B752-1ABEDA42CBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="29580" firstSheet="1" activeTab="17" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
   </bookViews>
@@ -1696,7 +1696,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="2212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="2215">
   <si>
     <t xml:space="preserve">מבוא לחשבונאות פיננסית </t>
   </si>
@@ -10029,9 +10029,6 @@
     <t>הערות:</t>
   </si>
   <si>
-    <t>רכוש קבוע: סך כל פריטי הרכוש הקבוע - עלות, בניכוי סך כל הפחת הנצבר בגינם.</t>
-  </si>
-  <si>
     <t>בשאלה זו, קיים פריט רכוש קבוע אחד ויחיד, מכונות לחימום נקניק, וההפרש בין עלותו</t>
   </si>
   <si>
@@ -10051,12 +10048,6 @@
   </si>
   <si>
     <t>סך ההתח׳ וההון העצמי</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,390 - 273 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,117 - 131 - 70 = </t>
   </si>
   <si>
     <t>מכירות (מכירות, נטו)</t>
@@ -10784,6 +10775,86 @@
   </si>
   <si>
     <t>נדרש ד: יתרת הלקוחות נטו לכל אחד מהמועדים:</t>
+  </si>
+  <si>
+    <t>נכס בלתי מוחשי</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>נכסים בלתי מוחשיים</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>: כאן מדובר בפטנטים. באופן כללי גם זכיונות ומוניטין למשל ייכנסו לשם.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>רכוש קבוע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>: סך כל פריטי הרכוש הקבוע - עלות, בניכוי סך כל הפחת הנצבר בגינם.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>2,339</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t xml:space="preserve"> - 131 - 70 = </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>2,612</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t xml:space="preserve"> - 273 = </t>
+    </r>
+  </si>
+  <si>
+    <t>בסרטון המלווה נשמטה התייחסות לפטנטים (נכסים בלתי מוחשיים) והנחות מסחריות מספקים. תוקן בפתרון זה (ההשפעות סומנו באדום)</t>
   </si>
 </sst>
 </file>
@@ -11728,7 +11799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="415">
+  <cellXfs count="421">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -12360,6 +12431,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12434,34 +12537,8 @@
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -39400,7 +39477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5C12D5-F6AD-854D-881E-103A4EF411A2}">
   <dimension ref="A1:K244"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A53" zoomScale="209" zoomScaleNormal="380" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A219" zoomScale="209" zoomScaleNormal="380" workbookViewId="0">
       <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
@@ -39591,7 +39668,7 @@
       <c r="F28" s="98"/>
       <c r="G28" s="98"/>
       <c r="H28" s="14"/>
-      <c r="J28" s="394" t="s">
+      <c r="J28" s="416" t="s">
         <v>1186</v>
       </c>
     </row>
@@ -39610,7 +39687,7 @@
       <c r="F29" s="98"/>
       <c r="G29" s="98"/>
       <c r="H29" s="14"/>
-      <c r="J29" s="393"/>
+      <c r="J29" s="415"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="244" t="s">
@@ -40648,10 +40725,10 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="395" t="s">
+      <c r="A140" s="417" t="s">
         <v>1210</v>
       </c>
-      <c r="B140" s="393"/>
+      <c r="B140" s="415"/>
       <c r="C140" s="259">
         <v>43101</v>
       </c>
@@ -41321,13 +41398,13 @@
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F226" s="396">
+      <c r="F226" s="418">
         <f>(880000-250000)/10</f>
         <v>63000</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F227" s="396"/>
+      <c r="F227" s="418"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F229" s="1" t="s">
@@ -41487,7 +41564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288E17A9-ED42-3C4A-965C-BEB827FE4C1D}">
   <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A24" zoomScale="200" zoomScaleNormal="380" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A179" zoomScale="200" zoomScaleNormal="380" workbookViewId="0">
       <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
@@ -42613,7 +42690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85996E8C-50AD-6D4F-802F-D144E988FE4F}">
   <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="192" zoomScaleNormal="320" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A155" zoomScale="192" zoomScaleNormal="320" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -43375,17 +43452,17 @@
       <c r="E97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F97" s="393" t="s">
+      <c r="F97" s="415" t="s">
         <v>36</v>
       </c>
-      <c r="G97" s="393"/>
+      <c r="G97" s="415"/>
       <c r="I97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J97" s="393" t="s">
+      <c r="J97" s="415" t="s">
         <v>36</v>
       </c>
-      <c r="K97" s="393"/>
+      <c r="K97" s="415"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
@@ -43658,7 +43735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A00005-B9E2-3F47-9BF1-27822E0144AD}">
   <dimension ref="A1:AB114"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScale="160" zoomScaleNormal="290" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A124" zoomScale="160" zoomScaleNormal="290" workbookViewId="0">
       <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
@@ -43714,14 +43791,14 @@
       <c r="D74" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F74" s="389" t="s">
+      <c r="F74" s="411" t="s">
         <v>1666</v>
       </c>
-      <c r="G74" s="389"/>
-      <c r="H74" s="389"/>
-      <c r="I74" s="389"/>
-      <c r="J74" s="389"/>
-      <c r="K74" s="389"/>
+      <c r="G74" s="411"/>
+      <c r="H74" s="411"/>
+      <c r="I74" s="411"/>
+      <c r="J74" s="411"/>
+      <c r="K74" s="411"/>
       <c r="O74" s="3" t="s">
         <v>1665</v>
       </c>
@@ -44477,14 +44554,14 @@
       <c r="D84" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F84" s="389" t="s">
+      <c r="F84" s="411" t="s">
         <v>1666</v>
       </c>
-      <c r="G84" s="389"/>
-      <c r="H84" s="389"/>
-      <c r="I84" s="389"/>
-      <c r="J84" s="389"/>
-      <c r="K84" s="389"/>
+      <c r="G84" s="411"/>
+      <c r="H84" s="411"/>
+      <c r="I84" s="411"/>
+      <c r="J84" s="411"/>
+      <c r="K84" s="411"/>
       <c r="O84" s="3" t="s">
         <v>1665</v>
       </c>
@@ -45938,7 +46015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F32CDC-0574-9841-BED3-29972B30C173}">
   <dimension ref="A1:N181"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="228" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A110" zoomScale="228" workbookViewId="0">
       <selection activeCell="I170" sqref="I170"/>
     </sheetView>
   </sheetViews>
@@ -47224,7 +47301,2006 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405903D6-B902-644C-BFC5-BA460BEB946A}">
   <dimension ref="A1:T297"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A19" zoomScale="265" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="193" workbookViewId="0">
+      <selection activeCell="Q140" sqref="Q140"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="80" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="235" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B81" s="332"/>
+      <c r="C81" s="332"/>
+      <c r="D81" s="332"/>
+      <c r="E81" s="332"/>
+      <c r="F81" s="332"/>
+      <c r="G81" s="332"/>
+      <c r="H81" s="333"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="245" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D87" s="237" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" s="38">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D89" s="38">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90" s="38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D91" s="38">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D92" s="38">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D93" s="38">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D94" s="38">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D95" s="38">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D96" s="38">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D97" s="38">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D98" s="38">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99" s="38">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D100" s="38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D101" s="38">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D102" s="38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D103" s="38">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D104" s="38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D105" s="38">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D106" s="38">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D107" s="38">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108" s="38">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D109" s="38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D110" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D111" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D112" s="38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D113" s="38">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D114" s="38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D115" s="38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D116" s="38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D117" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D118" s="38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D119" s="38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D120" s="38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D121" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D122" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D123" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="130" t="s">
+        <v>2214</v>
+      </c>
+      <c r="J145" s="130"/>
+      <c r="K145" s="130"/>
+      <c r="L145" s="130"/>
+      <c r="M145" s="130"/>
+      <c r="N145" s="130"/>
+      <c r="O145" s="130"/>
+      <c r="P145" s="130"/>
+      <c r="Q145" s="130"/>
+      <c r="R145" s="130"/>
+    </row>
+    <row r="147" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="245" t="s">
+        <v>446</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>1967</v>
+      </c>
+      <c r="G148" s="84" t="s">
+        <v>1827</v>
+      </c>
+      <c r="H148" s="46"/>
+      <c r="I148" s="46"/>
+      <c r="J148" s="46"/>
+      <c r="K148" s="46"/>
+      <c r="L148" s="47"/>
+      <c r="N148" s="84" t="s">
+        <v>1828</v>
+      </c>
+      <c r="O148" s="46"/>
+      <c r="P148" s="46"/>
+      <c r="Q148" s="47"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D149" s="237" t="s">
+        <v>513</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G149" s="48"/>
+      <c r="L149" s="49"/>
+      <c r="N149" s="48"/>
+      <c r="Q149" s="49"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D150" s="38">
+        <v>800</v>
+      </c>
+      <c r="E150" s="371" t="s">
+        <v>524</v>
+      </c>
+      <c r="G150" s="372" t="s">
+        <v>33</v>
+      </c>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="K150" s="6"/>
+      <c r="L150" s="49"/>
+      <c r="N150" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="P150" s="19">
+        <f>T154</f>
+        <v>918</v>
+      </c>
+      <c r="Q150" s="49"/>
+      <c r="R150" s="371" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D151" s="38">
+        <v>750</v>
+      </c>
+      <c r="E151" s="371" t="s">
+        <v>524</v>
+      </c>
+      <c r="G151" s="48"/>
+      <c r="L151" s="49"/>
+      <c r="N151" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="P151" s="131">
+        <f>-T160</f>
+        <v>-233</v>
+      </c>
+      <c r="Q151" s="49"/>
+      <c r="R151" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="T151" s="30">
+        <f>D152</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D152" s="38">
+        <v>1000</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="G152" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="L152" s="49"/>
+      <c r="N152" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="P152" s="211">
+        <f>P150+P151</f>
+        <v>685</v>
+      </c>
+      <c r="Q152" s="49"/>
+      <c r="R152" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="T152" s="30">
+        <f>-D168</f>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D153" s="38">
+        <v>400</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F153" s="3"/>
+      <c r="G153" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H153" s="1">
+        <v>40</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L153" s="49">
+        <f>D163</f>
+        <v>117</v>
+      </c>
+      <c r="N153" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="P153" s="19">
+        <f>-(92+22*50%+19+60%*10)</f>
+        <v>-128</v>
+      </c>
+      <c r="Q153" s="49"/>
+      <c r="R153" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="T153" s="30">
+        <f>-D171</f>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D154" s="38">
+        <v>300</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F154" s="3"/>
+      <c r="G154" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="H154" s="1">
+        <f>300-12</f>
+        <v>288</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L154" s="49">
+        <f>D170</f>
+        <v>45</v>
+      </c>
+      <c r="N154" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="P154" s="174">
+        <f>-(19+53+15+23+22*50%+40%*10)</f>
+        <v>-125</v>
+      </c>
+      <c r="Q154" s="49"/>
+      <c r="R154" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="T154" s="61">
+        <f>SUM(T151:T153)</f>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D155" s="38">
+        <v>288</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="G155" s="48" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H155" s="1">
+        <v>212</v>
+      </c>
+      <c r="L155" s="49"/>
+      <c r="N155" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="P155" s="19">
+        <f>-D185</f>
+        <v>-5</v>
+      </c>
+      <c r="Q155" s="49"/>
+      <c r="T155" s="30"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D156" s="38">
+        <v>138</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G156" s="48" t="s">
+        <v>1983</v>
+      </c>
+      <c r="H156" s="1">
+        <v>400</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L156" s="373">
+        <f>SUM(L152:L155)</f>
+        <v>162</v>
+      </c>
+      <c r="N156" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="P156" s="211">
+        <f>SUM(P152:P155)</f>
+        <v>427</v>
+      </c>
+      <c r="Q156" s="49"/>
+      <c r="R156" s="371" t="s">
+        <v>216</v>
+      </c>
+      <c r="T156" s="30"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D157" s="38">
+        <v>222</v>
+      </c>
+      <c r="E157" s="371" t="s">
+        <v>524</v>
+      </c>
+      <c r="G157" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="H157" s="339">
+        <f>SUM(H153:H156)</f>
+        <v>940</v>
+      </c>
+      <c r="L157" s="49"/>
+      <c r="N157" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="P157" s="19">
+        <f>-(D174+D182)</f>
+        <v>-46</v>
+      </c>
+      <c r="Q157" s="49"/>
+      <c r="R157" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="T157" s="30">
+        <f>D175</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D158" s="38">
+        <v>131</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G158" s="48"/>
+      <c r="L158" s="49"/>
+      <c r="N158" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="P158" s="19">
+        <f>D180</f>
+        <v>15</v>
+      </c>
+      <c r="Q158" s="49"/>
+      <c r="R158" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="T158" s="30">
+        <f>T168</f>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D159" s="38">
+        <v>212</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F159" s="3"/>
+      <c r="G159" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="L159" s="49"/>
+      <c r="N159" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="P159" s="211">
+        <f>SUM(P156:P158)</f>
+        <v>396</v>
+      </c>
+      <c r="Q159" s="49"/>
+      <c r="R159" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="T159" s="30">
+        <f>-D160</f>
+        <v>-212</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D160" s="38">
+        <v>212</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="G160" s="48" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H160" s="1">
+        <f>750-100</f>
+        <v>650</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L160" s="49">
+        <f>D161</f>
+        <v>111</v>
+      </c>
+      <c r="N160" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="P160" s="19">
+        <v>-80</v>
+      </c>
+      <c r="Q160" s="49"/>
+      <c r="R160" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="T160" s="61">
+        <f>SUM(T157:T159)</f>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D161" s="38">
+        <v>111</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="G161" s="48" t="s">
+        <v>1988</v>
+      </c>
+      <c r="H161" s="1">
+        <f>D150</f>
+        <v>800</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L161" s="373">
+        <f>SUM(L160)</f>
+        <v>111</v>
+      </c>
+      <c r="N161" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="O161" s="51"/>
+      <c r="P161" s="376">
+        <f>P159+P160</f>
+        <v>316</v>
+      </c>
+      <c r="Q161" s="79"/>
+      <c r="T161" s="30"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D162" s="38">
+        <v>19</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="H162" s="1">
+        <f>D157</f>
+        <v>222</v>
+      </c>
+      <c r="L162" s="49"/>
+      <c r="T162" s="30"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D163" s="38">
+        <v>117</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="G163" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="H163" s="339">
+        <f>SUM(H160:H162)</f>
+        <v>1672</v>
+      </c>
+      <c r="L163" s="49"/>
+      <c r="R163" s="371" t="s">
+        <v>1995</v>
+      </c>
+      <c r="T163" s="30"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D164" s="38">
+        <v>100</v>
+      </c>
+      <c r="E164" s="371" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G164" s="48"/>
+      <c r="J164" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L164" s="49"/>
+      <c r="R164" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="T164" s="30">
+        <f>D155</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D165" s="38">
+        <v>92</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="G165" s="48"/>
+      <c r="J165" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="L165" s="49">
+        <v>131</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="T165" s="30">
+        <f>D156</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D166" s="38">
+        <v>80</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="G166" s="48"/>
+      <c r="J166" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="L166" s="49">
+        <v>70</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="T166" s="30">
+        <f>-D179</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D167" s="38">
+        <v>70</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G167" s="48"/>
+      <c r="J167" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L167" s="385">
+        <f>L168-201</f>
+        <v>2138</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="T167" s="382">
+        <f>-D184</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D168" s="38">
+        <v>60</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G168" s="48"/>
+      <c r="J168" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L168" s="386">
+        <f>L170-273</f>
+        <v>2339</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="T168" s="392">
+        <f>SUM(T164:T167)</f>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D169" s="38">
+        <v>53</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G169" s="48"/>
+      <c r="L169" s="49"/>
+    </row>
+    <row r="170" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D170" s="38">
+        <v>45</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="G170" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="H170" s="383">
+        <f>H157+H163</f>
+        <v>2612</v>
+      </c>
+      <c r="I170" s="51"/>
+      <c r="J170" s="51" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K170" s="51"/>
+      <c r="L170" s="384">
+        <f>H170</f>
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D171" s="38">
+        <v>22</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D172" s="38">
+        <v>40</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F172" s="3"/>
+      <c r="N172" s="45" t="s">
+        <v>2001</v>
+      </c>
+      <c r="O172" s="46"/>
+      <c r="P172" s="46"/>
+      <c r="Q172" s="47"/>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D173" s="38">
+        <v>12</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F173" s="3"/>
+      <c r="N173" s="48" t="s">
+        <v>2002</v>
+      </c>
+      <c r="Q173" s="387">
+        <f>Q176-Q175-Q174</f>
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D174" s="38">
+        <v>19</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="N174" s="48" t="s">
+        <v>1304</v>
+      </c>
+      <c r="Q174" s="52">
+        <f>P161</f>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D175" s="38">
+        <v>44</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="N175" s="48" t="s">
+        <v>2003</v>
+      </c>
+      <c r="Q175" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D176" s="38">
+        <v>15</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N176" s="50" t="s">
+        <v>2004</v>
+      </c>
+      <c r="O176" s="51"/>
+      <c r="P176" s="51"/>
+      <c r="Q176" s="388">
+        <f>L167</f>
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D177" s="38">
+        <v>23</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D178" s="38">
+        <v>22</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D179" s="38">
+        <v>20</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D180" s="38">
+        <v>15</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D181" s="38">
+        <v>19</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D182" s="38">
+        <v>27</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D183" s="38">
+        <v>10</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D184" s="38">
+        <v>5</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D185" s="38">
+        <v>5</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I186" s="1" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I187" s="1" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I189" s="1" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="10" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="12"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="13" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H194" s="14"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="15" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="16"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B199" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G199" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B200" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G200" s="1">
+        <v>7</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B201" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="G201" s="339">
+        <v>47</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E206" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F206" s="374" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D207" s="6" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F207" s="375" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B208" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D208" s="1">
+        <v>131</v>
+      </c>
+      <c r="E208" s="1">
+        <f>G199</f>
+        <v>40</v>
+      </c>
+      <c r="F208" s="374">
+        <f>D208+E208</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B209" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D209" s="1">
+        <v>70</v>
+      </c>
+      <c r="E209" s="1">
+        <f>G200</f>
+        <v>7</v>
+      </c>
+      <c r="F209" s="374">
+        <f>D209+E209</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B210" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D210" s="130">
+        <f>L167</f>
+        <v>2138</v>
+      </c>
+      <c r="E210" s="1">
+        <v>0</v>
+      </c>
+      <c r="F210" s="390">
+        <f>D210+E210</f>
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B211" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D211" s="389">
+        <f>SUM(D208:D210)</f>
+        <v>2339</v>
+      </c>
+      <c r="E211" s="339">
+        <f>E208+E209+E210</f>
+        <v>47</v>
+      </c>
+      <c r="F211" s="391">
+        <f>F208+F209+F210</f>
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="10" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
+      <c r="H213" s="12"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="15" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="16"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B223" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D224" s="1" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D225" s="1" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D226" s="1" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D227" s="1" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D228" s="1" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D229" s="1" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D230" s="1" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D231" s="1" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D232" s="1" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D233" s="3" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B234" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D235" s="1" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D236" s="1" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B237" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D238" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D239" s="3" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B241" s="24" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C241" s="25"/>
+      <c r="D241" s="25"/>
+      <c r="E241" s="25"/>
+      <c r="F241" s="26"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B242" s="377" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C242" s="378"/>
+      <c r="D242" s="378"/>
+      <c r="E242" s="378"/>
+      <c r="F242" s="379"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B243" s="377" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C243" s="378"/>
+      <c r="D243" s="378"/>
+      <c r="E243" s="378"/>
+      <c r="F243" s="380">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B244" s="377" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C244" s="378"/>
+      <c r="D244" s="378"/>
+      <c r="E244" s="378"/>
+      <c r="F244" s="380">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B245" s="377"/>
+      <c r="C245" s="378"/>
+      <c r="D245" s="378"/>
+      <c r="E245" s="378"/>
+      <c r="F245" s="380"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B246" s="377" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C246" s="378"/>
+      <c r="D246" s="378"/>
+      <c r="E246" s="378"/>
+      <c r="F246" s="380"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B247" s="377" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C247" s="378"/>
+      <c r="D247" s="378"/>
+      <c r="E247" s="378"/>
+      <c r="F247" s="380">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B248" s="27" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C248" s="28"/>
+      <c r="D248" s="28"/>
+      <c r="E248" s="28"/>
+      <c r="F248" s="381">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" s="10" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B251" s="11"/>
+      <c r="C251" s="11"/>
+      <c r="D251" s="11"/>
+      <c r="E251" s="11"/>
+      <c r="F251" s="11"/>
+      <c r="G251" s="11"/>
+      <c r="H251" s="12"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" s="13" t="s">
+        <v>2015</v>
+      </c>
+      <c r="H252" s="14"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" s="15" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="16"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B256" s="1" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B257" s="1" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B258" s="1" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B259" s="3" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B260" s="3" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B263" s="1" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B264" s="1" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B265" s="1" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B266" s="1" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B267" s="1" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B268" s="1" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B270" s="1" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B271" s="1" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B272" s="1" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B273" s="1" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B274" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B275" s="1" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B276" s="1" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" s="10" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B278" s="11"/>
+      <c r="C278" s="11"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
+      <c r="F278" s="11"/>
+      <c r="G278" s="11"/>
+      <c r="H278" s="12"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" s="13" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H279" s="14"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="15" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B280" s="6"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="16"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D283" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D286" s="6" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B287" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D287" s="1">
+        <f>10*60%</f>
+        <v>6</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B288" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D288" s="1">
+        <v>4</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D291" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADC1097-216B-CD44-B122-9706A1489499}">
+  <dimension ref="A1:H109"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A50" zoomScale="314" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -47235,7 +49311,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -47245,2061 +49321,619 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="80" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="235" t="s">
-        <v>1820</v>
-      </c>
-      <c r="B81" s="332"/>
-      <c r="C81" s="332"/>
-      <c r="D81" s="332"/>
-      <c r="E81" s="332"/>
-      <c r="F81" s="332"/>
-      <c r="G81" s="332"/>
-      <c r="H81" s="333"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="245" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D87" s="237" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D88" s="38">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D89" s="38">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D90" s="38">
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
+        <v>2099</v>
+      </c>
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
+        <v>2100</v>
+      </c>
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="48" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
+        <v>2102</v>
+      </c>
+      <c r="H7" s="49"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="48" t="s">
+        <v>2103</v>
+      </c>
+      <c r="H8" s="49"/>
+    </row>
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="79"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="371" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C23" s="371"/>
+      <c r="D23" s="371"/>
+      <c r="E23" s="371"/>
+      <c r="F23" s="371"/>
+      <c r="G23" s="371"/>
+      <c r="H23" s="371"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="F31" s="1">
+        <v>400</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F32" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D91" s="38">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D92" s="38">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D93" s="38">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D94" s="38">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D95" s="38">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D96" s="38">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D97" s="38">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D98" s="38">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="371" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C39" s="371"/>
+      <c r="D39" s="371"/>
+      <c r="E39" s="371"/>
+      <c r="F39" s="371"/>
+      <c r="G39" s="371"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>3</v>
+      </c>
+      <c r="B50" s="371" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C50" s="371"/>
+      <c r="D50" s="371"/>
+      <c r="E50" s="371"/>
+      <c r="F50" s="371"/>
+      <c r="G50" s="371"/>
+      <c r="H50" s="371"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="G63" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D99" s="38">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D100" s="38">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D101" s="38">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D102" s="38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D103" s="38">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D104" s="38">
+      <c r="G66" s="1">
+        <f>100-20</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D105" s="38">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D106" s="38">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D107" s="38">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D108" s="38">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D109" s="38">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D110" s="38">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D111" s="38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D112" s="38">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D113" s="38">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D114" s="38">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D115" s="38">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D116" s="38">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D117" s="38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D118" s="38">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="D119" s="38">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D120" s="38">
+      <c r="H66" s="1" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>4</v>
+      </c>
+      <c r="B73" s="371" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D77" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D78" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="H78" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D121" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D122" s="38">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D79" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="H79" s="32" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D80" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D90" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="H90" s="19">
+        <f>100000*9%</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D91" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="H91" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D92" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="H92" s="75" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D93" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="H93" s="19">
+        <f>40000*10%</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D123" s="38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>2010</v>
-      </c>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-    </row>
-    <row r="147" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A148" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="245" t="s">
-        <v>446</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>1967</v>
-      </c>
-      <c r="G148" s="84" t="s">
-        <v>1827</v>
-      </c>
-      <c r="H148" s="46"/>
-      <c r="I148" s="46"/>
-      <c r="J148" s="46"/>
-      <c r="K148" s="46"/>
-      <c r="L148" s="47"/>
-      <c r="N148" s="84" t="s">
-        <v>1828</v>
-      </c>
-      <c r="O148" s="46"/>
-      <c r="P148" s="46"/>
-      <c r="Q148" s="47"/>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D149" s="237" t="s">
-        <v>513</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G149" s="48"/>
-      <c r="H149" s="398"/>
-      <c r="I149" s="398"/>
-      <c r="J149" s="398"/>
-      <c r="K149" s="398"/>
-      <c r="L149" s="49"/>
-      <c r="N149" s="48"/>
-      <c r="O149" s="398"/>
-      <c r="P149" s="398"/>
-      <c r="Q149" s="49"/>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>1990</v>
-      </c>
-      <c r="D150" s="38">
-        <v>800</v>
-      </c>
-      <c r="E150" s="397" t="s">
-        <v>524</v>
-      </c>
-      <c r="G150" s="400" t="s">
-        <v>33</v>
-      </c>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="K150" s="6"/>
-      <c r="L150" s="49"/>
-      <c r="N150" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="O150" s="398"/>
-      <c r="P150" s="399">
-        <f>T154</f>
-        <v>918</v>
-      </c>
-      <c r="Q150" s="49"/>
-      <c r="R150" s="397" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D151" s="38">
-        <v>750</v>
-      </c>
-      <c r="E151" s="397" t="s">
-        <v>524</v>
-      </c>
-      <c r="G151" s="48"/>
-      <c r="H151" s="398"/>
-      <c r="I151" s="398"/>
-      <c r="J151" s="398"/>
-      <c r="K151" s="398"/>
-      <c r="L151" s="49"/>
-      <c r="N151" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="O151" s="398"/>
-      <c r="P151" s="399">
-        <f>-T160</f>
-        <v>-238</v>
-      </c>
-      <c r="Q151" s="49"/>
-      <c r="R151" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="T151" s="30">
-        <f>D152</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D152" s="38">
-        <v>1000</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>1968</v>
-      </c>
-      <c r="G152" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="H152" s="398"/>
-      <c r="I152" s="398"/>
-      <c r="J152" s="398" t="s">
-        <v>525</v>
-      </c>
-      <c r="K152" s="398"/>
-      <c r="L152" s="49"/>
-      <c r="N152" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="O152" s="398"/>
-      <c r="P152" s="71">
-        <f>P150+P151</f>
-        <v>680</v>
-      </c>
-      <c r="Q152" s="49"/>
-      <c r="R152" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="T152" s="30">
-        <f>-D168</f>
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>1984</v>
-      </c>
-      <c r="D153" s="38">
-        <v>400</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="F153" s="3"/>
-      <c r="G153" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="H153" s="398">
-        <v>40</v>
-      </c>
-      <c r="I153" s="398"/>
-      <c r="J153" s="398" t="s">
-        <v>100</v>
-      </c>
-      <c r="K153" s="398"/>
-      <c r="L153" s="49">
-        <f>D163</f>
-        <v>117</v>
-      </c>
-      <c r="N153" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="O153" s="398"/>
-      <c r="P153" s="399">
-        <f>-(92+22*50%+19+60%*10)</f>
-        <v>-128</v>
-      </c>
-      <c r="Q153" s="49"/>
-      <c r="R153" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="T153" s="30">
-        <f>-D171</f>
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D154" s="38">
-        <v>300</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="F154" s="3"/>
-      <c r="G154" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H154" s="398">
-        <f>300-12</f>
-        <v>288</v>
-      </c>
-      <c r="I154" s="398"/>
-      <c r="J154" s="398" t="s">
-        <v>220</v>
-      </c>
-      <c r="K154" s="398"/>
-      <c r="L154" s="49">
-        <f>D170</f>
-        <v>45</v>
-      </c>
-      <c r="N154" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="O154" s="398"/>
-      <c r="P154" s="409">
-        <f>-(19+53+15+23+22*50%+40%*10)</f>
-        <v>-125</v>
-      </c>
-      <c r="Q154" s="49"/>
-      <c r="R154" s="1" t="s">
-        <v>1997</v>
-      </c>
-      <c r="T154" s="61">
-        <f>SUM(T151:T153)</f>
-        <v>918</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D155" s="38">
-        <v>288</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>1969</v>
-      </c>
-      <c r="G155" s="48" t="s">
-        <v>1622</v>
-      </c>
-      <c r="H155" s="398">
-        <v>212</v>
-      </c>
-      <c r="I155" s="398"/>
-      <c r="J155" s="398"/>
-      <c r="K155" s="398"/>
-      <c r="L155" s="49"/>
-      <c r="N155" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="O155" s="398"/>
-      <c r="P155" s="399">
-        <f>-D185</f>
-        <v>-5</v>
-      </c>
-      <c r="Q155" s="49"/>
-      <c r="T155" s="30"/>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D156" s="38">
-        <v>138</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>1970</v>
-      </c>
-      <c r="G156" s="48" t="s">
-        <v>1983</v>
-      </c>
-      <c r="H156" s="398">
-        <v>400</v>
-      </c>
-      <c r="I156" s="398"/>
-      <c r="J156" s="398" t="s">
-        <v>315</v>
-      </c>
-      <c r="K156" s="398"/>
-      <c r="L156" s="401">
-        <f>SUM(L152:L155)</f>
-        <v>162</v>
-      </c>
-      <c r="N156" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="O156" s="398"/>
-      <c r="P156" s="214">
-        <f>SUM(P152:P155)</f>
-        <v>422</v>
-      </c>
-      <c r="Q156" s="49"/>
-      <c r="R156" s="397" t="s">
-        <v>216</v>
-      </c>
-      <c r="T156" s="30"/>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D157" s="38">
-        <v>222</v>
-      </c>
-      <c r="E157" s="397" t="s">
-        <v>524</v>
-      </c>
-      <c r="G157" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="H157" s="339">
-        <f>SUM(H153:H156)</f>
-        <v>940</v>
-      </c>
-      <c r="I157" s="398"/>
-      <c r="J157" s="398"/>
-      <c r="K157" s="398"/>
-      <c r="L157" s="49"/>
-      <c r="N157" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="O157" s="398"/>
-      <c r="P157" s="399">
-        <f>-(D174+D182)</f>
-        <v>-46</v>
-      </c>
-      <c r="Q157" s="49"/>
-      <c r="R157" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="T157" s="30">
-        <f>D175</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D158" s="38">
-        <v>131</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G158" s="48"/>
-      <c r="H158" s="398"/>
-      <c r="I158" s="398"/>
-      <c r="J158" s="398"/>
-      <c r="K158" s="398"/>
-      <c r="L158" s="49"/>
-      <c r="N158" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="O158" s="398"/>
-      <c r="P158" s="399">
-        <f>D180</f>
-        <v>15</v>
-      </c>
-      <c r="Q158" s="49"/>
-      <c r="R158" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="T158" s="30">
-        <f>T168</f>
-        <v>406</v>
-      </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D159" s="38">
-        <v>212</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="F159" s="3"/>
-      <c r="G159" s="48" t="s">
-        <v>524</v>
-      </c>
-      <c r="H159" s="398"/>
-      <c r="I159" s="398"/>
-      <c r="J159" s="398" t="s">
-        <v>526</v>
-      </c>
-      <c r="K159" s="398"/>
-      <c r="L159" s="49"/>
-      <c r="N159" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="O159" s="398"/>
-      <c r="P159" s="214">
-        <f>SUM(P156:P158)</f>
-        <v>391</v>
-      </c>
-      <c r="Q159" s="49"/>
-      <c r="R159" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="T159" s="30">
-        <f>-D160</f>
-        <v>-212</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D160" s="38">
-        <v>212</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>1971</v>
-      </c>
-      <c r="G160" s="48" t="s">
-        <v>1314</v>
-      </c>
-      <c r="H160" s="398">
-        <f>750-100</f>
-        <v>650</v>
-      </c>
-      <c r="I160" s="398"/>
-      <c r="J160" s="398" t="s">
-        <v>101</v>
-      </c>
-      <c r="K160" s="398"/>
-      <c r="L160" s="49">
-        <f>D161</f>
-        <v>111</v>
-      </c>
-      <c r="N160" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="O160" s="398"/>
-      <c r="P160" s="399">
-        <v>-80</v>
-      </c>
-      <c r="Q160" s="49"/>
-      <c r="R160" s="1" t="s">
-        <v>1999</v>
-      </c>
-      <c r="T160" s="61">
-        <f>SUM(T157:T159)</f>
-        <v>238</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D161" s="38">
-        <v>111</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>1992</v>
-      </c>
-      <c r="G161" s="48" t="s">
-        <v>1989</v>
-      </c>
-      <c r="H161" s="398">
-        <f>D150</f>
-        <v>800</v>
-      </c>
-      <c r="I161" s="398"/>
-      <c r="J161" s="398" t="s">
-        <v>315</v>
-      </c>
-      <c r="K161" s="398"/>
-      <c r="L161" s="401">
-        <f>SUM(L160)</f>
-        <v>111</v>
-      </c>
-      <c r="N161" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="O161" s="51"/>
-      <c r="P161" s="186">
-        <f>P159+P160</f>
-        <v>311</v>
-      </c>
-      <c r="Q161" s="79"/>
-      <c r="T161" s="30"/>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D162" s="38">
-        <v>19</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G162" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="H162" s="339">
-        <f>SUM(H160:H161)</f>
-        <v>1450</v>
-      </c>
-      <c r="I162" s="398"/>
-      <c r="J162" s="398"/>
-      <c r="K162" s="398"/>
-      <c r="L162" s="49"/>
-      <c r="T162" s="30"/>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D163" s="38">
-        <v>117</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>1991</v>
-      </c>
-      <c r="G163" s="48"/>
-      <c r="H163" s="398"/>
-      <c r="I163" s="398"/>
-      <c r="J163" s="398"/>
-      <c r="K163" s="398"/>
-      <c r="L163" s="49"/>
-      <c r="R163" s="397" t="s">
-        <v>1998</v>
-      </c>
-      <c r="T163" s="30"/>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D164" s="38">
-        <v>100</v>
-      </c>
-      <c r="E164" s="397" t="s">
-        <v>1973</v>
-      </c>
-      <c r="G164" s="48"/>
-      <c r="H164" s="398"/>
-      <c r="I164" s="398"/>
-      <c r="J164" s="398" t="s">
-        <v>36</v>
-      </c>
-      <c r="K164" s="398"/>
-      <c r="L164" s="49"/>
-      <c r="R164" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="T164" s="30">
-        <f>D155</f>
-        <v>288</v>
-      </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D165" s="38">
-        <v>92</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>1974</v>
-      </c>
-      <c r="G165" s="48"/>
-      <c r="H165" s="398"/>
-      <c r="I165" s="398"/>
-      <c r="J165" s="398" t="s">
-        <v>490</v>
-      </c>
-      <c r="K165" s="398"/>
-      <c r="L165" s="49">
-        <v>131</v>
-      </c>
-      <c r="R165" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="T165" s="30">
-        <f>D156</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D166" s="38">
-        <v>80</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>1975</v>
-      </c>
-      <c r="G166" s="48"/>
-      <c r="H166" s="398"/>
-      <c r="I166" s="398"/>
-      <c r="J166" s="398" t="s">
-        <v>1278</v>
-      </c>
-      <c r="K166" s="398"/>
-      <c r="L166" s="49">
-        <v>70</v>
-      </c>
-      <c r="R166" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="T166" s="30">
-        <f>-D179</f>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D167" s="38">
-        <v>70</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G167" s="48"/>
-      <c r="H167" s="398"/>
-      <c r="I167" s="398"/>
-      <c r="J167" s="398" t="s">
-        <v>1572</v>
-      </c>
-      <c r="K167" s="398"/>
-      <c r="L167" s="49">
-        <f>L168-201</f>
-        <v>1916</v>
-      </c>
-      <c r="N167" s="1" t="s">
-        <v>1995</v>
-      </c>
-      <c r="R167" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="T167" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D168" s="38">
-        <v>60</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>1976</v>
-      </c>
-      <c r="G168" s="48"/>
-      <c r="H168" s="398"/>
-      <c r="I168" s="398"/>
-      <c r="J168" s="398" t="s">
-        <v>315</v>
-      </c>
-      <c r="K168" s="398"/>
-      <c r="L168" s="401">
-        <f>L170-273</f>
-        <v>2117</v>
-      </c>
-      <c r="N168" s="1" t="s">
-        <v>1994</v>
-      </c>
-      <c r="R168" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="T168" s="61">
-        <f>SUM(T164:T167)</f>
-        <v>406</v>
-      </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D169" s="38">
-        <v>53</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G169" s="48"/>
-      <c r="H169" s="398"/>
-      <c r="I169" s="398"/>
-      <c r="J169" s="398"/>
-      <c r="K169" s="398"/>
-      <c r="L169" s="49"/>
-    </row>
-    <row r="170" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D170" s="38">
-        <v>45</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>1991</v>
-      </c>
-      <c r="G170" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="H170" s="402">
-        <f>H157+H162</f>
-        <v>2390</v>
-      </c>
-      <c r="I170" s="51"/>
-      <c r="J170" s="51" t="s">
-        <v>1993</v>
-      </c>
-      <c r="K170" s="51"/>
-      <c r="L170" s="403">
-        <f>H170</f>
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="171" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D171" s="38">
-        <v>22</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D172" s="38">
-        <v>40</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="F172" s="3"/>
-      <c r="N172" s="45" t="s">
-        <v>2004</v>
-      </c>
-      <c r="O172" s="46"/>
-      <c r="P172" s="46"/>
-      <c r="Q172" s="47"/>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D173" s="38">
-        <v>12</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F173" s="3"/>
-      <c r="N173" s="48" t="s">
-        <v>2005</v>
-      </c>
-      <c r="O173" s="398"/>
-      <c r="P173" s="398"/>
-      <c r="Q173" s="405">
-        <f>Q176-Q175-Q174</f>
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D174" s="38">
-        <v>19</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>1978</v>
-      </c>
-      <c r="N174" s="48" t="s">
-        <v>1304</v>
-      </c>
-      <c r="O174" s="398"/>
-      <c r="P174" s="398"/>
-      <c r="Q174" s="52">
-        <f>P161</f>
-        <v>311</v>
-      </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>2000</v>
-      </c>
-      <c r="D175" s="38">
-        <v>44</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>1969</v>
-      </c>
-      <c r="N175" s="48" t="s">
-        <v>2006</v>
-      </c>
-      <c r="O175" s="398"/>
-      <c r="P175" s="398"/>
-      <c r="Q175" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D176" s="38">
-        <v>15</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>1972</v>
-      </c>
-      <c r="N176" s="50" t="s">
-        <v>2007</v>
-      </c>
-      <c r="O176" s="51"/>
-      <c r="P176" s="51"/>
-      <c r="Q176" s="404">
-        <f>L167</f>
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D177" s="38">
-        <v>23</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D178" s="38">
-        <v>22</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D179" s="38">
-        <v>20</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D180" s="38">
-        <v>15</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="D181" s="38">
-        <v>19</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D182" s="38">
-        <v>27</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>1978</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D183" s="38">
-        <v>10</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>1979</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D184" s="38">
-        <v>5</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D185" s="38">
-        <v>5</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>1982</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I186" s="1" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I187" s="1" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
-        <v>2023</v>
-      </c>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="10" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
-      <c r="D193" s="11"/>
-      <c r="E193" s="11"/>
-      <c r="F193" s="11"/>
-      <c r="G193" s="11"/>
-      <c r="H193" s="12"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="13" t="s">
-        <v>2012</v>
-      </c>
-      <c r="B194" s="398"/>
-      <c r="C194" s="398"/>
-      <c r="D194" s="398"/>
-      <c r="E194" s="398"/>
-      <c r="F194" s="398"/>
-      <c r="G194" s="398"/>
-      <c r="H194" s="14"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="15" t="s">
-        <v>2013</v>
-      </c>
-      <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="6"/>
-      <c r="G195" s="6"/>
-      <c r="H195" s="16"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
-        <v>2025</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B199" s="1" t="s">
-        <v>2026</v>
-      </c>
-      <c r="G199" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B200" s="1" t="s">
-        <v>2029</v>
-      </c>
-      <c r="G200" s="1">
-        <v>7</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B201" s="1" t="s">
-        <v>2027</v>
-      </c>
-      <c r="G201" s="339">
-        <v>47</v>
-      </c>
-      <c r="H201" s="1" t="s">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E206" s="1" t="s">
-        <v>2034</v>
-      </c>
-      <c r="F206" s="406" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D207" s="6" t="s">
-        <v>2033</v>
-      </c>
-      <c r="E207" s="6" t="s">
-        <v>2035</v>
-      </c>
-      <c r="F207" s="407" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B208" s="398" t="s">
-        <v>490</v>
-      </c>
-      <c r="C208" s="398"/>
-      <c r="D208" s="398">
-        <v>131</v>
-      </c>
-      <c r="E208" s="1">
-        <f>G199</f>
-        <v>40</v>
-      </c>
-      <c r="F208" s="406">
-        <f>D208+E208</f>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B209" s="398" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C209" s="398"/>
-      <c r="D209" s="398">
-        <v>70</v>
-      </c>
-      <c r="E209" s="1">
-        <f>G200</f>
-        <v>7</v>
-      </c>
-      <c r="F209" s="406">
-        <f>D209+E209</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B210" s="398" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C210" s="398"/>
-      <c r="D210" s="398">
-        <v>1916</v>
-      </c>
-      <c r="E210" s="1">
-        <v>0</v>
-      </c>
-      <c r="F210" s="406">
-        <f>D210+E210</f>
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B211" s="398" t="s">
-        <v>315</v>
-      </c>
-      <c r="C211" s="398"/>
-      <c r="D211" s="339">
-        <v>2117</v>
-      </c>
-      <c r="E211" s="339">
-        <f>E208+E209+E210</f>
-        <v>47</v>
-      </c>
-      <c r="F211" s="408">
-        <f>F208+F209+F210</f>
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A213" s="10" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B213" s="11"/>
-      <c r="C213" s="11"/>
-      <c r="D213" s="11"/>
-      <c r="E213" s="11"/>
-      <c r="F213" s="11"/>
-      <c r="G213" s="11"/>
-      <c r="H213" s="12"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A214" s="15" t="s">
-        <v>2016</v>
-      </c>
-      <c r="B214" s="6"/>
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
-      <c r="E214" s="6"/>
-      <c r="F214" s="6"/>
-      <c r="G214" s="6"/>
-      <c r="H214" s="16"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" s="1" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" s="1" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" s="1" t="s">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" s="1" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A221" s="1" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A222" s="1" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B223" s="1" t="s">
-        <v>2043</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D224" s="1" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D225" s="1" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D226" s="1" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D227" s="1" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D228" s="1" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D229" s="1" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D230" s="1" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D231" s="1" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D232" s="1" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D233" s="3" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B234" s="1" t="s">
-        <v>2057</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D235" s="1" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D236" s="1" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B237" s="1" t="s">
-        <v>2059</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D238" s="1" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D239" s="3" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B241" s="24" t="s">
-        <v>2069</v>
-      </c>
-      <c r="C241" s="25"/>
-      <c r="D241" s="25"/>
-      <c r="E241" s="25"/>
-      <c r="F241" s="26"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B242" s="410" t="s">
-        <v>2063</v>
-      </c>
-      <c r="C242" s="411"/>
-      <c r="D242" s="411"/>
-      <c r="E242" s="411"/>
-      <c r="F242" s="412"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B243" s="410" t="s">
-        <v>2064</v>
-      </c>
-      <c r="C243" s="411"/>
-      <c r="D243" s="411"/>
-      <c r="E243" s="411"/>
-      <c r="F243" s="413">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B244" s="410" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C244" s="411"/>
-      <c r="D244" s="411"/>
-      <c r="E244" s="411"/>
-      <c r="F244" s="413">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B245" s="410"/>
-      <c r="C245" s="411"/>
-      <c r="D245" s="411"/>
-      <c r="E245" s="411"/>
-      <c r="F245" s="413"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B246" s="410" t="s">
-        <v>2066</v>
-      </c>
-      <c r="C246" s="411"/>
-      <c r="D246" s="411"/>
-      <c r="E246" s="411"/>
-      <c r="F246" s="413"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B247" s="410" t="s">
-        <v>2067</v>
-      </c>
-      <c r="C247" s="411"/>
-      <c r="D247" s="411"/>
-      <c r="E247" s="411"/>
-      <c r="F247" s="413">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B248" s="27" t="s">
-        <v>2068</v>
-      </c>
-      <c r="C248" s="28"/>
-      <c r="D248" s="28"/>
-      <c r="E248" s="28"/>
-      <c r="F248" s="414">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A251" s="10" t="s">
-        <v>2017</v>
-      </c>
-      <c r="B251" s="11"/>
-      <c r="C251" s="11"/>
-      <c r="D251" s="11"/>
-      <c r="E251" s="11"/>
-      <c r="F251" s="11"/>
-      <c r="G251" s="11"/>
-      <c r="H251" s="12"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A252" s="13" t="s">
-        <v>2018</v>
-      </c>
-      <c r="B252" s="398"/>
-      <c r="C252" s="398"/>
-      <c r="D252" s="398"/>
-      <c r="E252" s="398"/>
-      <c r="F252" s="398"/>
-      <c r="G252" s="398"/>
-      <c r="H252" s="14"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A253" s="15" t="s">
-        <v>2019</v>
-      </c>
-      <c r="B253" s="6"/>
-      <c r="C253" s="6"/>
-      <c r="D253" s="6"/>
-      <c r="E253" s="6"/>
-      <c r="F253" s="6"/>
-      <c r="G253" s="6"/>
-      <c r="H253" s="16"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A255" s="1" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B256" s="1" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B257" s="1" t="s">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B258" s="1" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B259" s="3" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B260" s="3" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" s="1" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B263" s="1" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B264" s="1" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B265" s="1" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B266" s="1" t="s">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B267" s="1" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B268" s="1" t="s">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B270" s="1" t="s">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B271" s="1" t="s">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B272" s="1" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B273" s="1" t="s">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B274" s="1" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B275" s="1" t="s">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B276" s="1" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A278" s="10" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B278" s="11"/>
-      <c r="C278" s="11"/>
-      <c r="D278" s="11"/>
-      <c r="E278" s="11"/>
-      <c r="F278" s="11"/>
-      <c r="G278" s="11"/>
-      <c r="H278" s="12"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A279" s="13" t="s">
-        <v>2021</v>
-      </c>
-      <c r="B279" s="398"/>
-      <c r="C279" s="398"/>
-      <c r="D279" s="398"/>
-      <c r="E279" s="398"/>
-      <c r="F279" s="398"/>
-      <c r="G279" s="398"/>
-      <c r="H279" s="14"/>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A280" s="15" t="s">
-        <v>2022</v>
-      </c>
-      <c r="B280" s="6"/>
-      <c r="C280" s="6"/>
-      <c r="D280" s="6"/>
-      <c r="E280" s="6"/>
-      <c r="F280" s="6"/>
-      <c r="G280" s="6"/>
-      <c r="H280" s="16"/>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A282" s="1" t="s">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A283" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D283" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A285" s="1" t="s">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D286" s="6" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B287" s="1" t="s">
-        <v>2089</v>
-      </c>
-      <c r="D287" s="1">
-        <f>10*60%</f>
-        <v>6</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B288" s="1" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D288" s="1">
-        <v>4</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="1" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="1" t="s">
-        <v>2094</v>
-      </c>
-      <c r="D291" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="1" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="1" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="1" t="s">
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="1" t="s">
-        <v>2098</v>
+      <c r="B103" s="1" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B104" s="371" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C104" s="371"/>
+      <c r="D104" s="371"/>
+      <c r="E104" s="371"/>
+      <c r="F104" s="371"/>
+      <c r="G104" s="371"/>
+      <c r="H104" s="371"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>2179</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADC1097-216B-CD44-B122-9706A1489499}">
-  <dimension ref="A1:H109"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E77F080-2BC1-904F-94B3-C204FE8A6FF6}">
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="314" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="285" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49309,7 +49943,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -49319,671 +49953,9 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
-        <v>2101</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
-        <v>2102</v>
-      </c>
-      <c r="B4" s="398"/>
-      <c r="C4" s="398"/>
-      <c r="D4" s="398"/>
-      <c r="E4" s="398"/>
-      <c r="F4" s="398"/>
-      <c r="G4" s="398"/>
-      <c r="H4" s="49"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>2103</v>
-      </c>
-      <c r="B5" s="398"/>
-      <c r="C5" s="398"/>
-      <c r="D5" s="398"/>
-      <c r="E5" s="398"/>
-      <c r="F5" s="398"/>
-      <c r="G5" s="398"/>
-      <c r="H5" s="49"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
-        <v>2104</v>
-      </c>
-      <c r="B6" s="398"/>
-      <c r="C6" s="398"/>
-      <c r="D6" s="398"/>
-      <c r="E6" s="398"/>
-      <c r="F6" s="398"/>
-      <c r="G6" s="398"/>
-      <c r="H6" s="49"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
-        <v>2105</v>
-      </c>
-      <c r="B7" s="398"/>
-      <c r="C7" s="398"/>
-      <c r="D7" s="398"/>
-      <c r="E7" s="398"/>
-      <c r="F7" s="398"/>
-      <c r="G7" s="398"/>
-      <c r="H7" s="49"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
-        <v>2106</v>
-      </c>
-      <c r="B8" s="398"/>
-      <c r="C8" s="398"/>
-      <c r="D8" s="398"/>
-      <c r="E8" s="398"/>
-      <c r="F8" s="398"/>
-      <c r="G8" s="398"/>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
-        <v>2107</v>
-      </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="79"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>2108</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>2111</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="397" t="s">
-        <v>2113</v>
-      </c>
-      <c r="C23" s="397"/>
-      <c r="D23" s="397"/>
-      <c r="E23" s="397"/>
-      <c r="F23" s="397"/>
-      <c r="G23" s="397"/>
-      <c r="H23" s="397"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>2125</v>
-      </c>
-      <c r="F31" s="1">
-        <v>400</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>2124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>2126</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>2</v>
-      </c>
-      <c r="B39" s="397" t="s">
-        <v>2114</v>
-      </c>
-      <c r="C39" s="397"/>
-      <c r="D39" s="397"/>
-      <c r="E39" s="397"/>
-      <c r="F39" s="397"/>
-      <c r="G39" s="397"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="3" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>3</v>
-      </c>
-      <c r="B50" s="397" t="s">
-        <v>2115</v>
-      </c>
-      <c r="C50" s="397"/>
-      <c r="D50" s="397"/>
-      <c r="E50" s="397"/>
-      <c r="F50" s="397"/>
-      <c r="G50" s="397"/>
-      <c r="H50" s="397"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>2150</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>2151</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>2148</v>
-      </c>
-      <c r="G63" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
-        <v>2153</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
-        <v>2154</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G66" s="1">
-        <f>100-20</f>
-        <v>80</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>2149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="3" t="s">
-        <v>2157</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B71" s="3" t="s">
-        <v>2158</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>4</v>
-      </c>
-      <c r="B73" s="397" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D77" s="1" t="s">
-        <v>2160</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D78" s="1" t="s">
-        <v>2161</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D79" s="1" t="s">
-        <v>2163</v>
-      </c>
-      <c r="H79" s="32" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D80" s="1" t="s">
-        <v>2162</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D90" s="1" t="s">
-        <v>2160</v>
-      </c>
-      <c r="H90" s="19">
-        <f>100000*9%</f>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D91" s="1" t="s">
-        <v>2161</v>
-      </c>
-      <c r="H91" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D92" s="1" t="s">
-        <v>2171</v>
-      </c>
-      <c r="H92" s="75" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D93" s="1" t="s">
-        <v>2162</v>
-      </c>
-      <c r="H93" s="19">
-        <f>40000*10%</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B96" s="1" t="s">
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B97" s="1" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B98" s="1" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="1" t="s">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="1" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="1" t="s">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>5</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B104" s="397" t="s">
-        <v>2118</v>
-      </c>
-      <c r="C104" s="397"/>
-      <c r="D104" s="397"/>
-      <c r="E104" s="397"/>
-      <c r="F104" s="397"/>
-      <c r="G104" s="397"/>
-      <c r="H104" s="397"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B106" s="1" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B107" s="1" t="s">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B108" s="1" t="s">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B109" s="1" t="s">
-        <v>2182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E77F080-2BC1-904F-94B3-C204FE8A6FF6}">
-  <dimension ref="A1:I43"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A17" zoomScale="285" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>2100</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -49995,57 +49967,57 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -50055,32 +50027,32 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -50088,7 +50060,7 @@
         <v>1752</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -50096,12 +50068,12 @@
         <v>795</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C29" s="6" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>729</v>
@@ -50118,12 +50090,12 @@
         <f>300000+200000</f>
         <v>500000</v>
       </c>
-      <c r="E30" s="72">
-        <f>200000*7%</f>
-        <v>14000.000000000002</v>
+      <c r="E30" s="419">
+        <f>300000*5%+200000*7%</f>
+        <v>29000</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -50134,16 +50106,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
-        <v>2205</v>
-      </c>
-      <c r="E32" s="158">
+        <v>2202</v>
+      </c>
+      <c r="E32" s="420">
         <f>E33-E31-E30</f>
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>731</v>
@@ -50165,21 +50137,21 @@
         <v>54000</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
       <c r="D35" s="72">
         <f>E30</f>
-        <v>14000.000000000002</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
       <c r="D36" s="72">
         <f>E33</f>
@@ -50188,16 +50160,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>2209</v>
-      </c>
-      <c r="D37" s="72">
+        <v>2206</v>
+      </c>
+      <c r="D37" s="419">
         <f>E32</f>
-        <v>40000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -50225,9 +50197,9 @@
       <c r="B42" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="382">
         <f>-E30</f>
-        <v>-14000.000000000002</v>
+        <v>-29000</v>
       </c>
       <c r="D42" s="30">
         <f>-E33</f>
@@ -50238,9 +50210,9 @@
       <c r="B43" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C43" s="61">
+      <c r="C43" s="392">
         <f>C41+C42</f>
-        <v>486000</v>
+        <v>471000</v>
       </c>
       <c r="D43" s="61">
         <f>D41+D42</f>
@@ -50266,16 +50238,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="371" t="s">
+      <c r="A1" s="393" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="371"/>
-      <c r="C1" s="371"/>
-      <c r="D1" s="371"/>
-      <c r="E1" s="371"/>
-      <c r="F1" s="371"/>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
+      <c r="B1" s="393"/>
+      <c r="C1" s="393"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
     </row>
     <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
@@ -52259,7 +52231,7 @@
       <c r="A67" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J67" s="372" t="s">
+      <c r="J67" s="394" t="s">
         <v>335</v>
       </c>
       <c r="K67" s="63" t="s">
@@ -52273,7 +52245,7 @@
       <c r="A68" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J68" s="373"/>
+      <c r="J68" s="395"/>
       <c r="K68" s="67" t="s">
         <v>338</v>
       </c>
@@ -52282,7 +52254,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J69" s="374"/>
+      <c r="J69" s="396"/>
       <c r="K69" s="69" t="s">
         <v>340</v>
       </c>
@@ -52297,7 +52269,7 @@
       <c r="D70" s="61">
         <v>22000</v>
       </c>
-      <c r="J70" s="375" t="s">
+      <c r="J70" s="397" t="s">
         <v>342</v>
       </c>
       <c r="K70" s="63" t="s">
@@ -52308,7 +52280,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J71" s="376"/>
+      <c r="J71" s="398"/>
       <c r="K71" s="69" t="s">
         <v>343</v>
       </c>
@@ -53562,17 +53534,17 @@
     </row>
     <row r="97" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="377" t="s">
+      <c r="A98" s="399" t="s">
         <v>473</v>
       </c>
-      <c r="B98" s="378"/>
-      <c r="C98" s="378"/>
-      <c r="D98" s="378"/>
-      <c r="E98" s="378"/>
-      <c r="F98" s="378"/>
-      <c r="G98" s="378"/>
-      <c r="H98" s="378"/>
-      <c r="I98" s="379"/>
+      <c r="B98" s="400"/>
+      <c r="C98" s="400"/>
+      <c r="D98" s="400"/>
+      <c r="E98" s="400"/>
+      <c r="F98" s="400"/>
+      <c r="G98" s="400"/>
+      <c r="H98" s="400"/>
+      <c r="I98" s="401"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
@@ -53938,14 +53910,14 @@
       </c>
     </row>
     <row r="135" spans="1:15" ht="23" x14ac:dyDescent="0.25">
-      <c r="A135" s="380" t="s">
+      <c r="A135" s="402" t="s">
         <v>541</v>
       </c>
-      <c r="B135" s="380"/>
-      <c r="C135" s="380"/>
-      <c r="D135" s="380"/>
-      <c r="E135" s="380"/>
-      <c r="F135" s="380"/>
+      <c r="B135" s="402"/>
+      <c r="C135" s="402"/>
+      <c r="D135" s="402"/>
+      <c r="E135" s="402"/>
+      <c r="F135" s="402"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
@@ -54372,11 +54344,11 @@
       <c r="E19" s="125" t="s">
         <v>562</v>
       </c>
-      <c r="F19" s="386" t="s">
+      <c r="F19" s="408" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="386"/>
-      <c r="H19" s="386"/>
+      <c r="G19" s="408"/>
+      <c r="H19" s="408"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F20" s="4" t="s">
@@ -54395,24 +54367,24 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C24" s="387" t="s">
+      <c r="C24" s="409" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="383" t="s">
+      <c r="D24" s="405" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="125" t="s">
         <v>562</v>
       </c>
-      <c r="F24" s="386" t="s">
+      <c r="F24" s="408" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="386"/>
-      <c r="H24" s="386"/>
+      <c r="G24" s="408"/>
+      <c r="H24" s="408"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C25" s="388"/>
-      <c r="D25" s="384"/>
+      <c r="C25" s="410"/>
+      <c r="D25" s="406"/>
       <c r="E25" s="8"/>
       <c r="F25" s="127" t="s">
         <v>490</v>
@@ -54452,23 +54424,23 @@
     </row>
     <row r="32" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="126"/>
-      <c r="C32" s="381" t="s">
+      <c r="C32" s="403" t="s">
         <v>564</v>
       </c>
-      <c r="D32" s="383" t="s">
+      <c r="D32" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="385" t="s">
+      <c r="E32" s="407" t="s">
         <v>565</v>
       </c>
-      <c r="F32" s="385"/>
-      <c r="G32" s="385"/>
-      <c r="H32" s="385"/>
+      <c r="F32" s="407"/>
+      <c r="G32" s="407"/>
+      <c r="H32" s="407"/>
     </row>
     <row r="33" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="126"/>
-      <c r="C33" s="388"/>
-      <c r="D33" s="384"/>
+      <c r="C33" s="410"/>
+      <c r="D33" s="406"/>
       <c r="E33" s="128" t="s">
         <v>566</v>
       </c>
@@ -54504,23 +54476,23 @@
     </row>
     <row r="39" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="126"/>
-      <c r="C39" s="381" t="s">
+      <c r="C39" s="403" t="s">
         <v>564</v>
       </c>
-      <c r="D39" s="383" t="s">
+      <c r="D39" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="385" t="s">
+      <c r="E39" s="407" t="s">
         <v>565</v>
       </c>
-      <c r="F39" s="385"/>
-      <c r="G39" s="385"/>
-      <c r="H39" s="385"/>
+      <c r="F39" s="407"/>
+      <c r="G39" s="407"/>
+      <c r="H39" s="407"/>
     </row>
     <row r="40" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="126"/>
-      <c r="C40" s="388"/>
-      <c r="D40" s="384"/>
+      <c r="C40" s="410"/>
+      <c r="D40" s="406"/>
       <c r="E40" s="128" t="s">
         <v>566</v>
       </c>
@@ -54622,22 +54594,22 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="381" t="s">
+      <c r="C54" s="403" t="s">
         <v>564</v>
       </c>
-      <c r="D54" s="383" t="s">
+      <c r="D54" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="385" t="s">
+      <c r="E54" s="407" t="s">
         <v>565</v>
       </c>
-      <c r="F54" s="385"/>
-      <c r="G54" s="385"/>
-      <c r="H54" s="385"/>
+      <c r="F54" s="407"/>
+      <c r="G54" s="407"/>
+      <c r="H54" s="407"/>
     </row>
     <row r="55" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="388"/>
-      <c r="D55" s="384"/>
+      <c r="C55" s="410"/>
+      <c r="D55" s="406"/>
       <c r="E55" s="128" t="s">
         <v>572</v>
       </c>
@@ -54707,24 +54679,24 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="381" t="s">
+      <c r="B71" s="403" t="s">
         <v>564</v>
       </c>
-      <c r="C71" s="381"/>
-      <c r="D71" s="383" t="s">
+      <c r="C71" s="403"/>
+      <c r="D71" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="385" t="s">
+      <c r="E71" s="407" t="s">
         <v>565</v>
       </c>
-      <c r="F71" s="385"/>
-      <c r="G71" s="385"/>
-      <c r="H71" s="385"/>
+      <c r="F71" s="407"/>
+      <c r="G71" s="407"/>
+      <c r="H71" s="407"/>
     </row>
     <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B72" s="382"/>
-      <c r="C72" s="382"/>
-      <c r="D72" s="384"/>
+      <c r="B72" s="404"/>
+      <c r="C72" s="404"/>
+      <c r="D72" s="406"/>
       <c r="E72" s="128" t="s">
         <v>572</v>
       </c>
@@ -54805,24 +54777,24 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="381" t="s">
+      <c r="B86" s="403" t="s">
         <v>564</v>
       </c>
-      <c r="C86" s="381"/>
-      <c r="D86" s="383" t="s">
+      <c r="C86" s="403"/>
+      <c r="D86" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="E86" s="385" t="s">
+      <c r="E86" s="407" t="s">
         <v>565</v>
       </c>
-      <c r="F86" s="385"/>
-      <c r="G86" s="385"/>
-      <c r="H86" s="385"/>
+      <c r="F86" s="407"/>
+      <c r="G86" s="407"/>
+      <c r="H86" s="407"/>
     </row>
     <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B87" s="382"/>
-      <c r="C87" s="382"/>
-      <c r="D87" s="384"/>
+      <c r="B87" s="404"/>
+      <c r="C87" s="404"/>
+      <c r="D87" s="406"/>
       <c r="E87" s="128" t="s">
         <v>572</v>
       </c>
@@ -54862,24 +54834,24 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="381" t="s">
+      <c r="B94" s="403" t="s">
         <v>564</v>
       </c>
-      <c r="C94" s="381"/>
-      <c r="D94" s="383" t="s">
+      <c r="C94" s="403"/>
+      <c r="D94" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="E94" s="385" t="s">
+      <c r="E94" s="407" t="s">
         <v>565</v>
       </c>
-      <c r="F94" s="385"/>
-      <c r="G94" s="385"/>
-      <c r="H94" s="385"/>
+      <c r="F94" s="407"/>
+      <c r="G94" s="407"/>
+      <c r="H94" s="407"/>
     </row>
     <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B95" s="382"/>
-      <c r="C95" s="382"/>
-      <c r="D95" s="384"/>
+      <c r="B95" s="404"/>
+      <c r="C95" s="404"/>
+      <c r="D95" s="406"/>
       <c r="E95" s="128" t="s">
         <v>572</v>
       </c>
@@ -54922,24 +54894,24 @@
       <c r="D99" s="126"/>
     </row>
     <row r="101" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="381" t="s">
+      <c r="B101" s="403" t="s">
         <v>564</v>
       </c>
-      <c r="C101" s="381"/>
-      <c r="D101" s="383" t="s">
+      <c r="C101" s="403"/>
+      <c r="D101" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="E101" s="385" t="s">
+      <c r="E101" s="407" t="s">
         <v>565</v>
       </c>
-      <c r="F101" s="385"/>
-      <c r="G101" s="385"/>
-      <c r="H101" s="385"/>
+      <c r="F101" s="407"/>
+      <c r="G101" s="407"/>
+      <c r="H101" s="407"/>
     </row>
     <row r="102" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="382"/>
-      <c r="C102" s="382"/>
-      <c r="D102" s="384"/>
+      <c r="B102" s="404"/>
+      <c r="C102" s="404"/>
+      <c r="D102" s="406"/>
       <c r="E102" s="134" t="s">
         <v>572</v>
       </c>
@@ -55013,24 +54985,24 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="381" t="s">
+      <c r="B114" s="403" t="s">
         <v>564</v>
       </c>
-      <c r="C114" s="381"/>
-      <c r="D114" s="383" t="s">
+      <c r="C114" s="403"/>
+      <c r="D114" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="E114" s="385" t="s">
+      <c r="E114" s="407" t="s">
         <v>565</v>
       </c>
-      <c r="F114" s="385"/>
-      <c r="G114" s="385"/>
-      <c r="H114" s="385"/>
+      <c r="F114" s="407"/>
+      <c r="G114" s="407"/>
+      <c r="H114" s="407"/>
     </row>
     <row r="115" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="382"/>
-      <c r="C115" s="382"/>
-      <c r="D115" s="384"/>
+      <c r="B115" s="404"/>
+      <c r="C115" s="404"/>
+      <c r="D115" s="406"/>
       <c r="E115" s="134" t="s">
         <v>572</v>
       </c>
@@ -55072,24 +55044,24 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="381" t="s">
+      <c r="B121" s="403" t="s">
         <v>564</v>
       </c>
-      <c r="C121" s="381"/>
-      <c r="D121" s="383" t="s">
+      <c r="C121" s="403"/>
+      <c r="D121" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="E121" s="385" t="s">
+      <c r="E121" s="407" t="s">
         <v>565</v>
       </c>
-      <c r="F121" s="385"/>
-      <c r="G121" s="385"/>
-      <c r="H121" s="385"/>
+      <c r="F121" s="407"/>
+      <c r="G121" s="407"/>
+      <c r="H121" s="407"/>
     </row>
     <row r="122" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="382"/>
-      <c r="C122" s="382"/>
-      <c r="D122" s="384"/>
+      <c r="B122" s="404"/>
+      <c r="C122" s="404"/>
+      <c r="D122" s="406"/>
       <c r="E122" s="134" t="s">
         <v>572</v>
       </c>
@@ -55125,6 +55097,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:H121"/>
+    <mergeCell ref="B86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="B101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:H101"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="B114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:H114"/>
     <mergeCell ref="B71:C72"/>
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="E71:H71"/>
@@ -55141,21 +55128,6 @@
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:H121"/>
-    <mergeCell ref="B86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="B101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:H101"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="B114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:H114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55175,16 +55147,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="389" t="s">
+      <c r="A1" s="411" t="s">
         <v>623</v>
       </c>
-      <c r="B1" s="389"/>
-      <c r="C1" s="389"/>
-      <c r="D1" s="389"/>
-      <c r="E1" s="389"/>
-      <c r="F1" s="389"/>
-      <c r="G1" s="389"/>
-      <c r="H1" s="389"/>
+      <c r="B1" s="411"/>
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="149" t="s">
@@ -58952,12 +58924,12 @@
       <c r="G130" s="300"/>
       <c r="H130" s="300"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="390" t="s">
+      <c r="J130" s="412" t="s">
         <v>1309</v>
       </c>
-      <c r="K130" s="391"/>
-      <c r="L130" s="391"/>
-      <c r="M130" s="391"/>
+      <c r="K130" s="413"/>
+      <c r="L130" s="413"/>
+      <c r="M130" s="413"/>
       <c r="N130" s="292"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
@@ -62585,7 +62557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46AB070-C7CA-FE41-9B78-01D49845651D}">
   <dimension ref="A1:I231"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A52" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A11" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
       <selection activeCell="C59" sqref="C59:E66"/>
     </sheetView>
   </sheetViews>
@@ -63926,10 +63898,10 @@
       <c r="F118" s="17" t="s">
         <v>951</v>
       </c>
-      <c r="G118" s="383" t="s">
+      <c r="G118" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="H118" s="392" t="s">
+      <c r="H118" s="414" t="s">
         <v>952</v>
       </c>
     </row>
@@ -63938,8 +63910,8 @@
       <c r="F119" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="G119" s="383"/>
-      <c r="H119" s="392"/>
+      <c r="G119" s="405"/>
+      <c r="H119" s="414"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="48"/>
@@ -65272,11 +65244,11 @@
         <f>B312</f>
         <v>42750</v>
       </c>
-      <c r="D315" s="393" t="s">
+      <c r="D315" s="415" t="s">
         <v>1040</v>
       </c>
-      <c r="E315" s="393"/>
-      <c r="F315" s="393"/>
+      <c r="E315" s="415"/>
+      <c r="F315" s="415"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
@@ -65287,11 +65259,11 @@
       <c r="A319" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="D319" s="393" t="s">
+      <c r="D319" s="415" t="s">
         <v>1043</v>
       </c>
-      <c r="E319" s="393"/>
-      <c r="F319" s="393"/>
+      <c r="E319" s="415"/>
+      <c r="F319" s="415"/>
     </row>
     <row r="321" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E321" s="18">

--- a/Coursebook - ACC Ruppin - 2025 A.xlsx
+++ b/Coursebook - ACC Ruppin - 2025 A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/Ruppin - ACC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCADA5F-3E05-A941-B752-1ABEDA42CBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324E1B16-E09E-6B42-821A-549098871614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="29580" firstSheet="1" activeTab="17" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="29280" firstSheet="11" activeTab="18" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
   </bookViews>
   <sheets>
     <sheet name="הרצאה 1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,10 @@
     <sheet name="13 - חזרה למבחן חלק ג" sheetId="16" r:id="rId16"/>
     <sheet name="13 - חזרה למבחן חלק ד" sheetId="17" r:id="rId17"/>
     <sheet name="13 - חזרה למבחן חלק ה" sheetId="18" r:id="rId18"/>
+    <sheet name="13 - חזרה למבחן חלק ו" sheetId="19" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1696,7 +1697,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="2215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="2267">
   <si>
     <t xml:space="preserve">מבוא לחשבונאות פיננסית </t>
   </si>
@@ -10855,6 +10856,181 @@
   </si>
   <si>
     <t>בסרטון המלווה נשמטה התייחסות לפטנטים (נכסים בלתי מוחשיים) והנחות מסחריות מספקים. תוקן בפתרון זה (ההשפעות סומנו באדום)</t>
+  </si>
+  <si>
+    <t>המשך שיעור חזרה נוסף למבחן (מוגדר כשיעור 13 א-סינכרוני ללא השתתפות קהל) - רכוש קבוע</t>
+  </si>
+  <si>
+    <t>בחברת ״קובי השמנמן״ (זה אחי האוסטרלי) נרכשה ב-1.3.2022 מכונה לחימום נקניק בעלות של 150,000 ש״ח.</t>
+  </si>
+  <si>
+    <t>עלות ההובלה של המכונה לחברה היא 5,000 ש״ח, עלות ההרכבה של המכונה בחברה היא 12,000 ש״ח ועלות</t>
+  </si>
+  <si>
+    <t>בדיקת התקינות המתחייבת לפני ההפעלה לפי הוראות משרד הבריאות היא 3,000 ש״ח. למכונה קיים ערך שייר</t>
+  </si>
+  <si>
+    <t>המשקף את ערכה הצפוי בסיום אורך חייה השימושיים (גרט) בסכום של 15,000 ש״ח.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">המכונה הגיעה לחברה ב-1.4.2022, הפך לזמין לשימוש ב-1.5.2022, והופעלה ב-1.7.2022. </t>
+  </si>
+  <si>
+    <t>ב. מהי העלות המופחתת של המכונה ל-31.12.2025?</t>
+  </si>
+  <si>
+    <t>לאור מצוקת מזומנים בחברה, בתאריך 1.8.2026 היא נמכרה בתמורה ל-49,000 ש״ח.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ג. מהו רווח / הפסד ההון הנובע מעסקת המכירה? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אורך החיים השימושיים של המכונה מוגדר כ- 10 שנים כאשר ההפחתה היא בשיטת הקו הישר. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כדי לחשב את הוצאות הפחת, אנו צריכים לדעת בתור התחלה את העלות. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">עלותו של פריט רכוש קבוע כוללת את כל העלויות שהן חיוניות להבאתו למיקום ולמצב שמיש. </t>
+  </si>
+  <si>
+    <t>כאן:</t>
+  </si>
+  <si>
+    <t>עלות ישירה של המכונה עצמה</t>
+  </si>
+  <si>
+    <t>עלות הובלה</t>
+  </si>
+  <si>
+    <t>עלות הרכבה</t>
+  </si>
+  <si>
+    <t>בדיקת תקינות חיונית טרם ההפעלה</t>
+  </si>
+  <si>
+    <t>סך עלות הפריט</t>
+  </si>
+  <si>
+    <t>הוצאות הפחת לשנה שלמה (12 חודשים) מחושבות לפי:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">העלות בניכוי השייר / הגרט; ומחלקים במספר שנות ההפחתה (אורך חיים שימושיים). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(170,000 - 15,000) / 10 = </t>
+  </si>
+  <si>
+    <t>המשך פתרון:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בחודשים ינואר, פברואר, מרס, אפריל - המכונה לא היתה זמינה לשימוש. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לכן המכונה מופחתת על פני 8 חודשים בלבד. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,000 * 8/12 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">א. חשבו והציגו את הוצאות הפחת של המכונה לשנת 2022 ולשנת 2023. </t>
+  </si>
+  <si>
+    <t>א. חשבו והציגו את הוצאות הפחת של המכונה לשנת 2022 ולשנת 2023</t>
+  </si>
+  <si>
+    <t>הוצאות הפחת בשנת 2023 הן כמובן לשנה שלמה:</t>
+  </si>
+  <si>
+    <t>פחת 2022</t>
+  </si>
+  <si>
+    <t>פחת 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,000 * 12/12 = </t>
+  </si>
+  <si>
+    <t>ב. מהיה העלות המופחתת של המכונה ל-31.12.2025?</t>
+  </si>
+  <si>
+    <t>העלות המופחתת של פריט רכוש קבוע מוגדרת לפי עלותו בניכוי הפחת הנצבר בגינו.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">העלות = עלות כוללת, עם כל הרכיבים הנלווים, כמו שהוגדר בסעיף א. </t>
+  </si>
+  <si>
+    <t>הפחת הנצבר = פחת לשנה כפול מספר השנים שחלפו ממועד הזמינות עד מועד החישוב.</t>
+  </si>
+  <si>
+    <r>
+      <t>בשנת 2022, המכונה הפכה לזמינה לשימוש ב-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>1.5.2022.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">15,500 * (8/12 + 3) = </t>
+  </si>
+  <si>
+    <t>רווח / הפסד ההון ממכירת רכוש קבוע הוא ההפרש שבין תמורת המכירה לבין העלות</t>
+  </si>
+  <si>
+    <t>נתון בשאלה עצמה:</t>
+  </si>
+  <si>
+    <t>עלות מופחתת למועד זה</t>
+  </si>
+  <si>
+    <t>עלות מופחתת 1.8.2026:</t>
+  </si>
+  <si>
+    <t>פרק הזמן מ-1.5.2022 עד 1.8.2026:</t>
+  </si>
+  <si>
+    <t>בסך הכל 4 שנים ו-3 חודשים:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,500 * (4 + 3/12) = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">המופחתת ערב המכירה - הפרש שלילי הוא הפסד, הפרש חיובי הוא רווח. </t>
+  </si>
+  <si>
+    <t>בהמשך לשאלות ותהיות סטודנטים:</t>
+  </si>
+  <si>
+    <t>בהחלט ייתכנו בבחינה גם שאלות חילוץ!</t>
+  </si>
+  <si>
+    <t>למשל, אם מספרים לי שפריט עלה 150,000, שהוא זמין לשימוש החל מ-1.1.2022, ושהוצאות הפחת השנתיות</t>
+  </si>
+  <si>
+    <t>בגינו הן 15,000 ש״ח, ואין לו גרט / שייר, יכולים לשאול מהי תקופת הפחתתו.</t>
+  </si>
+  <si>
+    <t>(150,000 - 0)/x = 15,000</t>
+  </si>
+  <si>
+    <t>x = 10</t>
+  </si>
+  <si>
+    <t>לכן, תקופת ההפחתה היא 10 שנים!</t>
   </si>
 </sst>
 </file>
@@ -11799,7 +11975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="421">
+  <cellXfs count="426">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -12463,6 +12639,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="37" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12537,8 +12715,11 @@
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -23453,6 +23634,111 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400538</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958E1CC5-F55A-5A58-34DB-C9A9AA27A78A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13516336462" y="9153769"/>
+          <a:ext cx="385884" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>415192</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>122115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>415192</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4802FC-7AAC-AC32-47F5-14731B4E2007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13516321808" y="9148884"/>
+          <a:ext cx="0" cy="1313962"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -38140,7 +38426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067D2D1D-95FC-4B41-8636-1F174D124CA9}">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A223" zoomScale="233" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A85" zoomScale="233" workbookViewId="0">
       <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
@@ -39668,7 +39954,7 @@
       <c r="F28" s="98"/>
       <c r="G28" s="98"/>
       <c r="H28" s="14"/>
-      <c r="J28" s="416" t="s">
+      <c r="J28" s="418" t="s">
         <v>1186</v>
       </c>
     </row>
@@ -39687,7 +39973,7 @@
       <c r="F29" s="98"/>
       <c r="G29" s="98"/>
       <c r="H29" s="14"/>
-      <c r="J29" s="415"/>
+      <c r="J29" s="417"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="244" t="s">
@@ -40725,10 +41011,10 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="417" t="s">
+      <c r="A140" s="419" t="s">
         <v>1210</v>
       </c>
-      <c r="B140" s="415"/>
+      <c r="B140" s="417"/>
       <c r="C140" s="259">
         <v>43101</v>
       </c>
@@ -41398,13 +41684,13 @@
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F226" s="418">
+      <c r="F226" s="420">
         <f>(880000-250000)/10</f>
         <v>63000</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F227" s="418"/>
+      <c r="F227" s="420"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F229" s="1" t="s">
@@ -43452,17 +43738,17 @@
       <c r="E97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F97" s="415" t="s">
+      <c r="F97" s="417" t="s">
         <v>36</v>
       </c>
-      <c r="G97" s="415"/>
+      <c r="G97" s="417"/>
       <c r="I97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J97" s="415" t="s">
+      <c r="J97" s="417" t="s">
         <v>36</v>
       </c>
-      <c r="K97" s="415"/>
+      <c r="K97" s="417"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
@@ -43791,14 +44077,14 @@
       <c r="D74" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F74" s="411" t="s">
+      <c r="F74" s="413" t="s">
         <v>1666</v>
       </c>
-      <c r="G74" s="411"/>
-      <c r="H74" s="411"/>
-      <c r="I74" s="411"/>
-      <c r="J74" s="411"/>
-      <c r="K74" s="411"/>
+      <c r="G74" s="413"/>
+      <c r="H74" s="413"/>
+      <c r="I74" s="413"/>
+      <c r="J74" s="413"/>
+      <c r="K74" s="413"/>
       <c r="O74" s="3" t="s">
         <v>1665</v>
       </c>
@@ -44498,7 +44784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432AEE3-0DF8-4B44-A8A4-B3DE0EE0E0AD}">
   <dimension ref="A1:AB253"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A110" zoomScale="143" zoomScaleNormal="290" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A142" zoomScale="143" zoomScaleNormal="290" workbookViewId="0">
       <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
@@ -44554,14 +44840,14 @@
       <c r="D84" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F84" s="411" t="s">
+      <c r="F84" s="413" t="s">
         <v>1666</v>
       </c>
-      <c r="G84" s="411"/>
-      <c r="H84" s="411"/>
-      <c r="I84" s="411"/>
-      <c r="J84" s="411"/>
-      <c r="K84" s="411"/>
+      <c r="G84" s="413"/>
+      <c r="H84" s="413"/>
+      <c r="I84" s="413"/>
+      <c r="J84" s="413"/>
+      <c r="K84" s="413"/>
       <c r="O84" s="3" t="s">
         <v>1665</v>
       </c>
@@ -47301,8 +47587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405903D6-B902-644C-BFC5-BA460BEB946A}">
   <dimension ref="A1:T297"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="193" workbookViewId="0">
-      <selection activeCell="Q140" sqref="Q140"/>
+    <sheetView rightToLeft="1" topLeftCell="A144" zoomScale="193" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49932,8 +50218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E77F080-2BC1-904F-94B3-C204FE8A6FF6}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="285" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:C43"/>
+    <sheetView rightToLeft="1" zoomScale="285" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50090,7 +50376,7 @@
         <f>300000+200000</f>
         <v>500000</v>
       </c>
-      <c r="E30" s="419">
+      <c r="E30" s="393">
         <f>300000*5%+200000*7%</f>
         <v>29000</v>
       </c>
@@ -50113,7 +50399,7 @@
       <c r="D32" s="1" t="s">
         <v>2202</v>
       </c>
-      <c r="E32" s="420">
+      <c r="E32" s="394">
         <f>E33-E31-E30</f>
         <v>25000</v>
       </c>
@@ -50162,7 +50448,7 @@
       <c r="A37" s="1" t="s">
         <v>2206</v>
       </c>
-      <c r="D37" s="419">
+      <c r="D37" s="393">
         <f>E32</f>
         <v>25000</v>
       </c>
@@ -50227,27 +50513,493 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5485E45-EBA9-7D47-A04E-5F9B046B3E59}">
+  <dimension ref="A1:M64"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" zoomScale="260" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="354" t="s">
+        <v>2241</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H22" s="1" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E23" s="72">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E24" s="72">
+        <v>5000</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E25" s="72">
+        <v>12000</v>
+      </c>
+      <c r="H25" s="72">
+        <f>(170000-15000)/10</f>
+        <v>15500</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E26" s="72">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E27" s="156">
+        <f>SUM(E23:E26)</f>
+        <v>170000</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H28" s="1" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H29" s="1" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H31" s="94" t="s">
+        <v>2243</v>
+      </c>
+      <c r="I31" s="206">
+        <f>H25*8/12</f>
+        <v>10333.333333333334</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H33" s="1" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H34" s="94" t="s">
+        <v>2244</v>
+      </c>
+      <c r="I34" s="206">
+        <f>H25</f>
+        <v>15500</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="354" t="s">
+        <v>2246</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="I37" s="152">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I38" s="30">
+        <f>E27</f>
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I39" s="30">
+        <f>-15000*(3+8/12)</f>
+        <v>-55000</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H40" s="94" t="s">
+        <v>975</v>
+      </c>
+      <c r="I40" s="421">
+        <f>I38+I39</f>
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="354" t="s">
+        <v>2223</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="J43" s="152">
+        <v>46235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J44" s="30">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H45" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="J45" s="30">
+        <f>-K54</f>
+        <v>-104125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J46" s="423">
+        <f>J44+J45</f>
+        <v>-55125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L50" s="1" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I51" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J52" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="K52" s="30">
+        <f>I38</f>
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J53" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="K53" s="30">
+        <f>-15500*(4+3/12)</f>
+        <v>-65875</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J54" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="K54" s="422">
+        <f>K52+K53</f>
+        <v>104125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="45" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="47"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="425" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B57" s="424"/>
+      <c r="C57" s="424"/>
+      <c r="D57" s="424"/>
+      <c r="E57" s="424"/>
+      <c r="F57" s="424"/>
+      <c r="G57" s="424"/>
+      <c r="H57" s="49"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="48"/>
+      <c r="B58" s="424"/>
+      <c r="C58" s="424"/>
+      <c r="D58" s="424"/>
+      <c r="E58" s="424"/>
+      <c r="F58" s="424"/>
+      <c r="G58" s="424"/>
+      <c r="H58" s="49"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="48" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B59" s="424"/>
+      <c r="C59" s="424"/>
+      <c r="D59" s="424"/>
+      <c r="E59" s="424"/>
+      <c r="F59" s="424"/>
+      <c r="G59" s="424"/>
+      <c r="H59" s="49"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="48" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B60" s="424"/>
+      <c r="C60" s="424"/>
+      <c r="D60" s="424"/>
+      <c r="E60" s="424"/>
+      <c r="F60" s="424"/>
+      <c r="G60" s="424"/>
+      <c r="H60" s="49"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="48"/>
+      <c r="B61" s="424"/>
+      <c r="C61" s="424"/>
+      <c r="D61" s="424"/>
+      <c r="E61" s="424"/>
+      <c r="F61" s="424"/>
+      <c r="G61" s="424"/>
+      <c r="H61" s="49"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="48"/>
+      <c r="B62" s="424"/>
+      <c r="C62" s="424"/>
+      <c r="D62" s="424"/>
+      <c r="E62" s="424"/>
+      <c r="F62" s="424" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G62" s="424"/>
+      <c r="H62" s="49"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="48"/>
+      <c r="B63" s="424"/>
+      <c r="C63" s="424"/>
+      <c r="D63" s="424"/>
+      <c r="E63" s="424"/>
+      <c r="F63" s="424" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G63" s="424"/>
+      <c r="H63" s="49"/>
+    </row>
+    <row r="64" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="50" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="79"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13471061-7321-EA41-8969-02836EA8A88D}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="335" zoomScaleNormal="380" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A29" zoomScale="335" zoomScaleNormal="380" workbookViewId="0">
       <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="393" t="s">
+      <c r="A1" s="395" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
+      <c r="B1" s="395"/>
+      <c r="C1" s="395"/>
+      <c r="D1" s="395"/>
+      <c r="E1" s="395"/>
+      <c r="F1" s="395"/>
+      <c r="G1" s="395"/>
+      <c r="H1" s="395"/>
     </row>
     <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
@@ -52231,7 +52983,7 @@
       <c r="A67" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J67" s="394" t="s">
+      <c r="J67" s="396" t="s">
         <v>335</v>
       </c>
       <c r="K67" s="63" t="s">
@@ -52245,7 +52997,7 @@
       <c r="A68" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J68" s="395"/>
+      <c r="J68" s="397"/>
       <c r="K68" s="67" t="s">
         <v>338</v>
       </c>
@@ -52254,7 +53006,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J69" s="396"/>
+      <c r="J69" s="398"/>
       <c r="K69" s="69" t="s">
         <v>340</v>
       </c>
@@ -52269,7 +53021,7 @@
       <c r="D70" s="61">
         <v>22000</v>
       </c>
-      <c r="J70" s="397" t="s">
+      <c r="J70" s="399" t="s">
         <v>342</v>
       </c>
       <c r="K70" s="63" t="s">
@@ -52280,7 +53032,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J71" s="398"/>
+      <c r="J71" s="400"/>
       <c r="K71" s="69" t="s">
         <v>343</v>
       </c>
@@ -53534,17 +54286,17 @@
     </row>
     <row r="97" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="399" t="s">
+      <c r="A98" s="401" t="s">
         <v>473</v>
       </c>
-      <c r="B98" s="400"/>
-      <c r="C98" s="400"/>
-      <c r="D98" s="400"/>
-      <c r="E98" s="400"/>
-      <c r="F98" s="400"/>
-      <c r="G98" s="400"/>
-      <c r="H98" s="400"/>
-      <c r="I98" s="401"/>
+      <c r="B98" s="402"/>
+      <c r="C98" s="402"/>
+      <c r="D98" s="402"/>
+      <c r="E98" s="402"/>
+      <c r="F98" s="402"/>
+      <c r="G98" s="402"/>
+      <c r="H98" s="402"/>
+      <c r="I98" s="403"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
@@ -53910,14 +54662,14 @@
       </c>
     </row>
     <row r="135" spans="1:15" ht="23" x14ac:dyDescent="0.25">
-      <c r="A135" s="402" t="s">
+      <c r="A135" s="404" t="s">
         <v>541</v>
       </c>
-      <c r="B135" s="402"/>
-      <c r="C135" s="402"/>
-      <c r="D135" s="402"/>
-      <c r="E135" s="402"/>
-      <c r="F135" s="402"/>
+      <c r="B135" s="404"/>
+      <c r="C135" s="404"/>
+      <c r="D135" s="404"/>
+      <c r="E135" s="404"/>
+      <c r="F135" s="404"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
@@ -54344,11 +55096,11 @@
       <c r="E19" s="125" t="s">
         <v>562</v>
       </c>
-      <c r="F19" s="408" t="s">
+      <c r="F19" s="410" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="408"/>
-      <c r="H19" s="408"/>
+      <c r="G19" s="410"/>
+      <c r="H19" s="410"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F20" s="4" t="s">
@@ -54367,24 +55119,24 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C24" s="409" t="s">
+      <c r="C24" s="411" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="405" t="s">
+      <c r="D24" s="407" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="125" t="s">
         <v>562</v>
       </c>
-      <c r="F24" s="408" t="s">
+      <c r="F24" s="410" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="408"/>
-      <c r="H24" s="408"/>
+      <c r="G24" s="410"/>
+      <c r="H24" s="410"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C25" s="410"/>
-      <c r="D25" s="406"/>
+      <c r="C25" s="412"/>
+      <c r="D25" s="408"/>
       <c r="E25" s="8"/>
       <c r="F25" s="127" t="s">
         <v>490</v>
@@ -54424,23 +55176,23 @@
     </row>
     <row r="32" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="126"/>
-      <c r="C32" s="403" t="s">
+      <c r="C32" s="405" t="s">
         <v>564</v>
       </c>
-      <c r="D32" s="405" t="s">
+      <c r="D32" s="407" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="407" t="s">
+      <c r="E32" s="409" t="s">
         <v>565</v>
       </c>
-      <c r="F32" s="407"/>
-      <c r="G32" s="407"/>
-      <c r="H32" s="407"/>
+      <c r="F32" s="409"/>
+      <c r="G32" s="409"/>
+      <c r="H32" s="409"/>
     </row>
     <row r="33" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="126"/>
-      <c r="C33" s="410"/>
-      <c r="D33" s="406"/>
+      <c r="C33" s="412"/>
+      <c r="D33" s="408"/>
       <c r="E33" s="128" t="s">
         <v>566</v>
       </c>
@@ -54476,23 +55228,23 @@
     </row>
     <row r="39" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="126"/>
-      <c r="C39" s="403" t="s">
+      <c r="C39" s="405" t="s">
         <v>564</v>
       </c>
-      <c r="D39" s="405" t="s">
+      <c r="D39" s="407" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="407" t="s">
+      <c r="E39" s="409" t="s">
         <v>565</v>
       </c>
-      <c r="F39" s="407"/>
-      <c r="G39" s="407"/>
-      <c r="H39" s="407"/>
+      <c r="F39" s="409"/>
+      <c r="G39" s="409"/>
+      <c r="H39" s="409"/>
     </row>
     <row r="40" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="126"/>
-      <c r="C40" s="410"/>
-      <c r="D40" s="406"/>
+      <c r="C40" s="412"/>
+      <c r="D40" s="408"/>
       <c r="E40" s="128" t="s">
         <v>566</v>
       </c>
@@ -54594,22 +55346,22 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="403" t="s">
+      <c r="C54" s="405" t="s">
         <v>564</v>
       </c>
-      <c r="D54" s="405" t="s">
+      <c r="D54" s="407" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="407" t="s">
+      <c r="E54" s="409" t="s">
         <v>565</v>
       </c>
-      <c r="F54" s="407"/>
-      <c r="G54" s="407"/>
-      <c r="H54" s="407"/>
+      <c r="F54" s="409"/>
+      <c r="G54" s="409"/>
+      <c r="H54" s="409"/>
     </row>
     <row r="55" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="410"/>
-      <c r="D55" s="406"/>
+      <c r="C55" s="412"/>
+      <c r="D55" s="408"/>
       <c r="E55" s="128" t="s">
         <v>572</v>
       </c>
@@ -54679,24 +55431,24 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="403" t="s">
+      <c r="B71" s="405" t="s">
         <v>564</v>
       </c>
-      <c r="C71" s="403"/>
-      <c r="D71" s="405" t="s">
+      <c r="C71" s="405"/>
+      <c r="D71" s="407" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="407" t="s">
+      <c r="E71" s="409" t="s">
         <v>565</v>
       </c>
-      <c r="F71" s="407"/>
-      <c r="G71" s="407"/>
-      <c r="H71" s="407"/>
+      <c r="F71" s="409"/>
+      <c r="G71" s="409"/>
+      <c r="H71" s="409"/>
     </row>
     <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B72" s="404"/>
-      <c r="C72" s="404"/>
-      <c r="D72" s="406"/>
+      <c r="B72" s="406"/>
+      <c r="C72" s="406"/>
+      <c r="D72" s="408"/>
       <c r="E72" s="128" t="s">
         <v>572</v>
       </c>
@@ -54777,24 +55529,24 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="403" t="s">
+      <c r="B86" s="405" t="s">
         <v>564</v>
       </c>
-      <c r="C86" s="403"/>
-      <c r="D86" s="405" t="s">
+      <c r="C86" s="405"/>
+      <c r="D86" s="407" t="s">
         <v>28</v>
       </c>
-      <c r="E86" s="407" t="s">
+      <c r="E86" s="409" t="s">
         <v>565</v>
       </c>
-      <c r="F86" s="407"/>
-      <c r="G86" s="407"/>
-      <c r="H86" s="407"/>
+      <c r="F86" s="409"/>
+      <c r="G86" s="409"/>
+      <c r="H86" s="409"/>
     </row>
     <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B87" s="404"/>
-      <c r="C87" s="404"/>
-      <c r="D87" s="406"/>
+      <c r="B87" s="406"/>
+      <c r="C87" s="406"/>
+      <c r="D87" s="408"/>
       <c r="E87" s="128" t="s">
         <v>572</v>
       </c>
@@ -54834,24 +55586,24 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="403" t="s">
+      <c r="B94" s="405" t="s">
         <v>564</v>
       </c>
-      <c r="C94" s="403"/>
-      <c r="D94" s="405" t="s">
+      <c r="C94" s="405"/>
+      <c r="D94" s="407" t="s">
         <v>28</v>
       </c>
-      <c r="E94" s="407" t="s">
+      <c r="E94" s="409" t="s">
         <v>565</v>
       </c>
-      <c r="F94" s="407"/>
-      <c r="G94" s="407"/>
-      <c r="H94" s="407"/>
+      <c r="F94" s="409"/>
+      <c r="G94" s="409"/>
+      <c r="H94" s="409"/>
     </row>
     <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B95" s="404"/>
-      <c r="C95" s="404"/>
-      <c r="D95" s="406"/>
+      <c r="B95" s="406"/>
+      <c r="C95" s="406"/>
+      <c r="D95" s="408"/>
       <c r="E95" s="128" t="s">
         <v>572</v>
       </c>
@@ -54894,24 +55646,24 @@
       <c r="D99" s="126"/>
     </row>
     <row r="101" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="403" t="s">
+      <c r="B101" s="405" t="s">
         <v>564</v>
       </c>
-      <c r="C101" s="403"/>
-      <c r="D101" s="405" t="s">
+      <c r="C101" s="405"/>
+      <c r="D101" s="407" t="s">
         <v>28</v>
       </c>
-      <c r="E101" s="407" t="s">
+      <c r="E101" s="409" t="s">
         <v>565</v>
       </c>
-      <c r="F101" s="407"/>
-      <c r="G101" s="407"/>
-      <c r="H101" s="407"/>
+      <c r="F101" s="409"/>
+      <c r="G101" s="409"/>
+      <c r="H101" s="409"/>
     </row>
     <row r="102" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="404"/>
-      <c r="C102" s="404"/>
-      <c r="D102" s="406"/>
+      <c r="B102" s="406"/>
+      <c r="C102" s="406"/>
+      <c r="D102" s="408"/>
       <c r="E102" s="134" t="s">
         <v>572</v>
       </c>
@@ -54985,24 +55737,24 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="403" t="s">
+      <c r="B114" s="405" t="s">
         <v>564</v>
       </c>
-      <c r="C114" s="403"/>
-      <c r="D114" s="405" t="s">
+      <c r="C114" s="405"/>
+      <c r="D114" s="407" t="s">
         <v>28</v>
       </c>
-      <c r="E114" s="407" t="s">
+      <c r="E114" s="409" t="s">
         <v>565</v>
       </c>
-      <c r="F114" s="407"/>
-      <c r="G114" s="407"/>
-      <c r="H114" s="407"/>
+      <c r="F114" s="409"/>
+      <c r="G114" s="409"/>
+      <c r="H114" s="409"/>
     </row>
     <row r="115" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="404"/>
-      <c r="C115" s="404"/>
-      <c r="D115" s="406"/>
+      <c r="B115" s="406"/>
+      <c r="C115" s="406"/>
+      <c r="D115" s="408"/>
       <c r="E115" s="134" t="s">
         <v>572</v>
       </c>
@@ -55044,24 +55796,24 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="403" t="s">
+      <c r="B121" s="405" t="s">
         <v>564</v>
       </c>
-      <c r="C121" s="403"/>
-      <c r="D121" s="405" t="s">
+      <c r="C121" s="405"/>
+      <c r="D121" s="407" t="s">
         <v>28</v>
       </c>
-      <c r="E121" s="407" t="s">
+      <c r="E121" s="409" t="s">
         <v>565</v>
       </c>
-      <c r="F121" s="407"/>
-      <c r="G121" s="407"/>
-      <c r="H121" s="407"/>
+      <c r="F121" s="409"/>
+      <c r="G121" s="409"/>
+      <c r="H121" s="409"/>
     </row>
     <row r="122" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="404"/>
-      <c r="C122" s="404"/>
-      <c r="D122" s="406"/>
+      <c r="B122" s="406"/>
+      <c r="C122" s="406"/>
+      <c r="D122" s="408"/>
       <c r="E122" s="134" t="s">
         <v>572</v>
       </c>
@@ -55097,21 +55849,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:H121"/>
-    <mergeCell ref="B86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="B101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:H101"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="B114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:H114"/>
     <mergeCell ref="B71:C72"/>
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="E71:H71"/>
@@ -55128,6 +55865,21 @@
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:H121"/>
+    <mergeCell ref="B86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="B101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:H101"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="B114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:H114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55147,16 +55899,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="411" t="s">
+      <c r="A1" s="413" t="s">
         <v>623</v>
       </c>
-      <c r="B1" s="411"/>
-      <c r="C1" s="411"/>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
+      <c r="B1" s="413"/>
+      <c r="C1" s="413"/>
+      <c r="D1" s="413"/>
+      <c r="E1" s="413"/>
+      <c r="F1" s="413"/>
+      <c r="G1" s="413"/>
+      <c r="H1" s="413"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="149" t="s">
@@ -58924,12 +59676,12 @@
       <c r="G130" s="300"/>
       <c r="H130" s="300"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="412" t="s">
+      <c r="J130" s="414" t="s">
         <v>1309</v>
       </c>
-      <c r="K130" s="413"/>
-      <c r="L130" s="413"/>
-      <c r="M130" s="413"/>
+      <c r="K130" s="415"/>
+      <c r="L130" s="415"/>
+      <c r="M130" s="415"/>
       <c r="N130" s="292"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
@@ -63898,10 +64650,10 @@
       <c r="F118" s="17" t="s">
         <v>951</v>
       </c>
-      <c r="G118" s="405" t="s">
+      <c r="G118" s="407" t="s">
         <v>28</v>
       </c>
-      <c r="H118" s="414" t="s">
+      <c r="H118" s="416" t="s">
         <v>952</v>
       </c>
     </row>
@@ -63910,8 +64662,8 @@
       <c r="F119" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="G119" s="405"/>
-      <c r="H119" s="414"/>
+      <c r="G119" s="407"/>
+      <c r="H119" s="416"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="48"/>
@@ -65244,11 +65996,11 @@
         <f>B312</f>
         <v>42750</v>
       </c>
-      <c r="D315" s="415" t="s">
+      <c r="D315" s="417" t="s">
         <v>1040</v>
       </c>
-      <c r="E315" s="415"/>
-      <c r="F315" s="415"/>
+      <c r="E315" s="417"/>
+      <c r="F315" s="417"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
@@ -65259,11 +66011,11 @@
       <c r="A319" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="D319" s="415" t="s">
+      <c r="D319" s="417" t="s">
         <v>1043</v>
       </c>
-      <c r="E319" s="415"/>
-      <c r="F319" s="415"/>
+      <c r="E319" s="417"/>
+      <c r="F319" s="417"/>
     </row>
     <row r="321" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E321" s="18">

--- a/Coursebook - ACC Ruppin - 2025 A.xlsx
+++ b/Coursebook - ACC Ruppin - 2025 A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/Ruppin - ACC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324E1B16-E09E-6B42-821A-549098871614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AAC9E5-9565-C54D-8FF5-239518813F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="29280" firstSheet="11" activeTab="18" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="29280" firstSheet="5" activeTab="19" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
   </bookViews>
   <sheets>
     <sheet name="הרצאה 1" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,10 @@
     <sheet name="13 - חזרה למבחן חלק ד" sheetId="17" r:id="rId17"/>
     <sheet name="13 - חזרה למבחן חלק ה" sheetId="18" r:id="rId18"/>
     <sheet name="13 - חזרה למבחן חלק ו" sheetId="19" r:id="rId19"/>
+    <sheet name="14 - הערות שונות חלק ראשון" sheetId="20" r:id="rId20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1697,7 +1698,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="2267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="2363">
   <si>
     <t xml:space="preserve">מבוא לחשבונאות פיננסית </t>
   </si>
@@ -11031,6 +11032,313 @@
   </si>
   <si>
     <t>לכן, תקופת ההפחתה היא 10 שנים!</t>
+  </si>
+  <si>
+    <t>תגבור 14 - חלק ראשון - מענה לשאלות קהל</t>
+  </si>
+  <si>
+    <t>״להלן שאלה שפתרה הכיתה המקבילה, אפשר לפתור״</t>
+  </si>
+  <si>
+    <t>כל מרצה מלמד בגישה אחרת. ניסוח טיפה שונה, דגשים טיפה אחרים. כאשר כותבים מבחן, מבוצעת תמיד ולעולם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">התכנסות למכנה המשותף הרחב. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה אומר שאם נתקלתם באיזושהי שאלה של מרצה אחר עם ניסוח שפתאום מרגיש פחות בהיר, סביר להניח </t>
+  </si>
+  <si>
+    <t xml:space="preserve">שבמבחן המשותף ניסוח זה יובהר. </t>
+  </si>
+  <si>
+    <t>מעשית זה גם אומר שאין מנוס אלא להתמודד עם השאלות במחברת בצורה מלאה, ובעיקר להבין מה את עושים</t>
+  </si>
+  <si>
+    <t>תוך כדי, דרך המחברת.</t>
+  </si>
+  <si>
+    <t>״ד״ר צבאן, אבל אתה המרצה שלי, ובסוף - זו שאלה בחשבונאות״</t>
+  </si>
+  <si>
+    <t xml:space="preserve">התשובה נכונה. אבל אני לא כאן כדי לספק לכם הגדרות והכתבות. אני כאן כדי לעזור בתהליך הלמידה. ולכן, </t>
+  </si>
+  <si>
+    <t>אם נתקלתם בהסבר שלי שאיננו ברור; או אפילו בשאלה עקרונית שמטרידה אתכם - אם למדתם את החומר,</t>
+  </si>
+  <si>
+    <t>אתם אמורים להיות מסוגלים לנסח לי את השאלה בסגנון שמראה זאת.</t>
+  </si>
+  <si>
+    <t>למשל: ״שי מתי אני ארשום הכנסה? מתי מכירים בהכנסה״ - זו שאלה שמבחינתי לא מתאימה. לא כי חלילה</t>
+  </si>
+  <si>
+    <t>היא לגיטימית, אלא כי היא מראה שמי ששואל אותה לא עבר על החומר, לא העמיק בחזרות ובהגדרות,</t>
+  </si>
+  <si>
+    <t>ולכן המענה שאתן לו יהיה שטחי - למשל אכתוב לו ״כאשר מספקים שירות או מבצעים מכירה״ אבל אם במבחן</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אשאל מדוע, או מה ההיגיון? שוב הוא יתקע בנקודה שבה הוא לא מבין. </t>
+  </si>
+  <si>
+    <t>כלומר, המטרה היא לבטא את התהליך המחשבתי, גם ובעיקר בשאלות תאוריה, וגם בשאלות אחרות.</t>
+  </si>
+  <si>
+    <t>ככל שאתם תנסחו לי שאלות בפורמט שמציג את ההתמודדות ואת המחשבה שלכם עם החומרים יהיה לי הרבה</t>
+  </si>
+  <si>
+    <t>יותר קל להתמודד עם מענה אפקטיבי, זריז, לא שטוח, שגם ישרת אתכם לשם התמודדות עם שאלות בחינה.</t>
+  </si>
+  <si>
+    <t>״מה המבנה הכללי של שאלת המסה / השאלה הפתוחה״</t>
+  </si>
+  <si>
+    <t>מבנה השאלה הפתוחה / שאלת המסה מקביל מאד למה שהוצג במפגשי החזרה לסוגיהם, כולל מפגשי החזרה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לקראת המבחן (המוקלטים) וכולל שאלות המסה הכיתתיות שפתרנו בשיעורים האחרונים. </t>
+  </si>
+  <si>
+    <t>אבל!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה לא אומר שאי אפשר לשאול שאלה תיאורטית / הבנתית על דוחות של חברות שמעניקות שירותים. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כגון מתי מוכרות הכנסות בחברות כאלו, האם בחברות כאלו תוצג עלות המכר וכיוצא בזה. </t>
+  </si>
+  <si>
+    <t>״דוקטור, בשיעורים הראשונים הצגת את הזהות החשבונאית - כמו טבלה גדולה שבה מתעדים עסקאות,</t>
+  </si>
+  <si>
+    <t>גם היה על זה תרגיל בית. האם תהיה שאלה כזו במבחן״</t>
+  </si>
+  <si>
+    <t>באמת בשיעורים הראשונים, עד וכולל שיעור 4, עסקנו בהצגת תיעוד עסקאות בודדות בזהות חשבונאית.</t>
+  </si>
+  <si>
+    <t>למרות שלא נדרוש עריכת טבלה כזו במבחן, כן יש ערך בלמידת התרגילים הללו כדי לענות לשאלות תאוריה.</t>
+  </si>
+  <si>
+    <t>כי אם אני יודע למשל דרך הטבלה הגדולה, שהלוואה שחברה נוטלת משפיעה גם על הנכסים השוטפים (מזומן)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תיאוריה ששואלות על השפעות אלו. </t>
+  </si>
+  <si>
+    <t>וגם על ההתחייבויות (שוטפות / לא שוטפת, תלוי במשך ההלוואה), זה יכול לעזור לי מאד להתייחס לשאלות</t>
+  </si>
+  <si>
+    <t>האם אפשר לספק מענה לגבי ״לאן לשייך הכנסות משכר דירה״</t>
+  </si>
+  <si>
+    <t>כמו בכל היבט אחר שנשאל, אני מצפה מכם להיות מסוגלים לחשוב לאן ההוצאה / ההכנסה משתייכת.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נתחיל מזה שהכנסה משכר דירה היא הכנסה. והכנסות מופיעות בדוח רווח והפסד ולא בדוח על המצב </t>
+  </si>
+  <si>
+    <t>הכספי (המאזן) שכן במאזן אנו כוללים נכסים, התחייבויות והון עצמי, ולא הכנסות והוצאות אשר נרשמות</t>
+  </si>
+  <si>
+    <t>בדוח רווח והפסד ומבהירות את סוג הפעילות.</t>
+  </si>
+  <si>
+    <t>בחברה שבה כל הפעילות היא השכרת דירות, הכנסות משכר דירה הן למעשה הכנסות משירות - השורה</t>
+  </si>
+  <si>
+    <t>העליונה ברווח והפסד.</t>
+  </si>
+  <si>
+    <t>לעומת זאת, אם מדובר בחברה שעיקר עיסוקה במכירות, לאן תלכנה הכנסות שכר דירה?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">להכנסות אחרות. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מדוע? כי בדוח רווח והפסד, אין הרבה אפשרויות: מכירות (וזה לא), הכנסות מימון (וזה לא) או הכנסות </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אחרות. </t>
+  </si>
+  <si>
+    <t>כלומר, במקרה של אי בהירות, חובה לעבוד בצורה של אלימינציה. גם אם לא אמרנו לאן הכנסה או הוצאה</t>
+  </si>
+  <si>
+    <t>מסוימת הולכת, חייבים להיות מסוגלים להסיק לאן היא הולכת. בהחלט ייתכנו סעיפים במבחן שלא הוצגו</t>
+  </si>
+  <si>
+    <t>ואתם צריכים להסיק מסקנות לגביהם.</t>
+  </si>
+  <si>
+    <t>לא רק זה - לפעמים נספק סעיף ונשאל מדוע הוא מסווג לסעיף כזה או אחר. סתם למידה תוכית לא תאפשר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לנמק. </t>
+  </si>
+  <si>
+    <t>האם ״ייעוץ משפטי״ נחשבת כהוצאה חריגה (הוצאות אחרות) או כהוצאה שוטפת ״הנהלה וכלליות״</t>
+  </si>
+  <si>
+    <t>ייעוץ משפטי הוא שירות שוטף שחברה מקבלת. אין שום סיבה להניח שייעוץ משפטי (לכל חברה</t>
+  </si>
+  <si>
+    <t>רצינית יש יועץ משפטי) זו הוצאה חריגה ומיוחדת. זה בסך הכל ייעוץ, לא הפסד מתביעה או אירוע</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חריג. </t>
+  </si>
+  <si>
+    <t>בהתאם, אלא אם יש סיבה טובה מאד להניח אחרת, כל העלויות המקצועיות - שכר טרחת רואה חשבון,</t>
+  </si>
+  <si>
+    <t>עורך דין, הנהלת חשבונות, ייעוץ כלכלי וכיוצא בזה - נזקפות להוצאות הנהלה וכלליות.</t>
+  </si>
+  <si>
+    <t>בקשה כללית שלי אליכם - לעבור על חזרה למבחן חלק א במפגש 10. זה סוגר פינות.</t>
+  </si>
+  <si>
+    <t>מדוע ירידת ערך נדל״ן להשקעה היא הוצאות אחרות ולא מקטינה נכסים (את נכס הנדל״ן)</t>
+  </si>
+  <si>
+    <t>ברכוש קבוע - יש לנו הפרדה בין הערכים הבאים:</t>
+  </si>
+  <si>
+    <t>רכוש קבוע - פחת נצבר</t>
+  </si>
+  <si>
+    <t>רכוש קבוע - עלות מופחתת נטו (יוצג במאזן)</t>
+  </si>
+  <si>
+    <t>הוצאות פחת לשנה הספציפית שעליה מדווח</t>
+  </si>
+  <si>
+    <t>כל הפחת שהצטבר כולל שנים קודמות מקטין נכס</t>
+  </si>
+  <si>
+    <t>בנדל״ן להשקעה - אין הפרדה בין הערכים. הפריט מוצג נטו (ללא פחת נצבר):</t>
+  </si>
+  <si>
+    <t>נדל״ן להשקעה - לפי שווי עדכני נקודתי</t>
+  </si>
+  <si>
+    <t>לאחר כל הירידות וההשפעות הנוספות</t>
+  </si>
+  <si>
+    <t>האם נכון לומר שהוצאות שוטפות אינן בגדר פעולה כדאית, שכן היא מקטינה את רווחי החברה באופן כללי</t>
+  </si>
+  <si>
+    <t>הוצאות מקטינות את הרווח בדוח רווח והפסד בפני עצמן.</t>
+  </si>
+  <si>
+    <t>יחד עם זאת, במקרים רבים, כשמדברים על כדאיות, נשאלת השאלה - האם ההוצאה הזו גם תגדיל אולי הכנסה</t>
+  </si>
+  <si>
+    <t>מסוימת.</t>
+  </si>
+  <si>
+    <t>למשל: אם אני יודע שבמידה ואשכור עובד נוסף, אשלם לו 10,000 ש״ח, אך העובד יבצע מכירות או מתן שירות</t>
+  </si>
+  <si>
+    <t>שיובילו להכנסות של 25,000 ש״ח, הרי שבסך הכל, העסקת העובד הנוסף משתלמת.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לעתים הוצאות הן פעילות שאמנם מקטינה את הרווח - אך יכולה במקביל לגרום להכנסות שיגדילו אותו. </t>
+  </si>
+  <si>
+    <t>לצד זאת, אם בשאלה דרשתי ספציפית להתייחס להיגד כגון:</t>
+  </si>
+  <si>
+    <t>בהנהלת החשבונות של החברה שכחו לרשום הוצאות שכר דירה בסך 15,000 ש״ח. האם הרווח יגדל / יקטן</t>
+  </si>
+  <si>
+    <t>כתוצאה מהרישום והתיקון?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">התשובה - הוצאות מקטינות את הרווח. </t>
+  </si>
+  <si>
+    <t>האם נכון לומר שחברה שיש לה נכסים רבים היא בעלת הון עצמי גבוה?</t>
+  </si>
+  <si>
+    <t>נכסים = מה יש בחברה.</t>
+  </si>
+  <si>
+    <t>הון עצמי = כיצד מימנו אותם.</t>
+  </si>
+  <si>
+    <t>בהחלט ייתכן שבחברה יהיו נכסים רבים שמקורם בהלוואות.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ואז, הנכסים גבוהים, ההלוואות (התחייבויות) גבוהות, ויש מעט הון עצמי. </t>
+  </si>
+  <si>
+    <t>זה לא מחייב - אבל זה אפשרי.</t>
+  </si>
+  <si>
+    <t>במלים אחרות, חזרו בבקשה על הדוח על השינויים בהון העצמי, תראו מה קיים שם, תראו אילו פריטים</t>
+  </si>
+  <si>
+    <t>נכללים שם.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רכוש קבוע, מזומן, מלאי ווטאבר) - מלמד על הון עצמי גבוה. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">בשום מקרה ואופן </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>אי אפשר</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t xml:space="preserve"> לומר שעצם קיומם של נכסים מסוג כלשהו (וזה לא משנה אם יש הרבה</t>
+    </r>
+  </si>
+  <si>
+    <t>הון עצמי / התחייבויות = התשובה לשאלה ״איך הושגו נכסים אלו״.</t>
+  </si>
+  <si>
+    <t>זה לא אותו דבר!!!</t>
+  </si>
+  <si>
+    <t>האם נכון לומר שאם יש לי הוצאות תפעול גבוהות, תהיה לי גם התחייבות גבוהה (זכאים / ספקים) בגין הוצאות</t>
+  </si>
+  <si>
+    <t>תפעול?</t>
+  </si>
+  <si>
+    <t>שלילי בזנטי. ממש לא.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוצאות = סך שווי השירות שנצרך. </t>
+  </si>
+  <si>
+    <t>התחייבות = החלק שטרם שולם.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אם, למשל, צרכתי שירות בהיקף של 1,000 ש״ח, ועד לתום השנה שילמתי הכל, אין בכלל התחייבות. </t>
+  </si>
+  <si>
+    <t>אם לא צרכתי שירות השנה, אבל בשנים קודמות צרכתי שירות בשווי 5,000 ש״ח שטרם שילמתי, תהיה התחייבות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לתום השנה בסך 5,000. </t>
+  </si>
+  <si>
+    <t>הוצאות = שווי שירות שנצרך.</t>
   </si>
 </sst>
 </file>
@@ -44021,8 +44329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A00005-B9E2-3F47-9BF1-27822E0144AD}">
   <dimension ref="A1:AB114"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A124" zoomScale="160" zoomScaleNormal="290" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="E68" zoomScale="190" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="R83" sqref="R82:V83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47587,8 +47895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405903D6-B902-644C-BFC5-BA460BEB946A}">
   <dimension ref="A1:T297"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A144" zoomScale="193" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+    <sheetView rightToLeft="1" topLeftCell="A147" zoomScale="286" workbookViewId="0">
+      <selection activeCell="N158" sqref="N158:P158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49586,7 +49894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADC1097-216B-CD44-B122-9706A1489499}">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A50" zoomScale="314" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A18" zoomScale="314" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -50517,7 +50825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5485E45-EBA9-7D47-A04E-5F9B046B3E59}">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" zoomScale="260" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A57" zoomScale="260" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -52579,6 +52887,582 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8881421A-272F-E249-B683-C820948F6594}">
+  <dimension ref="A1:H126"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A104" zoomScale="280" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E66" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="E67" s="72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E68" s="30">
+        <v>-20</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="E69" s="156">
+        <f>E67+E68</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E71" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="E72" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E76" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="E77" s="72">
+        <v>500</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E79" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E80" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F81" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="363" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="363" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Coursebook - ACC Ruppin - 2025 A.xlsx
+++ b/Coursebook - ACC Ruppin - 2025 A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/Ruppin - ACC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AAC9E5-9565-C54D-8FF5-239518813F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A3C4B0-0AAC-DF42-9EF2-8E7F9CA55BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="29280" firstSheet="5" activeTab="19" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="29280" firstSheet="5" activeTab="18" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
   </bookViews>
   <sheets>
     <sheet name="הרצאה 1" sheetId="1" r:id="rId1"/>
@@ -10931,9 +10931,6 @@
     <t xml:space="preserve">לכן המכונה מופחתת על פני 8 חודשים בלבד. </t>
   </si>
   <si>
-    <t xml:space="preserve">15,000 * 8/12 = </t>
-  </si>
-  <si>
     <t xml:space="preserve">א. חשבו והציגו את הוצאות הפחת של המכונה לשנת 2022 ולשנת 2023. </t>
   </si>
   <si>
@@ -10947,9 +10944,6 @@
   </si>
   <si>
     <t>פחת 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,000 * 12/12 = </t>
   </si>
   <si>
     <t>ב. מהיה העלות המופחתת של המכונה ל-31.12.2025?</t>
@@ -11339,6 +11333,12 @@
   </si>
   <si>
     <t>הוצאות = שווי שירות שנצרך.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,500 * 8/12 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,500 * 12/12 = </t>
   </si>
 </sst>
 </file>
@@ -50825,8 +50825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5485E45-EBA9-7D47-A04E-5F9B046B3E59}">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A57" zoomScale="260" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A29" zoomScale="260" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50888,7 +50888,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -50908,7 +50908,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="354" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>2236</v>
@@ -50986,7 +50986,7 @@
         <v>170000</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -51001,36 +51001,36 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H31" s="94" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="I31" s="206">
         <f>H25*8/12</f>
         <v>10333.333333333334</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>2239</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H33" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H34" s="94" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="I34" s="206">
         <f>H25</f>
         <v>15500</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>2245</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="354" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>2236</v>
@@ -51038,7 +51038,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="I37" s="152">
         <v>46022</v>
@@ -51046,7 +51046,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>369</v>
@@ -51058,17 +51058,17 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>370</v>
       </c>
       <c r="I39" s="30">
-        <f>-15000*(3+8/12)</f>
-        <v>-55000</v>
+        <f>-15500*(3+8/12)</f>
+        <v>-56833.333333333328</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -51077,7 +51077,7 @@
       </c>
       <c r="I40" s="421">
         <f>I38+I39</f>
-        <v>115000</v>
+        <v>113166.66666666667</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -51090,7 +51090,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="J43" s="152">
         <v>46235</v>
@@ -51098,7 +51098,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>1935</v>
@@ -51109,7 +51109,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H45" s="1" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="J45" s="30">
         <f>-K54</f>
@@ -51118,7 +51118,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>1006</v>
@@ -51135,15 +51135,15 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L50" s="1" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I51" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>2255</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>2257</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -51164,7 +51164,7 @@
         <v>-65875</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -51179,7 +51179,7 @@
     <row r="55" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="45" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="B56" s="46"/>
       <c r="C56" s="46"/>
@@ -51191,7 +51191,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="425" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="B57" s="424"/>
       <c r="C57" s="424"/>
@@ -51213,7 +51213,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="48" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="B59" s="424"/>
       <c r="C59" s="424"/>
@@ -51225,7 +51225,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="48" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="B60" s="424"/>
       <c r="C60" s="424"/>
@@ -51252,7 +51252,7 @@
       <c r="D62" s="424"/>
       <c r="E62" s="424"/>
       <c r="F62" s="424" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="G62" s="424"/>
       <c r="H62" s="49"/>
@@ -51264,14 +51264,14 @@
       <c r="D63" s="424"/>
       <c r="E63" s="424"/>
       <c r="F63" s="424" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="G63" s="424"/>
       <c r="H63" s="49"/>
     </row>
     <row r="64" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="50" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
@@ -52894,8 +52894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8881421A-272F-E249-B683-C820948F6594}">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A104" zoomScale="280" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView rightToLeft="1" topLeftCell="A104" zoomScale="280" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52905,7 +52905,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -52917,282 +52917,282 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -53210,18 +53210,18 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="E68" s="30">
         <v>-20</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="E69" s="156">
         <f>E67+E68</f>
@@ -53235,7 +53235,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="E72" s="1">
         <v>10</v>
@@ -53243,7 +53243,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -53253,13 +53253,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="E77" s="72">
         <v>500</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -53288,177 +53288,177 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="363" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="363" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
     </row>
   </sheetData>

--- a/Coursebook - ACC Ruppin - 2025 A.xlsx
+++ b/Coursebook - ACC Ruppin - 2025 A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/Ruppin - ACC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A3C4B0-0AAC-DF42-9EF2-8E7F9CA55BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B22E01-720B-704C-8B7D-E195DEF142B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="29280" firstSheet="5" activeTab="18" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
+    <workbookView xWindow="20" yWindow="660" windowWidth="51020" windowHeight="29280" firstSheet="12" activeTab="19" xr2:uid="{87F96319-F2AB-7A42-8160-C24334AB91E7}"/>
   </bookViews>
   <sheets>
     <sheet name="הרצאה 1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,11 @@
     <sheet name="13 - חזרה למבחן חלק ד" sheetId="17" r:id="rId17"/>
     <sheet name="13 - חזרה למבחן חלק ה" sheetId="18" r:id="rId18"/>
     <sheet name="13 - חזרה למבחן חלק ו" sheetId="19" r:id="rId19"/>
-    <sheet name="14 - הערות שונות חלק ראשון" sheetId="20" r:id="rId20"/>
+    <sheet name="13 - חזרה למבחן חלק ז" sheetId="21" r:id="rId20"/>
+    <sheet name="14 - הערות שונות חלק ראשון" sheetId="20" r:id="rId21"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1698,7 +1699,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="2363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3713" uniqueCount="2401">
   <si>
     <t xml:space="preserve">מבוא לחשבונאות פיננסית </t>
   </si>
@@ -11339,6 +11340,120 @@
   </si>
   <si>
     <t xml:space="preserve">15,500 * 12/12 = </t>
+  </si>
+  <si>
+    <t>המשך שיעור חזרה נוסף למבחן (מוגדר כשיעור 13 א-סינכרוני ללא השתתפות קהל) - הון עצמי</t>
+  </si>
+  <si>
+    <t>חברת ״ליקו ליקו״ בע״מ הוקמה ב-1.1.1995. להלן נתונים בדבר סעיפי ההון העצמי בחברה ליום 31.12.2002:</t>
+  </si>
+  <si>
+    <t>הון מניות רגילות בנות 1 ש״ח ערך נקוב</t>
+  </si>
+  <si>
+    <t>הון מניות רגילות בנות 2 ש״ח ערך נקוב</t>
+  </si>
+  <si>
+    <t>ערך ליום 31.12.2002</t>
+  </si>
+  <si>
+    <t>א. החברה הנפיקה 100,000 מניות בנות 3 ש״ח ערך נקוב כל אחת, כאשר התמורה היא 450,000 ש״ח ועלויות שנוצרו</t>
+  </si>
+  <si>
+    <t>בעסקת ההנפקה הסתכמו ב-30,000 ש״ח.</t>
+  </si>
+  <si>
+    <t>ב. החברה הנפיקה 150,000 מניות בנות 2 ש״ח ערך נקוב כל אחת, כאשר התמורה היא 550,000 ש״ח [הערה: אם</t>
+  </si>
+  <si>
+    <t>אין מידע בדבר עלויות הנפקה, יש להניח שהן אפס].</t>
+  </si>
+  <si>
+    <t>ג. בוצע פיצול מניות כך שכל המחזיק במניה אחת בת 2 ש״ח ערך נקוב קיבל במקומה 2 מניות בנות 1 ש״ח ערך נקוב</t>
+  </si>
+  <si>
+    <t>כל אחת.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ד. בוצעה הנפקת מניות הטבה בשיעור 10% לכל בעלי המניות הרגילות, כנגד הפרמיה. </t>
+  </si>
+  <si>
+    <t>מופיעות בסדר כרונולוגי, מהמוקדם למאוחר]:</t>
+  </si>
+  <si>
+    <t>א. הציגו את הדוח על השינויים בהון העצמי בשנת 2003.</t>
+  </si>
+  <si>
+    <t>אם ידוע שיתרת הפרמיה לאחר גילום אירוע זה ליום 31.12.2003 היא 990,000 ש״ח, מהו ערכן הנקוב של המניות</t>
+  </si>
+  <si>
+    <t>שהונפקו בעסקה זו?</t>
+  </si>
+  <si>
+    <t>כמו כן, להלן אירועים בדבר עסקאות שהתרחשו בחברה בשנת 2003 [הערה: תמיד יש להניח שהעסקאות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הון מניות </t>
+  </si>
+  <si>
+    <t>אירוע - בהתאם לעסקה</t>
+  </si>
+  <si>
+    <t>יתרת פתיחה 31.12.2002</t>
+  </si>
+  <si>
+    <t>ה. הרווח הנקי בחברה בשנת 2003 הסתכם ב-600,000 ש״ח.</t>
+  </si>
+  <si>
+    <t>ו. החברה הכריזה על דיבידנד בסכום של 50,000 ש״ח.</t>
+  </si>
+  <si>
+    <t>ז. החברה הכריזה דיבידנד נוסף בשיעור 15% מיתרת הון המניות.</t>
+  </si>
+  <si>
+    <t>א. הנפקת מניות 3 ש״ח</t>
+  </si>
+  <si>
+    <t>ב. הנפקת מניות 2 ש״ח</t>
+  </si>
+  <si>
+    <t>ג. פיצול מניות 2 ש״ח</t>
+  </si>
+  <si>
+    <t>ד. הנפקת מניות הטבה 10%</t>
+  </si>
+  <si>
+    <t>ה. רווח נקי 2023</t>
+  </si>
+  <si>
+    <t>ו. הכרזת דיבידנד - סכום</t>
+  </si>
+  <si>
+    <t>ז. הכרזת דיבידנד - %</t>
+  </si>
+  <si>
+    <t>יתרת סגירה 31.12.2003</t>
+  </si>
+  <si>
+    <t>ב. הניחו כעת כי ידוע שרגע לפני תום השנה (אירוע ח) בוצעה הנפקת מניות נוספות בתמורה נטו של 800,000 ש״ח.</t>
+  </si>
+  <si>
+    <t>ח. הנפקת מניות</t>
+  </si>
+  <si>
+    <t>ח. הפרמיה בעסקה היא ההפרש בין סך התמורה נטו לבין הערך הנקוב (הון המניות)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">המונפקות. </t>
+  </si>
+  <si>
+    <t>800,000 - x = 497,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x = </t>
+  </si>
+  <si>
+    <t>מסקנה: הערך הנקוב הכולל של המניות שהונפקו הוא 303,000 ש״ח.</t>
   </si>
 </sst>
 </file>
@@ -12283,7 +12398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="426">
+  <cellXfs count="429">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -13028,6 +13143,15 @@
     <xf numFmtId="37" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -49894,7 +50018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADC1097-216B-CD44-B122-9706A1489499}">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A18" zoomScale="314" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A63" zoomScale="314" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -50825,8 +50949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5485E45-EBA9-7D47-A04E-5F9B046B3E59}">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A29" zoomScale="260" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:L11"/>
+    <sheetView rightToLeft="1" zoomScale="260" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52891,10 +53015,701 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD98BF69-B083-2D43-AE34-C1EB7B7BE871}">
+  <dimension ref="A1:Q44"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScale="185" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="F7" s="72">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F8" s="72">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F9" s="72">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F10" s="72">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="156">
+        <f>SUM(F7:F10)</f>
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J12" s="35" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>2380</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>2381</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="17" t="s">
+        <v>1854</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>1851</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>1853</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>1317</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="L14" s="19">
+        <f>F7</f>
+        <v>80000</v>
+      </c>
+      <c r="M14" s="19">
+        <f>F8</f>
+        <v>90000</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19">
+        <f>F9</f>
+        <v>200000</v>
+      </c>
+      <c r="P14" s="19">
+        <f>F10</f>
+        <v>150000</v>
+      </c>
+      <c r="Q14" s="19">
+        <f>F11</f>
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19">
+        <f>100000*3</f>
+        <v>300000</v>
+      </c>
+      <c r="O15" s="19">
+        <f>Q15-N15</f>
+        <v>120000</v>
+      </c>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19">
+        <f>450000-30000</f>
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19">
+        <f>150000*2</f>
+        <v>300000</v>
+      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19">
+        <f>Q16-M16</f>
+        <v>250000</v>
+      </c>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19">
+        <f>550000</f>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="L17" s="19">
+        <f>-M17</f>
+        <v>390000</v>
+      </c>
+      <c r="M17" s="19">
+        <f>-390000</f>
+        <v>-390000</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="L18" s="19">
+        <f>10%*(L14+L17)</f>
+        <v>47000</v>
+      </c>
+      <c r="M18" s="19">
+        <f>10%*0</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="19">
+        <f>10%*N15</f>
+        <v>30000</v>
+      </c>
+      <c r="O18" s="19">
+        <f>Q18-L18-N18</f>
+        <v>-77000</v>
+      </c>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19">
+        <v>600000</v>
+      </c>
+      <c r="Q19" s="19">
+        <f>P19</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19">
+        <f>-50000</f>
+        <v>-50000</v>
+      </c>
+      <c r="Q20" s="19">
+        <f>P20</f>
+        <v>-50000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19">
+        <f>-10%*(L14+L17+L18+N15+N18)</f>
+        <v>-84700</v>
+      </c>
+      <c r="Q21" s="19">
+        <f>P21</f>
+        <v>-84700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>2393</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="428">
+        <f>SUM(L14:L21)</f>
+        <v>517000</v>
+      </c>
+      <c r="M22" s="428">
+        <f t="shared" ref="M22:Q22" si="0">SUM(M14:M21)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="428">
+        <f t="shared" si="0"/>
+        <v>330000</v>
+      </c>
+      <c r="O22" s="428">
+        <f t="shared" si="0"/>
+        <v>493000</v>
+      </c>
+      <c r="P22" s="428">
+        <f t="shared" si="0"/>
+        <v>615300</v>
+      </c>
+      <c r="Q22" s="428">
+        <f t="shared" si="0"/>
+        <v>1955300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>2380</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J25" s="6" t="s">
+        <v>2381</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="17" t="s">
+        <v>1854</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>1851</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>1853</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>1317</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="L26" s="19">
+        <v>80000</v>
+      </c>
+      <c r="M26" s="19">
+        <v>90000</v>
+      </c>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19">
+        <v>200000</v>
+      </c>
+      <c r="P26" s="19">
+        <v>150000</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19">
+        <f>100000*3</f>
+        <v>300000</v>
+      </c>
+      <c r="O27" s="19">
+        <f>Q27-N27</f>
+        <v>120000</v>
+      </c>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19">
+        <f>450000-30000</f>
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19">
+        <f>150000*2</f>
+        <v>300000</v>
+      </c>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19">
+        <f>Q28-M28</f>
+        <v>250000</v>
+      </c>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19">
+        <f>550000</f>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="L29" s="19">
+        <f>-M29</f>
+        <v>390000</v>
+      </c>
+      <c r="M29" s="19">
+        <f>-390000</f>
+        <v>-390000</v>
+      </c>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="L30" s="19">
+        <f>10%*(L26+L29)</f>
+        <v>47000</v>
+      </c>
+      <c r="M30" s="19">
+        <f>10%*0</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="19">
+        <f>10%*N27</f>
+        <v>30000</v>
+      </c>
+      <c r="O30" s="19">
+        <f>Q30-L30-N30</f>
+        <v>-77000</v>
+      </c>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J31" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19">
+        <v>600000</v>
+      </c>
+      <c r="Q31" s="19">
+        <f>P31</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J32" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19">
+        <f>-50000</f>
+        <v>-50000</v>
+      </c>
+      <c r="Q32" s="19">
+        <f>P32</f>
+        <v>-50000</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J33" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19">
+        <f>-10%*(L26+L29+L30+N27+N30)</f>
+        <v>-84700</v>
+      </c>
+      <c r="Q33" s="19">
+        <f>P33</f>
+        <v>-84700</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J34" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="L34" s="71">
+        <f>SUM(L26:L33)</f>
+        <v>517000</v>
+      </c>
+      <c r="M34" s="71">
+        <f t="shared" ref="M34" si="1">SUM(M26:M33)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="71">
+        <f t="shared" ref="N34" si="2">SUM(N26:N33)</f>
+        <v>330000</v>
+      </c>
+      <c r="O34" s="71">
+        <f t="shared" ref="O34" si="3">SUM(O26:O33)</f>
+        <v>493000</v>
+      </c>
+      <c r="P34" s="71">
+        <f t="shared" ref="P34" si="4">SUM(P26:P33)</f>
+        <v>615300</v>
+      </c>
+      <c r="Q34" s="71">
+        <f t="shared" ref="Q34" si="5">SUM(Q26:Q33)</f>
+        <v>1955300</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J35" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="L35" s="206">
+        <v>303000</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="426">
+        <f>O36-O34</f>
+        <v>497000</v>
+      </c>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="18">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J36" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="L36" s="71">
+        <f>L34+L35</f>
+        <v>820000</v>
+      </c>
+      <c r="M36" s="71">
+        <f>M34+M35</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="71">
+        <f>N34+N35</f>
+        <v>330000</v>
+      </c>
+      <c r="O36" s="427">
+        <v>990000</v>
+      </c>
+      <c r="P36" s="71">
+        <f>P34+P35</f>
+        <v>615300</v>
+      </c>
+      <c r="Q36" s="71">
+        <f>Q34+Q35</f>
+        <v>2755300</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="42" t="s">
+        <v>1130</v>
+      </c>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="39" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="L39" s="1" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="L40" s="1" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="N41" s="417" t="s">
+        <v>2398</v>
+      </c>
+      <c r="O41" s="417"/>
+    </row>
+    <row r="42" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="N42" s="18">
+        <f>Q35-O35</f>
+        <v>303000</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N41:O41"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8881421A-272F-E249-B683-C820948F6594}">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A104" zoomScale="280" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="280" workbookViewId="0">
       <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
